--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,72 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Scotland Premiership</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>St. Johnstone</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>['17', '26', '42', '73']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['60', '90+5']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['75', '90+6']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +321,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +818,961 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6671514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45143.35416666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>1.44</v>
+      </c>
+      <c r="U2">
+        <v>3.4</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+      <c r="W2">
+        <v>1.18</v>
+      </c>
+      <c r="X2">
+        <v>4.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.83</v>
+      </c>
+      <c r="Z2">
+        <v>1.83</v>
+      </c>
+      <c r="AA2">
+        <v>3.75</v>
+      </c>
+      <c r="AB2">
+        <v>1.25</v>
+      </c>
+      <c r="AC2">
+        <v>1.11</v>
+      </c>
+      <c r="AD2">
+        <v>10.65</v>
+      </c>
+      <c r="AE2">
+        <v>18.83</v>
+      </c>
+      <c r="AF2">
+        <v>1.01</v>
+      </c>
+      <c r="AG2">
+        <v>16.5</v>
+      </c>
+      <c r="AH2">
+        <v>1.06</v>
+      </c>
+      <c r="AI2">
+        <v>8</v>
+      </c>
+      <c r="AJ2">
+        <v>1.3</v>
+      </c>
+      <c r="AK2">
+        <v>3.4</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>1.75</v>
+      </c>
+      <c r="AN2">
+        <v>1.02</v>
+      </c>
+      <c r="AO2">
+        <v>1.02</v>
+      </c>
+      <c r="AP2">
+        <v>5.5</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.06</v>
+      </c>
+      <c r="AY2">
+        <v>15</v>
+      </c>
+      <c r="AZ2">
+        <v>11.1</v>
+      </c>
+      <c r="BA2">
+        <v>1.17</v>
+      </c>
+      <c r="BB2">
+        <v>1.29</v>
+      </c>
+      <c r="BC2">
+        <v>1.51</v>
+      </c>
+      <c r="BD2">
+        <v>1.9</v>
+      </c>
+      <c r="BE2">
+        <v>2.4</v>
+      </c>
+      <c r="BF2">
+        <v>13</v>
+      </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2">
+        <v>3</v>
+      </c>
+      <c r="BI2">
+        <v>4</v>
+      </c>
+      <c r="BJ2">
+        <v>16</v>
+      </c>
+      <c r="BK2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6671515</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45143.45833333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
+        <v>-1</v>
+      </c>
+      <c r="S3">
+        <v>-1</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>2.2</v>
+      </c>
+      <c r="V3">
+        <v>3.25</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>2.75</v>
+      </c>
+      <c r="Y3">
+        <v>2.75</v>
+      </c>
+      <c r="Z3">
+        <v>1.4</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>1.08</v>
+      </c>
+      <c r="AC3">
+        <v>2.8</v>
+      </c>
+      <c r="AD3">
+        <v>3.35</v>
+      </c>
+      <c r="AE3">
+        <v>2.4</v>
+      </c>
+      <c r="AF3">
+        <v>1.05</v>
+      </c>
+      <c r="AG3">
+        <v>11</v>
+      </c>
+      <c r="AH3">
+        <v>1.3</v>
+      </c>
+      <c r="AI3">
+        <v>3.4</v>
+      </c>
+      <c r="AJ3">
+        <v>1.87</v>
+      </c>
+      <c r="AK3">
+        <v>1.87</v>
+      </c>
+      <c r="AL3">
+        <v>1.7</v>
+      </c>
+      <c r="AM3">
+        <v>2.05</v>
+      </c>
+      <c r="AN3">
+        <v>1.52</v>
+      </c>
+      <c r="AO3">
+        <v>1.25</v>
+      </c>
+      <c r="AP3">
+        <v>1.5</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.95</v>
+      </c>
+      <c r="AY3">
+        <v>8.5</v>
+      </c>
+      <c r="AZ3">
+        <v>2.05</v>
+      </c>
+      <c r="BA3">
+        <v>1.1</v>
+      </c>
+      <c r="BB3">
+        <v>1.22</v>
+      </c>
+      <c r="BC3">
+        <v>1.39</v>
+      </c>
+      <c r="BD3">
+        <v>1.73</v>
+      </c>
+      <c r="BE3">
+        <v>2.17</v>
+      </c>
+      <c r="BF3">
+        <v>-1</v>
+      </c>
+      <c r="BG3">
+        <v>-1</v>
+      </c>
+      <c r="BH3">
+        <v>-1</v>
+      </c>
+      <c r="BI3">
+        <v>-1</v>
+      </c>
+      <c r="BJ3">
+        <v>-1</v>
+      </c>
+      <c r="BK3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6671516</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45143.45833333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>-1</v>
+      </c>
+      <c r="S4">
+        <v>-1</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4">
+        <v>2.1</v>
+      </c>
+      <c r="V4">
+        <v>3.1</v>
+      </c>
+      <c r="W4">
+        <v>1.4</v>
+      </c>
+      <c r="X4">
+        <v>2.75</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>1.36</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>1.08</v>
+      </c>
+      <c r="AC4">
+        <v>2.88</v>
+      </c>
+      <c r="AD4">
+        <v>3.3</v>
+      </c>
+      <c r="AE4">
+        <v>2.35</v>
+      </c>
+      <c r="AF4">
+        <v>1.05</v>
+      </c>
+      <c r="AG4">
+        <v>10</v>
+      </c>
+      <c r="AH4">
+        <v>1.33</v>
+      </c>
+      <c r="AI4">
+        <v>3.25</v>
+      </c>
+      <c r="AJ4">
+        <v>1.78</v>
+      </c>
+      <c r="AK4">
+        <v>1.97</v>
+      </c>
+      <c r="AL4">
+        <v>1.75</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>1.6</v>
+      </c>
+      <c r="AO4">
+        <v>1.25</v>
+      </c>
+      <c r="AP4">
+        <v>1.4</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>2.05</v>
+      </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>2</v>
+      </c>
+      <c r="BA4">
+        <v>1.17</v>
+      </c>
+      <c r="BB4">
+        <v>1.26</v>
+      </c>
+      <c r="BC4">
+        <v>1.45</v>
+      </c>
+      <c r="BD4">
+        <v>1.85</v>
+      </c>
+      <c r="BE4">
+        <v>2.33</v>
+      </c>
+      <c r="BF4">
+        <v>-1</v>
+      </c>
+      <c r="BG4">
+        <v>-1</v>
+      </c>
+      <c r="BH4">
+        <v>-1</v>
+      </c>
+      <c r="BI4">
+        <v>-1</v>
+      </c>
+      <c r="BJ4">
+        <v>-1</v>
+      </c>
+      <c r="BK4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6671517</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45143.45833333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <v>3.6</v>
+      </c>
+      <c r="U5">
+        <v>2.2</v>
+      </c>
+      <c r="V5">
+        <v>2.88</v>
+      </c>
+      <c r="W5">
+        <v>1.36</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>2.75</v>
+      </c>
+      <c r="Z5">
+        <v>1.4</v>
+      </c>
+      <c r="AA5">
+        <v>7</v>
+      </c>
+      <c r="AB5">
+        <v>1.1</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>3.4</v>
+      </c>
+      <c r="AE5">
+        <v>2.25</v>
+      </c>
+      <c r="AF5">
+        <v>1.04</v>
+      </c>
+      <c r="AG5">
+        <v>12</v>
+      </c>
+      <c r="AH5">
+        <v>1.28</v>
+      </c>
+      <c r="AI5">
+        <v>3.6</v>
+      </c>
+      <c r="AJ5">
+        <v>1.78</v>
+      </c>
+      <c r="AK5">
+        <v>1.97</v>
+      </c>
+      <c r="AL5">
+        <v>1.7</v>
+      </c>
+      <c r="AM5">
+        <v>2.05</v>
+      </c>
+      <c r="AN5">
+        <v>1.66</v>
+      </c>
+      <c r="AO5">
+        <v>1.25</v>
+      </c>
+      <c r="AP5">
+        <v>1.38</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>2.33</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>1.82</v>
+      </c>
+      <c r="BA5">
+        <v>1.18</v>
+      </c>
+      <c r="BB5">
+        <v>1.35</v>
+      </c>
+      <c r="BC5">
+        <v>1.61</v>
+      </c>
+      <c r="BD5">
+        <v>2.03</v>
+      </c>
+      <c r="BE5">
+        <v>2.65</v>
+      </c>
+      <c r="BF5">
+        <v>-1</v>
+      </c>
+      <c r="BG5">
+        <v>-1</v>
+      </c>
+      <c r="BH5">
+        <v>-1</v>
+      </c>
+      <c r="BI5">
+        <v>-1</v>
+      </c>
+      <c r="BJ5">
+        <v>-1</v>
+      </c>
+      <c r="BK5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6671518</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45143.55208333334</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>2.6</v>
+      </c>
+      <c r="V6">
+        <v>1.91</v>
+      </c>
+      <c r="W6">
+        <v>1.25</v>
+      </c>
+      <c r="X6">
+        <v>3.75</v>
+      </c>
+      <c r="Y6">
+        <v>2.2</v>
+      </c>
+      <c r="Z6">
+        <v>1.62</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>1.17</v>
+      </c>
+      <c r="AC6">
+        <v>6.5</v>
+      </c>
+      <c r="AD6">
+        <v>5.25</v>
+      </c>
+      <c r="AE6">
+        <v>1.35</v>
+      </c>
+      <c r="AF6">
+        <v>1.01</v>
+      </c>
+      <c r="AG6">
+        <v>18</v>
+      </c>
+      <c r="AH6">
+        <v>1.17</v>
+      </c>
+      <c r="AI6">
+        <v>5.29</v>
+      </c>
+      <c r="AJ6">
+        <v>1.4</v>
+      </c>
+      <c r="AK6">
+        <v>2.67</v>
+      </c>
+      <c r="AL6">
+        <v>1.7</v>
+      </c>
+      <c r="AM6">
+        <v>2.05</v>
+      </c>
+      <c r="AN6">
+        <v>2.7</v>
+      </c>
+      <c r="AO6">
+        <v>1.18</v>
+      </c>
+      <c r="AP6">
+        <v>1.12</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>3.82</v>
+      </c>
+      <c r="AY6">
+        <v>9.5</v>
+      </c>
+      <c r="AZ6">
+        <v>1.37</v>
+      </c>
+      <c r="BA6">
+        <v>1.21</v>
+      </c>
+      <c r="BB6">
+        <v>1.39</v>
+      </c>
+      <c r="BC6">
+        <v>1.73</v>
+      </c>
+      <c r="BD6">
+        <v>2.22</v>
+      </c>
+      <c r="BE6">
+        <v>2.95</v>
+      </c>
+      <c r="BF6">
+        <v>-1</v>
+      </c>
+      <c r="BG6">
+        <v>-1</v>
+      </c>
+      <c r="BH6">
+        <v>-1</v>
+      </c>
+      <c r="BI6">
+        <v>-1</v>
+      </c>
+      <c r="BJ6">
+        <v>-1</v>
+      </c>
+      <c r="BK6">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -226,6 +226,9 @@
     <t>Kilmarnock</t>
   </si>
   <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
     <t>Ross County</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t>Rangers</t>
   </si>
   <si>
+    <t>St. Mirren</t>
+  </si>
+  <si>
     <t>['17', '26', '42', '73']</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['72', '82']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
   </si>
   <si>
     <t>['75', '90+6']</t>
+  </si>
+  <si>
+    <t>['15', '17', '89']</t>
   </si>
 </sst>
 </file>
@@ -621,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,7 +853,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -862,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1032,7 +1044,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1053,19 +1065,19 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="S3">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="T3">
         <v>3.25</v>
@@ -1182,22 +1194,22 @@
         <v>2.17</v>
       </c>
       <c r="BF3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK3">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:63">
@@ -1223,7 +1235,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1244,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S4">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="T4">
         <v>3.5</v>
@@ -1373,22 +1385,22 @@
         <v>2.33</v>
       </c>
       <c r="BF4">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:63">
@@ -1414,7 +1426,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1435,19 +1447,19 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S5">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T5">
         <v>3.6</v>
@@ -1564,22 +1576,22 @@
         <v>2.65</v>
       </c>
       <c r="BF5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BH5">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK5">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:63">
@@ -1605,7 +1617,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1626,19 +1638,19 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -1755,22 +1767,213 @@
         <v>2.95</v>
       </c>
       <c r="BF6">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI6">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK6">
-        <v>-1</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6671519</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45144.45833333334</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2.2</v>
+      </c>
+      <c r="V7">
+        <v>4.33</v>
+      </c>
+      <c r="W7">
+        <v>1.4</v>
+      </c>
+      <c r="X7">
+        <v>2.75</v>
+      </c>
+      <c r="Y7">
+        <v>2.75</v>
+      </c>
+      <c r="Z7">
+        <v>1.4</v>
+      </c>
+      <c r="AA7">
+        <v>8</v>
+      </c>
+      <c r="AB7">
+        <v>1.08</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
+        <v>3.3</v>
+      </c>
+      <c r="AE7">
+        <v>3.75</v>
+      </c>
+      <c r="AF7">
+        <v>1.05</v>
+      </c>
+      <c r="AG7">
+        <v>11</v>
+      </c>
+      <c r="AH7">
+        <v>1.3</v>
+      </c>
+      <c r="AI7">
+        <v>3.4</v>
+      </c>
+      <c r="AJ7">
+        <v>1.78</v>
+      </c>
+      <c r="AK7">
+        <v>1.97</v>
+      </c>
+      <c r="AL7">
+        <v>1.75</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>1.22</v>
+      </c>
+      <c r="AO7">
+        <v>1.25</v>
+      </c>
+      <c r="AP7">
+        <v>1.95</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.64</v>
+      </c>
+      <c r="AY7">
+        <v>8.5</v>
+      </c>
+      <c r="AZ7">
+        <v>2.66</v>
+      </c>
+      <c r="BA7">
+        <v>1.18</v>
+      </c>
+      <c r="BB7">
+        <v>1.31</v>
+      </c>
+      <c r="BC7">
+        <v>1.55</v>
+      </c>
+      <c r="BD7">
+        <v>1.99</v>
+      </c>
+      <c r="BE7">
+        <v>2.55</v>
+      </c>
+      <c r="BF7">
+        <v>8</v>
+      </c>
+      <c r="BG7">
+        <v>5</v>
+      </c>
+      <c r="BH7">
+        <v>5</v>
+      </c>
+      <c r="BI7">
+        <v>2</v>
+      </c>
+      <c r="BJ7">
+        <v>13</v>
+      </c>
+      <c r="BK7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,24 +229,24 @@
     <t>Hibernian</t>
   </si>
   <si>
+    <t>Rangers</t>
+  </si>
+  <si>
     <t>Ross County</t>
   </si>
   <si>
+    <t>St. Mirren</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
     <t>Motherwell</t>
   </si>
   <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>St. Mirren</t>
-  </si>
-  <si>
     <t>['17', '26', '42', '73']</t>
   </si>
   <si>
@@ -262,6 +262,21 @@
     <t>['72', '82']</t>
   </si>
   <si>
+    <t>['10', '78', '84', '90']</t>
+  </si>
+  <si>
+    <t>['40', '51']</t>
+  </si>
+  <si>
+    <t>['7', '45+4']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['66', '85']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -272,6 +287,15 @@
   </si>
   <si>
     <t>['15', '17', '89']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['11', '29', '84']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -633,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +877,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -877,7 +901,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1044,7 +1068,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1068,7 +1092,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1235,7 +1259,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1426,7 +1450,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1450,7 +1474,7 @@
         <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1617,7 +1641,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1808,7 +1832,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1832,7 +1856,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -1974,6 +1998,1152 @@
       </c>
       <c r="BK7">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6671523</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45150.45833333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>1.61</v>
+      </c>
+      <c r="U8">
+        <v>2.65</v>
+      </c>
+      <c r="V8">
+        <v>8.5</v>
+      </c>
+      <c r="W8">
+        <v>1.26</v>
+      </c>
+      <c r="X8">
+        <v>3.5</v>
+      </c>
+      <c r="Y8">
+        <v>2.1</v>
+      </c>
+      <c r="Z8">
+        <v>1.63</v>
+      </c>
+      <c r="AA8">
+        <v>4.6</v>
+      </c>
+      <c r="AB8">
+        <v>1.17</v>
+      </c>
+      <c r="AC8">
+        <v>1.22</v>
+      </c>
+      <c r="AD8">
+        <v>5.4</v>
+      </c>
+      <c r="AE8">
+        <v>8.75</v>
+      </c>
+      <c r="AF8">
+        <v>1.02</v>
+      </c>
+      <c r="AG8">
+        <v>12</v>
+      </c>
+      <c r="AH8">
+        <v>1.15</v>
+      </c>
+      <c r="AI8">
+        <v>5.5</v>
+      </c>
+      <c r="AJ8">
+        <v>1.5</v>
+      </c>
+      <c r="AK8">
+        <v>2.4</v>
+      </c>
+      <c r="AL8">
+        <v>2</v>
+      </c>
+      <c r="AM8">
+        <v>1.68</v>
+      </c>
+      <c r="AN8">
+        <v>1.04</v>
+      </c>
+      <c r="AO8">
+        <v>1.12</v>
+      </c>
+      <c r="AP8">
+        <v>4.1</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.09</v>
+      </c>
+      <c r="AY8">
+        <v>14</v>
+      </c>
+      <c r="AZ8">
+        <v>9.5</v>
+      </c>
+      <c r="BA8">
+        <v>1.13</v>
+      </c>
+      <c r="BB8">
+        <v>1.27</v>
+      </c>
+      <c r="BC8">
+        <v>1.49</v>
+      </c>
+      <c r="BD8">
+        <v>1.95</v>
+      </c>
+      <c r="BE8">
+        <v>2.4</v>
+      </c>
+      <c r="BF8">
+        <v>10</v>
+      </c>
+      <c r="BG8">
+        <v>3</v>
+      </c>
+      <c r="BH8">
+        <v>7</v>
+      </c>
+      <c r="BI8">
+        <v>4</v>
+      </c>
+      <c r="BJ8">
+        <v>17</v>
+      </c>
+      <c r="BK8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6671524</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45150.45833333334</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>13</v>
+      </c>
+      <c r="T9">
+        <v>2.65</v>
+      </c>
+      <c r="U9">
+        <v>1.98</v>
+      </c>
+      <c r="V9">
+        <v>4.1</v>
+      </c>
+      <c r="W9">
+        <v>1.46</v>
+      </c>
+      <c r="X9">
+        <v>2.5</v>
+      </c>
+      <c r="Y9">
+        <v>3.1</v>
+      </c>
+      <c r="Z9">
+        <v>1.32</v>
+      </c>
+      <c r="AA9">
+        <v>8.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.06</v>
+      </c>
+      <c r="AC9">
+        <v>2.03</v>
+      </c>
+      <c r="AD9">
+        <v>3.25</v>
+      </c>
+      <c r="AE9">
+        <v>3.15</v>
+      </c>
+      <c r="AF9">
+        <v>1.08</v>
+      </c>
+      <c r="AG9">
+        <v>7</v>
+      </c>
+      <c r="AH9">
+        <v>1.4</v>
+      </c>
+      <c r="AI9">
+        <v>2.75</v>
+      </c>
+      <c r="AJ9">
+        <v>2.15</v>
+      </c>
+      <c r="AK9">
+        <v>1.62</v>
+      </c>
+      <c r="AL9">
+        <v>1.95</v>
+      </c>
+      <c r="AM9">
+        <v>1.73</v>
+      </c>
+      <c r="AN9">
+        <v>1.27</v>
+      </c>
+      <c r="AO9">
+        <v>1.33</v>
+      </c>
+      <c r="AP9">
+        <v>1.72</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.8</v>
+      </c>
+      <c r="AY9">
+        <v>7.5</v>
+      </c>
+      <c r="AZ9">
+        <v>2.43</v>
+      </c>
+      <c r="BA9">
+        <v>1.18</v>
+      </c>
+      <c r="BB9">
+        <v>1.33</v>
+      </c>
+      <c r="BC9">
+        <v>1.6</v>
+      </c>
+      <c r="BD9">
+        <v>2.05</v>
+      </c>
+      <c r="BE9">
+        <v>2.7</v>
+      </c>
+      <c r="BF9">
+        <v>9</v>
+      </c>
+      <c r="BG9">
+        <v>4</v>
+      </c>
+      <c r="BH9">
+        <v>6</v>
+      </c>
+      <c r="BI9">
+        <v>6</v>
+      </c>
+      <c r="BJ9">
+        <v>15</v>
+      </c>
+      <c r="BK9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6671525</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45150.45833333334</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>2.62</v>
+      </c>
+      <c r="U10">
+        <v>2.05</v>
+      </c>
+      <c r="V10">
+        <v>3.8</v>
+      </c>
+      <c r="W10">
+        <v>1.41</v>
+      </c>
+      <c r="X10">
+        <v>2.7</v>
+      </c>
+      <c r="Y10">
+        <v>2.8</v>
+      </c>
+      <c r="Z10">
+        <v>1.37</v>
+      </c>
+      <c r="AA10">
+        <v>7.25</v>
+      </c>
+      <c r="AB10">
+        <v>1.08</v>
+      </c>
+      <c r="AC10">
+        <v>1.91</v>
+      </c>
+      <c r="AD10">
+        <v>3.26</v>
+      </c>
+      <c r="AE10">
+        <v>3.16</v>
+      </c>
+      <c r="AF10">
+        <v>1.06</v>
+      </c>
+      <c r="AG10">
+        <v>8</v>
+      </c>
+      <c r="AH10">
+        <v>1.33</v>
+      </c>
+      <c r="AI10">
+        <v>3.25</v>
+      </c>
+      <c r="AJ10">
+        <v>1.96</v>
+      </c>
+      <c r="AK10">
+        <v>1.86</v>
+      </c>
+      <c r="AL10">
+        <v>1.8</v>
+      </c>
+      <c r="AM10">
+        <v>1.91</v>
+      </c>
+      <c r="AN10">
+        <v>1.25</v>
+      </c>
+      <c r="AO10">
+        <v>1.29</v>
+      </c>
+      <c r="AP10">
+        <v>1.8</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.47</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>3.35</v>
+      </c>
+      <c r="BA10">
+        <v>1.14</v>
+      </c>
+      <c r="BB10">
+        <v>1.28</v>
+      </c>
+      <c r="BC10">
+        <v>1.51</v>
+      </c>
+      <c r="BD10">
+        <v>1.98</v>
+      </c>
+      <c r="BE10">
+        <v>2.45</v>
+      </c>
+      <c r="BF10">
+        <v>3</v>
+      </c>
+      <c r="BG10">
+        <v>5</v>
+      </c>
+      <c r="BH10">
+        <v>7</v>
+      </c>
+      <c r="BI10">
+        <v>2</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6671520</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45151.33333333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>18</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>2.63</v>
+      </c>
+      <c r="V11">
+        <v>1.83</v>
+      </c>
+      <c r="W11">
+        <v>1.25</v>
+      </c>
+      <c r="X11">
+        <v>3.75</v>
+      </c>
+      <c r="Y11">
+        <v>2.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.67</v>
+      </c>
+      <c r="AA11">
+        <v>4.5</v>
+      </c>
+      <c r="AB11">
+        <v>1.18</v>
+      </c>
+      <c r="AC11">
+        <v>6</v>
+      </c>
+      <c r="AD11">
+        <v>4.55</v>
+      </c>
+      <c r="AE11">
+        <v>1.38</v>
+      </c>
+      <c r="AF11">
+        <v>1.02</v>
+      </c>
+      <c r="AG11">
+        <v>13</v>
+      </c>
+      <c r="AH11">
+        <v>1.14</v>
+      </c>
+      <c r="AI11">
+        <v>5.5</v>
+      </c>
+      <c r="AJ11">
+        <v>1.47</v>
+      </c>
+      <c r="AK11">
+        <v>2.65</v>
+      </c>
+      <c r="AL11">
+        <v>1.67</v>
+      </c>
+      <c r="AM11">
+        <v>2.1</v>
+      </c>
+      <c r="AN11">
+        <v>3</v>
+      </c>
+      <c r="AO11">
+        <v>1.14</v>
+      </c>
+      <c r="AP11">
+        <v>1.09</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>4.4</v>
+      </c>
+      <c r="AY11">
+        <v>12</v>
+      </c>
+      <c r="AZ11">
+        <v>1.22</v>
+      </c>
+      <c r="BA11">
+        <v>1.18</v>
+      </c>
+      <c r="BB11">
+        <v>1.28</v>
+      </c>
+      <c r="BC11">
+        <v>1.51</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>2.45</v>
+      </c>
+      <c r="BF11">
+        <v>3</v>
+      </c>
+      <c r="BG11">
+        <v>11</v>
+      </c>
+      <c r="BH11">
+        <v>6</v>
+      </c>
+      <c r="BI11">
+        <v>4</v>
+      </c>
+      <c r="BJ11">
+        <v>9</v>
+      </c>
+      <c r="BK11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6671521</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45151.45833333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>2.4</v>
+      </c>
+      <c r="U12">
+        <v>2.25</v>
+      </c>
+      <c r="V12">
+        <v>4.5</v>
+      </c>
+      <c r="W12">
+        <v>1.36</v>
+      </c>
+      <c r="X12">
+        <v>2.9</v>
+      </c>
+      <c r="Y12">
+        <v>2.6</v>
+      </c>
+      <c r="Z12">
+        <v>1.44</v>
+      </c>
+      <c r="AA12">
+        <v>6.25</v>
+      </c>
+      <c r="AB12">
+        <v>1.1</v>
+      </c>
+      <c r="AC12">
+        <v>1.95</v>
+      </c>
+      <c r="AD12">
+        <v>3.45</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <v>1.04</v>
+      </c>
+      <c r="AG12">
+        <v>8.5</v>
+      </c>
+      <c r="AH12">
+        <v>1.25</v>
+      </c>
+      <c r="AI12">
+        <v>3.6</v>
+      </c>
+      <c r="AJ12">
+        <v>1.91</v>
+      </c>
+      <c r="AK12">
+        <v>1.95</v>
+      </c>
+      <c r="AL12">
+        <v>1.7</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>1.22</v>
+      </c>
+      <c r="AO12">
+        <v>1.22</v>
+      </c>
+      <c r="AP12">
+        <v>2.05</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>1.43</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>3.55</v>
+      </c>
+      <c r="BA12">
+        <v>1.22</v>
+      </c>
+      <c r="BB12">
+        <v>1.33</v>
+      </c>
+      <c r="BC12">
+        <v>1.6</v>
+      </c>
+      <c r="BD12">
+        <v>2.05</v>
+      </c>
+      <c r="BE12">
+        <v>2.7</v>
+      </c>
+      <c r="BF12">
+        <v>-1</v>
+      </c>
+      <c r="BG12">
+        <v>-1</v>
+      </c>
+      <c r="BH12">
+        <v>-1</v>
+      </c>
+      <c r="BI12">
+        <v>-1</v>
+      </c>
+      <c r="BJ12">
+        <v>-1</v>
+      </c>
+      <c r="BK12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6671522</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45151.45833333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <v>3.1</v>
+      </c>
+      <c r="U13">
+        <v>2.05</v>
+      </c>
+      <c r="V13">
+        <v>3.25</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>2.7</v>
+      </c>
+      <c r="Y13">
+        <v>2.8</v>
+      </c>
+      <c r="Z13">
+        <v>1.37</v>
+      </c>
+      <c r="AA13">
+        <v>7.25</v>
+      </c>
+      <c r="AB13">
+        <v>1.08</v>
+      </c>
+      <c r="AC13">
+        <v>2.65</v>
+      </c>
+      <c r="AD13">
+        <v>3.4</v>
+      </c>
+      <c r="AE13">
+        <v>2.63</v>
+      </c>
+      <c r="AF13">
+        <v>1.06</v>
+      </c>
+      <c r="AG13">
+        <v>8.75</v>
+      </c>
+      <c r="AH13">
+        <v>1.31</v>
+      </c>
+      <c r="AI13">
+        <v>3.2</v>
+      </c>
+      <c r="AJ13">
+        <v>1.96</v>
+      </c>
+      <c r="AK13">
+        <v>1.9</v>
+      </c>
+      <c r="AL13">
+        <v>1.75</v>
+      </c>
+      <c r="AM13">
+        <v>1.95</v>
+      </c>
+      <c r="AN13">
+        <v>1.44</v>
+      </c>
+      <c r="AO13">
+        <v>1.31</v>
+      </c>
+      <c r="AP13">
+        <v>1.5</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.89</v>
+      </c>
+      <c r="AY13">
+        <v>7</v>
+      </c>
+      <c r="AZ13">
+        <v>2.3</v>
+      </c>
+      <c r="BA13">
+        <v>1.2</v>
+      </c>
+      <c r="BB13">
+        <v>1.4</v>
+      </c>
+      <c r="BC13">
+        <v>1.71</v>
+      </c>
+      <c r="BD13">
+        <v>2.2</v>
+      </c>
+      <c r="BE13">
+        <v>3</v>
+      </c>
+      <c r="BF13">
+        <v>-1</v>
+      </c>
+      <c r="BG13">
+        <v>-1</v>
+      </c>
+      <c r="BH13">
+        <v>-1</v>
+      </c>
+      <c r="BI13">
+        <v>-1</v>
+      </c>
+      <c r="BJ13">
+        <v>-1</v>
+      </c>
+      <c r="BK13">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -2814,13 +2814,13 @@
         <v>79</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T12">
         <v>2.4</v>
@@ -2937,22 +2937,22 @@
         <v>2.7</v>
       </c>
       <c r="BF12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK12">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3005,13 +3005,13 @@
         <v>93</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T13">
         <v>3.1</v>
@@ -3128,22 +3128,22 @@
         <v>3</v>
       </c>
       <c r="BF13">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH13">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK13">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -229,24 +229,24 @@
     <t>Hibernian</t>
   </si>
   <si>
+    <t>St. Mirren</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
     <t>Rangers</t>
   </si>
   <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St. Mirren</t>
-  </si>
-  <si>
     <t>Aberdeen</t>
   </si>
   <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
     <t>Hearts</t>
   </si>
   <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
     <t>['17', '26', '42', '73']</t>
   </si>
   <si>
@@ -262,13 +262,13 @@
     <t>['72', '82']</t>
   </si>
   <si>
+    <t>['7', '45+4']</t>
+  </si>
+  <si>
+    <t>['40', '51']</t>
+  </si>
+  <si>
     <t>['10', '78', '84', '90']</t>
-  </si>
-  <si>
-    <t>['40', '51']</t>
-  </si>
-  <si>
-    <t>['7', '45+4']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -1068,7 +1068,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6671523</v>
+        <v>6671525</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -2023,109 +2023,109 @@
         <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>1.61</v>
+        <v>2.62</v>
       </c>
       <c r="U8">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="V8">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="W8">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="X8">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Y8">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Z8">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="AA8">
-        <v>4.6</v>
+        <v>7.25</v>
       </c>
       <c r="AB8">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AC8">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="AD8">
-        <v>5.4</v>
+        <v>3.26</v>
       </c>
       <c r="AE8">
-        <v>8.75</v>
+        <v>3.16</v>
       </c>
       <c r="AF8">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AH8">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AI8">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="AJ8">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="AK8">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="AL8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AM8">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="AN8">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="AO8">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AP8">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2149,43 +2149,43 @@
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="AY8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ8">
-        <v>9.5</v>
+        <v>3.35</v>
       </c>
       <c r="BA8">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BB8">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="BC8">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="BD8">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BE8">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BF8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH8">
         <v>7</v>
       </c>
       <c r="BI8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BK8">
         <v>7</v>
@@ -2387,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6671525</v>
+        <v>6671523</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -2405,109 +2405,109 @@
         <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
         <v>4</v>
       </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
       <c r="S10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T10">
-        <v>2.62</v>
+        <v>1.61</v>
       </c>
       <c r="U10">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="V10">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="W10">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="X10">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y10">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z10">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="AA10">
-        <v>7.25</v>
+        <v>4.6</v>
       </c>
       <c r="AB10">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AC10">
-        <v>1.91</v>
+        <v>1.22</v>
       </c>
       <c r="AD10">
-        <v>3.26</v>
+        <v>5.4</v>
       </c>
       <c r="AE10">
-        <v>3.16</v>
+        <v>8.75</v>
       </c>
       <c r="AF10">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AH10">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AI10">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="AJ10">
-        <v>1.96</v>
+        <v>1.5</v>
       </c>
       <c r="AK10">
-        <v>1.86</v>
+        <v>2.4</v>
       </c>
       <c r="AL10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AM10">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="AN10">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AO10">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AP10">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2531,43 +2531,43 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>1.47</v>
+        <v>1.09</v>
       </c>
       <c r="AY10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ10">
-        <v>3.35</v>
+        <v>9.5</v>
       </c>
       <c r="BA10">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BB10">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BC10">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="BD10">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BE10">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BF10">
+        <v>10</v>
+      </c>
+      <c r="BG10">
         <v>3</v>
-      </c>
-      <c r="BG10">
-        <v>5</v>
       </c>
       <c r="BH10">
         <v>7</v>
       </c>
       <c r="BI10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK10">
         <v>7</v>
@@ -2769,7 +2769,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6671521</v>
+        <v>6671522</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -2787,7 +2787,7 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2799,160 +2799,160 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="U12">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V12">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="W12">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X12">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Y12">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z12">
+        <v>1.37</v>
+      </c>
+      <c r="AA12">
+        <v>7.25</v>
+      </c>
+      <c r="AB12">
+        <v>1.08</v>
+      </c>
+      <c r="AC12">
+        <v>2.65</v>
+      </c>
+      <c r="AD12">
+        <v>3.4</v>
+      </c>
+      <c r="AE12">
+        <v>2.63</v>
+      </c>
+      <c r="AF12">
+        <v>1.06</v>
+      </c>
+      <c r="AG12">
+        <v>8.75</v>
+      </c>
+      <c r="AH12">
+        <v>1.31</v>
+      </c>
+      <c r="AI12">
+        <v>3.2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.96</v>
+      </c>
+      <c r="AK12">
+        <v>1.9</v>
+      </c>
+      <c r="AL12">
+        <v>1.75</v>
+      </c>
+      <c r="AM12">
+        <v>1.95</v>
+      </c>
+      <c r="AN12">
         <v>1.44</v>
       </c>
-      <c r="AA12">
-        <v>6.25</v>
-      </c>
-      <c r="AB12">
-        <v>1.1</v>
-      </c>
-      <c r="AC12">
-        <v>1.95</v>
-      </c>
-      <c r="AD12">
-        <v>3.45</v>
-      </c>
-      <c r="AE12">
+      <c r="AO12">
+        <v>1.31</v>
+      </c>
+      <c r="AP12">
+        <v>1.5</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>1.89</v>
+      </c>
+      <c r="AY12">
+        <v>7</v>
+      </c>
+      <c r="AZ12">
+        <v>2.3</v>
+      </c>
+      <c r="BA12">
+        <v>1.2</v>
+      </c>
+      <c r="BB12">
+        <v>1.4</v>
+      </c>
+      <c r="BC12">
+        <v>1.71</v>
+      </c>
+      <c r="BD12">
+        <v>2.2</v>
+      </c>
+      <c r="BE12">
+        <v>3</v>
+      </c>
+      <c r="BF12">
         <v>4</v>
       </c>
-      <c r="AF12">
-        <v>1.04</v>
-      </c>
-      <c r="AG12">
-        <v>8.5</v>
-      </c>
-      <c r="AH12">
-        <v>1.25</v>
-      </c>
-      <c r="AI12">
-        <v>3.6</v>
-      </c>
-      <c r="AJ12">
-        <v>1.91</v>
-      </c>
-      <c r="AK12">
-        <v>1.95</v>
-      </c>
-      <c r="AL12">
-        <v>1.7</v>
-      </c>
-      <c r="AM12">
-        <v>2</v>
-      </c>
-      <c r="AN12">
-        <v>1.22</v>
-      </c>
-      <c r="AO12">
-        <v>1.22</v>
-      </c>
-      <c r="AP12">
-        <v>2.05</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>1</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>1.43</v>
-      </c>
-      <c r="AY12">
+      <c r="BG12">
+        <v>2</v>
+      </c>
+      <c r="BH12">
+        <v>4</v>
+      </c>
+      <c r="BI12">
+        <v>2</v>
+      </c>
+      <c r="BJ12">
         <v>8</v>
       </c>
-      <c r="AZ12">
-        <v>3.55</v>
-      </c>
-      <c r="BA12">
-        <v>1.22</v>
-      </c>
-      <c r="BB12">
-        <v>1.33</v>
-      </c>
-      <c r="BC12">
-        <v>1.6</v>
-      </c>
-      <c r="BD12">
-        <v>2.05</v>
-      </c>
-      <c r="BE12">
-        <v>2.7</v>
-      </c>
-      <c r="BF12">
-        <v>2</v>
-      </c>
-      <c r="BG12">
-        <v>6</v>
-      </c>
-      <c r="BH12">
-        <v>5</v>
-      </c>
-      <c r="BI12">
-        <v>5</v>
-      </c>
-      <c r="BJ12">
-        <v>7</v>
-      </c>
       <c r="BK12">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -2960,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6671522</v>
+        <v>6671521</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -2978,7 +2978,7 @@
         <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2990,160 +2990,160 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>2.4</v>
+      </c>
+      <c r="U13">
+        <v>2.25</v>
+      </c>
+      <c r="V13">
+        <v>4.5</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>2.9</v>
+      </c>
+      <c r="Y13">
+        <v>2.6</v>
+      </c>
+      <c r="Z13">
+        <v>1.44</v>
+      </c>
+      <c r="AA13">
+        <v>6.25</v>
+      </c>
+      <c r="AB13">
+        <v>1.1</v>
+      </c>
+      <c r="AC13">
+        <v>1.95</v>
+      </c>
+      <c r="AD13">
+        <v>3.45</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AF13">
+        <v>1.04</v>
+      </c>
+      <c r="AG13">
+        <v>8.5</v>
+      </c>
+      <c r="AH13">
+        <v>1.25</v>
+      </c>
+      <c r="AI13">
+        <v>3.6</v>
+      </c>
+      <c r="AJ13">
+        <v>1.91</v>
+      </c>
+      <c r="AK13">
+        <v>1.95</v>
+      </c>
+      <c r="AL13">
+        <v>1.7</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
+        <v>1.22</v>
+      </c>
+      <c r="AO13">
+        <v>1.22</v>
+      </c>
+      <c r="AP13">
+        <v>2.05</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13">
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.43</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>3.55</v>
+      </c>
+      <c r="BA13">
+        <v>1.22</v>
+      </c>
+      <c r="BB13">
+        <v>1.33</v>
+      </c>
+      <c r="BC13">
+        <v>1.6</v>
+      </c>
+      <c r="BD13">
+        <v>2.05</v>
+      </c>
+      <c r="BE13">
+        <v>2.7</v>
+      </c>
+      <c r="BF13">
+        <v>2</v>
+      </c>
+      <c r="BG13">
+        <v>6</v>
+      </c>
+      <c r="BH13">
         <v>5</v>
       </c>
-      <c r="R13">
-        <v>2</v>
-      </c>
-      <c r="S13">
+      <c r="BI13">
+        <v>5</v>
+      </c>
+      <c r="BJ13">
         <v>7</v>
       </c>
-      <c r="T13">
-        <v>3.1</v>
-      </c>
-      <c r="U13">
-        <v>2.05</v>
-      </c>
-      <c r="V13">
-        <v>3.25</v>
-      </c>
-      <c r="W13">
-        <v>1.4</v>
-      </c>
-      <c r="X13">
-        <v>2.7</v>
-      </c>
-      <c r="Y13">
-        <v>2.8</v>
-      </c>
-      <c r="Z13">
-        <v>1.37</v>
-      </c>
-      <c r="AA13">
-        <v>7.25</v>
-      </c>
-      <c r="AB13">
-        <v>1.08</v>
-      </c>
-      <c r="AC13">
-        <v>2.65</v>
-      </c>
-      <c r="AD13">
-        <v>3.4</v>
-      </c>
-      <c r="AE13">
-        <v>2.63</v>
-      </c>
-      <c r="AF13">
-        <v>1.06</v>
-      </c>
-      <c r="AG13">
-        <v>8.75</v>
-      </c>
-      <c r="AH13">
-        <v>1.31</v>
-      </c>
-      <c r="AI13">
-        <v>3.2</v>
-      </c>
-      <c r="AJ13">
-        <v>1.96</v>
-      </c>
-      <c r="AK13">
-        <v>1.9</v>
-      </c>
-      <c r="AL13">
-        <v>1.75</v>
-      </c>
-      <c r="AM13">
-        <v>1.95</v>
-      </c>
-      <c r="AN13">
-        <v>1.44</v>
-      </c>
-      <c r="AO13">
-        <v>1.31</v>
-      </c>
-      <c r="AP13">
-        <v>1.5</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>3</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>1.89</v>
-      </c>
-      <c r="AY13">
-        <v>7</v>
-      </c>
-      <c r="AZ13">
-        <v>2.3</v>
-      </c>
-      <c r="BA13">
-        <v>1.2</v>
-      </c>
-      <c r="BB13">
-        <v>1.4</v>
-      </c>
-      <c r="BC13">
-        <v>1.71</v>
-      </c>
-      <c r="BD13">
-        <v>2.2</v>
-      </c>
-      <c r="BE13">
-        <v>3</v>
-      </c>
-      <c r="BF13">
-        <v>4</v>
-      </c>
-      <c r="BG13">
-        <v>2</v>
-      </c>
-      <c r="BH13">
-        <v>4</v>
-      </c>
-      <c r="BI13">
-        <v>2</v>
-      </c>
-      <c r="BJ13">
-        <v>8</v>
-      </c>
       <c r="BK13">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -277,6 +277,18 @@
     <t>['66', '85']</t>
   </si>
   <si>
+    <t>['61', '86']</t>
+  </si>
+  <si>
+    <t>['59', '90+8']</t>
+  </si>
+  <si>
+    <t>['59', '76']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -289,13 +301,22 @@
     <t>['15', '17', '89']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['11', '29', '84']</t>
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['22', '26']</t>
+  </si>
+  <si>
+    <t>['8', '63', '75']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['42', '90+10']</t>
   </si>
 </sst>
 </file>
@@ -657,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +922,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -988,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1092,7 +1113,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1179,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1474,7 +1495,7 @@
         <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1564,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1755,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1856,7 +1877,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -2047,7 +2068,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2134,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2325,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2519,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2620,7 +2641,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2811,7 +2832,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3092,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3144,6 +3165,1152 @@
       </c>
       <c r="BK13">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6671530</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45164.35416666666</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>8</v>
+      </c>
+      <c r="U14">
+        <v>2.6</v>
+      </c>
+      <c r="V14">
+        <v>1.73</v>
+      </c>
+      <c r="W14">
+        <v>1.29</v>
+      </c>
+      <c r="X14">
+        <v>3.5</v>
+      </c>
+      <c r="Y14">
+        <v>2.25</v>
+      </c>
+      <c r="Z14">
+        <v>1.57</v>
+      </c>
+      <c r="AA14">
+        <v>5.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.14</v>
+      </c>
+      <c r="AC14">
+        <v>7.8</v>
+      </c>
+      <c r="AD14">
+        <v>5.4</v>
+      </c>
+      <c r="AE14">
+        <v>1.24</v>
+      </c>
+      <c r="AF14">
+        <v>1.02</v>
+      </c>
+      <c r="AG14">
+        <v>17</v>
+      </c>
+      <c r="AH14">
+        <v>1.18</v>
+      </c>
+      <c r="AI14">
+        <v>4.75</v>
+      </c>
+      <c r="AJ14">
+        <v>1.54</v>
+      </c>
+      <c r="AK14">
+        <v>2.38</v>
+      </c>
+      <c r="AL14">
+        <v>1.95</v>
+      </c>
+      <c r="AM14">
+        <v>1.8</v>
+      </c>
+      <c r="AN14">
+        <v>3.5</v>
+      </c>
+      <c r="AO14">
+        <v>1.14</v>
+      </c>
+      <c r="AP14">
+        <v>1.06</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>1.5</v>
+      </c>
+      <c r="AT14">
+        <v>1.5</v>
+      </c>
+      <c r="AU14">
+        <v>1.92</v>
+      </c>
+      <c r="AV14">
+        <v>1.88</v>
+      </c>
+      <c r="AW14">
+        <v>3.8</v>
+      </c>
+      <c r="AX14">
+        <v>5.5</v>
+      </c>
+      <c r="AY14">
+        <v>9.5</v>
+      </c>
+      <c r="AZ14">
+        <v>1.22</v>
+      </c>
+      <c r="BA14">
+        <v>1.2</v>
+      </c>
+      <c r="BB14">
+        <v>1.34</v>
+      </c>
+      <c r="BC14">
+        <v>1.6</v>
+      </c>
+      <c r="BD14">
+        <v>2.05</v>
+      </c>
+      <c r="BE14">
+        <v>2.75</v>
+      </c>
+      <c r="BF14">
+        <v>3</v>
+      </c>
+      <c r="BG14">
+        <v>10</v>
+      </c>
+      <c r="BH14">
+        <v>4</v>
+      </c>
+      <c r="BI14">
+        <v>6</v>
+      </c>
+      <c r="BJ14">
+        <v>7</v>
+      </c>
+      <c r="BK14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6671526</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45164.45833333334</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>1.29</v>
+      </c>
+      <c r="U15">
+        <v>3.75</v>
+      </c>
+      <c r="V15">
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <v>1.17</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>1.83</v>
+      </c>
+      <c r="Z15">
+        <v>1.83</v>
+      </c>
+      <c r="AA15">
+        <v>3.75</v>
+      </c>
+      <c r="AB15">
+        <v>1.25</v>
+      </c>
+      <c r="AC15">
+        <v>1.07</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15">
+        <v>33</v>
+      </c>
+      <c r="AF15">
+        <v>1.01</v>
+      </c>
+      <c r="AG15">
+        <v>14.9</v>
+      </c>
+      <c r="AH15">
+        <v>1.05</v>
+      </c>
+      <c r="AI15">
+        <v>7</v>
+      </c>
+      <c r="AJ15">
+        <v>1.3</v>
+      </c>
+      <c r="AK15">
+        <v>3.33</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <v>1.36</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1.03</v>
+      </c>
+      <c r="AP15">
+        <v>10</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>2</v>
+      </c>
+      <c r="AT15">
+        <v>0.5</v>
+      </c>
+      <c r="AU15">
+        <v>2.29</v>
+      </c>
+      <c r="AV15">
+        <v>1.21</v>
+      </c>
+      <c r="AW15">
+        <v>3.5</v>
+      </c>
+      <c r="AX15">
+        <v>1.01</v>
+      </c>
+      <c r="AY15">
+        <v>26</v>
+      </c>
+      <c r="AZ15">
+        <v>26</v>
+      </c>
+      <c r="BA15">
+        <v>1.18</v>
+      </c>
+      <c r="BB15">
+        <v>1.31</v>
+      </c>
+      <c r="BC15">
+        <v>1.57</v>
+      </c>
+      <c r="BD15">
+        <v>1.98</v>
+      </c>
+      <c r="BE15">
+        <v>2.6</v>
+      </c>
+      <c r="BF15">
+        <v>6</v>
+      </c>
+      <c r="BG15">
+        <v>3</v>
+      </c>
+      <c r="BH15">
+        <v>10</v>
+      </c>
+      <c r="BI15">
+        <v>3</v>
+      </c>
+      <c r="BJ15">
+        <v>16</v>
+      </c>
+      <c r="BK15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6671528</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45164.45833333334</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+      <c r="T16">
+        <v>2.3</v>
+      </c>
+      <c r="U16">
+        <v>2.25</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>1.36</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>2.75</v>
+      </c>
+      <c r="Z16">
+        <v>1.4</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>1.08</v>
+      </c>
+      <c r="AC16">
+        <v>1.72</v>
+      </c>
+      <c r="AD16">
+        <v>3.55</v>
+      </c>
+      <c r="AE16">
+        <v>3.9</v>
+      </c>
+      <c r="AF16">
+        <v>1.01</v>
+      </c>
+      <c r="AG16">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH16">
+        <v>1.26</v>
+      </c>
+      <c r="AI16">
+        <v>3.4</v>
+      </c>
+      <c r="AJ16">
+        <v>1.99</v>
+      </c>
+      <c r="AK16">
+        <v>1.87</v>
+      </c>
+      <c r="AL16">
+        <v>1.91</v>
+      </c>
+      <c r="AM16">
+        <v>1.91</v>
+      </c>
+      <c r="AN16">
+        <v>1.19</v>
+      </c>
+      <c r="AO16">
+        <v>1.26</v>
+      </c>
+      <c r="AP16">
+        <v>2.05</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>1.5</v>
+      </c>
+      <c r="AU16">
+        <v>1.85</v>
+      </c>
+      <c r="AV16">
+        <v>0.87</v>
+      </c>
+      <c r="AW16">
+        <v>2.72</v>
+      </c>
+      <c r="AX16">
+        <v>1.38</v>
+      </c>
+      <c r="AY16">
+        <v>8.5</v>
+      </c>
+      <c r="AZ16">
+        <v>3.8</v>
+      </c>
+      <c r="BA16">
+        <v>1.15</v>
+      </c>
+      <c r="BB16">
+        <v>1.28</v>
+      </c>
+      <c r="BC16">
+        <v>1.51</v>
+      </c>
+      <c r="BD16">
+        <v>2</v>
+      </c>
+      <c r="BE16">
+        <v>2.45</v>
+      </c>
+      <c r="BF16">
+        <v>4</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+      <c r="BH16">
+        <v>2</v>
+      </c>
+      <c r="BI16">
+        <v>2</v>
+      </c>
+      <c r="BJ16">
+        <v>6</v>
+      </c>
+      <c r="BK16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6671529</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45164.45833333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>2.1</v>
+      </c>
+      <c r="V17">
+        <v>3.75</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>2.63</v>
+      </c>
+      <c r="Y17">
+        <v>3.25</v>
+      </c>
+      <c r="Z17">
+        <v>1.33</v>
+      </c>
+      <c r="AA17">
+        <v>9</v>
+      </c>
+      <c r="AB17">
+        <v>1.07</v>
+      </c>
+      <c r="AC17">
+        <v>2.45</v>
+      </c>
+      <c r="AD17">
+        <v>3.25</v>
+      </c>
+      <c r="AE17">
+        <v>2.95</v>
+      </c>
+      <c r="AF17">
+        <v>1.03</v>
+      </c>
+      <c r="AG17">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH17">
+        <v>1.33</v>
+      </c>
+      <c r="AI17">
+        <v>2.97</v>
+      </c>
+      <c r="AJ17">
+        <v>2.1</v>
+      </c>
+      <c r="AK17">
+        <v>1.67</v>
+      </c>
+      <c r="AL17">
+        <v>1.8</v>
+      </c>
+      <c r="AM17">
+        <v>1.95</v>
+      </c>
+      <c r="AN17">
+        <v>1.32</v>
+      </c>
+      <c r="AO17">
+        <v>1.31</v>
+      </c>
+      <c r="AP17">
+        <v>1.65</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0.5</v>
+      </c>
+      <c r="AU17">
+        <v>1.15</v>
+      </c>
+      <c r="AV17">
+        <v>1.43</v>
+      </c>
+      <c r="AW17">
+        <v>2.58</v>
+      </c>
+      <c r="AX17">
+        <v>1.73</v>
+      </c>
+      <c r="AY17">
+        <v>7.5</v>
+      </c>
+      <c r="AZ17">
+        <v>2.6</v>
+      </c>
+      <c r="BA17">
+        <v>1.21</v>
+      </c>
+      <c r="BB17">
+        <v>1.4</v>
+      </c>
+      <c r="BC17">
+        <v>1.71</v>
+      </c>
+      <c r="BD17">
+        <v>2.2</v>
+      </c>
+      <c r="BE17">
+        <v>3</v>
+      </c>
+      <c r="BF17">
+        <v>8</v>
+      </c>
+      <c r="BG17">
+        <v>4</v>
+      </c>
+      <c r="BH17">
+        <v>5</v>
+      </c>
+      <c r="BI17">
+        <v>5</v>
+      </c>
+      <c r="BJ17">
+        <v>13</v>
+      </c>
+      <c r="BK17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6671531</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45165.45833333334</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="S18">
+        <v>-1</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2.1</v>
+      </c>
+      <c r="V18">
+        <v>3.6</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>2.75</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>1.36</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18">
+        <v>1.08</v>
+      </c>
+      <c r="AC18">
+        <v>2.45</v>
+      </c>
+      <c r="AD18">
+        <v>3.1</v>
+      </c>
+      <c r="AE18">
+        <v>3.1</v>
+      </c>
+      <c r="AF18">
+        <v>1.05</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+      <c r="AH18">
+        <v>1.33</v>
+      </c>
+      <c r="AI18">
+        <v>3.25</v>
+      </c>
+      <c r="AJ18">
+        <v>2.26</v>
+      </c>
+      <c r="AK18">
+        <v>1.61</v>
+      </c>
+      <c r="AL18">
+        <v>1.75</v>
+      </c>
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>1.38</v>
+      </c>
+      <c r="AO18">
+        <v>1.31</v>
+      </c>
+      <c r="AP18">
+        <v>1.57</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>2</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1.24</v>
+      </c>
+      <c r="AV18">
+        <v>0.72</v>
+      </c>
+      <c r="AW18">
+        <v>1.96</v>
+      </c>
+      <c r="AX18">
+        <v>1.5</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>3.15</v>
+      </c>
+      <c r="BA18">
+        <v>1.18</v>
+      </c>
+      <c r="BB18">
+        <v>1.25</v>
+      </c>
+      <c r="BC18">
+        <v>1.46</v>
+      </c>
+      <c r="BD18">
+        <v>1.78</v>
+      </c>
+      <c r="BE18">
+        <v>2.3</v>
+      </c>
+      <c r="BF18">
+        <v>-1</v>
+      </c>
+      <c r="BG18">
+        <v>-1</v>
+      </c>
+      <c r="BH18">
+        <v>-1</v>
+      </c>
+      <c r="BI18">
+        <v>-1</v>
+      </c>
+      <c r="BJ18">
+        <v>-1</v>
+      </c>
+      <c r="BK18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6671527</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45165.45833333334</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>3.6</v>
+      </c>
+      <c r="U19">
+        <v>2.2</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>1.4</v>
+      </c>
+      <c r="X19">
+        <v>2.75</v>
+      </c>
+      <c r="Y19">
+        <v>2.75</v>
+      </c>
+      <c r="Z19">
+        <v>1.4</v>
+      </c>
+      <c r="AA19">
+        <v>8</v>
+      </c>
+      <c r="AB19">
+        <v>1.08</v>
+      </c>
+      <c r="AC19">
+        <v>2.9</v>
+      </c>
+      <c r="AD19">
+        <v>3.35</v>
+      </c>
+      <c r="AE19">
+        <v>2.45</v>
+      </c>
+      <c r="AF19">
+        <v>1.04</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19">
+        <v>1.3</v>
+      </c>
+      <c r="AI19">
+        <v>3.4</v>
+      </c>
+      <c r="AJ19">
+        <v>1.98</v>
+      </c>
+      <c r="AK19">
+        <v>1.79</v>
+      </c>
+      <c r="AL19">
+        <v>1.7</v>
+      </c>
+      <c r="AM19">
+        <v>2.05</v>
+      </c>
+      <c r="AN19">
+        <v>1.65</v>
+      </c>
+      <c r="AO19">
+        <v>1.29</v>
+      </c>
+      <c r="AP19">
+        <v>1.35</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>3</v>
+      </c>
+      <c r="AS19">
+        <v>2</v>
+      </c>
+      <c r="AT19">
+        <v>1.5</v>
+      </c>
+      <c r="AU19">
+        <v>1.05</v>
+      </c>
+      <c r="AV19">
+        <v>2.16</v>
+      </c>
+      <c r="AW19">
+        <v>3.21</v>
+      </c>
+      <c r="AX19">
+        <v>2.07</v>
+      </c>
+      <c r="AY19">
+        <v>7.5</v>
+      </c>
+      <c r="AZ19">
+        <v>2.07</v>
+      </c>
+      <c r="BA19">
+        <v>1.18</v>
+      </c>
+      <c r="BB19">
+        <v>1.25</v>
+      </c>
+      <c r="BC19">
+        <v>1.46</v>
+      </c>
+      <c r="BD19">
+        <v>1.78</v>
+      </c>
+      <c r="BE19">
+        <v>2.3</v>
+      </c>
+      <c r="BF19">
+        <v>-1</v>
+      </c>
+      <c r="BG19">
+        <v>-1</v>
+      </c>
+      <c r="BH19">
+        <v>-1</v>
+      </c>
+      <c r="BI19">
+        <v>-1</v>
+      </c>
+      <c r="BJ19">
+        <v>-1</v>
+      </c>
+      <c r="BK19">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -3981,13 +3981,13 @@
         <v>100</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T18">
         <v>3</v>
@@ -4104,22 +4104,22 @@
         <v>2.3</v>
       </c>
       <c r="BF18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG18">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH18">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK18">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:63">
@@ -4172,13 +4172,13 @@
         <v>79</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T19">
         <v>3.6</v>
@@ -4295,22 +4295,22 @@
         <v>2.3</v>
       </c>
       <c r="BF19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK19">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,6 +289,12 @@
     <t>['63']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['82', '90+6']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -317,6 +323,24 @@
   </si>
   <si>
     <t>['42', '90+10']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['35', '58']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['75', '81']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +946,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1012,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1113,7 +1137,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1203,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1495,7 +1519,7 @@
         <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1582,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT5">
         <v>1.5</v>
@@ -1773,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -1877,7 +1901,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -1967,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2158,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2537,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
         <v>1.5</v>
@@ -2641,7 +2665,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2832,7 +2856,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -2922,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3110,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT13">
         <v>0.5</v>
@@ -3214,7 +3238,7 @@
         <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3596,7 +3620,7 @@
         <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -3787,7 +3811,7 @@
         <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -3978,7 +4002,7 @@
         <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4311,6 +4335,1152 @@
       </c>
       <c r="BK19">
         <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6671534</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45171.45833333334</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>2.1</v>
+      </c>
+      <c r="V20">
+        <v>4.33</v>
+      </c>
+      <c r="W20">
+        <v>1.44</v>
+      </c>
+      <c r="X20">
+        <v>2.63</v>
+      </c>
+      <c r="Y20">
+        <v>3.25</v>
+      </c>
+      <c r="Z20">
+        <v>1.33</v>
+      </c>
+      <c r="AA20">
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <v>1.07</v>
+      </c>
+      <c r="AC20">
+        <v>1.96</v>
+      </c>
+      <c r="AD20">
+        <v>3.3</v>
+      </c>
+      <c r="AE20">
+        <v>2.97</v>
+      </c>
+      <c r="AF20">
+        <v>1.05</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>1.36</v>
+      </c>
+      <c r="AI20">
+        <v>3.2</v>
+      </c>
+      <c r="AJ20">
+        <v>2.1</v>
+      </c>
+      <c r="AK20">
+        <v>1.75</v>
+      </c>
+      <c r="AL20">
+        <v>1.91</v>
+      </c>
+      <c r="AM20">
+        <v>1.91</v>
+      </c>
+      <c r="AN20">
+        <v>1.27</v>
+      </c>
+      <c r="AO20">
+        <v>1.3</v>
+      </c>
+      <c r="AP20">
+        <v>1.75</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1.5</v>
+      </c>
+      <c r="AT20">
+        <v>1.5</v>
+      </c>
+      <c r="AU20">
+        <v>1.21</v>
+      </c>
+      <c r="AV20">
+        <v>0.99</v>
+      </c>
+      <c r="AW20">
+        <v>2.2</v>
+      </c>
+      <c r="AX20">
+        <v>1.67</v>
+      </c>
+      <c r="AY20">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ20">
+        <v>2.59</v>
+      </c>
+      <c r="BA20">
+        <v>1.16</v>
+      </c>
+      <c r="BB20">
+        <v>1.33</v>
+      </c>
+      <c r="BC20">
+        <v>1.6</v>
+      </c>
+      <c r="BD20">
+        <v>2</v>
+      </c>
+      <c r="BE20">
+        <v>2.7</v>
+      </c>
+      <c r="BF20">
+        <v>5</v>
+      </c>
+      <c r="BG20">
+        <v>5</v>
+      </c>
+      <c r="BH20">
+        <v>5</v>
+      </c>
+      <c r="BI20">
+        <v>3</v>
+      </c>
+      <c r="BJ20">
+        <v>10</v>
+      </c>
+      <c r="BK20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6671535</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45171.45833333334</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+      <c r="T21">
+        <v>3.4</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>3.4</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>2.5</v>
+      </c>
+      <c r="Y21">
+        <v>3.4</v>
+      </c>
+      <c r="Z21">
+        <v>1.3</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>1.06</v>
+      </c>
+      <c r="AC21">
+        <v>2.55</v>
+      </c>
+      <c r="AD21">
+        <v>3.1</v>
+      </c>
+      <c r="AE21">
+        <v>2.47</v>
+      </c>
+      <c r="AF21">
+        <v>1.07</v>
+      </c>
+      <c r="AG21">
+        <v>9</v>
+      </c>
+      <c r="AH21">
+        <v>1.42</v>
+      </c>
+      <c r="AI21">
+        <v>2.85</v>
+      </c>
+      <c r="AJ21">
+        <v>2.1</v>
+      </c>
+      <c r="AK21">
+        <v>1.75</v>
+      </c>
+      <c r="AL21">
+        <v>1.95</v>
+      </c>
+      <c r="AM21">
+        <v>1.8</v>
+      </c>
+      <c r="AN21">
+        <v>1.46</v>
+      </c>
+      <c r="AO21">
+        <v>1.33</v>
+      </c>
+      <c r="AP21">
+        <v>1.44</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>2</v>
+      </c>
+      <c r="AU21">
+        <v>1.25</v>
+      </c>
+      <c r="AV21">
+        <v>1.1</v>
+      </c>
+      <c r="AW21">
+        <v>2.35</v>
+      </c>
+      <c r="AX21">
+        <v>2.63</v>
+      </c>
+      <c r="AY21">
+        <v>9.4</v>
+      </c>
+      <c r="AZ21">
+        <v>1.65</v>
+      </c>
+      <c r="BA21">
+        <v>1.18</v>
+      </c>
+      <c r="BB21">
+        <v>1.35</v>
+      </c>
+      <c r="BC21">
+        <v>1.63</v>
+      </c>
+      <c r="BD21">
+        <v>2.05</v>
+      </c>
+      <c r="BE21">
+        <v>2.8</v>
+      </c>
+      <c r="BF21">
+        <v>3</v>
+      </c>
+      <c r="BG21">
+        <v>5</v>
+      </c>
+      <c r="BH21">
+        <v>7</v>
+      </c>
+      <c r="BI21">
+        <v>3</v>
+      </c>
+      <c r="BJ21">
+        <v>10</v>
+      </c>
+      <c r="BK21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6671536</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45171.45833333334</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>3.25</v>
+      </c>
+      <c r="U22">
+        <v>2.05</v>
+      </c>
+      <c r="V22">
+        <v>3.6</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+      <c r="X22">
+        <v>2.63</v>
+      </c>
+      <c r="Y22">
+        <v>3.4</v>
+      </c>
+      <c r="Z22">
+        <v>1.3</v>
+      </c>
+      <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
+        <v>1.06</v>
+      </c>
+      <c r="AC22">
+        <v>2.26</v>
+      </c>
+      <c r="AD22">
+        <v>3.02</v>
+      </c>
+      <c r="AE22">
+        <v>2.67</v>
+      </c>
+      <c r="AF22">
+        <v>1.06</v>
+      </c>
+      <c r="AG22">
+        <v>9.5</v>
+      </c>
+      <c r="AH22">
+        <v>1.38</v>
+      </c>
+      <c r="AI22">
+        <v>3</v>
+      </c>
+      <c r="AJ22">
+        <v>2.2</v>
+      </c>
+      <c r="AK22">
+        <v>1.67</v>
+      </c>
+      <c r="AL22">
+        <v>1.91</v>
+      </c>
+      <c r="AM22">
+        <v>1.91</v>
+      </c>
+      <c r="AN22">
+        <v>1.39</v>
+      </c>
+      <c r="AO22">
+        <v>1.33</v>
+      </c>
+      <c r="AP22">
+        <v>1.52</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0.5</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.04</v>
+      </c>
+      <c r="AV22">
+        <v>1.23</v>
+      </c>
+      <c r="AW22">
+        <v>2.27</v>
+      </c>
+      <c r="AX22">
+        <v>1.94</v>
+      </c>
+      <c r="AY22">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ22">
+        <v>2.13</v>
+      </c>
+      <c r="BA22">
+        <v>1.14</v>
+      </c>
+      <c r="BB22">
+        <v>1.28</v>
+      </c>
+      <c r="BC22">
+        <v>1.5</v>
+      </c>
+      <c r="BD22">
+        <v>2</v>
+      </c>
+      <c r="BE22">
+        <v>2.45</v>
+      </c>
+      <c r="BF22">
+        <v>4</v>
+      </c>
+      <c r="BG22">
+        <v>5</v>
+      </c>
+      <c r="BH22">
+        <v>5</v>
+      </c>
+      <c r="BI22">
+        <v>6</v>
+      </c>
+      <c r="BJ22">
+        <v>9</v>
+      </c>
+      <c r="BK22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6671537</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45172.33333333334</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <v>2.88</v>
+      </c>
+      <c r="U23">
+        <v>2.38</v>
+      </c>
+      <c r="V23">
+        <v>3.2</v>
+      </c>
+      <c r="W23">
+        <v>1.29</v>
+      </c>
+      <c r="X23">
+        <v>3.5</v>
+      </c>
+      <c r="Y23">
+        <v>2.38</v>
+      </c>
+      <c r="Z23">
+        <v>1.53</v>
+      </c>
+      <c r="AA23">
+        <v>5.5</v>
+      </c>
+      <c r="AB23">
+        <v>1.14</v>
+      </c>
+      <c r="AC23">
+        <v>2.35</v>
+      </c>
+      <c r="AD23">
+        <v>3.15</v>
+      </c>
+      <c r="AE23">
+        <v>2.66</v>
+      </c>
+      <c r="AF23">
+        <v>1.02</v>
+      </c>
+      <c r="AG23">
+        <v>17</v>
+      </c>
+      <c r="AH23">
+        <v>1.18</v>
+      </c>
+      <c r="AI23">
+        <v>4.75</v>
+      </c>
+      <c r="AJ23">
+        <v>1.62</v>
+      </c>
+      <c r="AK23">
+        <v>2.3</v>
+      </c>
+      <c r="AL23">
+        <v>1.5</v>
+      </c>
+      <c r="AM23">
+        <v>2.5</v>
+      </c>
+      <c r="AN23">
+        <v>1.45</v>
+      </c>
+      <c r="AO23">
+        <v>1.22</v>
+      </c>
+      <c r="AP23">
+        <v>1.6</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>3</v>
+      </c>
+      <c r="AS23">
+        <v>1.5</v>
+      </c>
+      <c r="AT23">
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <v>2.12</v>
+      </c>
+      <c r="AV23">
+        <v>2.11</v>
+      </c>
+      <c r="AW23">
+        <v>4.23</v>
+      </c>
+      <c r="AX23">
+        <v>1.91</v>
+      </c>
+      <c r="AY23">
+        <v>8.5</v>
+      </c>
+      <c r="AZ23">
+        <v>2.1</v>
+      </c>
+      <c r="BA23">
+        <v>1.16</v>
+      </c>
+      <c r="BB23">
+        <v>1.22</v>
+      </c>
+      <c r="BC23">
+        <v>1.4</v>
+      </c>
+      <c r="BD23">
+        <v>1.7</v>
+      </c>
+      <c r="BE23">
+        <v>2.15</v>
+      </c>
+      <c r="BF23">
+        <v>4</v>
+      </c>
+      <c r="BG23">
+        <v>6</v>
+      </c>
+      <c r="BH23">
+        <v>10</v>
+      </c>
+      <c r="BI23">
+        <v>3</v>
+      </c>
+      <c r="BJ23">
+        <v>14</v>
+      </c>
+      <c r="BK23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6671532</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>-1</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>2.88</v>
+      </c>
+      <c r="U24">
+        <v>2.2</v>
+      </c>
+      <c r="V24">
+        <v>3.75</v>
+      </c>
+      <c r="W24">
+        <v>1.4</v>
+      </c>
+      <c r="X24">
+        <v>2.75</v>
+      </c>
+      <c r="Y24">
+        <v>2.75</v>
+      </c>
+      <c r="Z24">
+        <v>1.4</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
+      <c r="AB24">
+        <v>1.08</v>
+      </c>
+      <c r="AC24">
+        <v>2.3</v>
+      </c>
+      <c r="AD24">
+        <v>3.4</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AF24">
+        <v>1.06</v>
+      </c>
+      <c r="AG24">
+        <v>8</v>
+      </c>
+      <c r="AH24">
+        <v>1.36</v>
+      </c>
+      <c r="AI24">
+        <v>3</v>
+      </c>
+      <c r="AJ24">
+        <v>1.88</v>
+      </c>
+      <c r="AK24">
+        <v>1.88</v>
+      </c>
+      <c r="AL24">
+        <v>1.75</v>
+      </c>
+      <c r="AM24">
+        <v>2</v>
+      </c>
+      <c r="AN24">
+        <v>1.36</v>
+      </c>
+      <c r="AO24">
+        <v>1.3</v>
+      </c>
+      <c r="AP24">
+        <v>1.57</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>1.5</v>
+      </c>
+      <c r="AU24">
+        <v>1.08</v>
+      </c>
+      <c r="AV24">
+        <v>0.74</v>
+      </c>
+      <c r="AW24">
+        <v>1.82</v>
+      </c>
+      <c r="AX24">
+        <v>1.94</v>
+      </c>
+      <c r="AY24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ24">
+        <v>2.13</v>
+      </c>
+      <c r="BA24">
+        <v>1.14</v>
+      </c>
+      <c r="BB24">
+        <v>1.29</v>
+      </c>
+      <c r="BC24">
+        <v>1.54</v>
+      </c>
+      <c r="BD24">
+        <v>1.92</v>
+      </c>
+      <c r="BE24">
+        <v>2.46</v>
+      </c>
+      <c r="BF24">
+        <v>-1</v>
+      </c>
+      <c r="BG24">
+        <v>-1</v>
+      </c>
+      <c r="BH24">
+        <v>-1</v>
+      </c>
+      <c r="BI24">
+        <v>-1</v>
+      </c>
+      <c r="BJ24">
+        <v>-1</v>
+      </c>
+      <c r="BK24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6671533</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45172.45833333334</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>-1</v>
+      </c>
+      <c r="S25">
+        <v>-1</v>
+      </c>
+      <c r="T25">
+        <v>2.6</v>
+      </c>
+      <c r="U25">
+        <v>2.2</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>1.36</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>2.75</v>
+      </c>
+      <c r="Z25">
+        <v>1.4</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>1.1</v>
+      </c>
+      <c r="AC25">
+        <v>1.98</v>
+      </c>
+      <c r="AD25">
+        <v>3.26</v>
+      </c>
+      <c r="AE25">
+        <v>2.97</v>
+      </c>
+      <c r="AF25">
+        <v>1.06</v>
+      </c>
+      <c r="AG25">
+        <v>8</v>
+      </c>
+      <c r="AH25">
+        <v>1.3</v>
+      </c>
+      <c r="AI25">
+        <v>3.4</v>
+      </c>
+      <c r="AJ25">
+        <v>1.96</v>
+      </c>
+      <c r="AK25">
+        <v>1.86</v>
+      </c>
+      <c r="AL25">
+        <v>1.7</v>
+      </c>
+      <c r="AM25">
+        <v>2.05</v>
+      </c>
+      <c r="AN25">
+        <v>1.29</v>
+      </c>
+      <c r="AO25">
+        <v>1.28</v>
+      </c>
+      <c r="AP25">
+        <v>1.77</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <v>0.5</v>
+      </c>
+      <c r="AT25">
+        <v>2</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>1.38</v>
+      </c>
+      <c r="AW25">
+        <v>2.38</v>
+      </c>
+      <c r="AX25">
+        <v>1.65</v>
+      </c>
+      <c r="AY25">
+        <v>9.6</v>
+      </c>
+      <c r="AZ25">
+        <v>2.61</v>
+      </c>
+      <c r="BA25">
+        <v>1.13</v>
+      </c>
+      <c r="BB25">
+        <v>1.27</v>
+      </c>
+      <c r="BC25">
+        <v>1.51</v>
+      </c>
+      <c r="BD25">
+        <v>1.87</v>
+      </c>
+      <c r="BE25">
+        <v>2.36</v>
+      </c>
+      <c r="BF25">
+        <v>-1</v>
+      </c>
+      <c r="BG25">
+        <v>-1</v>
+      </c>
+      <c r="BH25">
+        <v>-1</v>
+      </c>
+      <c r="BI25">
+        <v>-1</v>
+      </c>
+      <c r="BJ25">
+        <v>-1</v>
+      </c>
+      <c r="BK25">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -337,7 +337,7 @@
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['75', '81']</t>
+    <t>['75', '80']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -5151,13 +5151,13 @@
         <v>107</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T24">
         <v>2.88</v>
@@ -5274,22 +5274,22 @@
         <v>2.46</v>
       </c>
       <c r="BF24">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH24">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK24">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5342,13 +5342,13 @@
         <v>108</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="T25">
         <v>2.6</v>
@@ -5465,22 +5465,22 @@
         <v>2.36</v>
       </c>
       <c r="BF25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK25">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -5891,13 +5891,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R27" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T27" t="n">
         <v>3</v>
@@ -6014,22 +6014,22 @@
         <v>2.6</v>
       </c>
       <c r="BF27" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG27" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH27" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI27" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ27" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK27" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -6094,13 +6094,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R28" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T28" t="n">
         <v>3</v>
@@ -6217,22 +6217,22 @@
         <v>3.2</v>
       </c>
       <c r="BF28" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG28" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH28" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI28" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ28" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK28" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T29" t="n">
         <v>3.2</v>
@@ -6420,22 +6420,22 @@
         <v>2.7</v>
       </c>
       <c r="BF29" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG29" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH29" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI29" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ29" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK29" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -6500,13 +6500,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R30" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T30" t="n">
         <v>2.6</v>
@@ -6623,22 +6623,22 @@
         <v>2.3</v>
       </c>
       <c r="BF30" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG30" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH30" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI30" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ30" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK30" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -6703,13 +6703,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T31" t="n">
         <v>1.44</v>
@@ -6826,22 +6826,22 @@
         <v>2.3</v>
       </c>
       <c r="BF31" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG31" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH31" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI31" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ31" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK31" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1512,7 +1512,7 @@
         <v>0.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>2.33</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT8" t="n">
         <v>0.33</v>
@@ -2324,7 +2324,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>2.29</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>1.33</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>1.15</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT18" t="n">
         <v>0.67</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.05</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT21" t="n">
         <v>2.33</v>
@@ -6842,6 +6842,818 @@
       </c>
       <c r="BK31" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6671547</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45192.35416666666</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['14', '48', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6671545</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['16', '90+3']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['30', '81']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6671546</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['35', '69']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6671549</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45192.45833333334</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1.33</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -4557,7 +4557,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.21</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>3</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5572,7 +5572,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1</v>
@@ -7109,13 +7109,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S33" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
         <v>3.25</v>
@@ -7232,22 +7232,22 @@
         <v>3.4</v>
       </c>
       <c r="BF33" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG33" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI33" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ33" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK33" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -7312,13 +7312,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T34" t="n">
         <v>2.2</v>
@@ -7435,22 +7435,22 @@
         <v>3.4</v>
       </c>
       <c r="BF34" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BG34" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH34" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI34" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ34" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK34" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S35" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T35" t="n">
         <v>3.25</v>
@@ -7638,22 +7638,428 @@
         <v>2.7</v>
       </c>
       <c r="BF35" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG35" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH35" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI35" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ35" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK35" t="n">
-        <v>-1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6671544</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['21', '42', '47', '52']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6671548</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45193.45833333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ37"/>
+  <dimension ref="A1:AZ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +1179,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.33</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.33</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
         <v>2</v>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.67</v>
@@ -3559,7 +3559,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR18" t="n">
         <v>1.24</v>
@@ -3729,7 +3729,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.05</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -4069,7 +4069,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR21" t="n">
         <v>1.25</v>
@@ -4236,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -4406,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>3</v>
@@ -4916,7 +4916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5086,10 +5086,10 @@
         <v>1.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR27" t="n">
         <v>1.44</v>
@@ -5256,10 +5256,10 @@
         <v>2</v>
       </c>
       <c r="AP28" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.42</v>
@@ -5426,7 +5426,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.33</v>
@@ -5599,7 +5599,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR30" t="n">
         <v>1.11</v>
@@ -5769,7 +5769,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR31" t="n">
         <v>2.27</v>
@@ -6449,7 +6449,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.33</v>
@@ -6817,6 +6817,1026 @@
       </c>
       <c r="AZ37" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6671552</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45199.35416666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['87', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6671555</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45199.45833333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6671553</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45199.45833333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['38', '68', '85']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6671554</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45199.45833333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6671550</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45199.45833333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6671551</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45199.45833333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -7141,22 +7141,22 @@
         <v>1.78</v>
       </c>
       <c r="AU39" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV39" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW39" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY39" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ39" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -7311,22 +7311,22 @@
         <v>2.79</v>
       </c>
       <c r="AU40" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV40" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW40" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX40" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY40" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ40" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -7481,22 +7481,22 @@
         <v>3.15</v>
       </c>
       <c r="AU41" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV41" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW41" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX41" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY41" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ41" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -7651,22 +7651,22 @@
         <v>2.84</v>
       </c>
       <c r="AU42" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV42" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW42" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX42" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY42" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ42" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -7821,22 +7821,22 @@
         <v>2.55</v>
       </c>
       <c r="AU43" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV43" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW43" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX43" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY43" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ43" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ43"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>7</v>
       </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1038,6 +1166,54 @@
       <c r="AZ3" t="n">
         <v>10</v>
       </c>
+      <c r="BA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1207,6 +1383,54 @@
       </c>
       <c r="AZ4" t="n">
         <v>5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="5">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>17</v>
       </c>
+      <c r="BA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>16</v>
       </c>
+      <c r="BA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>7</v>
       </c>
+      <c r="BA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>7</v>
       </c>
+      <c r="BA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>10</v>
       </c>
+      <c r="BA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>7</v>
       </c>
+      <c r="BA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>15</v>
       </c>
+      <c r="BA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>4</v>
       </c>
+      <c r="BA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>11</v>
       </c>
+      <c r="BA13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>16</v>
       </c>
+      <c r="BA14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>6</v>
       </c>
+      <c r="BA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
+      <c r="BA16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>9</v>
       </c>
+      <c r="BA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>4</v>
       </c>
+      <c r="BA18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>9</v>
       </c>
+      <c r="BA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>8</v>
       </c>
+      <c r="BA20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>8</v>
       </c>
+      <c r="BA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>11</v>
       </c>
+      <c r="BA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>9</v>
       </c>
+      <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>15</v>
       </c>
+      <c r="BA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
+      <c r="BA25" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>17</v>
       </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>5</v>
       </c>
+      <c r="BA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>8</v>
       </c>
+      <c r="BA28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>9</v>
       </c>
+      <c r="BA29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>9</v>
       </c>
+      <c r="BA30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>5</v>
       </c>
+      <c r="BA31" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>12</v>
       </c>
+      <c r="BA32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>15</v>
       </c>
+      <c r="BA33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>8</v>
       </c>
+      <c r="BA34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>8</v>
       </c>
+      <c r="BA35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>9</v>
       </c>
+      <c r="BA36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>8</v>
       </c>
+      <c r="BA37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>17</v>
       </c>
+      <c r="BA38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>5</v>
       </c>
+      <c r="BA39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>10</v>
       </c>
+      <c r="BA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>13</v>
       </c>
+      <c r="BA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>8</v>
       </c>
+      <c r="BA42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7837,6 +9885,54 @@
       </c>
       <c r="AZ43" t="n">
         <v>6</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.25</v>
@@ -1791,7 +1791,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -4189,7 +4189,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.25</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6805,7 +6805,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.25</v>
@@ -7238,7 +7238,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.5</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32" t="n">
         <v>3</v>
@@ -7677,7 +7677,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.14</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8110,7 +8110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.5</v>
@@ -8549,7 +8549,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -9933,6 +9933,1096 @@
       </c>
       <c r="BP43" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6671557</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['22', '33', '82']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X44" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6671569</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['28', '58']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['66', '68']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6671570</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['53', '62']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6671571</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45207.33333333334</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['30', '71', '90']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6671556</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45207.45833333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>6</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -10087,31 +10087,31 @@
         <v>3.83</v>
       </c>
       <c r="AU44" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AV44" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW44" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX44" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY44" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ44" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA44" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC44" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD44" t="n">
         <v>1.11</v>
@@ -10305,31 +10305,31 @@
         <v>2.4</v>
       </c>
       <c r="AU45" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV45" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW45" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX45" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY45" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ45" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA45" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB45" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC45" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD45" t="n">
         <v>1.69</v>
@@ -10523,31 +10523,31 @@
         <v>2.57</v>
       </c>
       <c r="AU46" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV46" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW46" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY46" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ46" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA46" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB46" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC46" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD46" t="n">
         <v>2.41</v>
@@ -10741,31 +10741,31 @@
         <v>3.39</v>
       </c>
       <c r="AU47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW47" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX47" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY47" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA47" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB47" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC47" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD47" t="n">
         <v>3.69</v>
@@ -10959,31 +10959,31 @@
         <v>2.27</v>
       </c>
       <c r="AU48" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW48" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX48" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY48" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ48" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA48" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB48" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC48" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD48" t="n">
         <v>1.34</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -6670,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>6671540</v>
+        <v>6671539</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -6690,19 +6690,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -6711,95 +6711,95 @@
         <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['14', '64']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF29" t="n">
         <v>4</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>['61', '79']</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>['8', '59']</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V29" t="n">
-        <v>3</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X29" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>3.3</v>
-      </c>
       <c r="AG29" t="n">
-        <v>2.01</v>
+        <v>1.7</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AL29" t="n">
         <v>1.25</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="AN29" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP29" t="n">
         <v>1.25</v>
@@ -6808,79 +6808,79 @@
         <v>1.25</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.23</v>
+        <v>0.74</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.54</v>
+        <v>1.85</v>
       </c>
       <c r="AU29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV29" t="n">
         <v>6</v>
       </c>
-      <c r="AV29" t="n">
-        <v>5</v>
-      </c>
       <c r="AW29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY29" t="n">
         <v>9</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="BE29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF29" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="BH29" t="n">
-        <v>4.25</v>
+        <v>5.35</v>
       </c>
       <c r="BI29" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="BJ29" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="BK29" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="BL29" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="BM29" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BN29" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="BO29" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="30">
@@ -6888,7 +6888,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>6671539</v>
+        <v>6671538</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -6908,35 +6908,35 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['14', '64']</t>
+          <t>['51', '63', '67']</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -6945,139 +6945,139 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>2.6</v>
+        <v>1.44</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="S30" t="n">
+        <v>13</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X30" t="n">
         <v>3.75</v>
       </c>
-      <c r="T30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X30" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y30" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.98</v>
+        <v>1.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.65</v>
+        <v>8.9</v>
       </c>
       <c r="AB30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH30" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>2</v>
-      </c>
       <c r="AI30" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AK30" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.78</v>
+        <v>5</v>
       </c>
       <c r="AN30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO30" t="n">
         <v>0.5</v>
       </c>
-      <c r="AO30" t="n">
-        <v>1</v>
-      </c>
       <c r="AP30" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.11</v>
+        <v>2.27</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.74</v>
+        <v>1.28</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.85</v>
+        <v>3.55</v>
       </c>
       <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>5</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>9</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD30" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="BE30" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BF30" t="n">
-        <v>2.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="BH30" t="n">
-        <v>5.35</v>
+        <v>4.7</v>
       </c>
       <c r="BI30" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BJ30" t="n">
         <v>3.5</v>
@@ -7089,10 +7089,10 @@
         <v>2.45</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BN30" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BO30" t="n">
         <v>2.3</v>
@@ -7106,7 +7106,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>6671538</v>
+        <v>6671540</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -7126,197 +7126,197 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['51', '63', '67']</t>
+          <t>['61', '79']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '59']</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>1.44</v>
+        <v>3.2</v>
       </c>
       <c r="R31" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="U31" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V31" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="X31" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.1</v>
+        <v>2.43</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.9</v>
+        <v>3.45</v>
       </c>
       <c r="AB31" t="n">
-        <v>16</v>
+        <v>2.64</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD31" t="n">
         <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="AG31" t="n">
-        <v>1.28</v>
+        <v>2.01</v>
       </c>
       <c r="AH31" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="AL31" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AM31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV31" t="n">
         <v>5</v>
       </c>
-      <c r="AN31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>2</v>
-      </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY31" t="n">
         <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.08</v>
+        <v>1.95</v>
       </c>
       <c r="BE31" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BF31" t="n">
-        <v>9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH31" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="BI31" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BJ31" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="BK31" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="BL31" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="BM31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="BO31" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="BP31" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="32">
@@ -8850,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>6671555</v>
+        <v>6671553</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8870,19 +8870,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -8891,74 +8891,74 @@
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['38', '68', '85']</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S39" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="T39" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="U39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH39" t="n">
         <v>2.5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1.54</v>
       </c>
       <c r="AI39" t="n">
         <v>1.95</v>
@@ -8967,100 +8967,100 @@
         <v>1.8</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.53</v>
+        <v>3.75</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AO39" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.25</v>
       </c>
       <c r="AR39" t="n">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.78</v>
+        <v>2.79</v>
       </c>
       <c r="AU39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY39" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA39" t="n">
         <v>5</v>
       </c>
       <c r="BB39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC39" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD39" t="n">
-        <v>1.72</v>
+        <v>1.09</v>
       </c>
       <c r="BE39" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="BF39" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL39" t="n">
         <v>2.6</v>
       </c>
-      <c r="BG39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK39" t="n">
+      <c r="BM39" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP39" t="n">
         <v>1.57</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BN39" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BP39" t="n">
-        <v>1.41</v>
       </c>
     </row>
     <row r="40">
@@ -9068,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>6671553</v>
+        <v>6671555</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -9088,19 +9088,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -9109,74 +9109,74 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['38', '68', '85']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="R40" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="U40" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="V40" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="X40" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.16</v>
+        <v>2.54</v>
       </c>
       <c r="AA40" t="n">
-        <v>5.65</v>
+        <v>2.88</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>2.58</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AD40" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.5</v>
+        <v>1.54</v>
       </c>
       <c r="AI40" t="n">
         <v>1.95</v>
@@ -9185,100 +9185,100 @@
         <v>1.8</v>
       </c>
       <c r="AK40" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AM40" t="n">
-        <v>3.75</v>
+        <v>1.53</v>
       </c>
       <c r="AN40" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.25</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.85</v>
+        <v>0.93</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.79</v>
+        <v>1.78</v>
       </c>
       <c r="AU40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW40" t="n">
         <v>6</v>
       </c>
-      <c r="AV40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>12</v>
-      </c>
       <c r="AX40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY40" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AZ40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA40" t="n">
         <v>5</v>
       </c>
       <c r="BB40" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC40" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.09</v>
+        <v>1.72</v>
       </c>
       <c r="BE40" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="BF40" t="n">
-        <v>8.85</v>
+        <v>2.6</v>
       </c>
       <c r="BG40" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="BH40" t="n">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="BI40" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="BJ40" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="BK40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP40" t="n">
         <v>1.41</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BP40" t="n">
-        <v>1.57</v>
       </c>
     </row>
     <row r="41">
@@ -9504,7 +9504,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>6671550</v>
+        <v>6671551</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -9524,197 +9524,197 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R42" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="S42" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W42" t="n">
         <v>1.3</v>
       </c>
-      <c r="U42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW42" t="n">
         <v>6</v>
       </c>
-      <c r="Y42" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH42" t="n">
+      <c r="AX42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD42" t="n">
         <v>1.95</v>
       </c>
-      <c r="AI42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AJ42" t="n">
+      <c r="BE42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF42" t="n">
         <v>2.1</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>3.55</v>
       </c>
       <c r="BG42" t="n">
         <v>1.18</v>
       </c>
       <c r="BH42" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="BI42" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="BJ42" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="BK42" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="BL42" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="BM42" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BN42" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="BO42" t="n">
-        <v>2.37</v>
+        <v>2.8</v>
       </c>
       <c r="BP42" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="43">
@@ -9722,7 +9722,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>6671551</v>
+        <v>6671550</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9742,197 +9742,197 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['19']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U43" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA43" t="n">
         <v>3.4</v>
       </c>
-      <c r="W43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="AB43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU43" t="n">
         <v>10</v>
       </c>
-      <c r="Y43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>3</v>
-      </c>
       <c r="AV43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW43" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY43" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AZ43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA43" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BB43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD43" t="n">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="BE43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF43" t="n">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="BG43" t="n">
         <v>1.18</v>
       </c>
       <c r="BH43" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="BI43" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BJ43" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BK43" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="BL43" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="BM43" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BN43" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="BO43" t="n">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="BP43" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="44">

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.25</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.5</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23" t="n">
         <v>3</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>1.44</v>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.25</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>1.31</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>0.67</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.25</v>
@@ -9203,7 +9203,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>0.93</v>
@@ -9636,7 +9636,7 @@
         <v>2.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42" t="n">
         <v>2</v>
@@ -10290,10 +10290,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
         <v>1.2</v>
@@ -11023,6 +11023,660 @@
       </c>
       <c r="BP48" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6671574</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['16', '42', '60']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6671575</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['17', '45', '65', '79']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6671573</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45221.42708333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['4', '23', '51', '81']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X51" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.5</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.5</v>
@@ -11030,7 +11030,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>6671574</v>
+        <v>6671575</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -11050,149 +11050,149 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['16', '42', '60']</t>
+          <t>['17', '45', '65', '79']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>['35']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="R49" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="S49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA49" t="n">
         <v>4.75</v>
       </c>
-      <c r="T49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U49" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V49" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X49" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z49" t="n">
+      <c r="AB49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>1.95</v>
       </c>
-      <c r="AA49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AK49" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AL49" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AM49" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="AN49" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO49" t="n">
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.87</v>
+        <v>1.18</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.26</v>
+        <v>3.09</v>
       </c>
       <c r="AU49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV49" t="n">
         <v>2</v>
       </c>
       <c r="AW49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY49" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ49" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA49" t="n">
         <v>5</v>
@@ -11204,43 +11204,43 @@
         <v>9</v>
       </c>
       <c r="BD49" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="BE49" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF49" t="n">
-        <v>3.33</v>
+        <v>4.14</v>
       </c>
       <c r="BG49" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="BH49" t="n">
-        <v>3</v>
+        <v>5.15</v>
       </c>
       <c r="BI49" t="n">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="BJ49" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="BK49" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="BL49" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="BM49" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="BN49" t="n">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="BO49" t="n">
-        <v>3.9</v>
+        <v>2.37</v>
       </c>
       <c r="BP49" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="50">
@@ -11248,7 +11248,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>6671575</v>
+        <v>6671574</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -11268,149 +11268,149 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>['17', '45', '65', '79']</t>
+          <t>['16', '42', '60']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['35']</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="R50" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="S50" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA50" t="n">
         <v>3.5</v>
       </c>
-      <c r="V50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X50" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AB50" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AC50" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD50" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AF50" t="n">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG50" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AH50" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="AI50" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AK50" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="AL50" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AM50" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="AN50" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO50" t="n">
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.18</v>
+        <v>0.87</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="AU50" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV50" t="n">
         <v>2</v>
       </c>
       <c r="AW50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX50" t="n">
         <v>7</v>
       </c>
-      <c r="AX50" t="n">
-        <v>2</v>
-      </c>
       <c r="AY50" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ50" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA50" t="n">
         <v>5</v>
@@ -11422,43 +11422,43 @@
         <v>9</v>
       </c>
       <c r="BD50" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="BE50" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF50" t="n">
-        <v>4.14</v>
+        <v>3.33</v>
       </c>
       <c r="BG50" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="BH50" t="n">
-        <v>5.15</v>
+        <v>3</v>
       </c>
       <c r="BI50" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="BJ50" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="BK50" t="n">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="BL50" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="BM50" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="BN50" t="n">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="BO50" t="n">
-        <v>2.37</v>
+        <v>3.9</v>
       </c>
       <c r="BP50" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="51">
@@ -11613,31 +11613,31 @@
         <v>3.09</v>
       </c>
       <c r="AU51" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV51" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW51" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX51" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY51" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ51" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA51" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB51" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC51" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD51" t="n">
         <v>3.06</v>
@@ -11677,6 +11677,224 @@
       </c>
       <c r="BP51" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6671566</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45223.65625</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X52" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -6670,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>6671539</v>
+        <v>6671538</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -6690,35 +6690,35 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>['14', '64']</t>
+          <t>['51', '63', '67']</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -6727,139 +6727,139 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>2.6</v>
+        <v>1.44</v>
       </c>
       <c r="R29" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X29" t="n">
         <v>3.75</v>
       </c>
-      <c r="T29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X29" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y29" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.98</v>
+        <v>1.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.65</v>
+        <v>8.9</v>
       </c>
       <c r="AB29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AH29" t="n">
         <v>3.3</v>
       </c>
-      <c r="AC29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>2</v>
-      </c>
       <c r="AI29" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.78</v>
+        <v>5</v>
       </c>
       <c r="AN29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO29" t="n">
         <v>0.5</v>
       </c>
-      <c r="AO29" t="n">
-        <v>1</v>
-      </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.11</v>
+        <v>2.27</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.74</v>
+        <v>1.28</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.85</v>
+        <v>3.55</v>
       </c>
       <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>5</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>9</v>
       </c>
       <c r="BA29" t="n">
         <v>9</v>
       </c>
       <c r="BB29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="BE29" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BF29" t="n">
-        <v>2.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="BH29" t="n">
-        <v>5.35</v>
+        <v>4.7</v>
       </c>
       <c r="BI29" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BJ29" t="n">
         <v>3.5</v>
@@ -6871,10 +6871,10 @@
         <v>2.45</v>
       </c>
       <c r="BM29" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BN29" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BO29" t="n">
         <v>2.3</v>
@@ -6888,7 +6888,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>6671538</v>
+        <v>6671539</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -6908,35 +6908,35 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['51', '63', '67']</t>
+          <t>['14', '64']</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -6945,139 +6945,139 @@
         </is>
       </c>
       <c r="Q30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.44</v>
       </c>
-      <c r="R30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="X30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD30" t="n">
         <v>13</v>
       </c>
-      <c r="T30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y30" t="n">
+      <c r="AE30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL30" t="n">
         <v>1.25</v>
       </c>
-      <c r="Z30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1.03</v>
-      </c>
       <c r="AM30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU30" t="n">
         <v>5</v>
       </c>
-      <c r="AN30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8</v>
-      </c>
       <c r="AV30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
       </c>
       <c r="BB30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD30" t="n">
-        <v>1.08</v>
+        <v>1.55</v>
       </c>
       <c r="BE30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BF30" t="n">
-        <v>9.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="BH30" t="n">
-        <v>4.7</v>
+        <v>5.35</v>
       </c>
       <c r="BI30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BJ30" t="n">
         <v>3.5</v>
@@ -7089,10 +7089,10 @@
         <v>2.45</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BN30" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BO30" t="n">
         <v>2.3</v>
@@ -8850,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>6671553</v>
+        <v>6671551</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8870,95 +8870,95 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['75']</t>
+          <t>['19']</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['38', '68', '85']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="R39" t="n">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="S39" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="U39" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="V39" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="X39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.16</v>
+        <v>2.26</v>
       </c>
       <c r="AA39" t="n">
-        <v>5.65</v>
+        <v>3</v>
       </c>
       <c r="AB39" t="n">
-        <v>11</v>
+        <v>2.83</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AF39" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="AG39" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="AI39" t="n">
         <v>1.95</v>
@@ -8967,100 +8967,100 @@
         <v>1.8</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AM39" t="n">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN39" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR39" t="n">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.79</v>
+        <v>2.55</v>
       </c>
       <c r="AU39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW39" t="n">
         <v>6</v>
       </c>
-      <c r="AV39" t="n">
+      <c r="AX39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA39" t="n">
         <v>7</v>
       </c>
-      <c r="AW39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>5</v>
-      </c>
       <c r="BB39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC39" t="n">
         <v>13</v>
       </c>
       <c r="BD39" t="n">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="BE39" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BF39" t="n">
-        <v>8.85</v>
+        <v>2.1</v>
       </c>
       <c r="BG39" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="BH39" t="n">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="BI39" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="BJ39" t="n">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK39" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="BL39" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="BM39" t="n">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="BN39" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="BO39" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="BP39" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="40">
@@ -9068,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>6671555</v>
+        <v>6671553</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -9088,19 +9088,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -9109,74 +9109,74 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['38', '68', '85']</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="S40" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="T40" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="U40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH40" t="n">
         <v>2.5</v>
-      </c>
-      <c r="V40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X40" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.54</v>
       </c>
       <c r="AI40" t="n">
         <v>1.95</v>
@@ -9185,100 +9185,100 @@
         <v>1.8</v>
       </c>
       <c r="AK40" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.53</v>
+        <v>3.75</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.93</v>
+        <v>1.85</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.78</v>
+        <v>2.79</v>
       </c>
       <c r="AU40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW40" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY40" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA40" t="n">
         <v>5</v>
       </c>
       <c r="BB40" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC40" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.72</v>
+        <v>1.09</v>
       </c>
       <c r="BE40" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="BF40" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL40" t="n">
         <v>2.6</v>
       </c>
-      <c r="BG40" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK40" t="n">
+      <c r="BM40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP40" t="n">
         <v>1.57</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BP40" t="n">
-        <v>1.41</v>
       </c>
     </row>
     <row r="41">
@@ -9504,7 +9504,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>6671551</v>
+        <v>6671555</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -9524,22 +9524,22 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -9552,67 +9552,67 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['19']</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T42" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U42" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z42" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="AA42" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AB42" t="n">
-        <v>2.83</v>
+        <v>2.58</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD42" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AF42" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH42" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="AI42" t="n">
         <v>1.95</v>
@@ -9621,34 +9621,34 @@
         <v>1.8</v>
       </c>
       <c r="AK42" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AL42" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM42" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AN42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO42" t="n">
         <v>1.33</v>
       </c>
-      <c r="AO42" t="n">
-        <v>2.33</v>
-      </c>
       <c r="AP42" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
-        <v>1.44</v>
+        <v>0.93</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.11</v>
+        <v>0.85</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.55</v>
+        <v>1.78</v>
       </c>
       <c r="AU42" t="n">
         <v>3</v>
@@ -9660,61 +9660,61 @@
         <v>6</v>
       </c>
       <c r="AX42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY42" t="n">
         <v>9</v>
       </c>
       <c r="AZ42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC42" t="n">
         <v>7</v>
       </c>
-      <c r="BB42" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>13</v>
-      </c>
       <c r="BD42" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="BE42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF42" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="BG42" t="n">
         <v>1.18</v>
       </c>
       <c r="BH42" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BI42" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="BJ42" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="BK42" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BL42" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BM42" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BN42" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="BO42" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="BP42" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="43">

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.25</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.5</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>1.24</v>
@@ -4625,7 +4625,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.05</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -5279,7 +5279,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28" t="n">
         <v>2</v>
@@ -6805,7 +6805,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>2.27</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.11</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8110,10 +8110,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR35" t="n">
         <v>1.4</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -8982,7 +8982,7 @@
         <v>2.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ39" t="n">
         <v>2</v>
@@ -9200,10 +9200,10 @@
         <v>0.67</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.85</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR41" t="n">
         <v>1.53</v>
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR43" t="n">
         <v>1.77</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.25</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -11380,7 +11380,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -11895,6 +11895,1314 @@
       </c>
       <c r="BP52" t="n">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6671578</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6671580</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['82', '85']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6671581</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['79', '88', '90+4']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['65', '73', '83']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X55" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6671583</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['36', '48', '70', '90']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X56" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6671579</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45228.375</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['45+4', '64']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6671582</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['90', '90+3']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -12822,7 +12822,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['45+4', '64']</t>
+          <t>['45+5', '64']</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -13139,31 +13139,31 @@
         <v>3.6</v>
       </c>
       <c r="AU58" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV58" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW58" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX58" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY58" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ58" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA58" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB58" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC58" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD58" t="n">
         <v>1.28</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13205,6 +13205,224 @@
         <v>1.47</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6671587</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45230.69791666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>11</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['42', '54']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['74', '82']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X59" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.2</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.4</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12" t="n">
         <v>1</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.4</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4407,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR18" t="n">
         <v>1.24</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.2</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR21" t="n">
         <v>1.25</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6366,10 +6366,10 @@
         <v>1.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR27" t="n">
         <v>1.44</v>
@@ -6584,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR28" t="n">
         <v>1.42</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -7020,10 +7020,10 @@
         <v>1</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR30" t="n">
         <v>1.11</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -7674,10 +7674,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR33" t="n">
         <v>1.14</v>
@@ -8549,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -8982,10 +8982,10 @@
         <v>2.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR39" t="n">
         <v>1.44</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.85</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.2</v>
@@ -9636,10 +9636,10 @@
         <v>1.33</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR42" t="n">
         <v>0.93</v>
@@ -10072,10 +10072,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR46" t="n">
         <v>1.32</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -11380,10 +11380,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR50" t="n">
         <v>1.39</v>
@@ -11598,10 +11598,10 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR53" t="n">
         <v>2</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ55" t="n">
         <v>1</v>
@@ -12906,10 +12906,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13363,13 +13363,13 @@
         <v>4</v>
       </c>
       <c r="AW59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX59" t="n">
         <v>4</v>
       </c>
       <c r="AY59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ59" t="n">
         <v>8</v>
@@ -13421,6 +13421,1532 @@
       </c>
       <c r="BP59" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6671589</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45231.69791666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>11</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['1', '7']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6671588</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45231.69791666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['78', '90+3']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['26', '44', '68', '74']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6671586</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45231.69791666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X62" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6671584</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45231.69791666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['18', '83']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X63" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6671585</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45231.72916666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['5', '51', '74', '83', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6671594</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45234.39583333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['45+7', '78', '83']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>11</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6671592</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.8</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4622,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.2</v>
@@ -6369,7 +6369,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR27" t="n">
         <v>1.44</v>
@@ -7674,7 +7674,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.4</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR42" t="n">
         <v>0.93</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR50" t="n">
         <v>1.39</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR62" t="n">
         <v>1.32</v>
@@ -14432,7 +14432,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.4</v>
@@ -14883,31 +14883,31 @@
         <v>2.59</v>
       </c>
       <c r="AU66" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV66" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW66" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX66" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY66" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA66" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB66" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC66" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD66" t="n">
         <v>2</v>
@@ -14946,6 +14946,224 @@
         <v>2.45</v>
       </c>
       <c r="BP66" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6671616</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>16</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X67" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP67" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6671522</v>
+        <v>6671521</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2984,12 +2984,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -3002,179 +3002,179 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['66', '85']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM12" t="n">
         <v>2.05</v>
       </c>
-      <c r="S12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO12" t="n">
         <v>2.7</v>
       </c>
-      <c r="V12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>3</v>
-      </c>
       <c r="BP12" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="13">
@@ -3182,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6671521</v>
+        <v>6671522</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3202,12 +3202,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -3220,179 +3220,179 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['66', '85']</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="W13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK13" t="n">
         <v>1.44</v>
       </c>
-      <c r="X13" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AL13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BL13" t="n">
         <v>1.95</v>
       </c>
-      <c r="AA13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>2.1</v>
-      </c>
       <c r="BM13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="14">
@@ -4272,7 +4272,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>6671531</v>
+        <v>6671527</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4292,50 +4292,50 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['59', '76']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['42', '90+10']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S18" t="n">
         <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.6</v>
       </c>
       <c r="T18" t="n">
         <v>1.4</v>
@@ -4344,10 +4344,10 @@
         <v>2.75</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
         <v>8</v>
@@ -4356,109 +4356,109 @@
         <v>1.08</v>
       </c>
       <c r="Z18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB18" t="n">
         <v>2.45</v>
       </c>
-      <c r="AA18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AC18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR18" t="n">
         <v>1.05</v>
       </c>
-      <c r="AD18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN18" t="n">
+      <c r="AS18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX18" t="n">
         <v>3</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>1</v>
       </c>
       <c r="AY18" t="n">
         <v>10</v>
       </c>
       <c r="AZ18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="BE18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.15</v>
+        <v>2.07</v>
       </c>
       <c r="BG18" t="n">
         <v>1.18</v>
       </c>
       <c r="BH18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BI18" t="n">
         <v>1.25</v>
@@ -4490,7 +4490,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6671527</v>
+        <v>6671531</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4510,50 +4510,50 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['59', '76']</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42', '90+10']</t>
         </is>
       </c>
       <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S19" t="n">
         <v>3.6</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>1.4</v>
@@ -4562,10 +4562,10 @@
         <v>2.75</v>
       </c>
       <c r="V19" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
         <v>8</v>
@@ -4574,109 +4574,109 @@
         <v>1.08</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="AA19" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.79</v>
+        <v>1.61</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AN19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
         <v>3</v>
       </c>
-      <c r="AP19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>6</v>
-      </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY19" t="n">
         <v>10</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB19" t="n">
         <v>3</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE19" t="n">
         <v>8</v>
       </c>
-      <c r="BC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>7.5</v>
-      </c>
       <c r="BF19" t="n">
-        <v>2.07</v>
+        <v>3.15</v>
       </c>
       <c r="BG19" t="n">
         <v>1.18</v>
       </c>
       <c r="BH19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="BI19" t="n">
         <v>1.25</v>
@@ -4708,7 +4708,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>6671534</v>
+        <v>6671535</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -4728,12 +4728,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -4746,71 +4746,71 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['90+6']</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD20" t="n">
         <v>9</v>
       </c>
-      <c r="Y20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10</v>
-      </c>
       <c r="AE20" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="AG20" t="n">
         <v>2.1</v>
@@ -4819,49 +4819,49 @@
         <v>1.75</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK20" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AN20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="n">
         <v>3</v>
       </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.99</v>
+        <v>1.1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AU20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
         <v>3</v>
@@ -4873,52 +4873,52 @@
         <v>8</v>
       </c>
       <c r="BA20" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BB20" t="n">
         <v>2</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.67</v>
+        <v>2.63</v>
       </c>
       <c r="BE20" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BF20" t="n">
-        <v>2.59</v>
+        <v>1.65</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH20" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="BJ20" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="BK20" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="BL20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BM20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BN20" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="BO20" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BP20" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="21">
@@ -4926,7 +4926,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>6671535</v>
+        <v>6671534</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -4964,71 +4964,71 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['90+6']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD21" t="n">
         <v>10</v>
       </c>
-      <c r="Y21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>9</v>
-      </c>
       <c r="AE21" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AG21" t="n">
         <v>2.1</v>
@@ -5037,49 +5037,49 @@
         <v>1.75</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AN21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.1</v>
+        <v>0.99</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV21" t="n">
         <v>5</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>3</v>
@@ -5091,52 +5091,52 @@
         <v>8</v>
       </c>
       <c r="BA21" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BB21" t="n">
         <v>2</v>
       </c>
       <c r="BC21" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
-        <v>2.63</v>
+        <v>1.67</v>
       </c>
       <c r="BE21" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.65</v>
+        <v>2.59</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH21" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="BI21" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="BJ21" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="BK21" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="BL21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BM21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BN21" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="BO21" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BP21" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="22">
@@ -5933,7 +5933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6234,7 +6234,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>6671542</v>
+        <v>6671538</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -6254,12 +6254,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -6272,179 +6272,179 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>['51', '63', '67']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>1.44</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="T27" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="U27" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
-        <v>1.36</v>
+        <v>1.83</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.36</v>
+        <v>1.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.45</v>
+        <v>8.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.74</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD27" t="n">
         <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.83</v>
+        <v>3.3</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AK27" t="n">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="AL27" t="n">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.44</v>
+        <v>2.27</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.92</v>
+        <v>1.28</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="AU27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW27" t="n">
         <v>7</v>
       </c>
       <c r="AX27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ27" t="n">
         <v>5</v>
       </c>
       <c r="BA27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="BE27" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BF27" t="n">
-        <v>2.42</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BG27" t="n">
         <v>1.18</v>
       </c>
       <c r="BH27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BI27" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="BJ27" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BK27" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="BL27" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="BM27" t="n">
         <v>1.95</v>
       </c>
       <c r="BN27" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BO27" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="28">
@@ -6452,7 +6452,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>6671541</v>
+        <v>6671539</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -6472,197 +6472,197 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
+          <t>['14', '64']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>['55']</t>
-        </is>
-      </c>
       <c r="Q28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX28" t="n">
         <v>3</v>
       </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4</v>
-      </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="BE28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF28" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="BG28" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="BH28" t="n">
-        <v>3.6</v>
+        <v>5.35</v>
       </c>
       <c r="BI28" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="BJ28" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="BK28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM28" t="n">
         <v>1.8</v>
       </c>
-      <c r="BL28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>2.35</v>
-      </c>
       <c r="BN28" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BO28" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="BP28" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="29">
@@ -6670,7 +6670,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>6671538</v>
+        <v>6671540</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -6690,197 +6690,197 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['61', '79']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['8', '59']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V29" t="n">
         <v>3</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>['51', '63', '67']</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>13</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.83</v>
+        <v>1.36</v>
       </c>
       <c r="X29" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.1</v>
+        <v>2.43</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.9</v>
+        <v>3.45</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>2.64</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD29" t="n">
         <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.28</v>
+        <v>2.01</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AM29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV29" t="n">
         <v>5</v>
       </c>
-      <c r="AN29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>2</v>
-      </c>
       <c r="AW29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY29" t="n">
         <v>15</v>
       </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.08</v>
+        <v>1.95</v>
       </c>
       <c r="BE29" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BF29" t="n">
-        <v>9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH29" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="BI29" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BJ29" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="BK29" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="BL29" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="BM29" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN29" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="BO29" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="30">
@@ -6888,7 +6888,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>6671539</v>
+        <v>6671541</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -6908,197 +6908,197 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['14', '64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="U30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AA30" t="n">
         <v>3.25</v>
       </c>
-      <c r="V30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W30" t="n">
+      <c r="AB30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE30" t="n">
         <v>1.44</v>
       </c>
-      <c r="X30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1.22</v>
-      </c>
       <c r="AF30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
         <v>4</v>
       </c>
-      <c r="AG30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV30" t="n">
+      <c r="AW30" t="n">
         <v>6</v>
       </c>
-      <c r="AW30" t="n">
+      <c r="AX30" t="n">
         <v>4</v>
       </c>
-      <c r="AX30" t="n">
-        <v>3</v>
-      </c>
       <c r="AY30" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>3</v>
       </c>
       <c r="BC30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD30" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="BE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF30" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="BH30" t="n">
-        <v>5.35</v>
+        <v>3.6</v>
       </c>
       <c r="BI30" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="BJ30" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="BK30" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="BL30" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="BN30" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BO30" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP30" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="31">
@@ -7106,7 +7106,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>6671540</v>
+        <v>6671542</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -7126,50 +7126,50 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['61', '79']</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>['8', '59']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>2.1</v>
       </c>
       <c r="S31" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
         <v>1.4</v>
@@ -7190,13 +7190,13 @@
         <v>1.08</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="AA31" t="n">
         <v>3.45</v>
       </c>
       <c r="AB31" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="AC31" t="n">
         <v>1.05</v>
@@ -7208,13 +7208,13 @@
         <v>1.33</v>
       </c>
       <c r="AF31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AI31" t="n">
         <v>1.75</v>
@@ -7223,13 +7223,13 @@
         <v>2</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AL31" t="n">
         <v>1.25</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AN31" t="n">
         <v>1.5</v>
@@ -7238,85 +7238,85 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>5</v>
       </c>
-      <c r="AW31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>9</v>
-      </c>
       <c r="BA31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC31" t="n">
         <v>8</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BE31" t="n">
         <v>8</v>
       </c>
       <c r="BF31" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH31" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="BI31" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="BJ31" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="BK31" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BL31" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="BM31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN31" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="BO31" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BP31" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="32">
@@ -7542,7 +7542,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>6671545</v>
+        <v>6671549</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7562,47 +7562,47 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['16', '90+3']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>['30', '81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q33" t="n">
         <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
         <v>3.4</v>
@@ -7626,13 +7626,13 @@
         <v>1.07</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AC33" t="n">
         <v>1.06</v>
@@ -7647,64 +7647,64 @@
         <v>3.2</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AI33" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK33" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AM33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO33" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN33" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.54</v>
+        <v>3.22</v>
       </c>
       <c r="AU33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV33" t="n">
         <v>4</v>
       </c>
       <c r="AW33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY33" t="n">
         <v>11</v>
       </c>
-      <c r="AY33" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ33" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BA33" t="n">
         <v>4</v>
@@ -7725,34 +7725,34 @@
         <v>2.1</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH33" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="BI33" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BJ33" t="n">
-        <v>2.48</v>
+        <v>3.1</v>
       </c>
       <c r="BK33" t="n">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="BL33" t="n">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="BM33" t="n">
-        <v>2.45</v>
+        <v>2.02</v>
       </c>
       <c r="BN33" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="BO33" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="BP33" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="34">
@@ -7978,7 +7978,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>6671549</v>
+        <v>6671545</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7998,47 +7998,47 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['16', '90+3']</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['30', '81']</t>
         </is>
       </c>
       <c r="Q35" t="n">
         <v>3.25</v>
       </c>
       <c r="R35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S35" t="n">
         <v>3.4</v>
@@ -8062,13 +8062,13 @@
         <v>1.07</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AC35" t="n">
         <v>1.06</v>
@@ -8083,64 +8083,64 @@
         <v>3.2</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AI35" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK35" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AN35" t="n">
         <v>2</v>
       </c>
       <c r="AO35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP35" t="n">
         <v>1.5</v>
       </c>
-      <c r="AP35" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ35" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="AR35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS35" t="n">
         <v>1.4</v>
       </c>
-      <c r="AS35" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AT35" t="n">
-        <v>3.22</v>
+        <v>2.54</v>
       </c>
       <c r="AU35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV35" t="n">
         <v>4</v>
       </c>
       <c r="AW35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY35" t="n">
         <v>5</v>
       </c>
-      <c r="AX35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>11</v>
-      </c>
       <c r="AZ35" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA35" t="n">
         <v>4</v>
@@ -8161,34 +8161,34 @@
         <v>2.1</v>
       </c>
       <c r="BG35" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BH35" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="BI35" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ35" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="BK35" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="BL35" t="n">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="BM35" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="BN35" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="BO35" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="BP35" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="36">
@@ -8549,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -8850,7 +8850,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>6671551</v>
+        <v>6671550</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -8870,197 +8870,197 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>['19']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>['31']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T39" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U39" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA39" t="n">
         <v>3.4</v>
       </c>
-      <c r="W39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X39" t="n">
+      <c r="AB39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU39" t="n">
         <v>10</v>
       </c>
-      <c r="Y39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AV39" t="n">
         <v>3</v>
       </c>
-      <c r="AB39" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>4</v>
-      </c>
       <c r="AW39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY39" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AZ39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA39" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BB39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD39" t="n">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="BE39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF39" t="n">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="BG39" t="n">
         <v>1.18</v>
       </c>
       <c r="BH39" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="BI39" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BJ39" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BK39" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="BL39" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="BM39" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BN39" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="BO39" t="n">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="BP39" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="40">
@@ -9068,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>6671553</v>
+        <v>6671551</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -9088,95 +9088,95 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
       <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA40" t="n">
         <v>3</v>
       </c>
-      <c r="N40" t="n">
-        <v>4</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>['75']</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>['38', '68', '85']</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S40" t="n">
-        <v>8</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>5.65</v>
-      </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>2.83</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="AG40" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="AI40" t="n">
         <v>1.95</v>
@@ -9185,100 +9185,100 @@
         <v>1.8</v>
       </c>
       <c r="AK40" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AM40" t="n">
-        <v>3.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN40" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP40" t="n">
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.79</v>
+        <v>2.55</v>
       </c>
       <c r="AU40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW40" t="n">
         <v>6</v>
       </c>
-      <c r="AV40" t="n">
+      <c r="AX40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA40" t="n">
         <v>7</v>
       </c>
-      <c r="AW40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>5</v>
-      </c>
       <c r="BB40" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC40" t="n">
         <v>13</v>
       </c>
       <c r="BD40" t="n">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="BE40" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BF40" t="n">
-        <v>8.85</v>
+        <v>2.1</v>
       </c>
       <c r="BG40" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="BH40" t="n">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="BI40" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="BJ40" t="n">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK40" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="BL40" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="BM40" t="n">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="BN40" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="BO40" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="BP40" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="41">
@@ -9286,7 +9286,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>6671554</v>
+        <v>6671553</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -9306,197 +9306,197 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['38', '68', '85']</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="R41" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="S41" t="n">
+        <v>8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX41" t="n">
         <v>3</v>
       </c>
-      <c r="T41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U41" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X41" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>8</v>
-      </c>
       <c r="AY41" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AZ41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA41" t="n">
         <v>5</v>
       </c>
       <c r="BB41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC41" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD41" t="n">
-        <v>2.75</v>
+        <v>1.09</v>
       </c>
       <c r="BE41" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="BF41" t="n">
-        <v>1.65</v>
+        <v>8.85</v>
       </c>
       <c r="BG41" t="n">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="BH41" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="BI41" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="BJ41" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="BK41" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BL41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO41" t="n">
         <v>2.2</v>
       </c>
-      <c r="BM41" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>2.6</v>
-      </c>
       <c r="BP41" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="42">
@@ -9504,7 +9504,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>6671555</v>
+        <v>6671554</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -9524,167 +9524,167 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>['57']</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="Q42" t="n">
         <v>3.4</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S42" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="U42" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V42" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Z42" t="n">
-        <v>2.54</v>
+        <v>3.35</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AB42" t="n">
-        <v>2.58</v>
+        <v>1.93</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM42" t="n">
         <v>1.42</v>
       </c>
-      <c r="AF42" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM42" t="n">
+      <c r="AN42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR42" t="n">
         <v>1.53</v>
       </c>
-      <c r="AN42" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AS42" t="n">
-        <v>0.85</v>
+        <v>1.62</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.78</v>
+        <v>3.15</v>
       </c>
       <c r="AU42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW42" t="n">
         <v>4</v>
       </c>
-      <c r="AW42" t="n">
+      <c r="AX42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY42" t="n">
         <v>6</v>
       </c>
-      <c r="AX42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ42" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA42" t="n">
         <v>5</v>
       </c>
       <c r="BB42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC42" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD42" t="n">
-        <v>1.72</v>
+        <v>2.75</v>
       </c>
       <c r="BE42" t="n">
         <v>7.5</v>
       </c>
       <c r="BF42" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="BG42" t="n">
         <v>1.18</v>
@@ -9699,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="BK42" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="BL42" t="n">
         <v>2.2</v>
@@ -9722,7 +9722,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>6671550</v>
+        <v>6671555</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9742,197 +9742,197 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="Q43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG43" t="n">
         <v>2.3</v>
       </c>
-      <c r="R43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T43" t="n">
+      <c r="AH43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL43" t="n">
         <v>1.3</v>
       </c>
-      <c r="U43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X43" t="n">
+      <c r="AM43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW43" t="n">
         <v>6</v>
       </c>
-      <c r="Y43" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>12</v>
-      </c>
       <c r="AX43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ43" t="n">
         <v>5</v>
       </c>
-      <c r="AY43" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>8</v>
-      </c>
       <c r="BA43" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BB43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC43" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BD43" t="n">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="BE43" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF43" t="n">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="BG43" t="n">
         <v>1.18</v>
       </c>
       <c r="BH43" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="BI43" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BJ43" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BK43" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="BL43" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="BM43" t="n">
         <v>1.95</v>
       </c>
       <c r="BN43" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BO43" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="BP43" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="44">
@@ -10158,7 +10158,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>6671569</v>
+        <v>6671570</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -10178,197 +10178,197 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>['28', '58']</t>
+          <t>['53', '62']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>['66', '68']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T45" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X45" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA45" t="n">
         <v>3</v>
       </c>
-      <c r="V45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X45" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AB45" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD45" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AF45" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AG45" t="n">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.97</v>
+        <v>1.67</v>
       </c>
       <c r="AI45" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK45" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="AN45" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO45" t="n">
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="AU45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW45" t="n">
         <v>4</v>
       </c>
-      <c r="AW45" t="n">
-        <v>6</v>
-      </c>
       <c r="AX45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY45" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AZ45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC45" t="n">
         <v>8</v>
       </c>
-      <c r="BA45" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>11</v>
-      </c>
       <c r="BD45" t="n">
-        <v>1.69</v>
+        <v>2.41</v>
       </c>
       <c r="BE45" t="n">
         <v>8.5</v>
       </c>
       <c r="BF45" t="n">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="BG45" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="BH45" t="n">
-        <v>5.15</v>
+        <v>4.2</v>
       </c>
       <c r="BI45" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BJ45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BK45" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BL45" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BM45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN45" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO45" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="BP45" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="46">
@@ -10376,7 +10376,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>6671570</v>
+        <v>6671569</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -10396,197 +10396,197 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>['53', '62']</t>
+          <t>['28', '58']</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['66', '68']</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>2.1</v>
       </c>
-      <c r="S46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W46" t="n">
+      <c r="AK46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN46" t="n">
         <v>1.33</v>
-      </c>
-      <c r="X46" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0.67</v>
       </c>
       <c r="AO46" t="n">
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="AU46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV46" t="n">
         <v>4</v>
       </c>
-      <c r="AV46" t="n">
-        <v>3</v>
-      </c>
       <c r="AW46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX46" t="n">
         <v>4</v>
       </c>
-      <c r="AX46" t="n">
-        <v>0</v>
-      </c>
       <c r="AY46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ46" t="n">
         <v>8</v>
       </c>
-      <c r="AZ46" t="n">
-        <v>3</v>
-      </c>
       <c r="BA46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC46" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD46" t="n">
-        <v>2.41</v>
+        <v>1.69</v>
       </c>
       <c r="BE46" t="n">
         <v>8.5</v>
       </c>
       <c r="BF46" t="n">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="BG46" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="BH46" t="n">
-        <v>4.2</v>
+        <v>5.15</v>
       </c>
       <c r="BI46" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BJ46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BK46" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BL46" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BM46" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN46" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO46" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BP46" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="47">
@@ -11030,7 +11030,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>6671575</v>
+        <v>6671574</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -11050,113 +11050,113 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['17', '45', '65', '79']</t>
+          <t>['16', '42', '60']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['35']</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="R49" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="S49" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="T49" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="U49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA49" t="n">
         <v>3.5</v>
       </c>
-      <c r="V49" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X49" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AB49" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AC49" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD49" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AF49" t="n">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG49" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AH49" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="AI49" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AK49" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="AL49" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AM49" t="n">
-        <v>2.87</v>
+        <v>1.82</v>
       </c>
       <c r="AN49" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO49" t="n">
         <v>1.25</v>
@@ -11165,34 +11165,34 @@
         <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AR49" t="n">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.18</v>
+        <v>0.87</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="AU49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV49" t="n">
         <v>2</v>
       </c>
       <c r="AW49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX49" t="n">
         <v>7</v>
       </c>
-      <c r="AX49" t="n">
-        <v>2</v>
-      </c>
       <c r="AY49" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ49" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA49" t="n">
         <v>5</v>
@@ -11204,43 +11204,43 @@
         <v>9</v>
       </c>
       <c r="BD49" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="BE49" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF49" t="n">
-        <v>4.14</v>
+        <v>3.33</v>
       </c>
       <c r="BG49" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="BH49" t="n">
-        <v>5.15</v>
+        <v>3</v>
       </c>
       <c r="BI49" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="BJ49" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="BK49" t="n">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="BL49" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="BM49" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="BN49" t="n">
-        <v>1.85</v>
+        <v>1.37</v>
       </c>
       <c r="BO49" t="n">
-        <v>2.37</v>
+        <v>3.9</v>
       </c>
       <c r="BP49" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50">
@@ -11248,7 +11248,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>6671574</v>
+        <v>6671575</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -11268,113 +11268,113 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>['16', '42', '60']</t>
+          <t>['17', '45', '65', '79']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>['35']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>2.63</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="S50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA50" t="n">
         <v>4.75</v>
       </c>
-      <c r="T50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X50" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z50" t="n">
+      <c r="AB50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>1.95</v>
       </c>
-      <c r="AA50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AK50" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AL50" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AM50" t="n">
-        <v>1.82</v>
+        <v>2.87</v>
       </c>
       <c r="AN50" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO50" t="n">
         <v>1.25</v>
@@ -11383,34 +11383,34 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.87</v>
+        <v>1.18</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.26</v>
+        <v>3.09</v>
       </c>
       <c r="AU50" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV50" t="n">
         <v>2</v>
       </c>
       <c r="AW50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY50" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ50" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA50" t="n">
         <v>5</v>
@@ -11422,43 +11422,43 @@
         <v>9</v>
       </c>
       <c r="BD50" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="BE50" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF50" t="n">
-        <v>3.33</v>
+        <v>4.14</v>
       </c>
       <c r="BG50" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="BH50" t="n">
-        <v>3</v>
+        <v>5.15</v>
       </c>
       <c r="BI50" t="n">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="BJ50" t="n">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="BK50" t="n">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="BL50" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="BM50" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="BN50" t="n">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="BO50" t="n">
-        <v>3.9</v>
+        <v>2.37</v>
       </c>
       <c r="BP50" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="51">
@@ -11902,7 +11902,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>6671578</v>
+        <v>6671583</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -11922,197 +11922,197 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
+          <t>['36', '48', '70', '90']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X53" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU53" t="n">
         <v>6</v>
       </c>
-      <c r="R53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U53" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V53" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X53" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>2</v>
-      </c>
       <c r="AV53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW53" t="n">
         <v>4</v>
       </c>
       <c r="AX53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY53" t="n">
         <v>10</v>
       </c>
-      <c r="AY53" t="n">
-        <v>6</v>
-      </c>
       <c r="AZ53" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ53" t="n">
         <v>3</v>
       </c>
-      <c r="BB53" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>3.25</v>
-      </c>
       <c r="BK53" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="BL53" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BM53" t="n">
         <v>1.98</v>
       </c>
       <c r="BN53" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="BO53" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BP53" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="54">
@@ -12120,7 +12120,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>6671580</v>
+        <v>6671581</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -12140,12 +12140,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -12158,155 +12158,155 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['79', '88', '90+4']</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>['82', '85']</t>
+          <t>['65', '73', '83']</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X54" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN54" t="n">
         <v>1.5</v>
       </c>
-      <c r="U54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V54" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X54" t="n">
+      <c r="AO54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY54" t="n">
         <v>10</v>
       </c>
-      <c r="Y54" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ54" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BB54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC54" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD54" t="n">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="BE54" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="BF54" t="n">
-        <v>2.3</v>
+        <v>3.09</v>
       </c>
       <c r="BG54" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BH54" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="BI54" t="n">
         <v>1.33</v>
@@ -12318,7 +12318,7 @@
         <v>1.6</v>
       </c>
       <c r="BL54" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="BM54" t="n">
         <v>2</v>
@@ -12338,7 +12338,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>6671581</v>
+        <v>6671580</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -12358,12 +12358,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -12376,155 +12376,155 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['82', '85']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC55" t="n">
         <v>6</v>
       </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>['79', '88', '90+4']</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>['65', '73', '83']</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T55" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U55" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V55" t="n">
-        <v>3</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X55" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>10</v>
-      </c>
       <c r="BD55" t="n">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="BE55" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF55" t="n">
-        <v>3.09</v>
+        <v>2.3</v>
       </c>
       <c r="BG55" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH55" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="BI55" t="n">
         <v>1.33</v>
@@ -12536,7 +12536,7 @@
         <v>1.6</v>
       </c>
       <c r="BL55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BM55" t="n">
         <v>2</v>
@@ -12556,7 +12556,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>6671583</v>
+        <v>6671578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -12576,35 +12576,35 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>['36', '48', '70', '90']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -12613,160 +12613,160 @@
         </is>
       </c>
       <c r="Q56" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V56" t="n">
         <v>2.25</v>
       </c>
-      <c r="R56" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S56" t="n">
+      <c r="W56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X56" t="n">
         <v>5.5</v>
       </c>
-      <c r="T56" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V56" t="n">
+      <c r="Y56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO56" t="n">
         <v>3</v>
       </c>
-      <c r="W56" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X56" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.4</v>
+        <v>2.71</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.16</v>
+        <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.1</v>
+        <v>3.76</v>
       </c>
       <c r="AU56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW56" t="n">
         <v>4</v>
       </c>
       <c r="AX56" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY56" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC56" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK56" t="n">
         <v>1.51</v>
       </c>
-      <c r="BE56" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BH56" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BI56" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BL56" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BM56" t="n">
         <v>1.98</v>
       </c>
       <c r="BN56" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="BO56" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="BP56" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="57">
@@ -13428,7 +13428,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>6671589</v>
+        <v>6671586</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -13448,95 +13448,95 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V60" t="n">
         <v>3</v>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>['1', '7']</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>['47']</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
+      <c r="W60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X60" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF60" t="n">
         <v>3.4</v>
       </c>
-      <c r="R60" t="n">
-        <v>2</v>
-      </c>
-      <c r="S60" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U60" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V60" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X60" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AG60" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AI60" t="n">
         <v>1.95</v>
@@ -13545,100 +13545,100 @@
         <v>1.8</v>
       </c>
       <c r="AK60" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="AL60" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD60" t="n">
         <v>1.34</v>
       </c>
-      <c r="AM60" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>2.28</v>
-      </c>
       <c r="BE60" t="n">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="BF60" t="n">
-        <v>1.85</v>
+        <v>4.02</v>
       </c>
       <c r="BG60" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="BH60" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="BI60" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="BJ60" t="n">
-        <v>2.88</v>
+        <v>3.42</v>
       </c>
       <c r="BK60" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="BL60" t="n">
-        <v>2.14</v>
+        <v>2.47</v>
       </c>
       <c r="BM60" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="BN60" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="BO60" t="n">
-        <v>2.69</v>
+        <v>2.27</v>
       </c>
       <c r="BP60" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="61">
@@ -13864,7 +13864,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>6671586</v>
+        <v>6671589</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -13884,95 +13884,95 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>['1', '7']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['47']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="R62" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U62" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA62" t="n">
         <v>3</v>
       </c>
-      <c r="W62" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X62" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y62" t="n">
+      <c r="AB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC62" t="n">
         <v>1.08</v>
       </c>
-      <c r="Z62" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AD62" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AF62" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AG62" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AI62" t="n">
         <v>1.95</v>
@@ -13981,100 +13981,100 @@
         <v>1.8</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="AL62" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AM62" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="AN62" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.32</v>
+        <v>0.96</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="AU62" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW62" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX62" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY62" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AZ62" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BA62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB62" t="n">
         <v>12</v>
       </c>
-      <c r="BB62" t="n">
-        <v>1</v>
-      </c>
       <c r="BC62" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BD62" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI62" t="n">
         <v>1.34</v>
       </c>
-      <c r="BE62" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>1.25</v>
-      </c>
       <c r="BJ62" t="n">
-        <v>3.42</v>
+        <v>2.88</v>
       </c>
       <c r="BK62" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="BL62" t="n">
-        <v>2.47</v>
+        <v>2.14</v>
       </c>
       <c r="BM62" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="BO62" t="n">
-        <v>2.27</v>
+        <v>2.69</v>
       </c>
       <c r="BP62" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="63">
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15165,6 +15165,224 @@
       </c>
       <c r="BP67" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6671577</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45237.69791666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['17', '27']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['68', '74']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X68" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.33</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.2</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.4</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.4</v>
@@ -15383,6 +15383,224 @@
       </c>
       <c r="BP68" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6671595</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45238.69791666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['53', '90+2']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['12', '69']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X69" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.83</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.4</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.71</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1.2</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4625,7 +4625,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR19" t="n">
         <v>1.24</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR28" t="n">
         <v>1.11</v>
@@ -7020,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.71</v>
@@ -7677,7 +7677,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.4</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR36" t="n">
         <v>1.19</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.71</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR41" t="n">
         <v>1.85</v>
@@ -9639,7 +9639,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.71</v>
@@ -10072,10 +10072,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.83</v>
@@ -10729,7 +10729,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -11816,10 +11816,10 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR52" t="n">
         <v>1.05</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55" t="n">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.71</v>
@@ -12909,7 +12909,7 @@
         <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR59" t="n">
         <v>1.74</v>
@@ -13778,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR61" t="n">
         <v>1.46</v>
@@ -13996,10 +13996,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR62" t="n">
         <v>0.96</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR63" t="n">
         <v>2.33</v>
@@ -14432,10 +14432,10 @@
         <v>2.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -15086,7 +15086,7 @@
         <v>0.83</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.71</v>
@@ -15304,7 +15304,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.83</v>
@@ -15601,6 +15601,1314 @@
       </c>
       <c r="BP69" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6671597</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>13</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['16', '45+2', '57', '85']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X70" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6671598</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>13</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X71" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6671600</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>13</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['27', '71']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X72" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6671601</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>13</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6671599</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45242.375</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['26', '75']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>8</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6671596</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45242.47916666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['9', '16', '77', '90+2', '90+6', '90+9']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.86</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ14" t="n">
         <v>2.5</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -3971,7 +3971,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.5</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.14</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.14</v>
@@ -6805,7 +6805,7 @@
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.5</v>
@@ -7895,7 +7895,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8549,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.5</v>
@@ -9857,7 +9857,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR43" t="n">
         <v>0.93</v>
@@ -10072,10 +10072,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10293,7 +10293,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR45" t="n">
         <v>1.32</v>
@@ -10508,10 +10508,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR46" t="n">
         <v>1.2</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.5</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11165,7 +11165,7 @@
         <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR49" t="n">
         <v>1.39</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR50" t="n">
         <v>1.91</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.71</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.86</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR60" t="n">
         <v>1.32</v>
@@ -13999,7 +13999,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR62" t="n">
         <v>0.96</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.33</v>
@@ -14432,7 +14432,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.5</v>
@@ -14650,7 +14650,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.71</v>
@@ -14871,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15086,10 +15086,10 @@
         <v>0.83</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR67" t="n">
         <v>1.23</v>
@@ -15307,7 +15307,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR68" t="n">
         <v>0.99</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -15740,7 +15740,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.33</v>
@@ -15961,7 +15961,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR71" t="n">
         <v>1.61</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.14</v>
@@ -16908,6 +16908,1096 @@
         <v>2.37</v>
       </c>
       <c r="BP75" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6671604</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>14</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['16', '58']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X76" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6671607</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>14</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X77" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6671606</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>14</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X78" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6671605</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>14</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>6</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6671603</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>11</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U80" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP80" t="n">
         <v>1.47</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -6151,7 +6151,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -14435,7 +14435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -16615,7 +16615,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR74" t="n">
         <v>1.17</v>
@@ -16964,7 +16964,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -17063,31 +17063,31 @@
         <v>2.3</v>
       </c>
       <c r="AU76" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV76" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW76" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX76" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY76" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ76" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA76" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB76" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC76" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD76" t="n">
         <v>2.05</v>
@@ -17281,31 +17281,31 @@
         <v>2.22</v>
       </c>
       <c r="AU77" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV77" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW77" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX77" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY77" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ77" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA77" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB77" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC77" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD77" t="n">
         <v>1.31</v>
@@ -17499,31 +17499,31 @@
         <v>2.64</v>
       </c>
       <c r="AU78" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV78" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW78" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX78" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY78" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ78" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA78" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB78" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC78" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD78" t="n">
         <v>2.44</v>
@@ -17717,31 +17717,31 @@
         <v>2.6</v>
       </c>
       <c r="AU79" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV79" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW79" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY79" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ79" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA79" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB79" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC79" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD79" t="n">
         <v>1.21</v>
@@ -17935,31 +17935,31 @@
         <v>3.57</v>
       </c>
       <c r="AU80" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV80" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW80" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX80" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY80" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA80" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB80" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC80" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD80" t="n">
         <v>1.06</v>
@@ -17999,6 +17999,224 @@
       </c>
       <c r="BP80" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6671602</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45256.375</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -18153,31 +18153,31 @@
         <v>3.28</v>
       </c>
       <c r="AU81" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV81" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AW81" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX81" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY81" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AZ81" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="BA81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BB81" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BC81" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BD81" t="n">
         <v>3.68</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.33</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ14" t="n">
         <v>2.29</v>
@@ -4843,7 +4843,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.63</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.5</v>
@@ -14217,7 +14217,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR63" t="n">
         <v>2.33</v>
@@ -14650,7 +14650,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.71</v>
@@ -15743,7 +15743,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -17484,7 +17484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.43</v>
@@ -18153,31 +18153,31 @@
         <v>3.28</v>
       </c>
       <c r="AU81" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV81" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AW81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX81" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY81" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ81" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB81" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC81" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD81" t="n">
         <v>3.68</v>
@@ -18217,6 +18217,224 @@
       </c>
       <c r="BP81" t="n">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6671576</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45258.69791666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V82" t="n">
+        <v>3</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X82" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.29</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.63</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.63</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>1.24</v>
@@ -4843,7 +4843,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.86</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.29</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.11</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.29</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7459,7 +7459,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -7677,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.33</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.86</v>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9418,10 +9418,10 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.85</v>
@@ -9639,7 +9639,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.63</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.63</v>
@@ -11380,7 +11380,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.29</v>
@@ -11601,7 +11601,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -12906,10 +12906,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.86</v>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR61" t="n">
         <v>1.46</v>
@@ -13996,7 +13996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.43</v>
@@ -14217,7 +14217,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>2.33</v>
@@ -14653,7 +14653,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR65" t="n">
         <v>1.37</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.86</v>
@@ -15304,7 +15304,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.86</v>
@@ -15743,7 +15743,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.43</v>
@@ -16179,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.86</v>
@@ -16833,7 +16833,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
         <v>2.39</v>
@@ -18359,7 +18359,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.25</v>
@@ -18435,6 +18435,1096 @@
       </c>
       <c r="BP82" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6671609</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45262.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>15</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X83" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6671611</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45262.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>15</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="n">
+        <v>6</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['6', '68', '90+7']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['30', '34', '88']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X84" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6671613</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45263.375</v>
+      </c>
+      <c r="F85" t="n">
+        <v>15</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['67', '79', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>9</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X85" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6671608</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['18', '70']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X86" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6671612</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['45', '70']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S87" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X87" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.33</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14" t="n">
         <v>2.29</v>
@@ -5933,7 +5933,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.63</v>
@@ -8549,7 +8549,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.71</v>
@@ -10293,7 +10293,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR45" t="n">
         <v>1.32</v>
@@ -14650,7 +14650,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.75</v>
@@ -14871,7 +14871,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15307,7 +15307,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR68" t="n">
         <v>0.99</v>
@@ -17484,7 +17484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.43</v>
@@ -17923,7 +17923,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR80" t="n">
         <v>2.44</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -19525,6 +19525,224 @@
       </c>
       <c r="BP87" t="n">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6671618</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45265.69791666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['2', '18', '56']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X88" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.86</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.71</v>
@@ -1791,7 +1791,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.75</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.33</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4843,7 +4843,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.75</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -8113,7 +8113,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.86</v>
@@ -9203,7 +9203,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.63</v>
@@ -10072,10 +10072,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10508,10 +10508,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR46" t="n">
         <v>1.2</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.33</v>
@@ -11383,7 +11383,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR50" t="n">
         <v>1.91</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.75</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.63</v>
@@ -13996,10 +13996,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR62" t="n">
         <v>0.96</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR63" t="n">
         <v>2.33</v>
@@ -14435,7 +14435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -15304,7 +15304,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.75</v>
@@ -15525,7 +15525,7 @@
         <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -15743,7 +15743,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR71" t="n">
         <v>1.61</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.86</v>
@@ -16615,7 +16615,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR74" t="n">
         <v>1.17</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17487,7 +17487,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -17702,7 +17702,7 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.33</v>
@@ -17920,7 +17920,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.75</v>
@@ -18138,10 +18138,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR81" t="n">
         <v>1.24</v>
@@ -18359,7 +18359,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR82" t="n">
         <v>1.25</v>
@@ -19010,7 +19010,7 @@
         <v>2.71</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.75</v>
@@ -19449,7 +19449,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR87" t="n">
         <v>2.04</v>
@@ -19743,6 +19743,878 @@
       </c>
       <c r="BP88" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6671614</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45266.69791666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>16</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X89" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6671615</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45266.69791666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>16</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['5', '36', '51', '55']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S90" t="n">
+        <v>11</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6671619</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45266.69791666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>16</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X91" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6671617</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45266.70833333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>16</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>6</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.63</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.75</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.89</v>
@@ -5061,7 +5061,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5279,7 +5279,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.75</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -6369,7 +6369,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -6805,7 +6805,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.75</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8328,10 +8328,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR36" t="n">
         <v>1.19</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.75</v>
@@ -8985,7 +8985,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -9418,7 +9418,7 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9639,7 +9639,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.75</v>
@@ -10511,7 +10511,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR46" t="n">
         <v>1.2</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.38</v>
@@ -10944,10 +10944,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11380,10 +11380,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>1.91</v>
@@ -11819,7 +11819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR52" t="n">
         <v>1.05</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13345,7 +13345,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR59" t="n">
         <v>1.74</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -16179,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -16397,7 +16397,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR73" t="n">
         <v>0.99</v>
@@ -16612,7 +16612,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.38</v>
@@ -17051,7 +17051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17266,7 +17266,7 @@
         <v>0.71</v>
       </c>
       <c r="AP77" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.63</v>
@@ -17705,7 +17705,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR79" t="n">
         <v>1.56</v>
@@ -18138,7 +18138,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.38</v>
@@ -18577,7 +18577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -18795,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -19446,7 +19446,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.89</v>
@@ -19882,7 +19882,7 @@
         <v>0.43</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.75</v>
@@ -20103,7 +20103,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR90" t="n">
         <v>2.41</v>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['90+6']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -20615,6 +20615,1096 @@
       </c>
       <c r="BP92" t="n">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6671623</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>17</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X93" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6671624</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>17</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['20', '26', '34']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S94" t="n">
+        <v>11</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6671620</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>17</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['53', '90+2']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6671625</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>17</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['51', '56']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X96" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6671622</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>17</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X97" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.38</v>
@@ -2881,7 +2881,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.75</v>
@@ -5497,7 +5497,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.33</v>
@@ -7459,7 +7459,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -8767,7 +8767,7 @@
         <v>1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -9200,7 +9200,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.89</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.63</v>
@@ -11601,7 +11601,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -12691,7 +12691,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -12906,7 +12906,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR65" t="n">
         <v>1.37</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.75</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.5</v>
@@ -19013,7 +19013,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR85" t="n">
         <v>1</v>
@@ -20769,31 +20769,31 @@
         <v>2.34</v>
       </c>
       <c r="AU93" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV93" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW93" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX93" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY93" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ93" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA93" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB93" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC93" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD93" t="n">
         <v>1.82</v>
@@ -20987,31 +20987,31 @@
         <v>3.33</v>
       </c>
       <c r="AU94" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV94" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW94" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX94" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY94" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ94" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA94" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB94" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC94" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD94" t="n">
         <v>1.08</v>
@@ -21205,31 +21205,31 @@
         <v>2.53</v>
       </c>
       <c r="AU95" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV95" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW95" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX95" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY95" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ95" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA95" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB95" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC95" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD95" t="n">
         <v>2.15</v>
@@ -21423,31 +21423,31 @@
         <v>2.42</v>
       </c>
       <c r="AU96" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV96" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW96" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX96" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY96" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ96" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA96" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB96" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC96" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD96" t="n">
         <v>1.64</v>
@@ -21641,31 +21641,31 @@
         <v>2.13</v>
       </c>
       <c r="AU97" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV97" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW97" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX97" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY97" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ97" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA97" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB97" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC97" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD97" t="n">
         <v>2.39</v>
@@ -21705,6 +21705,224 @@
       </c>
       <c r="BP97" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6671621</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45270.375</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['75', '87']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X98" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -20769,22 +20769,22 @@
         <v>2.34</v>
       </c>
       <c r="AU93" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW93" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY93" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ93" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA93" t="n">
         <v>3</v>
@@ -20987,22 +20987,22 @@
         <v>3.33</v>
       </c>
       <c r="AU94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ94" t="n">
         <v>9</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>14</v>
       </c>
       <c r="BA94" t="n">
         <v>5</v>
@@ -21211,16 +21211,16 @@
         <v>4</v>
       </c>
       <c r="AW95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA95" t="n">
         <v>3</v>
@@ -21423,22 +21423,22 @@
         <v>2.42</v>
       </c>
       <c r="AU96" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV96" t="n">
         <v>3</v>
       </c>
       <c r="AW96" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ96" t="n">
         <v>7</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>20</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>10</v>
       </c>
       <c r="BA96" t="n">
         <v>10</v>
@@ -21641,19 +21641,19 @@
         <v>2.13</v>
       </c>
       <c r="AU97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV97" t="n">
         <v>4</v>
       </c>
       <c r="AW97" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AX97" t="n">
         <v>2</v>
       </c>
       <c r="AY97" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ97" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.75</v>
@@ -1137,7 +1137,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.43</v>
@@ -3099,7 +3099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
         <v>2.38</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.43</v>
@@ -4189,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.89</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5715,7 +5715,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -5933,7 +5933,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.38</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -6805,7 +6805,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.63</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.44</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -8113,7 +8113,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8549,7 +8549,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -8985,7 +8985,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.63</v>
@@ -10072,10 +10072,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10290,10 +10290,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR45" t="n">
         <v>1.32</v>
@@ -10511,7 +10511,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR46" t="n">
         <v>1.2</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.38</v>
@@ -11383,7 +11383,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.91</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.43</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -13127,7 +13127,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13996,10 +13996,10 @@
         <v>0.5</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR62" t="n">
         <v>0.96</v>
@@ -14214,7 +14214,7 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.89</v>
@@ -14650,7 +14650,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.44</v>
@@ -14871,7 +14871,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15304,10 +15304,10 @@
         <v>0.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR68" t="n">
         <v>0.99</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -15961,7 +15961,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR71" t="n">
         <v>1.61</v>
@@ -16179,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.75</v>
@@ -16612,7 +16612,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.38</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR76" t="n">
         <v>1.23</v>
@@ -17266,7 +17266,7 @@
         <v>0.71</v>
       </c>
       <c r="AP77" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.63</v>
@@ -17484,10 +17484,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -17920,10 +17920,10 @@
         <v>0.83</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR80" t="n">
         <v>2.44</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.89</v>
@@ -18577,7 +18577,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -18795,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -19010,7 +19010,7 @@
         <v>2.71</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.44</v>
@@ -19664,10 +19664,10 @@
         <v>0.86</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR88" t="n">
         <v>1.21</v>
@@ -19885,7 +19885,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR89" t="n">
         <v>1.19</v>
@@ -20100,10 +20100,10 @@
         <v>1.29</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR90" t="n">
         <v>2.41</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.89</v>
@@ -20975,7 +20975,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR94" t="n">
         <v>2.09</v>
@@ -21193,7 +21193,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR95" t="n">
         <v>1.2</v>
@@ -21408,7 +21408,7 @@
         <v>0.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.75</v>
@@ -21626,10 +21626,10 @@
         <v>1.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.09</v>
@@ -21923,6 +21923,1096 @@
       </c>
       <c r="BP98" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6671649</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>21</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X99" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6671626</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>18</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['15', '30']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S100" t="n">
+        <v>8</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6671628</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>18</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X101" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6671629</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>18</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X102" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6671631</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>18</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X103" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.44</v>
@@ -3753,7 +3753,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -3971,7 +3971,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.44</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.2</v>
@@ -7241,7 +7241,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.75</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.78</v>
@@ -9418,7 +9418,7 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR43" t="n">
         <v>0.93</v>
@@ -10944,10 +10944,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11165,7 +11165,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49" t="n">
         <v>1.39</v>
@@ -11380,7 +11380,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.2</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.67</v>
@@ -13563,7 +13563,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR60" t="n">
         <v>1.32</v>
@@ -15089,7 +15089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR67" t="n">
         <v>1.23</v>
@@ -17269,7 +17269,7 @@
         <v>2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR77" t="n">
         <v>1.3</v>
@@ -17705,7 +17705,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR79" t="n">
         <v>1.56</v>
@@ -18138,7 +18138,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.38</v>
@@ -19446,7 +19446,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ87" t="n">
         <v>0.89</v>
@@ -19882,7 +19882,7 @@
         <v>0.43</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.78</v>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR93" t="n">
         <v>1.31</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.13</v>
@@ -21190,7 +21190,7 @@
         <v>1.71</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.67</v>
@@ -23013,6 +23013,442 @@
       </c>
       <c r="BP103" t="n">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6671593</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45280.69791666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['28', '85']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>13</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6671590</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45280.69791666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['42', '65']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X105" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.75</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.38</v>
@@ -2009,7 +2009,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.78</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -3971,7 +3971,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4843,7 +4843,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.75</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.78</v>
@@ -6366,7 +6366,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.13</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.2</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7241,7 +7241,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7895,7 +7895,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -9200,10 +9200,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR43" t="n">
         <v>0.93</v>
@@ -10072,7 +10072,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.78</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.2</v>
@@ -10947,7 +10947,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11162,10 +11162,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR49" t="n">
         <v>1.39</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.44</v>
@@ -12037,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -12906,7 +12906,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR60" t="n">
         <v>1.32</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR63" t="n">
         <v>2.33</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.78</v>
@@ -15089,7 +15089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.23</v>
@@ -15743,7 +15743,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>2</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.3</v>
@@ -17702,10 +17702,10 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR79" t="n">
         <v>1.56</v>
@@ -17920,7 +17920,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.78</v>
@@ -18359,7 +18359,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR82" t="n">
         <v>1.25</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.67</v>
@@ -19449,7 +19449,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR87" t="n">
         <v>2.04</v>
@@ -20100,7 +20100,7 @@
         <v>1.29</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.2</v>
@@ -20321,7 +20321,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR91" t="n">
         <v>0.99</v>
@@ -20536,7 +20536,7 @@
         <v>2.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92" t="n">
         <v>2.38</v>
@@ -20757,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR93" t="n">
         <v>1.31</v>
@@ -21844,7 +21844,7 @@
         <v>2.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.44</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.67</v>
@@ -23155,7 +23155,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR104" t="n">
         <v>2.1</v>
@@ -23167,31 +23167,31 @@
         <v>3.15</v>
       </c>
       <c r="AU104" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW104" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX104" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY104" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ104" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA104" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB104" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC104" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD104" t="n">
         <v>1.04</v>
@@ -23373,7 +23373,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR105" t="n">
         <v>1.26</v>
@@ -23385,31 +23385,31 @@
         <v>2.18</v>
       </c>
       <c r="AU105" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV105" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW105" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX105" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY105" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ105" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB105" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC105" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD105" t="n">
         <v>1.37</v>
@@ -23448,6 +23448,660 @@
         <v>2.45</v>
       </c>
       <c r="BP105" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6671632</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45283.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>19</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['46', '51']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S106" t="n">
+        <v>17</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6671634</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45283.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>19</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['33', '49']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X107" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6671635</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45283.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>19</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['6', '17']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>6</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X108" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP108" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP108"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.2</v>
@@ -3535,7 +3535,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.78</v>
@@ -6151,7 +6151,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -7020,7 +7020,7 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.8</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.44</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.75</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -16176,7 +16176,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.67</v>
@@ -16615,7 +16615,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR74" t="n">
         <v>1.17</v>
@@ -18141,7 +18141,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR81" t="n">
         <v>1.24</v>
@@ -18792,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="AP84" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.13</v>
@@ -20539,7 +20539,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR92" t="n">
         <v>1.57</v>
@@ -20754,7 +20754,7 @@
         <v>0.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ93" t="n">
         <v>0.33</v>
@@ -23603,31 +23603,31 @@
         <v>3.4</v>
       </c>
       <c r="AU106" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW106" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY106" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA106" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC106" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD106" t="n">
         <v>1.03</v>
@@ -23821,31 +23821,31 @@
         <v>2.53</v>
       </c>
       <c r="AU107" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV107" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW107" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX107" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY107" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ107" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA107" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB107" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC107" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD107" t="n">
         <v>1.51</v>
@@ -24039,31 +24039,31 @@
         <v>2.49</v>
       </c>
       <c r="AU108" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV108" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW108" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX108" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY108" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ108" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA108" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB108" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC108" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD108" t="n">
         <v>1.45</v>
@@ -24103,6 +24103,224 @@
       </c>
       <c r="BP108" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6671636</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45284.375</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['3', '16']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.78</v>
@@ -2881,7 +2881,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.67</v>
@@ -5497,7 +5497,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -7459,7 +7459,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -8110,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.78</v>
@@ -8767,7 +8767,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -11601,7 +11601,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.75</v>
@@ -12691,7 +12691,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.44</v>
@@ -14653,7 +14653,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.37</v>
@@ -15086,7 +15086,7 @@
         <v>0.83</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.5</v>
@@ -15740,7 +15740,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.8</v>
@@ -17048,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.2</v>
@@ -19013,7 +19013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR85" t="n">
         <v>1</v>
@@ -21847,7 +21847,7 @@
         <v>2</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -24321,6 +24321,224 @@
       </c>
       <c r="BP109" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6671639</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45286.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>20</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['52', '83', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>8</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.5</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.2</v>
@@ -3535,7 +3535,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4407,7 +4407,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5279,7 +5279,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.2</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.78</v>
@@ -6151,7 +6151,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.2</v>
@@ -7020,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7241,7 +7241,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.5</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8328,10 +8328,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR36" t="n">
         <v>1.19</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.5</v>
@@ -8982,10 +8982,10 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -9200,10 +9200,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9639,7 +9639,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR43" t="n">
         <v>0.93</v>
@@ -10072,10 +10072,10 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.78</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.2</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -10944,10 +10944,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11162,10 +11162,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR49" t="n">
         <v>1.39</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.5</v>
@@ -11819,7 +11819,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR52" t="n">
         <v>1.05</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.5</v>
@@ -12906,7 +12906,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13342,10 +13342,10 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR59" t="n">
         <v>1.74</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR60" t="n">
         <v>1.32</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR62" t="n">
         <v>0.96</v>
@@ -14214,10 +14214,10 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>2.33</v>
@@ -14435,7 +14435,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.78</v>
@@ -15089,7 +15089,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR67" t="n">
         <v>1.23</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.2</v>
@@ -15743,7 +15743,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -15958,10 +15958,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR71" t="n">
         <v>1.61</v>
@@ -16176,10 +16176,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -16397,7 +16397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR73" t="n">
         <v>0.99</v>
@@ -16612,10 +16612,10 @@
         <v>2.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR74" t="n">
         <v>1.17</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ75" t="n">
         <v>1</v>
@@ -17266,10 +17266,10 @@
         <v>0.71</v>
       </c>
       <c r="AP77" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR77" t="n">
         <v>1.3</v>
@@ -17487,7 +17487,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -17702,10 +17702,10 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR79" t="n">
         <v>1.56</v>
@@ -17920,7 +17920,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ80" t="n">
         <v>0.78</v>
@@ -18138,10 +18138,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR81" t="n">
         <v>1.24</v>
@@ -18359,7 +18359,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR82" t="n">
         <v>1.25</v>
@@ -18574,10 +18574,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -18792,10 +18792,10 @@
         <v>1</v>
       </c>
       <c r="AP84" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -19228,7 +19228,7 @@
         <v>1.14</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19449,7 +19449,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR87" t="n">
         <v>2.04</v>
@@ -19882,10 +19882,10 @@
         <v>0.43</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR89" t="n">
         <v>1.19</v>
@@ -20100,7 +20100,7 @@
         <v>1.29</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.2</v>
@@ -20321,7 +20321,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>0.99</v>
@@ -20536,10 +20536,10 @@
         <v>2.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR92" t="n">
         <v>1.57</v>
@@ -20754,10 +20754,10 @@
         <v>0.33</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ93" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR93" t="n">
         <v>1.31</v>
@@ -20975,7 +20975,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR94" t="n">
         <v>2.09</v>
@@ -21190,10 +21190,10 @@
         <v>1.71</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR95" t="n">
         <v>1.2</v>
@@ -21408,10 +21408,10 @@
         <v>0.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR96" t="n">
         <v>1.3</v>
@@ -21626,7 +21626,7 @@
         <v>1.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.2</v>
@@ -21844,7 +21844,7 @@
         <v>2.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.5</v>
@@ -22280,10 +22280,10 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR100" t="n">
         <v>2.45</v>
@@ -22498,10 +22498,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.12</v>
@@ -22719,7 +22719,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR102" t="n">
         <v>1.25</v>
@@ -22934,7 +22934,7 @@
         <v>0.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.78</v>
@@ -23155,7 +23155,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR104" t="n">
         <v>2.1</v>
@@ -23370,10 +23370,10 @@
         <v>0.63</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR105" t="n">
         <v>1.26</v>
@@ -23588,10 +23588,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR106" t="n">
         <v>2.43</v>
@@ -23806,10 +23806,10 @@
         <v>0.89</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR107" t="n">
         <v>1.54</v>
@@ -24024,10 +24024,10 @@
         <v>0.38</v>
       </c>
       <c r="AP108" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR108" t="n">
         <v>1.55</v>
@@ -24242,10 +24242,10 @@
         <v>2.38</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ109" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AR109" t="n">
         <v>1.38</v>
@@ -24475,31 +24475,31 @@
         <v>3.31</v>
       </c>
       <c r="AU110" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV110" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX110" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AY110" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ110" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="BA110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB110" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="BC110" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="BD110" t="n">
         <v>6.8</v>
@@ -24539,6 +24539,1750 @@
       </c>
       <c r="BP110" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6671642</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45287.69791666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>20</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X111" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6671640</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45287.69791666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>20</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X112" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6671643</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45287.70833333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>20</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X113" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6671644</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45290.39583333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>21</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['25', '47']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6671645</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45290.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>21</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['12', '78', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X115" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6671646</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45290.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>21</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['71', '79']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['55', '61']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X116" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6671647</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45290.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>21</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['85', '90+3']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['35', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X117" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6671648</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45290.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>21</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>4</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>4</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['14', '19', '35']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X118" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -25347,22 +25347,22 @@
         <v>4.46</v>
       </c>
       <c r="AU114" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV114" t="n">
         <v>4</v>
       </c>
       <c r="AW114" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY114" t="n">
         <v>11</v>
       </c>
-      <c r="AY114" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ114" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA114" t="n">
         <v>4</v>
@@ -25565,31 +25565,31 @@
         <v>2.29</v>
       </c>
       <c r="AU115" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV115" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW115" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY115" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ115" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA115" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB115" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC115" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD115" t="n">
         <v>1.95</v>
@@ -25783,31 +25783,31 @@
         <v>2.64</v>
       </c>
       <c r="AU116" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV116" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW116" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX116" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY116" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ116" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA116" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB116" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC116" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD116" t="n">
         <v>1.3</v>
@@ -26001,31 +26001,31 @@
         <v>2.81</v>
       </c>
       <c r="AU117" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV117" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX117" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY117" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ117" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA117" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB117" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC117" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD117" t="n">
         <v>1.59</v>
@@ -26219,31 +26219,31 @@
         <v>2.21</v>
       </c>
       <c r="AU118" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV118" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW118" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX118" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY118" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ118" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA118" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB118" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC118" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD118" t="n">
         <v>1.45</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.11</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.4</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.45</v>
@@ -2881,7 +2881,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ14" t="n">
         <v>2.2</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.45</v>
@@ -4189,7 +4189,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4407,7 +4407,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR19" t="n">
         <v>1.24</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -5933,7 +5933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR28" t="n">
         <v>1.11</v>
@@ -7238,7 +7238,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.45</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.4</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -8767,7 +8767,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.11</v>
@@ -9418,10 +9418,10 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR41" t="n">
         <v>1.85</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -10075,7 +10075,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10290,10 +10290,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR45" t="n">
         <v>1.32</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.2</v>
@@ -11380,7 +11380,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.2</v>
@@ -11601,7 +11601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.4</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.11</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -12909,7 +12909,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.78</v>
@@ -13781,7 +13781,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR61" t="n">
         <v>1.46</v>
@@ -13999,7 +13999,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR62" t="n">
         <v>0.96</v>
@@ -14650,10 +14650,10 @@
         <v>2.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR65" t="n">
         <v>1.37</v>
@@ -14871,7 +14871,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15307,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR68" t="n">
         <v>0.99</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.2</v>
@@ -15958,10 +15958,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR71" t="n">
         <v>1.61</v>
@@ -16179,7 +16179,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -16612,7 +16612,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.2</v>
@@ -16833,7 +16833,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR75" t="n">
         <v>2.39</v>
@@ -17266,7 +17266,7 @@
         <v>0.71</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.45</v>
@@ -17484,10 +17484,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -17923,7 +17923,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR80" t="n">
         <v>2.44</v>
@@ -18356,7 +18356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -19013,7 +19013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR85" t="n">
         <v>1</v>
@@ -19228,10 +19228,10 @@
         <v>1.14</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -19446,7 +19446,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -19664,10 +19664,10 @@
         <v>0.86</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR88" t="n">
         <v>1.21</v>
@@ -19885,7 +19885,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR89" t="n">
         <v>1.19</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.11</v>
@@ -21193,7 +21193,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR95" t="n">
         <v>1.2</v>
@@ -21408,7 +21408,7 @@
         <v>0.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.78</v>
@@ -21626,7 +21626,7 @@
         <v>1.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.2</v>
@@ -21847,7 +21847,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22283,7 +22283,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR100" t="n">
         <v>2.45</v>
@@ -22498,10 +22498,10 @@
         <v>0.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR101" t="n">
         <v>1.12</v>
@@ -22716,7 +22716,7 @@
         <v>0.86</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.11</v>
@@ -22934,10 +22934,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AR103" t="n">
         <v>1.33</v>
@@ -23152,7 +23152,7 @@
         <v>0.43</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.4</v>
@@ -24463,7 +24463,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR110" t="n">
         <v>1.29</v>
@@ -24678,10 +24678,10 @@
         <v>0.78</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR111" t="n">
         <v>1.31</v>
@@ -24896,7 +24896,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.4</v>
@@ -25114,10 +25114,10 @@
         <v>1.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR113" t="n">
         <v>1.47</v>
@@ -26283,6 +26283,1096 @@
       </c>
       <c r="BP118" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6671654</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45293.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>22</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>3</v>
+      </c>
+      <c r="N119" t="n">
+        <v>3</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['24', '30', '80']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X119" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6671651</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45293.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>22</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>4</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['28', '90+1']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['35', '64']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X120" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6671652</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45293.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>22</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['53', '64']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X121" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6671653</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45293.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['41', '45', '61']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S122" t="n">
+        <v>8</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X122" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6671655</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45293.58333333334</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['1', '6', '60']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>8</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X123" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.87</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -13428,7 +13428,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>6671586</v>
+        <v>6671588</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -13448,50 +13448,50 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>['78', '90+3']</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['26', '44', '68', '74']</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="R60" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="T60" t="n">
         <v>1.4</v>
@@ -13512,133 +13512,133 @@
         <v>1.08</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.6</v>
+        <v>2.64</v>
       </c>
       <c r="AA60" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="AB60" t="n">
-        <v>4.6</v>
+        <v>2.35</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE60" t="n">
         <v>1.33</v>
       </c>
       <c r="AF60" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AG60" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AI60" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK60" t="n">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AM60" t="n">
-        <v>2.05</v>
+        <v>1.47</v>
       </c>
       <c r="AN60" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO60" t="n">
         <v>1</v>
       </c>
       <c r="AP60" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP60" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BP60" t="n">
-        <v>1.56</v>
       </c>
     </row>
     <row r="61">
@@ -13646,7 +13646,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>6671588</v>
+        <v>6671589</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -13666,19 +13666,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
@@ -13687,176 +13687,176 @@
         <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['78', '90+3']</t>
+          <t>['1', '7']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>['26', '44', '68', '74']</t>
+          <t>['47']</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R61" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
         <v>3.4</v>
       </c>
       <c r="T61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AS61" t="n">
         <v>1.4</v>
       </c>
-      <c r="U61" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V61" t="n">
-        <v>3</v>
-      </c>
-      <c r="W61" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X61" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD61" t="n">
+      <c r="AT61" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX61" t="n">
         <v>10</v>
       </c>
-      <c r="AE61" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW61" t="n">
+      <c r="AY61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA61" t="n">
         <v>5</v>
       </c>
-      <c r="AX61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>1</v>
-      </c>
       <c r="BB61" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BC61" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BD61" t="n">
-        <v>1.76</v>
+        <v>2.28</v>
       </c>
       <c r="BE61" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF61" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="BG61" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="BH61" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="BI61" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BJ61" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BK61" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="BL61" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="BM61" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="BN61" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="BO61" t="n">
-        <v>2.41</v>
+        <v>2.69</v>
       </c>
       <c r="BP61" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="62">
@@ -13864,7 +13864,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>6671589</v>
+        <v>6671584</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -13884,19 +13884,19 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>2</v>
@@ -13912,169 +13912,169 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>['1', '7']</t>
+          <t>['18', '83']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['47']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="R62" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="S62" t="n">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="T62" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AN62" t="n">
         <v>2.5</v>
       </c>
-      <c r="V62" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X62" t="n">
+      <c r="AO62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW62" t="n">
         <v>10</v>
       </c>
-      <c r="Y62" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AU62" t="n">
+      <c r="AX62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH62" t="n">
         <v>5</v>
       </c>
-      <c r="AV62" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BI62" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="BJ62" t="n">
-        <v>2.88</v>
+        <v>3.34</v>
       </c>
       <c r="BK62" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="BL62" t="n">
-        <v>2.14</v>
+        <v>2.47</v>
       </c>
       <c r="BM62" t="n">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="BO62" t="n">
-        <v>2.69</v>
+        <v>2.27</v>
       </c>
       <c r="BP62" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="63">
@@ -14082,7 +14082,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>6671584</v>
+        <v>6671586</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -14102,143 +14102,143 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V63" t="n">
         <v>3</v>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>['18', '83']</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>['7']</t>
-        </is>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S63" t="n">
-        <v>10</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U63" t="n">
+      <c r="W63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X63" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX63" t="n">
         <v>4</v>
-      </c>
-      <c r="V63" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X63" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>1</v>
       </c>
       <c r="AY63" t="n">
         <v>19</v>
@@ -14250,31 +14250,31 @@
         <v>12</v>
       </c>
       <c r="BB63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD63" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="BE63" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="BF63" t="n">
-        <v>9.449999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="BG63" t="n">
         <v>1.12</v>
       </c>
       <c r="BH63" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BI63" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BJ63" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="BK63" t="n">
         <v>1.48</v>
@@ -16916,7 +16916,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>6671604</v>
+        <v>6671603</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -16936,143 +16936,143 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>11</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U76" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV76" t="n">
         <v>3</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>['85']</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>['16', '58']</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R76" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S76" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V76" t="n">
-        <v>3</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X76" t="n">
+      <c r="AW76" t="n">
         <v>8</v>
       </c>
-      <c r="Y76" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV76" t="n">
+      <c r="AX76" t="n">
         <v>4</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>3</v>
       </c>
       <c r="AY76" t="n">
         <v>13</v>
@@ -17081,28 +17081,28 @@
         <v>7</v>
       </c>
       <c r="BA76" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BB76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC76" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD76" t="n">
-        <v>2.05</v>
+        <v>1.06</v>
       </c>
       <c r="BE76" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="BF76" t="n">
-        <v>1.95</v>
+        <v>11.3</v>
       </c>
       <c r="BG76" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="BH76" t="n">
-        <v>5.15</v>
+        <v>5.4</v>
       </c>
       <c r="BI76" t="n">
         <v>1.26</v>
@@ -17114,19 +17114,19 @@
         <v>1.47</v>
       </c>
       <c r="BL76" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="BM76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN76" t="n">
         <v>1.85</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>1.95</v>
       </c>
       <c r="BO76" t="n">
         <v>2.37</v>
       </c>
       <c r="BP76" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="77">
@@ -17788,7 +17788,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>6671603</v>
+        <v>6671604</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -17808,143 +17808,143 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['16', '58']</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="R80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X80" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA80" t="n">
         <v>3.2</v>
       </c>
-      <c r="S80" t="n">
-        <v>11</v>
-      </c>
-      <c r="T80" t="n">
+      <c r="AB80" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ80" t="n">
         <v>1.2</v>
       </c>
-      <c r="U80" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="V80" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X80" t="n">
+      <c r="AR80" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV80" t="n">
         <v>4</v>
       </c>
-      <c r="Y80" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="AU80" t="n">
+      <c r="AW80" t="n">
         <v>5</v>
       </c>
-      <c r="AV80" t="n">
+      <c r="AX80" t="n">
         <v>3</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>4</v>
       </c>
       <c r="AY80" t="n">
         <v>13</v>
@@ -17953,28 +17953,28 @@
         <v>7</v>
       </c>
       <c r="BA80" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BB80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC80" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BD80" t="n">
-        <v>1.06</v>
+        <v>2.05</v>
       </c>
       <c r="BE80" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="BF80" t="n">
-        <v>11.3</v>
+        <v>1.95</v>
       </c>
       <c r="BG80" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="BH80" t="n">
-        <v>5.4</v>
+        <v>5.15</v>
       </c>
       <c r="BI80" t="n">
         <v>1.26</v>
@@ -17986,19 +17986,19 @@
         <v>1.47</v>
       </c>
       <c r="BL80" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="BM80" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN80" t="n">
         <v>1.95</v>
-      </c>
-      <c r="BN80" t="n">
-        <v>1.85</v>
       </c>
       <c r="BO80" t="n">
         <v>2.37</v>
       </c>
       <c r="BP80" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="81">
@@ -19750,7 +19750,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>6671614</v>
+        <v>6671619</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -19770,12 +19770,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -19788,32 +19788,32 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>['90+2']</t>
-        </is>
-      </c>
       <c r="Q89" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R89" t="n">
         <v>2</v>
       </c>
       <c r="S89" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T89" t="n">
         <v>1.5</v>
@@ -19834,13 +19834,13 @@
         <v>1.05</v>
       </c>
       <c r="Z89" t="n">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="AA89" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB89" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="AC89" t="n">
         <v>1.08</v>
@@ -19849,79 +19849,79 @@
         <v>8.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AG89" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AH89" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AI89" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK89" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AL89" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM89" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="AN89" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AO89" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AS89" t="n">
         <v>0.91</v>
       </c>
-      <c r="AR89" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AT89" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="AU89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW89" t="n">
         <v>4</v>
       </c>
-      <c r="AV89" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW89" t="n">
+      <c r="AX89" t="n">
         <v>5</v>
       </c>
-      <c r="AX89" t="n">
-        <v>4</v>
-      </c>
       <c r="AY89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ89" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
         <v>7</v>
       </c>
-      <c r="BA89" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB89" t="n">
-        <v>5</v>
-      </c>
       <c r="BC89" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD89" t="n">
         <v>2.05</v>
@@ -19933,34 +19933,34 @@
         <v>1.95</v>
       </c>
       <c r="BG89" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="BH89" t="n">
-        <v>4.95</v>
+        <v>4.65</v>
       </c>
       <c r="BI89" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BJ89" t="n">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="BK89" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="BL89" t="n">
-        <v>2.41</v>
+        <v>2.32</v>
       </c>
       <c r="BM89" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="BN89" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="BO89" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="BP89" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="90">
@@ -19968,7 +19968,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>6671615</v>
+        <v>6671614</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -19988,197 +19988,197 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
         <v>4</v>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="n">
+      <c r="T90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X90" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW90" t="n">
         <v>5</v>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>['5', '36', '51', '55']</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>['72']</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R90" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S90" t="n">
-        <v>11</v>
-      </c>
-      <c r="T90" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U90" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V90" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W90" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AF90" t="n">
+      <c r="AX90" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB90" t="n">
         <v>5</v>
       </c>
-      <c r="AG90" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AJ90" t="n">
+      <c r="BC90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP90" t="n">
         <v>1.53</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA90" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB90" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC90" t="n">
-        <v>15</v>
-      </c>
-      <c r="BD90" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="BE90" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF90" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BG90" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="BH90" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BI90" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BJ90" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BK90" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BL90" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BM90" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BN90" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="BO90" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BP90" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="91">
@@ -20186,7 +20186,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>6671619</v>
+        <v>6671615</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -20206,197 +20206,197 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>['5', '36', '51', '55']</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q91" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S91" t="n">
+        <v>11</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U91" t="n">
         <v>3.5</v>
       </c>
-      <c r="R91" t="n">
-        <v>2</v>
-      </c>
-      <c r="S91" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U91" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V91" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="W91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO91" t="n">
         <v>1.29</v>
       </c>
-      <c r="X91" t="n">
+      <c r="AP91" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA91" t="n">
         <v>11</v>
       </c>
-      <c r="Y91" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM91" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP91" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR91" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AT91" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU91" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW91" t="n">
+      <c r="BB91" t="n">
         <v>4</v>
       </c>
-      <c r="AX91" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY91" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ91" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB91" t="n">
-        <v>7</v>
-      </c>
       <c r="BC91" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD91" t="n">
-        <v>2.05</v>
+        <v>1.15</v>
       </c>
       <c r="BE91" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BF91" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="BG91" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="BH91" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="BI91" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BJ91" t="n">
-        <v>3.14</v>
+        <v>3.42</v>
       </c>
       <c r="BK91" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="BL91" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="BM91" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="BN91" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="BO91" t="n">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="BP91" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="92">
@@ -20622,7 +20622,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>6671623</v>
+        <v>6671620</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -20642,197 +20642,197 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>['53', '90+2']</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R93" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X93" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV93" t="n">
         <v>4</v>
-      </c>
-      <c r="T93" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U93" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V93" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W93" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X93" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AQ93" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AR93" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AU93" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV93" t="n">
-        <v>3</v>
       </c>
       <c r="AW93" t="n">
         <v>6</v>
       </c>
       <c r="AX93" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ93" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA93" t="n">
         <v>3</v>
       </c>
       <c r="BB93" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC93" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD93" t="n">
-        <v>1.82</v>
+        <v>2.15</v>
       </c>
       <c r="BE93" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="BF93" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="BG93" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="BH93" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="BI93" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BJ93" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="BK93" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="BL93" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BM93" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BN93" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BO93" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BP93" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="94">
@@ -20840,7 +20840,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>6671624</v>
+        <v>6671623</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -20860,197 +20860,197 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X94" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV94" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="n">
-        <v>4</v>
-      </c>
-      <c r="L94" t="n">
+      <c r="AW94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA94" t="n">
         <v>3</v>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>4</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>['20', '26', '34']</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>['5']</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R94" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S94" t="n">
-        <v>11</v>
-      </c>
-      <c r="T94" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U94" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V94" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W94" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X94" t="n">
+      <c r="BB94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC94" t="n">
         <v>5</v>
       </c>
-      <c r="Y94" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z94" t="n">
+      <c r="BD94" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG94" t="n">
         <v>1.14</v>
       </c>
-      <c r="AA94" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AM94" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AO94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP94" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AQ94" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AR94" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AS94" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AT94" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA94" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB94" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC94" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD94" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="BE94" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF94" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BG94" t="n">
-        <v>1.1</v>
-      </c>
       <c r="BH94" t="n">
-        <v>5.55</v>
+        <v>4.6</v>
       </c>
       <c r="BI94" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="BJ94" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="BK94" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="BL94" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="BM94" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BN94" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="BO94" t="n">
-        <v>2.37</v>
+        <v>2.7</v>
       </c>
       <c r="BP94" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="95">
@@ -21058,7 +21058,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>6671620</v>
+        <v>6671624</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -21078,197 +21078,197 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>['53', '90+2']</t>
+          <t>['20', '26', '34']</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['5']</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="R95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S95" t="n">
+        <v>11</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V95" t="n">
         <v>2.2</v>
       </c>
-      <c r="S95" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T95" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U95" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V95" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W95" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="X95" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y95" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="Z95" t="n">
-        <v>2.38</v>
+        <v>1.14</v>
       </c>
       <c r="AA95" t="n">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB95" t="n">
-        <v>2.68</v>
+        <v>14.5</v>
       </c>
       <c r="AC95" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD95" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE95" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AF95" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="AG95" t="n">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AH95" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="AI95" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AJ95" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AK95" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="AL95" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AM95" t="n">
-        <v>1.44</v>
+        <v>4.8</v>
       </c>
       <c r="AN95" t="n">
-        <v>0.83</v>
+        <v>2.14</v>
       </c>
       <c r="AO95" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.22</v>
+        <v>2.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.91</v>
+        <v>1.11</v>
       </c>
       <c r="AR95" t="n">
-        <v>1.2</v>
+        <v>2.09</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.53</v>
+        <v>3.33</v>
       </c>
       <c r="AU95" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV95" t="n">
         <v>4</v>
       </c>
       <c r="AW95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY95" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ95" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB95" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD95" t="n">
-        <v>2.15</v>
+        <v>1.08</v>
       </c>
       <c r="BE95" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="BF95" t="n">
-        <v>1.91</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BG95" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="BH95" t="n">
-        <v>5.1</v>
+        <v>5.55</v>
       </c>
       <c r="BI95" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="BJ95" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="BK95" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="BL95" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="BM95" t="n">
         <v>1.9</v>
       </c>
       <c r="BN95" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BO95" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="BP95" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="96">
@@ -22148,7 +22148,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>6671626</v>
+        <v>6671631</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -22168,31 +22168,31 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -22201,164 +22201,164 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>['15', '30']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="R100" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="S100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X100" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY100" t="n">
         <v>8</v>
       </c>
-      <c r="T100" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U100" t="n">
+      <c r="AZ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB100" t="n">
         <v>4</v>
       </c>
-      <c r="V100" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W100" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X100" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y100" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AM100" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AO100" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP100" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AQ100" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AR100" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AS100" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AT100" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AU100" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV100" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW100" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX100" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY100" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ100" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA100" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB100" t="n">
-        <v>3</v>
-      </c>
       <c r="BC100" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BD100" t="n">
-        <v>1.21</v>
+        <v>1.64</v>
       </c>
       <c r="BE100" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF100" t="n">
-        <v>5.17</v>
+        <v>2.66</v>
       </c>
       <c r="BG100" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BH100" t="n">
-        <v>5.7</v>
+        <v>4.65</v>
       </c>
       <c r="BI100" t="n">
         <v>1.26</v>
       </c>
       <c r="BJ100" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BK100" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="BL100" t="n">
         <v>2.37</v>
       </c>
       <c r="BM100" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="BN100" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BO100" t="n">
         <v>2.37</v>
       </c>
       <c r="BP100" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="101">
@@ -22366,7 +22366,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>6671628</v>
+        <v>6671629</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -22386,12 +22386,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -22407,10 +22407,10 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -22419,164 +22419,164 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['90+7']</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="R101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X101" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AG101" t="n">
         <v>2.05</v>
       </c>
-      <c r="S101" t="n">
-        <v>3</v>
-      </c>
-      <c r="T101" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U101" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V101" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W101" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X101" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AH101" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI101" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK101" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="AL101" t="n">
         <v>1.35</v>
       </c>
       <c r="AM101" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
       <c r="AO101" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.91</v>
+        <v>1.11</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AU101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV101" t="n">
         <v>4</v>
       </c>
       <c r="AW101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX101" t="n">
         <v>6</v>
       </c>
       <c r="AY101" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ101" t="n">
         <v>10</v>
       </c>
       <c r="BA101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE101" t="n">
         <v>8</v>
       </c>
-      <c r="BC101" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD101" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BE101" t="n">
-        <v>8.5</v>
-      </c>
       <c r="BF101" t="n">
-        <v>1.59</v>
+        <v>2.33</v>
       </c>
       <c r="BG101" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="BH101" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="BI101" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BJ101" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="BK101" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BL101" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BM101" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN101" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO101" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="BP101" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="102">
@@ -22584,7 +22584,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>6671629</v>
+        <v>6671628</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -22604,12 +22604,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -22625,10 +22625,10 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -22637,164 +22637,164 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>['90+7']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="R102" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S102" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T102" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U102" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X102" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z102" t="n">
         <v>3.25</v>
       </c>
-      <c r="W102" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X102" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AA102" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AB102" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="AC102" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD102" t="n">
-        <v>10</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="AE102" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AF102" t="n">
-        <v>3.23</v>
+        <v>3</v>
       </c>
       <c r="AG102" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AH102" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AI102" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ102" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK102" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="AL102" t="n">
         <v>1.35</v>
       </c>
       <c r="AM102" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="AN102" t="n">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
       <c r="AO102" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.11</v>
+        <v>0.91</v>
       </c>
       <c r="AR102" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="AU102" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV102" t="n">
         <v>4</v>
       </c>
       <c r="AW102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX102" t="n">
         <v>6</v>
       </c>
       <c r="AY102" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AZ102" t="n">
         <v>10</v>
       </c>
       <c r="BA102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC102" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD102" t="n">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="BE102" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF102" t="n">
-        <v>2.33</v>
+        <v>1.59</v>
       </c>
       <c r="BG102" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="BH102" t="n">
-        <v>5.1</v>
+        <v>4.55</v>
       </c>
       <c r="BI102" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BJ102" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BK102" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BL102" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BM102" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN102" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO102" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BP102" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="103">
@@ -22802,7 +22802,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>6671631</v>
+        <v>6671626</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -22822,31 +22822,31 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -22855,164 +22855,164 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['15', '30']</t>
         </is>
       </c>
       <c r="Q103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R103" t="n">
         <v>2.88</v>
       </c>
-      <c r="R103" t="n">
-        <v>2</v>
-      </c>
       <c r="S103" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="T103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO103" t="n">
         <v>1.5</v>
       </c>
-      <c r="U103" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V103" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W103" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X103" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y103" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z103" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AO103" t="n">
-        <v>0.75</v>
-      </c>
       <c r="AP103" t="n">
-        <v>1.64</v>
+        <v>2.36</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR103" t="n">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.47</v>
+        <v>3.73</v>
       </c>
       <c r="AU103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ103" t="n">
         <v>5</v>
       </c>
-      <c r="AW103" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX103" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY103" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ103" t="n">
-        <v>7</v>
-      </c>
       <c r="BA103" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BB103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC103" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BD103" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="BE103" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="BF103" t="n">
-        <v>2.66</v>
+        <v>5.17</v>
       </c>
       <c r="BG103" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="BH103" t="n">
-        <v>4.65</v>
+        <v>5.7</v>
       </c>
       <c r="BI103" t="n">
         <v>1.26</v>
       </c>
       <c r="BJ103" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK103" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="BL103" t="n">
         <v>2.37</v>
       </c>
       <c r="BM103" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="BN103" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BO103" t="n">
         <v>2.37</v>
       </c>
       <c r="BP103" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="104">
@@ -23456,7 +23456,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>6671632</v>
+        <v>6671634</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -23476,22 +23476,22 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
         <v>2</v>
@@ -23504,7 +23504,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>['46', '51']</t>
+          <t>['33', '49']</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -23513,160 +23513,160 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>1.4</v>
+        <v>2.63</v>
       </c>
       <c r="R106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V106" t="n">
         <v>3.25</v>
       </c>
-      <c r="S106" t="n">
-        <v>17</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U106" t="n">
+      <c r="W106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X106" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW106" t="n">
         <v>4</v>
       </c>
-      <c r="V106" t="n">
-        <v>2</v>
-      </c>
-      <c r="W106" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X106" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AM106" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AO106" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP106" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AQ106" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AR106" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AS106" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AT106" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU106" t="n">
+      <c r="AX106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ106" t="n">
         <v>8</v>
       </c>
-      <c r="AV106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW106" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY106" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ106" t="n">
-        <v>0</v>
-      </c>
       <c r="BA106" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BB106" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC106" t="n">
         <v>14</v>
       </c>
       <c r="BD106" t="n">
-        <v>1.03</v>
+        <v>1.51</v>
       </c>
       <c r="BE106" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BF106" t="n">
-        <v>19.5</v>
+        <v>3.15</v>
       </c>
       <c r="BG106" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="BH106" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="BI106" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="BJ106" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="BK106" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="BL106" t="n">
-        <v>2.95</v>
+        <v>2.3</v>
       </c>
       <c r="BM106" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN106" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BO106" t="n">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="BP106" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="107">
@@ -23674,7 +23674,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>6671634</v>
+        <v>6671632</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -23694,22 +23694,22 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>2</v>
@@ -23722,7 +23722,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>['33', '49']</t>
+          <t>['46', '51']</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -23731,160 +23731,160 @@
         </is>
       </c>
       <c r="Q107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S107" t="n">
+        <v>17</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AI107" t="n">
         <v>2.63</v>
       </c>
-      <c r="R107" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S107" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T107" t="n">
+      <c r="AJ107" t="n">
         <v>1.44</v>
       </c>
-      <c r="U107" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V107" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W107" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X107" t="n">
+      <c r="AK107" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW107" t="n">
         <v>9</v>
       </c>
-      <c r="Y107" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR107" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW107" t="n">
-        <v>4</v>
-      </c>
       <c r="AX107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY107" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ107" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BA107" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BB107" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC107" t="n">
         <v>14</v>
       </c>
       <c r="BD107" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="BE107" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BF107" t="n">
-        <v>3.15</v>
+        <v>19.5</v>
       </c>
       <c r="BG107" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI107" t="n">
         <v>1.2</v>
       </c>
-      <c r="BH107" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BI107" t="n">
-        <v>1.28</v>
-      </c>
       <c r="BJ107" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="BK107" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="BL107" t="n">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="BM107" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN107" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BO107" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="BP107" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="108">
@@ -24546,7 +24546,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>6671642</v>
+        <v>6671640</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -24566,31 +24566,31 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -24599,17 +24599,17 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R111" t="n">
         <v>1.95</v>
       </c>
       <c r="S111" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T111" t="n">
         <v>1.53</v>
@@ -24618,10 +24618,10 @@
         <v>2.38</v>
       </c>
       <c r="V111" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W111" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X111" t="n">
         <v>11</v>
@@ -24630,133 +24630,133 @@
         <v>1.05</v>
       </c>
       <c r="Z111" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="AA111" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AB111" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="AC111" t="n">
         <v>1.09</v>
       </c>
       <c r="AD111" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE111" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AF111" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="AG111" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="AH111" t="n">
         <v>1.48</v>
       </c>
       <c r="AI111" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AJ111" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AK111" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AL111" t="n">
         <v>1.35</v>
       </c>
       <c r="AM111" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AN111" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AO111" t="n">
-        <v>0.78</v>
+        <v>0.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.64</v>
+        <v>0.7</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
       <c r="AR111" t="n">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.31</v>
+        <v>0.96</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="AU111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW111" t="n">
         <v>7</v>
       </c>
-      <c r="AV111" t="n">
+      <c r="AX111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ111" t="n">
         <v>4</v>
       </c>
-      <c r="AW111" t="n">
+      <c r="BA111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB111" t="n">
         <v>3</v>
       </c>
-      <c r="AX111" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY111" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ111" t="n">
+      <c r="BC111" t="n">
         <v>9</v>
       </c>
-      <c r="BA111" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB111" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC111" t="n">
-        <v>8</v>
-      </c>
       <c r="BD111" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BE111" t="n">
         <v>8</v>
       </c>
       <c r="BF111" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BG111" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BH111" t="n">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="BI111" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="BJ111" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="BK111" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="BL111" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="BM111" t="n">
-        <v>2.12</v>
+        <v>2.55</v>
       </c>
       <c r="BN111" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="BO111" t="n">
-        <v>2.85</v>
+        <v>3.5</v>
       </c>
       <c r="BP111" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="112">
@@ -24764,7 +24764,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>6671640</v>
+        <v>6671642</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -24784,31 +24784,31 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -24817,17 +24817,17 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R112" t="n">
         <v>1.95</v>
       </c>
       <c r="S112" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T112" t="n">
         <v>1.53</v>
@@ -24836,10 +24836,10 @@
         <v>2.38</v>
       </c>
       <c r="V112" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W112" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X112" t="n">
         <v>11</v>
@@ -24848,133 +24848,133 @@
         <v>1.05</v>
       </c>
       <c r="Z112" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AA112" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="AB112" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="AC112" t="n">
         <v>1.09</v>
       </c>
       <c r="AD112" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE112" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AF112" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AG112" t="n">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="AH112" t="n">
         <v>1.48</v>
       </c>
       <c r="AI112" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AJ112" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AK112" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AL112" t="n">
         <v>1.35</v>
       </c>
       <c r="AM112" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AO112" t="n">
-        <v>0.33</v>
+        <v>0.78</v>
       </c>
       <c r="AP112" t="n">
-        <v>0.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="AR112" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.02</v>
+        <v>2.62</v>
       </c>
       <c r="AU112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV112" t="n">
         <v>4</v>
       </c>
-      <c r="AV112" t="n">
+      <c r="AW112" t="n">
         <v>3</v>
       </c>
-      <c r="AW112" t="n">
-        <v>7</v>
-      </c>
       <c r="AX112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA112" t="n">
         <v>4</v>
       </c>
-      <c r="BA112" t="n">
-        <v>6</v>
-      </c>
       <c r="BB112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD112" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BE112" t="n">
         <v>8</v>
       </c>
       <c r="BF112" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BG112" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BH112" t="n">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="BI112" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="BJ112" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="BK112" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="BL112" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="BM112" t="n">
-        <v>2.55</v>
+        <v>2.12</v>
       </c>
       <c r="BN112" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="BO112" t="n">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="BP112" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="113">
@@ -25418,7 +25418,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>6671645</v>
+        <v>6671647</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -25438,12 +25438,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -25456,32 +25456,32 @@
         <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['85', '90+3']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>['12', '78', '90+3']</t>
+          <t>['35', '90+5']</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R115" t="n">
         <v>2.1</v>
       </c>
       <c r="S115" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T115" t="n">
         <v>1.44</v>
@@ -25502,25 +25502,25 @@
         <v>1.07</v>
       </c>
       <c r="Z115" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="AA115" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="AB115" t="n">
-        <v>3.45</v>
+        <v>3.82</v>
       </c>
       <c r="AC115" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD115" t="n">
         <v>10</v>
       </c>
       <c r="AE115" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF115" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AG115" t="n">
         <v>2.05</v>
@@ -25529,82 +25529,82 @@
         <v>1.76</v>
       </c>
       <c r="AI115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP115" t="n">
         <v>1.91</v>
       </c>
-      <c r="AJ115" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM115" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AO115" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AP115" t="n">
-        <v>1.22</v>
-      </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR115" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AS115" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.29</v>
+        <v>2.81</v>
       </c>
       <c r="AU115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX115" t="n">
         <v>6</v>
       </c>
-      <c r="AW115" t="n">
+      <c r="AY115" t="n">
         <v>6</v>
       </c>
-      <c r="AX115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY115" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA115" t="n">
         <v>7</v>
       </c>
-      <c r="BA115" t="n">
-        <v>13</v>
-      </c>
       <c r="BB115" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC115" t="n">
         <v>15</v>
       </c>
       <c r="BD115" t="n">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="BE115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF115" t="n">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="BG115" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BH115" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="BI115" t="n">
         <v>1.28</v>
@@ -25636,7 +25636,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>6671646</v>
+        <v>6671648</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -25656,197 +25656,197 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N116" t="n">
         <v>4</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>['71', '79']</t>
+          <t>['14', '19', '35']</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>['55', '61']</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="R116" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S116" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T116" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U116" t="n">
         <v>2.75</v>
       </c>
       <c r="V116" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="W116" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X116" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Y116" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="AA116" t="n">
-        <v>3.78</v>
+        <v>3.58</v>
       </c>
       <c r="AB116" t="n">
-        <v>5</v>
+        <v>4.11</v>
       </c>
       <c r="AC116" t="n">
         <v>1.05</v>
       </c>
       <c r="AD116" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE116" t="n">
         <v>1.33</v>
       </c>
       <c r="AF116" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AG116" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AH116" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AI116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM116" t="n">
         <v>1.95</v>
       </c>
-      <c r="AJ116" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM116" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AN116" t="n">
-        <v>1.56</v>
+        <v>0.9</v>
       </c>
       <c r="AO116" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.1</v>
+        <v>0.89</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.64</v>
+        <v>2.21</v>
       </c>
       <c r="AU116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ116" t="n">
         <v>8</v>
       </c>
-      <c r="AV116" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW116" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX116" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY116" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ116" t="n">
-        <v>10</v>
-      </c>
       <c r="BA116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE116" t="n">
         <v>9</v>
       </c>
-      <c r="BB116" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC116" t="n">
-        <v>14</v>
-      </c>
-      <c r="BD116" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BE116" t="n">
-        <v>10</v>
-      </c>
       <c r="BF116" t="n">
-        <v>4.14</v>
+        <v>3.28</v>
       </c>
       <c r="BG116" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="BH116" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="BI116" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="BJ116" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BK116" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BL116" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="BM116" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="BN116" t="n">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="BO116" t="n">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="BP116" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="117">
@@ -25854,7 +25854,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>6671647</v>
+        <v>6671645</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -25874,12 +25874,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -25892,32 +25892,32 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>['85', '90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>['35', '90+5']</t>
+          <t>['12', '78', '90+3']</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R117" t="n">
         <v>2.1</v>
       </c>
       <c r="S117" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T117" t="n">
         <v>1.44</v>
@@ -25938,25 +25938,25 @@
         <v>1.07</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="AA117" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="AB117" t="n">
-        <v>3.82</v>
+        <v>3.45</v>
       </c>
       <c r="AC117" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD117" t="n">
         <v>10</v>
       </c>
       <c r="AE117" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF117" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AG117" t="n">
         <v>2.05</v>
@@ -25965,82 +25965,82 @@
         <v>1.76</v>
       </c>
       <c r="AI117" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ117" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK117" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AL117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR117" t="n">
         <v>1.29</v>
       </c>
-      <c r="AM117" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO117" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AP117" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AQ117" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AR117" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AS117" t="n">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.81</v>
+        <v>2.29</v>
       </c>
       <c r="AU117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV117" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY117" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ117" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA117" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BB117" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC117" t="n">
         <v>15</v>
       </c>
       <c r="BD117" t="n">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="BE117" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF117" t="n">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="BG117" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH117" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="BI117" t="n">
         <v>1.28</v>
@@ -26072,7 +26072,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>6671648</v>
+        <v>6671646</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -26092,197 +26092,197 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N118" t="n">
         <v>4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>['14', '19', '35']</t>
+          <t>['71', '79']</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>['55', '61']</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="R118" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S118" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="T118" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U118" t="n">
         <v>2.75</v>
       </c>
       <c r="V118" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W118" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X118" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="AA118" t="n">
-        <v>3.58</v>
+        <v>3.78</v>
       </c>
       <c r="AB118" t="n">
-        <v>4.11</v>
+        <v>5</v>
       </c>
       <c r="AC118" t="n">
         <v>1.05</v>
       </c>
       <c r="AD118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE118" t="n">
         <v>1.33</v>
       </c>
       <c r="AF118" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AG118" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH118" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AI118" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AJ118" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AK118" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL118" t="n">
         <v>1.22</v>
       </c>
-      <c r="AL118" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AM118" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AN118" t="n">
-        <v>0.9</v>
+        <v>1.56</v>
       </c>
       <c r="AO118" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="AR118" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.21</v>
+        <v>2.64</v>
       </c>
       <c r="AU118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV118" t="n">
         <v>5</v>
       </c>
-      <c r="AV118" t="n">
-        <v>2</v>
-      </c>
       <c r="AW118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX118" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY118" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ118" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA118" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC118" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD118" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="BE118" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF118" t="n">
-        <v>3.28</v>
+        <v>4.14</v>
       </c>
       <c r="BG118" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="BH118" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="BI118" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="BJ118" t="n">
-        <v>2.65</v>
+        <v>3.4</v>
       </c>
       <c r="BK118" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="BL118" t="n">
-        <v>1.95</v>
+        <v>2.37</v>
       </c>
       <c r="BM118" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="BN118" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="BO118" t="n">
-        <v>3</v>
+        <v>2.37</v>
       </c>
       <c r="BP118" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="119">
@@ -26508,7 +26508,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>6671651</v>
+        <v>6671652</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -26528,197 +26528,197 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
         <v>2</v>
       </c>
       <c r="N120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>['28', '90+1']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>['35', '64']</t>
+          <t>['53', '64']</t>
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="R120" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S120" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="T120" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U120" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V120" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W120" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X120" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y120" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.85</v>
+        <v>3.79</v>
       </c>
       <c r="AA120" t="n">
         <v>3.35</v>
       </c>
       <c r="AB120" t="n">
-        <v>4.24</v>
+        <v>1.95</v>
       </c>
       <c r="AC120" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE120" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AF120" t="n">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="AG120" t="n">
-        <v>2.01</v>
+        <v>2.36</v>
       </c>
       <c r="AH120" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AI120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ120" t="n">
         <v>1.91</v>
       </c>
-      <c r="AJ120" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AK120" t="n">
+      <c r="AR120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS120" t="n">
         <v>1.2</v>
       </c>
-      <c r="AL120" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM120" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO120" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AP120" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ120" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AR120" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AS120" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AT120" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="AU120" t="n">
         <v>4</v>
       </c>
       <c r="AV120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW120" t="n">
         <v>5</v>
       </c>
-      <c r="AW120" t="n">
-        <v>3</v>
-      </c>
       <c r="AX120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY120" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ120" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA120" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB120" t="n">
         <v>3</v>
       </c>
       <c r="BC120" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD120" t="n">
-        <v>1.51</v>
+        <v>2.91</v>
       </c>
       <c r="BE120" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF120" t="n">
-        <v>3.06</v>
+        <v>1.55</v>
       </c>
       <c r="BG120" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH120" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="BI120" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BJ120" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="BK120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP120" t="n">
         <v>1.42</v>
-      </c>
-      <c r="BL120" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BM120" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BN120" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BO120" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BP120" t="n">
-        <v>1.55</v>
       </c>
     </row>
     <row r="121">
@@ -26726,7 +26726,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>6671652</v>
+        <v>6671651</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -26746,197 +26746,197 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M121" t="n">
         <v>2</v>
       </c>
       <c r="N121" t="n">
+        <v>4</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['28', '90+1']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['35', '64']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V121" t="n">
         <v>3</v>
       </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>['79']</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>['53', '64']</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="R121" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S121" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T121" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U121" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V121" t="n">
-        <v>3.75</v>
-      </c>
       <c r="W121" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="X121" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y121" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z121" t="n">
-        <v>3.79</v>
+        <v>1.85</v>
       </c>
       <c r="AA121" t="n">
         <v>3.35</v>
       </c>
       <c r="AB121" t="n">
-        <v>1.95</v>
+        <v>4.24</v>
       </c>
       <c r="AC121" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE121" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AF121" t="n">
-        <v>2.34</v>
+        <v>3.1</v>
       </c>
       <c r="AG121" t="n">
-        <v>2.36</v>
+        <v>2.01</v>
       </c>
       <c r="AH121" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AI121" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ121" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AK121" t="n">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="AL121" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM121" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP121" t="n">
         <v>1.3</v>
       </c>
-      <c r="AN121" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AP121" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AQ121" t="n">
-        <v>1.91</v>
+        <v>0.8</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="AU121" t="n">
         <v>4</v>
       </c>
       <c r="AV121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX121" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ121" t="n">
         <v>9</v>
       </c>
-      <c r="AZ121" t="n">
-        <v>11</v>
-      </c>
       <c r="BA121" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB121" t="n">
         <v>3</v>
       </c>
       <c r="BC121" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD121" t="n">
-        <v>2.91</v>
+        <v>1.51</v>
       </c>
       <c r="BE121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF121" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BP121" t="n">
         <v>1.55</v>
-      </c>
-      <c r="BG121" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="BH121" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BI121" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BJ121" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BK121" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BL121" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BM121" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BN121" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BO121" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BP121" t="n">
-        <v>1.42</v>
       </c>
     </row>
     <row r="122">
@@ -27309,31 +27309,31 @@
         <v>3.45</v>
       </c>
       <c r="AU123" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV123" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AW123" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX123" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY123" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AZ123" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA123" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB123" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BC123" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD123" t="n">
         <v>5.17</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.91</v>
@@ -1791,7 +1791,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2227,7 +2227,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.91</v>
@@ -3535,7 +3535,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.45</v>
@@ -4625,7 +4625,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.24</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.8</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6369,7 +6369,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.11</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.4</v>
@@ -8982,10 +8982,10 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -9421,7 +9421,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR41" t="n">
         <v>1.85</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.45</v>
@@ -10508,7 +10508,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.2</v>
@@ -10729,7 +10729,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.55</v>
@@ -12473,7 +12473,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -12688,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56" t="n">
         <v>2.55</v>
@@ -12909,7 +12909,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.78</v>
@@ -13563,7 +13563,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.46</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.91</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.45</v>
@@ -14435,7 +14435,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -15304,7 +15304,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.8</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.91</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.78</v>
@@ -16615,7 +16615,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR74" t="n">
         <v>1.17</v>
@@ -16833,7 +16833,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR75" t="n">
         <v>2.39</v>
@@ -17702,7 +17702,7 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.4</v>
@@ -18141,7 +18141,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR81" t="n">
         <v>1.24</v>
@@ -18795,7 +18795,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -19010,7 +19010,7 @@
         <v>2.71</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.55</v>
@@ -19228,10 +19228,10 @@
         <v>1.14</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -20536,10 +20536,10 @@
         <v>2.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR92" t="n">
         <v>1.57</v>
@@ -21193,7 +21193,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>2.09</v>
@@ -22062,7 +22062,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.2</v>
@@ -22501,7 +22501,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.25</v>
@@ -23588,7 +23588,7 @@
         <v>0.89</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ109" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR109" t="n">
         <v>1.38</v>
@@ -25114,7 +25114,7 @@
         <v>1.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.91</v>
@@ -25335,7 +25335,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR114" t="n">
         <v>2.44</v>
@@ -25553,7 +25553,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR115" t="n">
         <v>1.57</v>
@@ -26204,7 +26204,7 @@
         <v>0.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.78</v>
@@ -26425,7 +26425,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR119" t="n">
         <v>1.24</v>
@@ -26858,7 +26858,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.8</v>
@@ -27373,6 +27373,660 @@
       </c>
       <c r="BP123" t="n">
         <v>1.87</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6671591</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45314.69791666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>3</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
+        <v>5</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['57', '74', '86']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['19', '38']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S124" t="n">
+        <v>5</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X124" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6671630</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45315.69791666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X125" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6671627</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45315.69791666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>18</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>3</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['30', '45+2', '74']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>7</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X126" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.91</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.91</v>
@@ -3317,7 +3317,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.4</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR19" t="n">
         <v>1.24</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5715,7 +5715,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6148,10 +6148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR28" t="n">
         <v>1.11</v>
@@ -6802,10 +6802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.55</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.91</v>
@@ -8331,7 +8331,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR36" t="n">
         <v>1.19</v>
@@ -8549,7 +8549,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -8985,7 +8985,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -9200,7 +9200,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR41" t="n">
         <v>1.85</v>
@@ -9854,7 +9854,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.45</v>
@@ -10072,7 +10072,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.91</v>
@@ -10290,10 +10290,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR45" t="n">
         <v>1.32</v>
@@ -10508,10 +10508,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR46" t="n">
         <v>1.2</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -11162,7 +11162,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.45</v>
@@ -11383,7 +11383,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR50" t="n">
         <v>1.91</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
         <v>2.55</v>
@@ -11819,7 +11819,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR52" t="n">
         <v>1.05</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.4</v>
@@ -12255,7 +12255,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -12906,10 +12906,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13345,7 +13345,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR59" t="n">
         <v>1.74</v>
@@ -13563,7 +13563,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR60" t="n">
         <v>1.46</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.91</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.45</v>
@@ -14435,7 +14435,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15304,10 +15304,10 @@
         <v>0.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR68" t="n">
         <v>0.99</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -16394,10 +16394,10 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR73" t="n">
         <v>0.99</v>
@@ -16612,10 +16612,10 @@
         <v>2.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR74" t="n">
         <v>1.17</v>
@@ -16830,10 +16830,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR75" t="n">
         <v>2.39</v>
@@ -17048,10 +17048,10 @@
         <v>0.83</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR76" t="n">
         <v>2.44</v>
@@ -17266,7 +17266,7 @@
         <v>0.71</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.45</v>
@@ -17702,7 +17702,7 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.4</v>
@@ -17923,7 +17923,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR80" t="n">
         <v>1.23</v>
@@ -18141,7 +18141,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR81" t="n">
         <v>1.24</v>
@@ -18574,7 +18574,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.91</v>
@@ -18795,7 +18795,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -19010,7 +19010,7 @@
         <v>2.71</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.55</v>
@@ -19231,7 +19231,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -19667,7 +19667,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR88" t="n">
         <v>1.21</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -20318,10 +20318,10 @@
         <v>1.29</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR91" t="n">
         <v>2.41</v>
@@ -20536,10 +20536,10 @@
         <v>2.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR92" t="n">
         <v>1.57</v>
@@ -21193,7 +21193,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR95" t="n">
         <v>2.09</v>
@@ -21408,10 +21408,10 @@
         <v>0.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR96" t="n">
         <v>1.3</v>
@@ -21626,10 +21626,10 @@
         <v>1.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR97" t="n">
         <v>1.09</v>
@@ -21844,7 +21844,7 @@
         <v>2.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ98" t="n">
         <v>2.55</v>
@@ -22062,10 +22062,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR99" t="n">
         <v>1.04</v>
@@ -22280,10 +22280,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR100" t="n">
         <v>1.33</v>
@@ -22501,7 +22501,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR101" t="n">
         <v>1.25</v>
@@ -22716,7 +22716,7 @@
         <v>0.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.91</v>
@@ -22934,7 +22934,7 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.91</v>
@@ -23588,7 +23588,7 @@
         <v>0.89</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ106" t="n">
         <v>1</v>
@@ -23806,7 +23806,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.45</v>
@@ -24024,7 +24024,7 @@
         <v>0.38</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.4</v>
@@ -24245,7 +24245,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ109" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR109" t="n">
         <v>1.38</v>
@@ -24678,7 +24678,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.4</v>
@@ -24896,7 +24896,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.91</v>
@@ -25332,10 +25332,10 @@
         <v>2.44</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR114" t="n">
         <v>2.44</v>
@@ -25550,10 +25550,10 @@
         <v>1.13</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR115" t="n">
         <v>1.57</v>
@@ -26204,10 +26204,10 @@
         <v>0.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR118" t="n">
         <v>1.54</v>
@@ -26425,7 +26425,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR119" t="n">
         <v>1.24</v>
@@ -26640,7 +26640,7 @@
         <v>1.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.91</v>
@@ -26861,7 +26861,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR121" t="n">
         <v>1.45</v>
@@ -27294,7 +27294,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
         <v>2.55</v>
@@ -27512,10 +27512,10 @@
         <v>1.11</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR124" t="n">
         <v>1.58</v>
@@ -27730,10 +27730,10 @@
         <v>1.22</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR125" t="n">
         <v>1.11</v>
@@ -27745,31 +27745,31 @@
         <v>2.27</v>
       </c>
       <c r="AU125" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV125" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW125" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX125" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY125" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ125" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB125" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC125" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD125" t="n">
         <v>2.43</v>
@@ -27951,7 +27951,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR126" t="n">
         <v>1.43</v>
@@ -27963,31 +27963,31 @@
         <v>3.36</v>
       </c>
       <c r="AU126" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV126" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW126" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX126" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY126" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ126" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA126" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB126" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC126" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD126" t="n">
         <v>4.65</v>
@@ -28027,6 +28027,1314 @@
       </c>
       <c r="BP126" t="n">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6671661</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45318.39583333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>23</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S127" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X127" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6671658</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45318.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>23</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['25', '54']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['66', '81']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>3</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2</v>
+      </c>
+      <c r="S128" t="n">
+        <v>4</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X128" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP128" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6671659</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45318.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>23</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>4</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['19', '62', '79', '87']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X129" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP129" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6671660</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45318.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>23</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X130" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP130" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6671657</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45318.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>23</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['57', '77']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>3</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S131" t="n">
+        <v>4</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X131" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP131" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6671656</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45318.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>23</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S132" t="n">
+        <v>15</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U132" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V132" t="n">
+        <v>2</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X132" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BP132" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP132"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.09</v>
@@ -2227,7 +2227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.55</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5279,7 +5279,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.18</v>
@@ -6369,7 +6369,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.55</v>
@@ -8328,10 +8328,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR36" t="n">
         <v>1.19</v>
@@ -8985,7 +8985,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -10290,7 +10290,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>0.82</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.4</v>
@@ -11819,7 +11819,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR52" t="n">
         <v>1.05</v>
@@ -12255,7 +12255,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -13345,7 +13345,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR59" t="n">
         <v>1.74</v>
@@ -16397,7 +16397,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR73" t="n">
         <v>0.99</v>
@@ -16612,7 +16612,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ74" t="n">
         <v>2.33</v>
@@ -18138,7 +18138,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.33</v>
@@ -18795,7 +18795,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -20100,7 +20100,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.91</v>
@@ -20754,7 +20754,7 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.91</v>
@@ -21193,7 +21193,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR95" t="n">
         <v>2.09</v>
@@ -21411,7 +21411,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR96" t="n">
         <v>1.3</v>
@@ -21626,7 +21626,7 @@
         <v>1.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.18</v>
@@ -22501,7 +22501,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR101" t="n">
         <v>1.25</v>
@@ -22716,7 +22716,7 @@
         <v>0.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.91</v>
@@ -23370,7 +23370,7 @@
         <v>0.63</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.45</v>
@@ -24678,7 +24678,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ111" t="n">
         <v>0.4</v>
@@ -25553,7 +25553,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR115" t="n">
         <v>1.57</v>
@@ -25986,7 +25986,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ117" t="n">
         <v>1</v>
@@ -26207,7 +26207,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR118" t="n">
         <v>1.54</v>
@@ -26640,7 +26640,7 @@
         <v>1.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.91</v>
@@ -27515,7 +27515,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR124" t="n">
         <v>1.58</v>
@@ -28602,10 +28602,10 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR129" t="n">
         <v>1.12</v>
@@ -29259,7 +29259,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR132" t="n">
         <v>2.36</v>
@@ -29335,6 +29335,442 @@
       </c>
       <c r="BP132" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6671572</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45321.69791666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>5</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X133" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO133" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP133" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6671610</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45321.69791666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['45', '88']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['28', '85']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S134" t="n">
+        <v>4</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X134" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP134" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -29707,7 +29707,7 @@
         <v>2.28</v>
       </c>
       <c r="AU134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV134" t="n">
         <v>5</v>
@@ -29719,7 +29719,7 @@
         <v>2</v>
       </c>
       <c r="AY134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ134" t="n">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.82</v>
@@ -1573,7 +1573,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.18</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
         <v>2.33</v>
@@ -3753,7 +3753,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR17" t="n">
         <v>1.15</v>
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4843,7 +4843,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.18</v>
@@ -7020,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7459,7 +7459,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -7677,7 +7677,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8110,10 +8110,10 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR35" t="n">
         <v>1.14</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.73</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.82</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -8982,7 +8982,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.17</v>
@@ -9203,7 +9203,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9418,7 +9418,7 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.09</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -9857,7 +9857,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR43" t="n">
         <v>0.93</v>
@@ -10075,7 +10075,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR44" t="n">
         <v>2.25</v>
@@ -10944,10 +10944,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11165,7 +11165,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR49" t="n">
         <v>1.39</v>
@@ -11380,7 +11380,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.18</v>
@@ -11601,7 +11601,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.73</v>
@@ -12037,7 +12037,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.73</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.73</v>
@@ -13560,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.09</v>
@@ -13781,7 +13781,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR61" t="n">
         <v>0.96</v>
@@ -13999,7 +13999,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR62" t="n">
         <v>2.33</v>
@@ -14217,7 +14217,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR63" t="n">
         <v>1.32</v>
@@ -14432,7 +14432,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.33</v>
@@ -14650,10 +14650,10 @@
         <v>2.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR65" t="n">
         <v>1.37</v>
@@ -15086,10 +15086,10 @@
         <v>0.83</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR67" t="n">
         <v>1.23</v>
@@ -15740,10 +15740,10 @@
         <v>1.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -15958,10 +15958,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR71" t="n">
         <v>1.61</v>
@@ -16176,10 +16176,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -17269,7 +17269,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR77" t="n">
         <v>1.3</v>
@@ -17484,10 +17484,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR78" t="n">
         <v>1.2</v>
@@ -17705,7 +17705,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR79" t="n">
         <v>1.56</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.18</v>
@@ -18138,7 +18138,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.33</v>
@@ -18356,10 +18356,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR82" t="n">
         <v>1.25</v>
@@ -18577,7 +18577,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -18792,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.17</v>
@@ -19013,7 +19013,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR85" t="n">
         <v>1</v>
@@ -19228,7 +19228,7 @@
         <v>1.14</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.09</v>
@@ -19446,10 +19446,10 @@
         <v>1.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR87" t="n">
         <v>2.04</v>
@@ -19664,7 +19664,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.82</v>
@@ -19885,7 +19885,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR89" t="n">
         <v>0.99</v>
@@ -20100,10 +20100,10 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR90" t="n">
         <v>1.19</v>
@@ -20754,10 +20754,10 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR93" t="n">
         <v>1.2</v>
@@ -20972,10 +20972,10 @@
         <v>0.33</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR94" t="n">
         <v>1.31</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.17</v>
@@ -21847,7 +21847,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.17</v>
@@ -22719,7 +22719,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR102" t="n">
         <v>1.12</v>
@@ -22937,7 +22937,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR103" t="n">
         <v>2.45</v>
@@ -23152,10 +23152,10 @@
         <v>0.43</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR104" t="n">
         <v>2.1</v>
@@ -23370,10 +23370,10 @@
         <v>0.63</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR105" t="n">
         <v>1.26</v>
@@ -23591,7 +23591,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR106" t="n">
         <v>1.54</v>
@@ -23809,7 +23809,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR107" t="n">
         <v>2.43</v>
@@ -24027,7 +24027,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR108" t="n">
         <v>1.55</v>
@@ -24242,7 +24242,7 @@
         <v>2.38</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109" t="n">
         <v>2.33</v>
@@ -24460,10 +24460,10 @@
         <v>2.44</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR110" t="n">
         <v>1.29</v>
@@ -24681,7 +24681,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AR111" t="n">
         <v>1.06</v>
@@ -24899,7 +24899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR112" t="n">
         <v>1.31</v>
@@ -25114,10 +25114,10 @@
         <v>1.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR113" t="n">
         <v>1.47</v>
@@ -25768,10 +25768,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -25986,10 +25986,10 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR117" t="n">
         <v>1.29</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.09</v>
@@ -26643,7 +26643,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR120" t="n">
         <v>1.1</v>
@@ -26858,7 +26858,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.82</v>
@@ -27076,10 +27076,10 @@
         <v>1</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR122" t="n">
         <v>2.17</v>
@@ -27297,7 +27297,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AR123" t="n">
         <v>1.33</v>
@@ -27948,7 +27948,7 @@
         <v>2.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.33</v>
@@ -29474,7 +29474,7 @@
         <v>1.18</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.17</v>
@@ -29771,6 +29771,1314 @@
       </c>
       <c r="BP134" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6671662</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45325.39583333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>24</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X135" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO135" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP135" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6671665</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45325.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>24</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X136" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO136" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BP136" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6671666</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45325.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>24</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['40', '45+2', '56']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R137" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S137" t="n">
+        <v>13</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U137" t="n">
+        <v>4</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X137" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BP137" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6671667</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45325.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>24</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S138" t="n">
+        <v>4</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X138" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6671663</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45325.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>24</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>3</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['26', '59']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['55', '79', '87']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X139" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6671664</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45325.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['8', '34', '44']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S140" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X140" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29946,10 +29946,10 @@
         <v>1</v>
       </c>
       <c r="BB135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC135" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD135" t="n">
         <v>4.89</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.42</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.18</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.92</v>
@@ -4625,7 +4625,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>1.24</v>
@@ -5061,7 +5061,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.42</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.11</v>
@@ -7020,7 +7020,7 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.17</v>
@@ -8331,7 +8331,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR36" t="n">
         <v>1.19</v>
@@ -8546,7 +8546,7 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.82</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.42</v>
@@ -9418,10 +9418,10 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR41" t="n">
         <v>1.85</v>
@@ -11380,7 +11380,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.18</v>
@@ -11819,7 +11819,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR52" t="n">
         <v>1.05</v>
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12909,7 +12909,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58" t="n">
         <v>2</v>
@@ -13345,7 +13345,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR59" t="n">
         <v>1.74</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
         <v>1.46</v>
@@ -16176,7 +16176,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ72" t="n">
         <v>2</v>
@@ -16397,7 +16397,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR73" t="n">
         <v>0.99</v>
@@ -16833,7 +16833,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR75" t="n">
         <v>2.39</v>
@@ -18792,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.17</v>
@@ -19231,7 +19231,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -19446,7 +19446,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.17</v>
@@ -20972,7 +20972,7 @@
         <v>0.33</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.64</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.17</v>
@@ -21411,7 +21411,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.3</v>
@@ -23152,7 +23152,7 @@
         <v>0.43</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.64</v>
@@ -24242,7 +24242,7 @@
         <v>2.38</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ109" t="n">
         <v>2.33</v>
@@ -25768,7 +25768,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.42</v>
@@ -26207,7 +26207,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR118" t="n">
         <v>1.54</v>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR119" t="n">
         <v>1.24</v>
@@ -27076,7 +27076,7 @@
         <v>1</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.92</v>
@@ -27733,7 +27733,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR125" t="n">
         <v>1.11</v>
@@ -29041,7 +29041,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.6</v>
@@ -29259,7 +29259,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR132" t="n">
         <v>2.36</v>
@@ -29695,7 +29695,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR134" t="n">
         <v>1.16</v>
@@ -30128,7 +30128,7 @@
         <v>0.91</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.92</v>
@@ -30346,7 +30346,7 @@
         <v>0.45</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.42</v>
@@ -31079,6 +31079,442 @@
       </c>
       <c r="BP140" t="n">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6671670</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45328.69791666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3</v>
+      </c>
+      <c r="L141" t="n">
+        <v>5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['8', '21', '38', '87', '90+1']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S141" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X141" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6671671</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45328.70833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>25</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['7', '72']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S142" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U142" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V142" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X142" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ6" t="n">
         <v>2.33</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.17</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4407,7 +4407,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.67</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5497,7 +5497,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ26" t="n">
         <v>2.33</v>
@@ -6369,7 +6369,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -6802,7 +6802,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.18</v>
@@ -7241,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7459,7 +7459,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.64</v>
@@ -8767,7 +8767,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -8982,10 +8982,10 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="n">
         <v>1.08</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>1.17</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -9200,7 +9200,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.17</v>
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -9854,10 +9854,10 @@
         <v>1.33</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR43" t="n">
         <v>0.93</v>
@@ -10726,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.33</v>
@@ -11162,10 +11162,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR49" t="n">
         <v>1.39</v>
@@ -11601,7 +11601,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.64</v>
@@ -12473,7 +12473,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -12906,7 +12906,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.67</v>
@@ -13778,7 +13778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.92</v>
@@ -14217,7 +14217,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR63" t="n">
         <v>1.32</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR65" t="n">
         <v>1.37</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ66" t="n">
         <v>0.82</v>
@@ -15089,7 +15089,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR67" t="n">
         <v>1.23</v>
@@ -15304,7 +15304,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.82</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.18</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.92</v>
@@ -16179,7 +16179,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -16394,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.67</v>
@@ -17266,10 +17266,10 @@
         <v>0.71</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR77" t="n">
         <v>1.3</v>
@@ -18574,10 +18574,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -18795,7 +18795,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -19010,10 +19010,10 @@
         <v>2.71</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR85" t="n">
         <v>1</v>
@@ -19228,7 +19228,7 @@
         <v>1.14</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ86" t="n">
         <v>1</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.17</v>
@@ -20757,7 +20757,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR93" t="n">
         <v>1.2</v>
@@ -21193,7 +21193,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR95" t="n">
         <v>2.09</v>
@@ -21408,7 +21408,7 @@
         <v>0.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.67</v>
@@ -21844,10 +21844,10 @@
         <v>2.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22062,7 +22062,7 @@
         <v>1.33</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.18</v>
@@ -22280,7 +22280,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.82</v>
@@ -22501,7 +22501,7 @@
         <v>1</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR101" t="n">
         <v>1.25</v>
@@ -22937,7 +22937,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR103" t="n">
         <v>2.45</v>
@@ -23373,7 +23373,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR105" t="n">
         <v>1.26</v>
@@ -23809,7 +23809,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR107" t="n">
         <v>2.43</v>
@@ -24024,7 +24024,7 @@
         <v>0.38</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.64</v>
@@ -24463,7 +24463,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR110" t="n">
         <v>1.29</v>
@@ -24896,7 +24896,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.92</v>
@@ -25114,10 +25114,10 @@
         <v>1.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR113" t="n">
         <v>1.47</v>
@@ -25550,10 +25550,10 @@
         <v>1.13</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR115" t="n">
         <v>1.57</v>
@@ -25771,7 +25771,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -26643,7 +26643,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR120" t="n">
         <v>1.1</v>
@@ -26858,7 +26858,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.82</v>
@@ -27294,10 +27294,10 @@
         <v>2.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR123" t="n">
         <v>1.33</v>
@@ -27515,7 +27515,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR124" t="n">
         <v>1.58</v>
@@ -27730,7 +27730,7 @@
         <v>1.22</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -27948,7 +27948,7 @@
         <v>2.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ126" t="n">
         <v>2.33</v>
@@ -28166,7 +28166,7 @@
         <v>2.27</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ127" t="n">
         <v>2.33</v>
@@ -28384,7 +28384,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.18</v>
@@ -28605,7 +28605,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR129" t="n">
         <v>1.12</v>
@@ -28820,7 +28820,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ130" t="n">
         <v>0.82</v>
@@ -29477,7 +29477,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR133" t="n">
         <v>1.31</v>
@@ -29913,7 +29913,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR135" t="n">
         <v>1.3</v>
@@ -30349,7 +30349,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AR137" t="n">
         <v>2.16</v>
@@ -30785,7 +30785,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ139" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR139" t="n">
         <v>1.21</v>
@@ -31000,7 +31000,7 @@
         <v>1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.17</v>
@@ -31233,31 +31233,31 @@
         <v>2.42</v>
       </c>
       <c r="AU141" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV141" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW141" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX141" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY141" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ141" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA141" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB141" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC141" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD141" t="n">
         <v>1.67</v>
@@ -31451,31 +31451,31 @@
         <v>3.39</v>
       </c>
       <c r="AU142" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV142" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW142" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX142" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY142" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ142" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA142" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB142" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC142" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD142" t="n">
         <v>1.16</v>
@@ -31515,6 +31515,878 @@
       </c>
       <c r="BP142" t="n">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6671669</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45329.69791666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>25</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S143" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X143" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6671672</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45329.69791666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>25</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S144" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6671668</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45329.70833333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>25</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['10', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S145" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U145" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X145" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6671673</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45329.71875</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['73', '90+1']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S146" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X146" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -31793,7 +31793,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="Q144" t="n">

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.82</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.08</v>
@@ -7895,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8110,7 +8110,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.92</v>
@@ -10947,7 +10947,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.67</v>
@@ -12037,7 +12037,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -14432,7 +14432,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ64" t="n">
         <v>2.33</v>
@@ -15086,7 +15086,7 @@
         <v>0.83</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.38</v>
@@ -15740,7 +15740,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.17</v>
@@ -17705,7 +17705,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR79" t="n">
         <v>1.56</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.18</v>
@@ -20975,7 +20975,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR94" t="n">
         <v>1.31</v>
@@ -23155,7 +23155,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR104" t="n">
         <v>2.1</v>
@@ -24027,7 +24027,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR108" t="n">
         <v>1.55</v>
@@ -24460,7 +24460,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ110" t="n">
         <v>2.46</v>
@@ -24681,7 +24681,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR111" t="n">
         <v>1.06</v>
@@ -30567,7 +30567,7 @@
         <v>1</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR138" t="n">
         <v>1.22</v>
@@ -30782,7 +30782,7 @@
         <v>1.91</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ139" t="n">
         <v>2.08</v>
@@ -32387,6 +32387,224 @@
       </c>
       <c r="BP146" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6671650</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>22</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['75', '89']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X147" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.38</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11" t="n">
         <v>2.46</v>
@@ -5061,7 +5061,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR21" t="n">
         <v>1.21</v>
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.46</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.18</v>
@@ -5933,7 +5933,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -8328,10 +8328,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR36" t="n">
         <v>1.19</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -9418,7 +9418,7 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR45" t="n">
         <v>1.32</v>
@@ -10944,7 +10944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.58</v>
@@ -11380,7 +11380,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.18</v>
@@ -11819,7 +11819,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR52" t="n">
         <v>1.05</v>
@@ -12255,7 +12255,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ58" t="n">
         <v>2.08</v>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR59" t="n">
         <v>1.74</v>
@@ -14871,7 +14871,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15307,7 +15307,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR68" t="n">
         <v>0.99</v>
@@ -16397,7 +16397,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR73" t="n">
         <v>0.99</v>
@@ -17051,7 +17051,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR76" t="n">
         <v>2.44</v>
@@ -18138,7 +18138,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81" t="n">
         <v>2.33</v>
@@ -19446,7 +19446,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.17</v>
@@ -19667,7 +19667,7 @@
         <v>1</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR88" t="n">
         <v>1.21</v>
@@ -20100,7 +20100,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.92</v>
@@ -20754,7 +20754,7 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93" t="n">
         <v>2.08</v>
@@ -21190,7 +21190,7 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.08</v>
@@ -21411,7 +21411,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR96" t="n">
         <v>1.3</v>
@@ -22283,7 +22283,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR100" t="n">
         <v>1.33</v>
@@ -23152,7 +23152,7 @@
         <v>0.43</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.58</v>
@@ -23370,7 +23370,7 @@
         <v>0.63</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.38</v>
@@ -25986,7 +25986,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.17</v>
@@ -26207,7 +26207,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR118" t="n">
         <v>1.54</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR121" t="n">
         <v>1.45</v>
@@ -27076,7 +27076,7 @@
         <v>1</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.92</v>
@@ -28823,7 +28823,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR130" t="n">
         <v>1.16</v>
@@ -29259,7 +29259,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR132" t="n">
         <v>2.36</v>
@@ -29474,7 +29474,7 @@
         <v>1.18</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.08</v>
@@ -29695,7 +29695,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR134" t="n">
         <v>1.16</v>
@@ -29910,7 +29910,7 @@
         <v>2.55</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ135" t="n">
         <v>2.46</v>
@@ -30346,7 +30346,7 @@
         <v>0.45</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ137" t="n">
         <v>0.38</v>
@@ -31221,7 +31221,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ141" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR141" t="n">
         <v>1.31</v>
@@ -31436,7 +31436,7 @@
         <v>1.09</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ142" t="n">
         <v>1</v>
@@ -32541,31 +32541,31 @@
         <v>2.19</v>
       </c>
       <c r="AU147" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV147" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW147" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX147" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY147" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ147" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA147" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BB147" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC147" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BD147" t="n">
         <v>1.75</v>
@@ -32604,6 +32604,442 @@
         <v>2.37</v>
       </c>
       <c r="BP147" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6671641</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45336.69791666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>3</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['5', '45+5', '90+2']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R148" t="n">
+        <v>3</v>
+      </c>
+      <c r="S148" t="n">
+        <v>10</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U148" t="n">
+        <v>4</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6671638</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45336.69791666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>20</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K149" t="n">
+        <v>5</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>3</v>
+      </c>
+      <c r="N149" t="n">
+        <v>6</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['31', '37', '50']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['5', '22', '26']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S149" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X149" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP149" t="n">
         <v>1.49</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.57</v>
@@ -1137,7 +1137,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.92</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR14" t="n">
         <v>1.92</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR15" t="n">
         <v>2.29</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR16" t="n">
         <v>1.85</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.92</v>
@@ -4407,7 +4407,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR18" t="n">
         <v>1.05</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR19" t="n">
         <v>1.24</v>
@@ -4840,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR20" t="n">
         <v>1.25</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.57</v>
@@ -5279,7 +5279,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR22" t="n">
         <v>1.04</v>
@@ -5494,10 +5494,10 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR23" t="n">
         <v>2.12</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>1.15</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1.17</v>
       </c>
       <c r="AR24" t="n">
         <v>1.08</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR26" t="n">
         <v>1.11</v>
@@ -6366,10 +6366,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR27" t="n">
         <v>2.27</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR28" t="n">
         <v>1.11</v>
@@ -6802,10 +6802,10 @@
         <v>1.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR29" t="n">
         <v>1.31</v>
@@ -7020,10 +7020,10 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR30" t="n">
         <v>1.42</v>
@@ -7238,10 +7238,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR31" t="n">
         <v>1.44</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR32" t="n">
         <v>1.24</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR33" t="n">
         <v>1.4</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR34" t="n">
         <v>1.61</v>
@@ -8328,7 +8328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.57</v>
@@ -8546,10 +8546,10 @@
         <v>2</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR37" t="n">
         <v>1.9</v>
@@ -8764,10 +8764,10 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR38" t="n">
         <v>1.57</v>
@@ -8982,10 +8982,10 @@
         <v>0.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR39" t="n">
         <v>1.77</v>
@@ -9200,10 +9200,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR40" t="n">
         <v>1.44</v>
@@ -9418,10 +9418,10 @@
         <v>0.67</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR41" t="n">
         <v>1.85</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR42" t="n">
         <v>1.53</v>
@@ -9857,7 +9857,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR43" t="n">
         <v>0.93</v>
@@ -10072,7 +10072,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.92</v>
@@ -10290,10 +10290,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR45" t="n">
         <v>1.32</v>
@@ -10508,10 +10508,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR46" t="n">
         <v>1.2</v>
@@ -10726,10 +10726,10 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR47" t="n">
         <v>1.4</v>
@@ -10944,10 +10944,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR48" t="n">
         <v>1.25</v>
@@ -11162,10 +11162,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR49" t="n">
         <v>1.39</v>
@@ -11380,10 +11380,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR50" t="n">
         <v>1.91</v>
@@ -11598,10 +11598,10 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.31</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR53" t="n">
         <v>1.16</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.57</v>
@@ -12470,10 +12470,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR55" t="n">
         <v>1.3</v>
@@ -12688,10 +12688,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR56" t="n">
         <v>2</v>
@@ -12906,10 +12906,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR57" t="n">
         <v>1.39</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR58" t="n">
         <v>1.96</v>
@@ -13342,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="AP59" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ59" t="n">
         <v>0.57</v>
@@ -13560,10 +13560,10 @@
         <v>1</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR60" t="n">
         <v>1.46</v>
@@ -13996,10 +13996,10 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR62" t="n">
         <v>2.33</v>
@@ -14214,10 +14214,10 @@
         <v>1</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR63" t="n">
         <v>1.32</v>
@@ -14435,7 +14435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR64" t="n">
         <v>1.26</v>
@@ -14650,10 +14650,10 @@
         <v>2.67</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.37</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR66" t="n">
         <v>1.48</v>
@@ -15089,7 +15089,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR67" t="n">
         <v>1.23</v>
@@ -15307,7 +15307,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR68" t="n">
         <v>0.99</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR69" t="n">
         <v>1.2</v>
@@ -15743,7 +15743,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR70" t="n">
         <v>1.19</v>
@@ -15958,7 +15958,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71" t="n">
         <v>0.92</v>
@@ -16176,10 +16176,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR72" t="n">
         <v>1.39</v>
@@ -16612,10 +16612,10 @@
         <v>2.4</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR74" t="n">
         <v>1.17</v>
@@ -16830,10 +16830,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR75" t="n">
         <v>2.39</v>
@@ -17048,10 +17048,10 @@
         <v>0.83</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR76" t="n">
         <v>2.44</v>
@@ -17266,10 +17266,10 @@
         <v>0.71</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR77" t="n">
         <v>1.3</v>
@@ -17484,7 +17484,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.92</v>
@@ -17702,10 +17702,10 @@
         <v>0.4</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR79" t="n">
         <v>1.56</v>
@@ -17923,7 +17923,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR80" t="n">
         <v>1.23</v>
@@ -18138,10 +18138,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ81" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR81" t="n">
         <v>1.24</v>
@@ -18356,10 +18356,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR82" t="n">
         <v>1.25</v>
@@ -18574,10 +18574,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR83" t="n">
         <v>1.55</v>
@@ -18792,10 +18792,10 @@
         <v>1</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR84" t="n">
         <v>1.34</v>
@@ -19013,7 +19013,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR85" t="n">
         <v>1</v>
@@ -19228,10 +19228,10 @@
         <v>1.14</v>
       </c>
       <c r="AP86" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR86" t="n">
         <v>1.54</v>
@@ -19446,10 +19446,10 @@
         <v>1.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR87" t="n">
         <v>2.04</v>
@@ -19664,10 +19664,10 @@
         <v>0.86</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR88" t="n">
         <v>1.21</v>
@@ -19885,7 +19885,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR89" t="n">
         <v>0.99</v>
@@ -20100,7 +20100,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.92</v>
@@ -20318,10 +20318,10 @@
         <v>1.29</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR91" t="n">
         <v>2.41</v>
@@ -20536,10 +20536,10 @@
         <v>2.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR92" t="n">
         <v>1.57</v>
@@ -20754,10 +20754,10 @@
         <v>1.71</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR93" t="n">
         <v>1.2</v>
@@ -20972,10 +20972,10 @@
         <v>0.33</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR94" t="n">
         <v>1.31</v>
@@ -21190,10 +21190,10 @@
         <v>1</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR95" t="n">
         <v>2.09</v>
@@ -21408,7 +21408,7 @@
         <v>0.86</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.57</v>
@@ -21626,10 +21626,10 @@
         <v>1.13</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR97" t="n">
         <v>1.09</v>
@@ -21844,10 +21844,10 @@
         <v>2.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR98" t="n">
         <v>1.55</v>
@@ -22065,7 +22065,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR99" t="n">
         <v>1.04</v>
@@ -22280,10 +22280,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR100" t="n">
         <v>1.33</v>
@@ -22498,10 +22498,10 @@
         <v>0.86</v>
       </c>
       <c r="AP101" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR101" t="n">
         <v>1.25</v>
@@ -22716,7 +22716,7 @@
         <v>0.75</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.92</v>
@@ -22934,10 +22934,10 @@
         <v>1.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR103" t="n">
         <v>2.45</v>
@@ -23152,10 +23152,10 @@
         <v>0.43</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR104" t="n">
         <v>2.1</v>
@@ -23370,10 +23370,10 @@
         <v>0.63</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR105" t="n">
         <v>1.26</v>
@@ -23588,10 +23588,10 @@
         <v>0.89</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR106" t="n">
         <v>1.54</v>
@@ -23806,10 +23806,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR107" t="n">
         <v>2.43</v>
@@ -24024,10 +24024,10 @@
         <v>0.38</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR108" t="n">
         <v>1.55</v>
@@ -24242,10 +24242,10 @@
         <v>2.38</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ109" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR109" t="n">
         <v>1.38</v>
@@ -24463,7 +24463,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR110" t="n">
         <v>1.29</v>
@@ -24678,10 +24678,10 @@
         <v>0.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR111" t="n">
         <v>1.06</v>
@@ -24896,7 +24896,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.92</v>
@@ -25114,10 +25114,10 @@
         <v>1.67</v>
       </c>
       <c r="AP113" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR113" t="n">
         <v>1.47</v>
@@ -25332,10 +25332,10 @@
         <v>2.44</v>
       </c>
       <c r="AP114" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ114" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR114" t="n">
         <v>2.44</v>
@@ -25550,10 +25550,10 @@
         <v>1.13</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR115" t="n">
         <v>1.57</v>
@@ -25768,10 +25768,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR116" t="n">
         <v>1.32</v>
@@ -25986,10 +25986,10 @@
         <v>0.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR117" t="n">
         <v>1.29</v>
@@ -26204,7 +26204,7 @@
         <v>0.75</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.57</v>
@@ -26422,10 +26422,10 @@
         <v>1</v>
       </c>
       <c r="AP119" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR119" t="n">
         <v>1.24</v>
@@ -26640,10 +26640,10 @@
         <v>1.8</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ120" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR120" t="n">
         <v>1.1</v>
@@ -26858,10 +26858,10 @@
         <v>0.78</v>
       </c>
       <c r="AP121" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR121" t="n">
         <v>1.45</v>
@@ -27076,7 +27076,7 @@
         <v>1</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.92</v>
@@ -27294,10 +27294,10 @@
         <v>2.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ123" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR123" t="n">
         <v>1.33</v>
@@ -27512,10 +27512,10 @@
         <v>1.11</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR124" t="n">
         <v>1.58</v>
@@ -27733,7 +27733,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR125" t="n">
         <v>1.11</v>
@@ -27948,10 +27948,10 @@
         <v>2.2</v>
       </c>
       <c r="AP126" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR126" t="n">
         <v>1.43</v>
@@ -28166,10 +28166,10 @@
         <v>2.27</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR127" t="n">
         <v>1.24</v>
@@ -28384,10 +28384,10 @@
         <v>1.2</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR128" t="n">
         <v>1.53</v>
@@ -28602,10 +28602,10 @@
         <v>1</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR129" t="n">
         <v>1.12</v>
@@ -28823,7 +28823,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ130" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR130" t="n">
         <v>1.16</v>
@@ -29038,10 +29038,10 @@
         <v>1.2</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR131" t="n">
         <v>1.6</v>
@@ -29256,7 +29256,7 @@
         <v>0.78</v>
       </c>
       <c r="AP132" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.57</v>
@@ -29474,10 +29474,10 @@
         <v>1.18</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR133" t="n">
         <v>1.31</v>
@@ -29692,7 +29692,7 @@
         <v>0.7</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ134" t="n">
         <v>0.57</v>
@@ -29910,10 +29910,10 @@
         <v>2.55</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ135" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR135" t="n">
         <v>1.3</v>
@@ -30128,7 +30128,7 @@
         <v>0.91</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ136" t="n">
         <v>0.92</v>
@@ -30346,10 +30346,10 @@
         <v>0.45</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ137" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR137" t="n">
         <v>2.16</v>
@@ -30564,10 +30564,10 @@
         <v>0.4</v>
       </c>
       <c r="AP138" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR138" t="n">
         <v>1.22</v>
@@ -30785,7 +30785,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR139" t="n">
         <v>1.21</v>
@@ -31000,10 +31000,10 @@
         <v>1</v>
       </c>
       <c r="AP140" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR140" t="n">
         <v>1.38</v>
@@ -31218,7 +31218,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AQ141" t="n">
         <v>0.57</v>
@@ -31436,10 +31436,10 @@
         <v>1.09</v>
       </c>
       <c r="AP142" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR142" t="n">
         <v>2.22</v>
@@ -31654,10 +31654,10 @@
         <v>0.42</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AR143" t="n">
         <v>1.49</v>
@@ -31875,7 +31875,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ144" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AR144" t="n">
         <v>1.15</v>
@@ -32090,10 +32090,10 @@
         <v>2.42</v>
       </c>
       <c r="AP145" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ145" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AR145" t="n">
         <v>1.34</v>
@@ -32308,10 +32308,10 @@
         <v>1.17</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="AR146" t="n">
         <v>1.22</v>
@@ -32529,7 +32529,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AR147" t="n">
         <v>1.26</v>
@@ -32744,7 +32744,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.57</v>
@@ -32962,10 +32962,10 @@
         <v>0.82</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR149" t="n">
         <v>1.27</v>
@@ -33180,10 +33180,10 @@
         <v>0.83</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ150" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR150" t="n">
         <v>1.6</v>
@@ -33616,7 +33616,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.92</v>
@@ -33834,10 +33834,10 @@
         <v>1.17</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR153" t="n">
         <v>1.19</v>
@@ -34052,10 +34052,10 @@
         <v>1.18</v>
       </c>
       <c r="AP154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ154" t="n">
         <v>1.15</v>
-      </c>
-      <c r="AQ154" t="n">
-        <v>1.17</v>
       </c>
       <c r="AR154" t="n">
         <v>1.32</v>
@@ -34273,7 +34273,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ155" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR155" t="n">
         <v>1.13</v>
@@ -34349,6 +34349,2622 @@
       </c>
       <c r="BP155" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6671684</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45346.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>27</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['21', '27', '90+2']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['47', '86']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S156" t="n">
+        <v>4</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X156" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6671680</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45346.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>27</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['35', '81']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S157" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U157" t="n">
+        <v>3</v>
+      </c>
+      <c r="V157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X157" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6671681</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45346.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>27</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>2</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['45+5', '58']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S158" t="n">
+        <v>4</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X158" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6671683</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45346.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>27</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3</v>
+      </c>
+      <c r="L159" t="n">
+        <v>5</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>5</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['2', '37', '44', '48', '65']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S159" t="n">
+        <v>8</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6671685</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45346.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>27</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['36', '64']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2</v>
+      </c>
+      <c r="S160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X160" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6671682</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45347.375</v>
+      </c>
+      <c r="F161" t="n">
+        <v>27</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>4</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['51', '90+4', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>7</v>
+      </c>
+      <c r="R161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X161" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6671691</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45349.70833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>28</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X162" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6671686</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>28</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['44', '77']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S163" t="n">
+        <v>5</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X163" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6671687</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>28</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>6</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>6</v>
+      </c>
+      <c r="L164" t="n">
+        <v>7</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>8</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['7', '18', '22', '30', '36', '45+6', '63']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S164" t="n">
+        <v>10</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6671688</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>28</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X165" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6671689</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45350.69791666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>28</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>3</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['55', '59']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>6</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S166" t="n">
+        <v>2</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X166" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6671690</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45350.70833333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>28</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['49', '71', '87']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X167" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['43', '56']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['42', '90+8']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -860,6 +866,9 @@
   </si>
   <si>
     <t>['35', '90+1']</t>
+  </si>
+  <si>
+    <t>['53', '77']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,7 +1489,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1686,7 +1695,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1764,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
         <v>1.07</v>
@@ -1973,7 +1982,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2098,7 +2107,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2510,7 +2519,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3000,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ9">
         <v>0.71</v>
@@ -3334,7 +3343,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3746,7 +3755,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3827,7 +3836,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3952,7 +3961,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4030,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ14">
         <v>2.43</v>
@@ -4364,7 +4373,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4570,7 +4579,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4854,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ18">
         <v>1.93</v>
@@ -4982,7 +4991,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5063,7 +5072,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5188,7 +5197,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>3.4</v>
@@ -5394,7 +5403,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5600,7 +5609,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6012,7 +6021,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>2.88</v>
@@ -6093,7 +6102,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ24">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6218,7 +6227,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>2.6</v>
@@ -6424,7 +6433,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6917,7 +6926,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7042,7 +7051,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7123,7 +7132,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ29">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>1.31</v>
@@ -7248,7 +7257,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7454,7 +7463,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7532,7 +7541,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
         <v>0.4</v>
@@ -7660,7 +7669,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -8278,7 +8287,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8356,7 +8365,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
         <v>0.93</v>
@@ -8896,7 +8905,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9514,7 +9523,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>1.67</v>
@@ -9595,7 +9604,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>1.85</v>
@@ -9720,7 +9729,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9798,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42">
         <v>1.93</v>
@@ -10132,7 +10141,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10544,7 +10553,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10625,7 +10634,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ46">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10750,7 +10759,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11162,7 +11171,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11449,7 +11458,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.91</v>
@@ -11574,7 +11583,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11858,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
         <v>0.53</v>
@@ -12192,7 +12201,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>2.6</v>
@@ -12398,7 +12407,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12891,7 +12900,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13016,7 +13025,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13222,7 +13231,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13428,7 +13437,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13509,7 +13518,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.46</v>
@@ -13634,7 +13643,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -14252,7 +14261,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14330,7 +14339,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64">
         <v>2.43</v>
@@ -14458,7 +14467,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14536,7 +14545,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65">
         <v>2.33</v>
@@ -14948,7 +14957,7 @@
         <v>0.83</v>
       </c>
       <c r="AP67">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67">
         <v>0.4</v>
@@ -15076,7 +15085,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15282,7 +15291,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15363,7 +15372,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15566,7 +15575,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -15900,7 +15909,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16312,7 +16321,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16599,7 +16608,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ75">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>2.39</v>
@@ -16724,7 +16733,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -17214,7 +17223,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ78">
         <v>0.93</v>
@@ -17548,7 +17557,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17626,10 +17635,10 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17754,7 +17763,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q81">
         <v>5.5</v>
@@ -18038,7 +18047,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82">
         <v>1.07</v>
@@ -18166,7 +18175,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18372,7 +18381,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18578,7 +18587,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -18865,7 +18874,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ86">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -19274,7 +19283,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ88">
         <v>1.07</v>
@@ -19814,7 +19823,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>1.62</v>
@@ -19895,7 +19904,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ91">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
         <v>2.41</v>
@@ -20020,7 +20029,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20226,7 +20235,7 @@
         <v>129</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20432,7 +20441,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20638,7 +20647,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>1.57</v>
@@ -21050,7 +21059,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>3.6</v>
@@ -21131,7 +21140,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ97">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.09</v>
@@ -21256,7 +21265,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21543,7 +21552,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR99">
         <v>1.04</v>
@@ -21874,7 +21883,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -21952,7 +21961,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -22286,7 +22295,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22698,7 +22707,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -23522,7 +23531,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23728,7 +23737,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -23806,7 +23815,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ110">
         <v>2.33</v>
@@ -24346,7 +24355,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24758,7 +24767,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24964,7 +24973,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25170,7 +25179,7 @@
         <v>84</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25376,7 +25385,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25582,7 +25591,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25660,10 +25669,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ119">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR119">
         <v>1.24</v>
@@ -25788,7 +25797,7 @@
         <v>125</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25994,7 +26003,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26406,7 +26415,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26612,7 +26621,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26818,7 +26827,7 @@
         <v>131</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -26899,7 +26908,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ125">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR125">
         <v>1.11</v>
@@ -27024,7 +27033,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27230,7 +27239,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27436,7 +27445,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27517,7 +27526,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ128">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27642,7 +27651,7 @@
         <v>131</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27848,7 +27857,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q130">
         <v>3.2</v>
@@ -28135,7 +28144,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ131">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28466,7 +28475,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -29084,7 +29093,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29496,7 +29505,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>3.1</v>
@@ -29574,7 +29583,7 @@
         <v>0.4</v>
       </c>
       <c r="AP138">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ138">
         <v>0.71</v>
@@ -29702,7 +29711,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29780,7 +29789,7 @@
         <v>1.91</v>
       </c>
       <c r="AP139">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ139">
         <v>1.93</v>
@@ -29908,7 +29917,7 @@
         <v>84</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30320,7 +30329,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30401,7 +30410,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ142">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR142">
         <v>2.22</v>
@@ -30732,7 +30741,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>4.25</v>
@@ -30938,7 +30947,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31350,7 +31359,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31428,7 +31437,7 @@
         <v>0.64</v>
       </c>
       <c r="AP147">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ147">
         <v>0.71</v>
@@ -31556,7 +31565,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31762,7 +31771,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -32252,7 +32261,7 @@
         <v>0.62</v>
       </c>
       <c r="AP151">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ151">
         <v>0.53</v>
@@ -32792,7 +32801,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -32873,7 +32882,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ154">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR154">
         <v>1.32</v>
@@ -32998,7 +33007,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33204,7 +33213,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33282,7 +33291,7 @@
         <v>0.38</v>
       </c>
       <c r="AP156">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ156">
         <v>0.4</v>
@@ -33697,7 +33706,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ158">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -34234,7 +34243,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34518,7 +34527,7 @@
         <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AQ162">
         <v>1.07</v>
@@ -34646,7 +34655,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -35058,7 +35067,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35139,7 +35148,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ165">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35264,7 +35273,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35470,7 +35479,7 @@
         <v>163</v>
       </c>
       <c r="P167" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35676,7 +35685,7 @@
         <v>175</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>1.57</v>
@@ -36169,7 +36178,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ170">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36500,7 +36509,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36578,7 +36587,7 @@
         <v>0.92</v>
       </c>
       <c r="AP172">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ172">
         <v>0.93</v>
@@ -36863,6 +36872,418 @@
       </c>
       <c r="BP173">
         <v>1.79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>6671633</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45364.69791666666</v>
+      </c>
+      <c r="F174">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
+        <v>71</v>
+      </c>
+      <c r="H174" t="s">
+        <v>79</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>198</v>
+      </c>
+      <c r="P174" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q174">
+        <v>3.4</v>
+      </c>
+      <c r="R174">
+        <v>2.1</v>
+      </c>
+      <c r="S174">
+        <v>3.4</v>
+      </c>
+      <c r="T174">
+        <v>1.44</v>
+      </c>
+      <c r="U174">
+        <v>2.63</v>
+      </c>
+      <c r="V174">
+        <v>3.25</v>
+      </c>
+      <c r="W174">
+        <v>1.33</v>
+      </c>
+      <c r="X174">
+        <v>9</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>2.25</v>
+      </c>
+      <c r="AA174">
+        <v>3.5</v>
+      </c>
+      <c r="AB174">
+        <v>2.75</v>
+      </c>
+      <c r="AC174">
+        <v>1.06</v>
+      </c>
+      <c r="AD174">
+        <v>10</v>
+      </c>
+      <c r="AE174">
+        <v>1.35</v>
+      </c>
+      <c r="AF174">
+        <v>3.2</v>
+      </c>
+      <c r="AG174">
+        <v>1.66</v>
+      </c>
+      <c r="AH174">
+        <v>2.15</v>
+      </c>
+      <c r="AI174">
+        <v>1.8</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>1.46</v>
+      </c>
+      <c r="AL174">
+        <v>1.32</v>
+      </c>
+      <c r="AM174">
+        <v>1.46</v>
+      </c>
+      <c r="AN174">
+        <v>1.46</v>
+      </c>
+      <c r="AO174">
+        <v>0.86</v>
+      </c>
+      <c r="AP174">
+        <v>1.57</v>
+      </c>
+      <c r="AQ174">
+        <v>0.8</v>
+      </c>
+      <c r="AR174">
+        <v>1.35</v>
+      </c>
+      <c r="AS174">
+        <v>1.12</v>
+      </c>
+      <c r="AT174">
+        <v>2.47</v>
+      </c>
+      <c r="AU174">
+        <v>7</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>4</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>11</v>
+      </c>
+      <c r="AZ174">
+        <v>6</v>
+      </c>
+      <c r="BA174">
+        <v>6</v>
+      </c>
+      <c r="BB174">
+        <v>4</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>1.75</v>
+      </c>
+      <c r="BE174">
+        <v>8.5</v>
+      </c>
+      <c r="BF174">
+        <v>2.35</v>
+      </c>
+      <c r="BG174">
+        <v>1.15</v>
+      </c>
+      <c r="BH174">
+        <v>5.4</v>
+      </c>
+      <c r="BI174">
+        <v>1.22</v>
+      </c>
+      <c r="BJ174">
+        <v>3.75</v>
+      </c>
+      <c r="BK174">
+        <v>1.4</v>
+      </c>
+      <c r="BL174">
+        <v>2.6</v>
+      </c>
+      <c r="BM174">
+        <v>1.7</v>
+      </c>
+      <c r="BN174">
+        <v>1.95</v>
+      </c>
+      <c r="BO174">
+        <v>2.15</v>
+      </c>
+      <c r="BP174">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>6671637</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45364.69791666666</v>
+      </c>
+      <c r="F175">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
+        <v>77</v>
+      </c>
+      <c r="H175" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>199</v>
+      </c>
+      <c r="P175" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q175">
+        <v>3.4</v>
+      </c>
+      <c r="R175">
+        <v>2.1</v>
+      </c>
+      <c r="S175">
+        <v>3.25</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3.25</v>
+      </c>
+      <c r="W175">
+        <v>1.33</v>
+      </c>
+      <c r="X175">
+        <v>9</v>
+      </c>
+      <c r="Y175">
+        <v>1.07</v>
+      </c>
+      <c r="Z175">
+        <v>2.9</v>
+      </c>
+      <c r="AA175">
+        <v>3.4</v>
+      </c>
+      <c r="AB175">
+        <v>2.2</v>
+      </c>
+      <c r="AC175">
+        <v>1.06</v>
+      </c>
+      <c r="AD175">
+        <v>10</v>
+      </c>
+      <c r="AE175">
+        <v>1.35</v>
+      </c>
+      <c r="AF175">
+        <v>3.2</v>
+      </c>
+      <c r="AG175">
+        <v>1.87</v>
+      </c>
+      <c r="AH175">
+        <v>1.87</v>
+      </c>
+      <c r="AI175">
+        <v>1.8</v>
+      </c>
+      <c r="AJ175">
+        <v>1.95</v>
+      </c>
+      <c r="AK175">
+        <v>1.5</v>
+      </c>
+      <c r="AL175">
+        <v>1.31</v>
+      </c>
+      <c r="AM175">
+        <v>1.44</v>
+      </c>
+      <c r="AN175">
+        <v>1.15</v>
+      </c>
+      <c r="AO175">
+        <v>1.15</v>
+      </c>
+      <c r="AP175">
+        <v>1.14</v>
+      </c>
+      <c r="AQ175">
+        <v>1.14</v>
+      </c>
+      <c r="AR175">
+        <v>1.23</v>
+      </c>
+      <c r="AS175">
+        <v>1.1</v>
+      </c>
+      <c r="AT175">
+        <v>2.33</v>
+      </c>
+      <c r="AU175">
+        <v>4</v>
+      </c>
+      <c r="AV175">
+        <v>7</v>
+      </c>
+      <c r="AW175">
+        <v>2</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>6</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>2</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>2.1</v>
+      </c>
+      <c r="BE175">
+        <v>8</v>
+      </c>
+      <c r="BF175">
+        <v>1.91</v>
+      </c>
+      <c r="BG175">
+        <v>1.18</v>
+      </c>
+      <c r="BH175">
+        <v>4.5</v>
+      </c>
+      <c r="BI175">
+        <v>1.31</v>
+      </c>
+      <c r="BJ175">
+        <v>3</v>
+      </c>
+      <c r="BK175">
+        <v>1.57</v>
+      </c>
+      <c r="BL175">
+        <v>2.2</v>
+      </c>
+      <c r="BM175">
+        <v>1.95</v>
+      </c>
+      <c r="BN175">
+        <v>1.7</v>
+      </c>
+      <c r="BO175">
+        <v>2.6</v>
+      </c>
+      <c r="BP175">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,18 @@
     <t>['42', '90+8']</t>
   </si>
   <si>
+    <t>['40', '46', '68']</t>
+  </si>
+  <si>
+    <t>['5', '7', '22']</t>
+  </si>
+  <si>
+    <t>['61', '65', '68', '73', '79']</t>
+  </si>
+  <si>
+    <t>['42', '49']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -869,6 +881,15 @@
   </si>
   <si>
     <t>['53', '77']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['20', '39']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1510,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1567,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ2">
         <v>0.53</v>
@@ -1695,7 +1716,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1982,7 +2003,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2107,7 +2128,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2188,7 +2209,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2391,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ6">
         <v>2.43</v>
@@ -2519,7 +2540,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2597,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3009,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3218,7 +3239,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ10">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3343,7 +3364,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3755,7 +3776,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3833,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ13">
         <v>1.14</v>
@@ -3961,7 +3982,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4039,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ14">
         <v>2.43</v>
@@ -4245,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>2.29</v>
@@ -4373,7 +4394,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4451,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR16">
         <v>1.85</v>
@@ -4579,7 +4600,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4657,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ17">
         <v>0.93</v>
@@ -4866,7 +4887,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ18">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -4991,7 +5012,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5072,7 +5093,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5197,7 +5218,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q20">
         <v>3.4</v>
@@ -5278,7 +5299,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ20">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5403,7 +5424,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5481,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
         <v>0.53</v>
@@ -5609,7 +5630,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6021,7 +6042,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>2.88</v>
@@ -6227,7 +6248,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>2.6</v>
@@ -6433,7 +6454,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6717,7 +6738,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ27">
         <v>0.93</v>
@@ -6926,7 +6947,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ28">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7051,7 +7072,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7129,7 +7150,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
         <v>1.14</v>
@@ -7257,7 +7278,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7335,10 +7356,10 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ30">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.42</v>
@@ -7463,7 +7484,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7541,10 +7562,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ31">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7669,7 +7690,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7956,7 +7977,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8159,10 +8180,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8287,7 +8308,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8905,7 +8926,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -8983,7 +9004,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ38">
         <v>2.33</v>
@@ -9189,7 +9210,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9395,10 +9416,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ40">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.44</v>
@@ -9523,7 +9544,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>1.67</v>
@@ -9604,7 +9625,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR41">
         <v>1.85</v>
@@ -9729,7 +9750,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9807,10 +9828,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10016,7 +10037,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10141,7 +10162,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10219,7 +10240,7 @@
         <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ44">
         <v>0.93</v>
@@ -10553,7 +10574,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10759,7 +10780,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11046,7 +11067,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ48">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11171,7 +11192,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11249,10 +11270,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11583,7 +11604,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12076,7 +12097,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ53">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12201,7 +12222,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>2.6</v>
@@ -12279,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ54">
         <v>0.53</v>
@@ -12407,7 +12428,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12691,7 +12712,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
         <v>2.33</v>
@@ -12897,10 +12918,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13025,7 +13046,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13106,7 +13127,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13231,7 +13252,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13309,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>0.53</v>
@@ -13437,7 +13458,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13515,10 +13536,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.46</v>
@@ -13643,7 +13664,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13927,10 +13948,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>2.33</v>
@@ -14136,7 +14157,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ63">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR63">
         <v>1.32</v>
@@ -14261,7 +14282,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14467,7 +14488,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14545,7 +14566,7 @@
         <v>2.67</v>
       </c>
       <c r="AP65">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ65">
         <v>2.33</v>
@@ -14751,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
         <v>1.07</v>
@@ -14960,7 +14981,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15085,7 +15106,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15291,7 +15312,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15578,7 +15599,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15781,7 +15802,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
         <v>0.93</v>
@@ -15909,7 +15930,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -15987,10 +16008,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ72">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16321,7 +16342,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16605,10 +16626,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>2.39</v>
@@ -16733,7 +16754,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -16811,7 +16832,7 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ76">
         <v>1.07</v>
@@ -17020,7 +17041,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ77">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR77">
         <v>1.3</v>
@@ -17223,7 +17244,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
         <v>0.93</v>
@@ -17432,7 +17453,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ79">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17557,7 +17578,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17763,7 +17784,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>5.5</v>
@@ -18047,10 +18068,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ82">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18175,7 +18196,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18253,10 +18274,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ83">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18381,7 +18402,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18459,7 +18480,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ84">
         <v>0.93</v>
@@ -18587,7 +18608,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -18871,10 +18892,10 @@
         <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -19080,7 +19101,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ87">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>2.04</v>
@@ -19283,7 +19304,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88">
         <v>1.07</v>
@@ -19492,7 +19513,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ89">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>0.99</v>
@@ -19823,7 +19844,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>1.62</v>
@@ -19901,7 +19922,7 @@
         <v>1.29</v>
       </c>
       <c r="AP91">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ91">
         <v>1.14</v>
@@ -20029,7 +20050,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20235,7 +20256,7 @@
         <v>129</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20316,7 +20337,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ93">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -20441,7 +20462,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20519,10 +20540,10 @@
         <v>0.33</v>
       </c>
       <c r="AP94">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ94">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.31</v>
@@ -20647,7 +20668,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>1.57</v>
@@ -21059,7 +21080,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>3.6</v>
@@ -21265,7 +21286,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21343,7 +21364,7 @@
         <v>2.75</v>
       </c>
       <c r="AP98">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
         <v>2.33</v>
@@ -21883,7 +21904,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -21961,7 +21982,7 @@
         <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ101">
         <v>0.93</v>
@@ -22295,7 +22316,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22373,10 +22394,10 @@
         <v>1.5</v>
       </c>
       <c r="AP103">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ103">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR103">
         <v>2.45</v>
@@ -22582,7 +22603,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ104">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>2.1</v>
@@ -22707,7 +22728,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -22788,7 +22809,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ105">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -22994,7 +23015,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ106">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23197,10 +23218,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP107">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ107">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR107">
         <v>2.43</v>
@@ -23403,10 +23424,10 @@
         <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.55</v>
@@ -23531,7 +23552,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23609,7 +23630,7 @@
         <v>2.38</v>
       </c>
       <c r="AP109">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ109">
         <v>2.43</v>
@@ -23737,7 +23758,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -24024,7 +24045,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ111">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24355,7 +24376,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24433,10 +24454,10 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR113">
         <v>1.47</v>
@@ -24639,7 +24660,7 @@
         <v>2.44</v>
       </c>
       <c r="AP114">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ114">
         <v>2.43</v>
@@ -24767,7 +24788,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24845,7 +24866,7 @@
         <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ115">
         <v>0.93</v>
@@ -24973,7 +24994,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25051,10 +25072,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ116">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR116">
         <v>1.32</v>
@@ -25179,7 +25200,7 @@
         <v>84</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25260,7 +25281,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ117">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.29</v>
@@ -25385,7 +25406,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25591,7 +25612,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25669,10 +25690,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ119">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR119">
         <v>1.24</v>
@@ -25797,7 +25818,7 @@
         <v>125</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25878,7 +25899,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ120">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR120">
         <v>1.1</v>
@@ -26003,7 +26024,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26081,7 +26102,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121">
         <v>1.07</v>
@@ -26415,7 +26436,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26621,7 +26642,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26827,7 +26848,7 @@
         <v>131</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -26908,7 +26929,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ125">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR125">
         <v>1.11</v>
@@ -27033,7 +27054,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27111,7 +27132,7 @@
         <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
         <v>2.43</v>
@@ -27239,7 +27260,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27445,7 +27466,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27523,7 +27544,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
         <v>1.14</v>
@@ -27651,7 +27672,7 @@
         <v>131</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27857,7 +27878,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q130">
         <v>3.2</v>
@@ -28144,7 +28165,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ131">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28347,7 +28368,7 @@
         <v>0.78</v>
       </c>
       <c r="AP132">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ132">
         <v>0.53</v>
@@ -28475,7 +28496,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -29093,7 +29114,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29171,7 +29192,7 @@
         <v>0.91</v>
       </c>
       <c r="AP136">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ136">
         <v>0.93</v>
@@ -29380,7 +29401,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ137">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR137">
         <v>2.16</v>
@@ -29505,7 +29526,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>3.1</v>
@@ -29583,10 +29604,10 @@
         <v>0.4</v>
       </c>
       <c r="AP138">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -29711,7 +29732,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29792,7 +29813,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ139">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -29917,7 +29938,7 @@
         <v>84</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -29995,10 +30016,10 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.38</v>
@@ -30201,7 +30222,7 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ141">
         <v>0.53</v>
@@ -30329,7 +30350,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30410,7 +30431,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ142">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR142">
         <v>2.22</v>
@@ -30613,10 +30634,10 @@
         <v>0.42</v>
       </c>
       <c r="AP143">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ143">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR143">
         <v>1.49</v>
@@ -30741,7 +30762,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>4.25</v>
@@ -30822,7 +30843,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ144">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR144">
         <v>1.15</v>
@@ -30947,7 +30968,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31025,7 +31046,7 @@
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145">
         <v>2.33</v>
@@ -31359,7 +31380,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31440,7 +31461,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ147">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31565,7 +31586,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31771,7 +31792,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -32467,7 +32488,7 @@
         <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ152">
         <v>0.93</v>
@@ -32676,7 +32697,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ153">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.19</v>
@@ -32801,7 +32822,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33007,7 +33028,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33213,7 +33234,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33291,10 +33312,10 @@
         <v>0.38</v>
       </c>
       <c r="AP156">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ156">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33497,7 +33518,7 @@
         <v>1.08</v>
       </c>
       <c r="AP157">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
         <v>0.93</v>
@@ -33703,10 +33724,10 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -33912,7 +33933,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ159">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AR159">
         <v>2.4</v>
@@ -34118,7 +34139,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ160">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR160">
         <v>1.28</v>
@@ -34243,7 +34264,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34321,7 +34342,7 @@
         <v>2.46</v>
       </c>
       <c r="AP161">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AQ161">
         <v>2.33</v>
@@ -34527,10 +34548,10 @@
         <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ162">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34655,7 +34676,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -34736,7 +34757,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ163">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR163">
         <v>1.42</v>
@@ -34939,7 +34960,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ164">
         <v>0.93</v>
@@ -35067,7 +35088,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35273,7 +35294,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35351,7 +35372,7 @@
         <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ166">
         <v>2.43</v>
@@ -35479,7 +35500,7 @@
         <v>163</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35685,7 +35706,7 @@
         <v>175</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q168">
         <v>1.57</v>
@@ -35972,7 +35993,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AR169">
         <v>1.08</v>
@@ -36178,7 +36199,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ170">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36381,7 +36402,7 @@
         <v>0.57</v>
       </c>
       <c r="AP171">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
         <v>0.53</v>
@@ -36509,7 +36530,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37002,7 +37023,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ174">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR174">
         <v>1.35</v>
@@ -37127,7 +37148,7 @@
         <v>199</v>
       </c>
       <c r="P175" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37205,7 +37226,7 @@
         <v>1.15</v>
       </c>
       <c r="AP175">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AQ175">
         <v>1.14</v>
@@ -37284,6 +37305,1036 @@
       </c>
       <c r="BP175">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6671698</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F176">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
+        <v>70</v>
+      </c>
+      <c r="H176" t="s">
+        <v>73</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>200</v>
+      </c>
+      <c r="P176" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q176">
+        <v>1.4</v>
+      </c>
+      <c r="R176">
+        <v>3.2</v>
+      </c>
+      <c r="S176">
+        <v>15</v>
+      </c>
+      <c r="T176">
+        <v>1.22</v>
+      </c>
+      <c r="U176">
+        <v>4</v>
+      </c>
+      <c r="V176">
+        <v>2</v>
+      </c>
+      <c r="W176">
+        <v>1.73</v>
+      </c>
+      <c r="X176">
+        <v>4.33</v>
+      </c>
+      <c r="Y176">
+        <v>1.2</v>
+      </c>
+      <c r="Z176">
+        <v>1.16</v>
+      </c>
+      <c r="AA176">
+        <v>7.25</v>
+      </c>
+      <c r="AB176">
+        <v>11.4</v>
+      </c>
+      <c r="AC176">
+        <v>1.02</v>
+      </c>
+      <c r="AD176">
+        <v>15</v>
+      </c>
+      <c r="AE176">
+        <v>1.12</v>
+      </c>
+      <c r="AF176">
+        <v>6</v>
+      </c>
+      <c r="AG176">
+        <v>1.45</v>
+      </c>
+      <c r="AH176">
+        <v>2.5</v>
+      </c>
+      <c r="AI176">
+        <v>2.5</v>
+      </c>
+      <c r="AJ176">
+        <v>1.5</v>
+      </c>
+      <c r="AK176">
+        <v>1.02</v>
+      </c>
+      <c r="AL176">
+        <v>1.02</v>
+      </c>
+      <c r="AM176">
+        <v>5.5</v>
+      </c>
+      <c r="AN176">
+        <v>2.36</v>
+      </c>
+      <c r="AO176">
+        <v>0.71</v>
+      </c>
+      <c r="AP176">
+        <v>2.4</v>
+      </c>
+      <c r="AQ176">
+        <v>0.67</v>
+      </c>
+      <c r="AR176">
+        <v>2.28</v>
+      </c>
+      <c r="AS176">
+        <v>0.97</v>
+      </c>
+      <c r="AT176">
+        <v>3.25</v>
+      </c>
+      <c r="AU176">
+        <v>11</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>8</v>
+      </c>
+      <c r="AX176">
+        <v>0</v>
+      </c>
+      <c r="AY176">
+        <v>19</v>
+      </c>
+      <c r="AZ176">
+        <v>3</v>
+      </c>
+      <c r="BA176">
+        <v>10</v>
+      </c>
+      <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
+        <v>12</v>
+      </c>
+      <c r="BD176">
+        <v>1.04</v>
+      </c>
+      <c r="BE176">
+        <v>15</v>
+      </c>
+      <c r="BF176">
+        <v>12.6</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>1.11</v>
+      </c>
+      <c r="BJ176">
+        <v>5.15</v>
+      </c>
+      <c r="BK176">
+        <v>1.26</v>
+      </c>
+      <c r="BL176">
+        <v>3.7</v>
+      </c>
+      <c r="BM176">
+        <v>1.44</v>
+      </c>
+      <c r="BN176">
+        <v>2.65</v>
+      </c>
+      <c r="BO176">
+        <v>2</v>
+      </c>
+      <c r="BP176">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>6671700</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F177">
+        <v>30</v>
+      </c>
+      <c r="G177" t="s">
+        <v>75</v>
+      </c>
+      <c r="H177" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>201</v>
+      </c>
+      <c r="P177" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q177">
+        <v>2</v>
+      </c>
+      <c r="R177">
+        <v>2.4</v>
+      </c>
+      <c r="S177">
+        <v>6</v>
+      </c>
+      <c r="T177">
+        <v>1.33</v>
+      </c>
+      <c r="U177">
+        <v>3.25</v>
+      </c>
+      <c r="V177">
+        <v>2.5</v>
+      </c>
+      <c r="W177">
+        <v>1.5</v>
+      </c>
+      <c r="X177">
+        <v>6.5</v>
+      </c>
+      <c r="Y177">
+        <v>1.11</v>
+      </c>
+      <c r="Z177">
+        <v>1.5</v>
+      </c>
+      <c r="AA177">
+        <v>4.05</v>
+      </c>
+      <c r="AB177">
+        <v>5.65</v>
+      </c>
+      <c r="AC177">
+        <v>1.02</v>
+      </c>
+      <c r="AD177">
+        <v>15</v>
+      </c>
+      <c r="AE177">
+        <v>1.22</v>
+      </c>
+      <c r="AF177">
+        <v>4.2</v>
+      </c>
+      <c r="AG177">
+        <v>1.66</v>
+      </c>
+      <c r="AH177">
+        <v>2.06</v>
+      </c>
+      <c r="AI177">
+        <v>1.8</v>
+      </c>
+      <c r="AJ177">
+        <v>1.95</v>
+      </c>
+      <c r="AK177">
+        <v>1.12</v>
+      </c>
+      <c r="AL177">
+        <v>1.17</v>
+      </c>
+      <c r="AM177">
+        <v>2.6</v>
+      </c>
+      <c r="AN177">
+        <v>1.27</v>
+      </c>
+      <c r="AO177">
+        <v>0.4</v>
+      </c>
+      <c r="AP177">
+        <v>1.38</v>
+      </c>
+      <c r="AQ177">
+        <v>0.38</v>
+      </c>
+      <c r="AR177">
+        <v>1.39</v>
+      </c>
+      <c r="AS177">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT177">
+        <v>2.33</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>5</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>9</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>5</v>
+      </c>
+      <c r="BD177">
+        <v>1.18</v>
+      </c>
+      <c r="BE177">
+        <v>11</v>
+      </c>
+      <c r="BF177">
+        <v>6.16</v>
+      </c>
+      <c r="BG177">
+        <v>1.18</v>
+      </c>
+      <c r="BH177">
+        <v>4.1</v>
+      </c>
+      <c r="BI177">
+        <v>1.37</v>
+      </c>
+      <c r="BJ177">
+        <v>2.75</v>
+      </c>
+      <c r="BK177">
+        <v>1.63</v>
+      </c>
+      <c r="BL177">
+        <v>2.21</v>
+      </c>
+      <c r="BM177">
+        <v>1.9</v>
+      </c>
+      <c r="BN177">
+        <v>1.9</v>
+      </c>
+      <c r="BO177">
+        <v>2.76</v>
+      </c>
+      <c r="BP177">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>6671701</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F178">
+        <v>30</v>
+      </c>
+      <c r="G178" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" t="s">
+        <v>76</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>7</v>
+      </c>
+      <c r="O178" t="s">
+        <v>202</v>
+      </c>
+      <c r="P178" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q178">
+        <v>2.88</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>4.33</v>
+      </c>
+      <c r="T178">
+        <v>1.53</v>
+      </c>
+      <c r="U178">
+        <v>2.38</v>
+      </c>
+      <c r="V178">
+        <v>3.5</v>
+      </c>
+      <c r="W178">
+        <v>1.29</v>
+      </c>
+      <c r="X178">
+        <v>11</v>
+      </c>
+      <c r="Y178">
+        <v>1.05</v>
+      </c>
+      <c r="Z178">
+        <v>2.11</v>
+      </c>
+      <c r="AA178">
+        <v>3.25</v>
+      </c>
+      <c r="AB178">
+        <v>3.25</v>
+      </c>
+      <c r="AC178">
+        <v>1.08</v>
+      </c>
+      <c r="AD178">
+        <v>8</v>
+      </c>
+      <c r="AE178">
+        <v>1.47</v>
+      </c>
+      <c r="AF178">
+        <v>2.7</v>
+      </c>
+      <c r="AG178">
+        <v>2.02</v>
+      </c>
+      <c r="AH178">
+        <v>1.68</v>
+      </c>
+      <c r="AI178">
+        <v>2.05</v>
+      </c>
+      <c r="AJ178">
+        <v>1.7</v>
+      </c>
+      <c r="AK178">
+        <v>1.3</v>
+      </c>
+      <c r="AL178">
+        <v>1.28</v>
+      </c>
+      <c r="AM178">
+        <v>1.72</v>
+      </c>
+      <c r="AN178">
+        <v>1.87</v>
+      </c>
+      <c r="AO178">
+        <v>1.07</v>
+      </c>
+      <c r="AP178">
+        <v>1.94</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>1.53</v>
+      </c>
+      <c r="AS178">
+        <v>1.11</v>
+      </c>
+      <c r="AT178">
+        <v>2.64</v>
+      </c>
+      <c r="AU178">
+        <v>9</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>2</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>7</v>
+      </c>
+      <c r="BA178">
+        <v>1</v>
+      </c>
+      <c r="BB178">
+        <v>3</v>
+      </c>
+      <c r="BC178">
+        <v>4</v>
+      </c>
+      <c r="BD178">
+        <v>1.64</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>2.66</v>
+      </c>
+      <c r="BG178">
+        <v>1.15</v>
+      </c>
+      <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
+        <v>1.3</v>
+      </c>
+      <c r="BJ178">
+        <v>3.3</v>
+      </c>
+      <c r="BK178">
+        <v>1.51</v>
+      </c>
+      <c r="BL178">
+        <v>2.45</v>
+      </c>
+      <c r="BM178">
+        <v>2</v>
+      </c>
+      <c r="BN178">
+        <v>1.8</v>
+      </c>
+      <c r="BO178">
+        <v>2.31</v>
+      </c>
+      <c r="BP178">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>6671702</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" t="s">
+        <v>79</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>84</v>
+      </c>
+      <c r="P179" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q179">
+        <v>2.88</v>
+      </c>
+      <c r="R179">
+        <v>2.1</v>
+      </c>
+      <c r="S179">
+        <v>3.75</v>
+      </c>
+      <c r="T179">
+        <v>1.4</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
+        <v>3</v>
+      </c>
+      <c r="W179">
+        <v>1.36</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>2.25</v>
+      </c>
+      <c r="AA179">
+        <v>3.3</v>
+      </c>
+      <c r="AB179">
+        <v>2.94</v>
+      </c>
+      <c r="AC179">
+        <v>1.04</v>
+      </c>
+      <c r="AD179">
+        <v>11</v>
+      </c>
+      <c r="AE179">
+        <v>1.3</v>
+      </c>
+      <c r="AF179">
+        <v>3.4</v>
+      </c>
+      <c r="AG179">
+        <v>1.75</v>
+      </c>
+      <c r="AH179">
+        <v>1.93</v>
+      </c>
+      <c r="AI179">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.4</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.63</v>
+      </c>
+      <c r="AN179">
+        <v>1.14</v>
+      </c>
+      <c r="AO179">
+        <v>0.8</v>
+      </c>
+      <c r="AP179">
+        <v>1.07</v>
+      </c>
+      <c r="AQ179">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR179">
+        <v>1.33</v>
+      </c>
+      <c r="AS179">
+        <v>1.11</v>
+      </c>
+      <c r="AT179">
+        <v>2.44</v>
+      </c>
+      <c r="AU179">
+        <v>6</v>
+      </c>
+      <c r="AV179">
+        <v>5</v>
+      </c>
+      <c r="AW179">
+        <v>5</v>
+      </c>
+      <c r="AX179">
+        <v>5</v>
+      </c>
+      <c r="AY179">
+        <v>11</v>
+      </c>
+      <c r="AZ179">
+        <v>10</v>
+      </c>
+      <c r="BA179">
+        <v>6</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>12</v>
+      </c>
+      <c r="BD179">
+        <v>1.64</v>
+      </c>
+      <c r="BE179">
+        <v>8.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.66</v>
+      </c>
+      <c r="BG179">
+        <v>1.18</v>
+      </c>
+      <c r="BH179">
+        <v>4.5</v>
+      </c>
+      <c r="BI179">
+        <v>1.34</v>
+      </c>
+      <c r="BJ179">
+        <v>3.1</v>
+      </c>
+      <c r="BK179">
+        <v>1.6</v>
+      </c>
+      <c r="BL179">
+        <v>2.29</v>
+      </c>
+      <c r="BM179">
+        <v>1.97</v>
+      </c>
+      <c r="BN179">
+        <v>1.82</v>
+      </c>
+      <c r="BO179">
+        <v>2.49</v>
+      </c>
+      <c r="BP179">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>6671703</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45367.5</v>
+      </c>
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>80</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>203</v>
+      </c>
+      <c r="P180" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q180">
+        <v>4.5</v>
+      </c>
+      <c r="R180">
+        <v>2.2</v>
+      </c>
+      <c r="S180">
+        <v>2.5</v>
+      </c>
+      <c r="T180">
+        <v>1.4</v>
+      </c>
+      <c r="U180">
+        <v>2.75</v>
+      </c>
+      <c r="V180">
+        <v>3</v>
+      </c>
+      <c r="W180">
+        <v>1.36</v>
+      </c>
+      <c r="X180">
+        <v>8</v>
+      </c>
+      <c r="Y180">
+        <v>1.08</v>
+      </c>
+      <c r="Z180">
+        <v>4.25</v>
+      </c>
+      <c r="AA180">
+        <v>3.65</v>
+      </c>
+      <c r="AB180">
+        <v>1.73</v>
+      </c>
+      <c r="AC180">
+        <v>1.05</v>
+      </c>
+      <c r="AD180">
+        <v>11</v>
+      </c>
+      <c r="AE180">
+        <v>1.33</v>
+      </c>
+      <c r="AF180">
+        <v>3.3</v>
+      </c>
+      <c r="AG180">
+        <v>1.83</v>
+      </c>
+      <c r="AH180">
+        <v>1.83</v>
+      </c>
+      <c r="AI180">
+        <v>1.91</v>
+      </c>
+      <c r="AJ180">
+        <v>1.91</v>
+      </c>
+      <c r="AK180">
+        <v>1.95</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>1.22</v>
+      </c>
+      <c r="AN180">
+        <v>1.14</v>
+      </c>
+      <c r="AO180">
+        <v>1.93</v>
+      </c>
+      <c r="AP180">
+        <v>1.27</v>
+      </c>
+      <c r="AQ180">
+        <v>1.8</v>
+      </c>
+      <c r="AR180">
+        <v>1.21</v>
+      </c>
+      <c r="AS180">
+        <v>1.28</v>
+      </c>
+      <c r="AT180">
+        <v>2.49</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>7</v>
+      </c>
+      <c r="AW180">
+        <v>5</v>
+      </c>
+      <c r="AX180">
+        <v>7</v>
+      </c>
+      <c r="AY180">
+        <v>9</v>
+      </c>
+      <c r="AZ180">
+        <v>14</v>
+      </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>15</v>
+      </c>
+      <c r="BC180">
+        <v>17</v>
+      </c>
+      <c r="BD180">
+        <v>2.91</v>
+      </c>
+      <c r="BE180">
+        <v>8.5</v>
+      </c>
+      <c r="BF180">
+        <v>1.55</v>
+      </c>
+      <c r="BG180">
+        <v>1.14</v>
+      </c>
+      <c r="BH180">
+        <v>5.3</v>
+      </c>
+      <c r="BI180">
+        <v>1.27</v>
+      </c>
+      <c r="BJ180">
+        <v>3.5</v>
+      </c>
+      <c r="BK180">
+        <v>1.47</v>
+      </c>
+      <c r="BL180">
+        <v>2.55</v>
+      </c>
+      <c r="BM180">
+        <v>1.95</v>
+      </c>
+      <c r="BN180">
+        <v>1.85</v>
+      </c>
+      <c r="BO180">
+        <v>2.23</v>
+      </c>
+      <c r="BP180">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ2">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ3">
         <v>1.07</v>
@@ -2000,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ6">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2818,16 +2818,16 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ10">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>1.09</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3642,16 +3642,16 @@
         <v>2.05</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>1.06</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ14">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR14">
         <v>1.92</v>
@@ -4266,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR15">
         <v>2.29</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ16">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
         <v>1.85</v>
@@ -4672,16 +4672,16 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
         <v>1.07</v>
       </c>
       <c r="AQ17">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4878,16 +4878,16 @@
         <v>1.35</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -5087,13 +5087,13 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5290,16 +5290,16 @@
         <v>1.44</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5496,16 +5496,16 @@
         <v>1.75</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ21">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5702,16 +5702,16 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ22">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
         <v>1.04</v>
@@ -5908,16 +5908,16 @@
         <v>1.6</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR23">
         <v>2.12</v>
@@ -6114,16 +6114,16 @@
         <v>1.57</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6320,13 +6320,13 @@
         <v>1.77</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
         <v>1.07</v>
@@ -6532,10 +6532,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ26">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6732,16 +6732,16 @@
         <v>5</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP27">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR27">
         <v>2.27</v>
@@ -6938,16 +6938,16 @@
         <v>1.78</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7144,16 +7144,16 @@
         <v>1.53</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR29">
         <v>1.31</v>
@@ -7350,7 +7350,7 @@
         <v>1.65</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO30">
         <v>2</v>
@@ -7359,7 +7359,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.42</v>
@@ -7559,13 +7559,13 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ31">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7762,16 +7762,16 @@
         <v>1.04</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP32">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ32">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR32">
         <v>1.24</v>
@@ -7968,16 +7968,16 @@
         <v>1.51</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8174,16 +8174,16 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8380,16 +8380,16 @@
         <v>1.5</v>
       </c>
       <c r="AN35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ35">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR35">
         <v>1.14</v>
@@ -8586,16 +8586,16 @@
         <v>1.9</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP36">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8792,13 +8792,13 @@
         <v>3.9</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -8998,16 +8998,16 @@
         <v>1.07</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP38">
         <v>1.07</v>
       </c>
       <c r="AQ38">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR38">
         <v>1.57</v>
@@ -9204,16 +9204,16 @@
         <v>2.1</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO39">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ39">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR39">
         <v>1.77</v>
@@ -9410,16 +9410,16 @@
         <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO40">
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.44</v>
@@ -9619,13 +9619,13 @@
         <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP41">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.85</v>
@@ -9822,16 +9822,16 @@
         <v>1.42</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP42">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10031,13 +10031,13 @@
         <v>0.33</v>
       </c>
       <c r="AO43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ43">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10234,16 +10234,16 @@
         <v>5.5</v>
       </c>
       <c r="AN44">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ44">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR44">
         <v>2.25</v>
@@ -10440,13 +10440,13 @@
         <v>1.41</v>
       </c>
       <c r="AN45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP45">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ45">
         <v>1.07</v>
@@ -10646,16 +10646,16 @@
         <v>1.66</v>
       </c>
       <c r="AN46">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10852,16 +10852,16 @@
         <v>1.09</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11058,16 +11058,16 @@
         <v>2.35</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AP48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11264,16 +11264,16 @@
         <v>1.82</v>
       </c>
       <c r="AN49">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AO49">
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ49">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11470,16 +11470,16 @@
         <v>2.87</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO50">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR50">
         <v>1.91</v>
@@ -11676,16 +11676,16 @@
         <v>1.13</v>
       </c>
       <c r="AN51">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP51">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11882,16 +11882,16 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO52">
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ52">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
@@ -12088,16 +12088,16 @@
         <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AO53">
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12294,7 +12294,7 @@
         <v>1.9</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO54">
         <v>1</v>
@@ -12303,7 +12303,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ54">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12500,16 +12500,16 @@
         <v>1.53</v>
       </c>
       <c r="AN55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AO55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ55">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12709,13 +12709,13 @@
         <v>1</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ56">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR56">
         <v>2</v>
@@ -12912,16 +12912,16 @@
         <v>1.53</v>
       </c>
       <c r="AN57">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP57">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13118,16 +13118,16 @@
         <v>3.4</v>
       </c>
       <c r="AN58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13330,10 +13330,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13530,7 +13530,7 @@
         <v>1.47</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AO60">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.46</v>
@@ -13736,16 +13736,16 @@
         <v>1.44</v>
       </c>
       <c r="AN61">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP61">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ61">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR61">
         <v>0.96</v>
@@ -13942,16 +13942,16 @@
         <v>4.6</v>
       </c>
       <c r="AN62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO62">
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>2.33</v>
@@ -14148,16 +14148,16 @@
         <v>2.05</v>
       </c>
       <c r="AN63">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO63">
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ63">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR63">
         <v>1.32</v>
@@ -14354,16 +14354,16 @@
         <v>1.07</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AO64">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ64">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR64">
         <v>1.26</v>
@@ -14563,13 +14563,13 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AP65">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR65">
         <v>1.37</v>
@@ -14766,13 +14766,13 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ66">
         <v>1.07</v>
@@ -14972,16 +14972,16 @@
         <v>1.64</v>
       </c>
       <c r="AN67">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AO67">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AP67">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ67">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15178,13 +15178,13 @@
         <v>1.42</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ68">
         <v>1.07</v>
@@ -15384,16 +15384,16 @@
         <v>1.52</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15590,16 +15590,16 @@
         <v>1.57</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AO70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15799,13 +15799,13 @@
         <v>1</v>
       </c>
       <c r="AO71">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ71">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR71">
         <v>1.61</v>
@@ -16002,16 +16002,16 @@
         <v>1.47</v>
       </c>
       <c r="AN72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP72">
         <v>1.07</v>
       </c>
       <c r="AQ72">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16208,16 +16208,16 @@
         <v>1.45</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ73">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR73">
         <v>0.99</v>
@@ -16414,16 +16414,16 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AP74">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ74">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR74">
         <v>1.17</v>
@@ -16620,16 +16620,16 @@
         <v>4.33</v>
       </c>
       <c r="AN75">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AO75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>2.39</v>
@@ -16826,13 +16826,13 @@
         <v>5.5</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ76">
         <v>1.07</v>
@@ -17032,16 +17032,16 @@
         <v>2.05</v>
       </c>
       <c r="AN77">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AO77">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AP77">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR77">
         <v>1.3</v>
@@ -17238,16 +17238,16 @@
         <v>1.37</v>
       </c>
       <c r="AN78">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AO78">
-        <v>0.33</v>
+        <v>1.23</v>
       </c>
       <c r="AP78">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ78">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17444,16 +17444,16 @@
         <v>2.5</v>
       </c>
       <c r="AN79">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO79">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP79">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17650,16 +17650,16 @@
         <v>1.53</v>
       </c>
       <c r="AN80">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ80">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17856,16 +17856,16 @@
         <v>1.15</v>
       </c>
       <c r="AN81">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AO81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18062,16 +18062,16 @@
         <v>1.47</v>
       </c>
       <c r="AN82">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AP82">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18268,16 +18268,16 @@
         <v>1.52</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="AO83">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AP83">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ83">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18474,16 +18474,16 @@
         <v>1.66</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP84">
         <v>1.07</v>
       </c>
       <c r="AQ84">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18680,16 +18680,16 @@
         <v>1.04</v>
       </c>
       <c r="AN85">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AO85">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="AP85">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR85">
         <v>1</v>
@@ -18889,13 +18889,13 @@
         <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ86">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -19092,16 +19092,16 @@
         <v>4</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AO87">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AP87">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR87">
         <v>2.04</v>
@@ -19298,13 +19298,13 @@
         <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP88">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ88">
         <v>1.07</v>
@@ -19504,16 +19504,16 @@
         <v>1.47</v>
       </c>
       <c r="AN89">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AO89">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AP89">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>0.99</v>
@@ -19713,13 +19713,13 @@
         <v>1</v>
       </c>
       <c r="AO90">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR90">
         <v>1.19</v>
@@ -19916,16 +19916,16 @@
         <v>4.5</v>
       </c>
       <c r="AN91">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="AO91">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR91">
         <v>2.41</v>
@@ -20122,16 +20122,16 @@
         <v>1.12</v>
       </c>
       <c r="AN92">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO92">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="AP92">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -20328,16 +20328,16 @@
         <v>1.44</v>
       </c>
       <c r="AN93">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="AO93">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AP93">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ93">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -20534,16 +20534,16 @@
         <v>1.66</v>
       </c>
       <c r="AN94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO94">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="AP94">
         <v>1.07</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR94">
         <v>1.31</v>
@@ -20740,16 +20740,16 @@
         <v>4.8</v>
       </c>
       <c r="AN95">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ95">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR95">
         <v>2.09</v>
@@ -20946,16 +20946,16 @@
         <v>1.68</v>
       </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO96">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ96">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR96">
         <v>1.3</v>
@@ -21152,16 +21152,16 @@
         <v>1.37</v>
       </c>
       <c r="AN97">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AO97">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AP97">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR97">
         <v>1.09</v>
@@ -21358,16 +21358,16 @@
         <v>1.1</v>
       </c>
       <c r="AN98">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ98">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21564,16 +21564,16 @@
         <v>1.32</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO99">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AP99">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR99">
         <v>1.04</v>
@@ -21770,13 +21770,13 @@
         <v>1.72</v>
       </c>
       <c r="AN100">
-        <v>2.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO100">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP100">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100">
         <v>1.07</v>
@@ -21976,16 +21976,16 @@
         <v>1.65</v>
       </c>
       <c r="AN101">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO101">
-        <v>0.86</v>
+        <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ101">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR101">
         <v>1.25</v>
@@ -22182,16 +22182,16 @@
         <v>1.35</v>
       </c>
       <c r="AN102">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AO102">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="AP102">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ102">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR102">
         <v>1.12</v>
@@ -22388,16 +22388,16 @@
         <v>3.8</v>
       </c>
       <c r="AN103">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AO103">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP103">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ103">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR103">
         <v>2.45</v>
@@ -22594,16 +22594,16 @@
         <v>5.8</v>
       </c>
       <c r="AN104">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AO104">
-        <v>0.43</v>
+        <v>1.06</v>
       </c>
       <c r="AP104">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>2.1</v>
@@ -22800,16 +22800,16 @@
         <v>2.2</v>
       </c>
       <c r="AN105">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AO105">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP105">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -23006,16 +23006,16 @@
         <v>1.78</v>
       </c>
       <c r="AN106">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AO106">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23212,16 +23212,16 @@
         <v>6.5</v>
       </c>
       <c r="AN107">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AO107">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AP107">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ107">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR107">
         <v>2.43</v>
@@ -23418,16 +23418,16 @@
         <v>2.1</v>
       </c>
       <c r="AN108">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AO108">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR108">
         <v>1.55</v>
@@ -23624,16 +23624,16 @@
         <v>1.12</v>
       </c>
       <c r="AN109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO109">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AP109">
         <v>1.07</v>
       </c>
       <c r="AQ109">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23830,16 +23830,16 @@
         <v>1.07</v>
       </c>
       <c r="AN110">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AO110">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AP110">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24036,16 +24036,16 @@
         <v>1.51</v>
       </c>
       <c r="AN111">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="AO111">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="AP111">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24242,16 +24242,16 @@
         <v>1.46</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="AO112">
-        <v>0.78</v>
+        <v>1.42</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ112">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
         <v>1.31</v>
@@ -24448,16 +24448,16 @@
         <v>1.57</v>
       </c>
       <c r="AN113">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO113">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ113">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR113">
         <v>1.47</v>
@@ -24654,16 +24654,16 @@
         <v>1.72</v>
       </c>
       <c r="AN114">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO114">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="AP114">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ114">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR114">
         <v>2.44</v>
@@ -24860,16 +24860,16 @@
         <v>1.83</v>
       </c>
       <c r="AN115">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO115">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AP115">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ115">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR115">
         <v>1.57</v>
@@ -25066,16 +25066,16 @@
         <v>1.95</v>
       </c>
       <c r="AN116">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="AO116">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP116">
         <v>1.07</v>
       </c>
       <c r="AQ116">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
         <v>1.32</v>
@@ -25272,16 +25272,16 @@
         <v>1.72</v>
       </c>
       <c r="AN117">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AO117">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AP117">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR117">
         <v>1.29</v>
@@ -25478,16 +25478,16 @@
         <v>2.15</v>
       </c>
       <c r="AN118">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AO118">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ118">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR118">
         <v>1.54</v>
@@ -25684,16 +25684,16 @@
         <v>1.38</v>
       </c>
       <c r="AN119">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP119">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ119">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.24</v>
@@ -25890,16 +25890,16 @@
         <v>1.3</v>
       </c>
       <c r="AN120">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO120">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AP120">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ120">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR120">
         <v>1.1</v>
@@ -26096,13 +26096,13 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AO121">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ121">
         <v>1.07</v>
@@ -26302,16 +26302,16 @@
         <v>3.6</v>
       </c>
       <c r="AN122">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AO122">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP122">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ122">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR122">
         <v>2.17</v>
@@ -26508,16 +26508,16 @@
         <v>1.06</v>
       </c>
       <c r="AN123">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AO123">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP123">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ123">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR123">
         <v>1.33</v>
@@ -26714,16 +26714,16 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO124">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP124">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26920,16 +26920,16 @@
         <v>1.27</v>
       </c>
       <c r="AN125">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="AO125">
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ125">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.11</v>
@@ -27126,16 +27126,16 @@
         <v>1.09</v>
       </c>
       <c r="AN126">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AO126">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ126">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR126">
         <v>1.43</v>
@@ -27332,16 +27332,16 @@
         <v>1.09</v>
       </c>
       <c r="AN127">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="AO127">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AP127">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR127">
         <v>1.24</v>
@@ -27538,16 +27538,16 @@
         <v>1.68</v>
       </c>
       <c r="AN128">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="AO128">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AP128">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ128">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27744,16 +27744,16 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP129">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ129">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR129">
         <v>1.12</v>
@@ -27950,13 +27950,13 @@
         <v>1.57</v>
       </c>
       <c r="AN130">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="AO130">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AP130">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ130">
         <v>1.07</v>
@@ -28156,16 +28156,16 @@
         <v>1.65</v>
       </c>
       <c r="AN131">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AO131">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AP131">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ131">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28362,16 +28362,16 @@
         <v>6.5</v>
       </c>
       <c r="AN132">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AO132">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AP132">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ132">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR132">
         <v>2.36</v>
@@ -28568,16 +28568,16 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AO133">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR133">
         <v>1.31</v>
@@ -28774,16 +28774,16 @@
         <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="AO134">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP134">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ134">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -28980,16 +28980,16 @@
         <v>1.09</v>
       </c>
       <c r="AN135">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AO135">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AP135">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29186,16 +29186,16 @@
         <v>1.38</v>
       </c>
       <c r="AN136">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AO136">
-        <v>0.91</v>
+        <v>1.39</v>
       </c>
       <c r="AP136">
         <v>1.07</v>
       </c>
       <c r="AQ136">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR136">
         <v>1.3</v>
@@ -29392,16 +29392,16 @@
         <v>6.5</v>
       </c>
       <c r="AN137">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AO137">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="AP137">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ137">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR137">
         <v>2.16</v>
@@ -29598,16 +29598,16 @@
         <v>1.58</v>
       </c>
       <c r="AN138">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AO138">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ138">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -29804,16 +29804,16 @@
         <v>1.39</v>
       </c>
       <c r="AN139">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AO139">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP139">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ139">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -30013,13 +30013,13 @@
         <v>1.18</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP140">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR140">
         <v>1.38</v>
@@ -30216,16 +30216,16 @@
         <v>1.7</v>
       </c>
       <c r="AN141">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AO141">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP141">
         <v>1.07</v>
       </c>
       <c r="AQ141">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR141">
         <v>1.31</v>
@@ -30422,16 +30422,16 @@
         <v>3.6</v>
       </c>
       <c r="AN142">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="AO142">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AP142">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ142">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>2.22</v>
@@ -30628,16 +30628,16 @@
         <v>2.25</v>
       </c>
       <c r="AN143">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AO143">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="AP143">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ143">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR143">
         <v>1.49</v>
@@ -30834,16 +30834,16 @@
         <v>1.28</v>
       </c>
       <c r="AN144">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AO144">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ144">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR144">
         <v>1.15</v>
@@ -31040,16 +31040,16 @@
         <v>1.07</v>
       </c>
       <c r="AN145">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AO145">
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ145">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31246,16 +31246,16 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AP146">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ146">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31452,16 +31452,16 @@
         <v>1.6</v>
       </c>
       <c r="AN147">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AO147">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31658,16 +31658,16 @@
         <v>4.8</v>
       </c>
       <c r="AN148">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AO148">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ148">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR148">
         <v>2.22</v>
@@ -31864,13 +31864,13 @@
         <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AO149">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="AP149">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1.07</v>
@@ -32070,13 +32070,13 @@
         <v>2.1</v>
       </c>
       <c r="AN150">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AO150">
-        <v>0.83</v>
+        <v>1.04</v>
       </c>
       <c r="AP150">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150">
         <v>1.07</v>
@@ -32276,16 +32276,16 @@
         <v>1.91</v>
       </c>
       <c r="AN151">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AO151">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AP151">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ151">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32482,16 +32482,16 @@
         <v>4</v>
       </c>
       <c r="AN152">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="AO152">
-        <v>0.92</v>
+        <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ152">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR152">
         <v>2.32</v>
@@ -32688,16 +32688,16 @@
         <v>1.3</v>
       </c>
       <c r="AN153">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="AO153">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AP153">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR153">
         <v>1.19</v>
@@ -32894,16 +32894,16 @@
         <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO154">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR154">
         <v>1.32</v>
@@ -33100,16 +33100,16 @@
         <v>1.05</v>
       </c>
       <c r="AN155">
-        <v>1.31</v>
+        <v>0.96</v>
       </c>
       <c r="AO155">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ155">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR155">
         <v>1.13</v>
@@ -33306,16 +33306,16 @@
         <v>1.65</v>
       </c>
       <c r="AN156">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO156">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AP156">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ156">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33512,16 +33512,16 @@
         <v>1.83</v>
       </c>
       <c r="AN157">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO157">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AP157">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ157">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -33718,16 +33718,16 @@
         <v>1.73</v>
       </c>
       <c r="AN158">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO158">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -33924,16 +33924,16 @@
         <v>3.65</v>
       </c>
       <c r="AN159">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="AO159">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="AP159">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ159">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR159">
         <v>2.4</v>
@@ -34130,16 +34130,16 @@
         <v>1.95</v>
       </c>
       <c r="AN160">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="AO160">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AP160">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ160">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR160">
         <v>1.28</v>
@@ -34336,16 +34336,16 @@
         <v>1.06</v>
       </c>
       <c r="AN161">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AP161">
         <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34542,16 +34542,16 @@
         <v>1.4</v>
       </c>
       <c r="AN162">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AO162">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="AP162">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34748,16 +34748,16 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AO163">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ163">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR163">
         <v>1.42</v>
@@ -34954,16 +34954,16 @@
         <v>4.2</v>
       </c>
       <c r="AN164">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AP164">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ164">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AR164">
         <v>2.27</v>
@@ -35160,16 +35160,16 @@
         <v>1.85</v>
       </c>
       <c r="AN165">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AO165">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AP165">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ165">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35366,16 +35366,16 @@
         <v>1.1</v>
       </c>
       <c r="AN166">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AO166">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="AP166">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ166">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35572,13 +35572,13 @@
         <v>1.42</v>
       </c>
       <c r="AN167">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AO167">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="AP167">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AQ167">
         <v>1.07</v>
@@ -35778,13 +35778,13 @@
         <v>5</v>
       </c>
       <c r="AN168">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AO168">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AP168">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AQ168">
         <v>1.07</v>
@@ -35984,16 +35984,16 @@
         <v>1.57</v>
       </c>
       <c r="AN169">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="AO169">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="AP169">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AQ169">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR169">
         <v>1.08</v>
@@ -36190,16 +36190,16 @@
         <v>1.52</v>
       </c>
       <c r="AN170">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AO170">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP170">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36396,16 +36396,16 @@
         <v>2.25</v>
       </c>
       <c r="AN171">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AO171">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AP171">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AQ171">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36602,16 +36602,16 @@
         <v>1.55</v>
       </c>
       <c r="AN172">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO172">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="AP172">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ172">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AR172">
         <v>1.34</v>
@@ -36808,16 +36808,16 @@
         <v>1.14</v>
       </c>
       <c r="AN173">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AO173">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP173">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AQ173">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AR173">
         <v>1.61</v>
@@ -37014,16 +37014,16 @@
         <v>1.46</v>
       </c>
       <c r="AN174">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="AO174">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="AP174">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR174">
         <v>1.35</v>
@@ -37220,16 +37220,16 @@
         <v>1.44</v>
       </c>
       <c r="AN175">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="AO175">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AP175">
+        <v>0.9</v>
+      </c>
+      <c r="AQ175">
         <v>1.27</v>
-      </c>
-      <c r="AQ175">
-        <v>1.14</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37426,16 +37426,16 @@
         <v>5.5</v>
       </c>
       <c r="AN176">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AO176">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="AP176">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AQ176">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AR176">
         <v>2.28</v>
@@ -37632,16 +37632,16 @@
         <v>2.6</v>
       </c>
       <c r="AN177">
+        <v>1.21</v>
+      </c>
+      <c r="AO177">
+        <v>0.59</v>
+      </c>
+      <c r="AP177">
         <v>1.27</v>
       </c>
-      <c r="AO177">
-        <v>0.4</v>
-      </c>
-      <c r="AP177">
-        <v>1.38</v>
-      </c>
       <c r="AQ177">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -37838,16 +37838,16 @@
         <v>1.72</v>
       </c>
       <c r="AN178">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="AO178">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="AP178">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR178">
         <v>1.53</v>
@@ -38044,16 +38044,16 @@
         <v>1.63</v>
       </c>
       <c r="AN179">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AO179">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AP179">
         <v>1.07</v>
       </c>
       <c r="AQ179">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.33</v>
@@ -38250,16 +38250,16 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AO180">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AP180">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AQ180">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR180">
         <v>1.21</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ2">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
         <v>1.07</v>
@@ -2000,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ6">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2818,16 +2818,16 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>1.09</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ11">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3642,16 +3642,16 @@
         <v>2.05</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ13">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>1.06</v>
       </c>
       <c r="AN14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ14">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR14">
         <v>1.92</v>
@@ -4266,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ15">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>2.29</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR16">
         <v>1.85</v>
@@ -4672,16 +4672,16 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP17">
         <v>1.07</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4878,16 +4878,16 @@
         <v>1.35</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ18">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -5087,13 +5087,13 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5290,16 +5290,16 @@
         <v>1.44</v>
       </c>
       <c r="AN20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5496,16 +5496,16 @@
         <v>1.75</v>
       </c>
       <c r="AN21">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5702,16 +5702,16 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP22">
+        <v>1.2</v>
+      </c>
+      <c r="AQ22">
         <v>0.93</v>
-      </c>
-      <c r="AQ22">
-        <v>1.24</v>
       </c>
       <c r="AR22">
         <v>1.04</v>
@@ -5908,16 +5908,16 @@
         <v>1.6</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>2.4</v>
+      </c>
+      <c r="AQ23">
         <v>2.33</v>
-      </c>
-      <c r="AP23">
-        <v>2.41</v>
-      </c>
-      <c r="AQ23">
-        <v>2.37</v>
       </c>
       <c r="AR23">
         <v>2.12</v>
@@ -6114,16 +6114,16 @@
         <v>1.57</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ24">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6320,13 +6320,13 @@
         <v>1.77</v>
       </c>
       <c r="AN25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ25">
         <v>1.07</v>
@@ -6532,10 +6532,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6732,16 +6732,16 @@
         <v>5</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ27">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR27">
         <v>2.27</v>
@@ -6938,16 +6938,16 @@
         <v>1.78</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7144,16 +7144,16 @@
         <v>1.53</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>1.31</v>
@@ -7350,7 +7350,7 @@
         <v>1.65</v>
       </c>
       <c r="AN30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>2</v>
@@ -7359,7 +7359,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.42</v>
@@ -7559,13 +7559,13 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7762,16 +7762,16 @@
         <v>1.04</v>
       </c>
       <c r="AN32">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ32">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR32">
         <v>1.24</v>
@@ -7968,16 +7968,16 @@
         <v>1.51</v>
       </c>
       <c r="AN33">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8174,16 +8174,16 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ34">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8380,16 +8380,16 @@
         <v>1.5</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR35">
         <v>1.14</v>
@@ -8586,16 +8586,16 @@
         <v>1.9</v>
       </c>
       <c r="AN36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ36">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8792,13 +8792,13 @@
         <v>3.9</v>
       </c>
       <c r="AN37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -8998,16 +8998,16 @@
         <v>1.07</v>
       </c>
       <c r="AN38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>2.67</v>
+        <v>3</v>
       </c>
       <c r="AP38">
         <v>1.07</v>
       </c>
       <c r="AQ38">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR38">
         <v>1.57</v>
@@ -9204,16 +9204,16 @@
         <v>2.1</v>
       </c>
       <c r="AN39">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP39">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR39">
         <v>1.77</v>
@@ -9410,16 +9410,16 @@
         <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO40">
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.44</v>
@@ -9619,13 +9619,13 @@
         <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP41">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR41">
         <v>1.85</v>
@@ -9822,16 +9822,16 @@
         <v>1.42</v>
       </c>
       <c r="AN42">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10031,13 +10031,13 @@
         <v>0.33</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10234,16 +10234,16 @@
         <v>5.5</v>
       </c>
       <c r="AN44">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP44">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ44">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR44">
         <v>2.25</v>
@@ -10440,13 +10440,13 @@
         <v>1.41</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO45">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ45">
         <v>1.07</v>
@@ -10646,16 +10646,16 @@
         <v>1.66</v>
       </c>
       <c r="AN46">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>1.87</v>
+      </c>
+      <c r="AQ46">
         <v>1.14</v>
-      </c>
-      <c r="AP46">
-        <v>1.83</v>
-      </c>
-      <c r="AQ46">
-        <v>1.27</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10852,16 +10852,16 @@
         <v>1.09</v>
       </c>
       <c r="AN47">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11058,16 +11058,16 @@
         <v>2.35</v>
       </c>
       <c r="AN48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO48">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ48">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11264,16 +11264,16 @@
         <v>1.82</v>
       </c>
       <c r="AN49">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AO49">
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11470,16 +11470,16 @@
         <v>2.87</v>
       </c>
       <c r="AN50">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.91</v>
@@ -11676,16 +11676,16 @@
         <v>1.13</v>
       </c>
       <c r="AN51">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AO51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ51">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11882,16 +11882,16 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO52">
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
@@ -12088,16 +12088,16 @@
         <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO53">
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12294,7 +12294,7 @@
         <v>1.9</v>
       </c>
       <c r="AN54">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
         <v>1</v>
@@ -12303,7 +12303,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ54">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12500,16 +12500,16 @@
         <v>1.53</v>
       </c>
       <c r="AN55">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ55">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12709,13 +12709,13 @@
         <v>1</v>
       </c>
       <c r="AO56">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR56">
         <v>2</v>
@@ -12912,16 +12912,16 @@
         <v>1.53</v>
       </c>
       <c r="AN57">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AO57">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13118,16 +13118,16 @@
         <v>3.4</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO58">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13330,10 +13330,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13530,7 +13530,7 @@
         <v>1.47</v>
       </c>
       <c r="AN60">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
         <v>1</v>
@@ -13539,7 +13539,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.46</v>
@@ -13736,16 +13736,16 @@
         <v>1.44</v>
       </c>
       <c r="AN61">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AO61">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP61">
+        <v>1.2</v>
+      </c>
+      <c r="AQ61">
         <v>0.93</v>
-      </c>
-      <c r="AQ61">
-        <v>1.47</v>
       </c>
       <c r="AR61">
         <v>0.96</v>
@@ -13942,16 +13942,16 @@
         <v>4.6</v>
       </c>
       <c r="AN62">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AO62">
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ62">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>2.33</v>
@@ -14148,16 +14148,16 @@
         <v>2.05</v>
       </c>
       <c r="AN63">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AO63">
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ63">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR63">
         <v>1.32</v>
@@ -14354,16 +14354,16 @@
         <v>1.07</v>
       </c>
       <c r="AN64">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AO64">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AP64">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR64">
         <v>1.26</v>
@@ -14563,13 +14563,13 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AP65">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ65">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR65">
         <v>1.37</v>
@@ -14766,13 +14766,13 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="AO66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
         <v>1.07</v>
@@ -14972,16 +14972,16 @@
         <v>1.64</v>
       </c>
       <c r="AN67">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AO67">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AP67">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15178,13 +15178,13 @@
         <v>1.42</v>
       </c>
       <c r="AN68">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
         <v>1.07</v>
@@ -15384,16 +15384,16 @@
         <v>1.52</v>
       </c>
       <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
         <v>1.8</v>
       </c>
-      <c r="AO69">
-        <v>1</v>
-      </c>
-      <c r="AP69">
-        <v>1.4</v>
-      </c>
       <c r="AQ69">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15590,16 +15590,16 @@
         <v>1.57</v>
       </c>
       <c r="AN70">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15799,13 +15799,13 @@
         <v>1</v>
       </c>
       <c r="AO71">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR71">
         <v>1.61</v>
@@ -16002,16 +16002,16 @@
         <v>1.47</v>
       </c>
       <c r="AN72">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO72">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AP72">
         <v>1.07</v>
       </c>
       <c r="AQ72">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16208,16 +16208,16 @@
         <v>1.45</v>
       </c>
       <c r="AN73">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR73">
         <v>0.99</v>
@@ -16414,16 +16414,16 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO74">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ74">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR74">
         <v>1.17</v>
@@ -16620,16 +16620,16 @@
         <v>4.33</v>
       </c>
       <c r="AN75">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AO75">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>2.39</v>
@@ -16826,13 +16826,13 @@
         <v>5.5</v>
       </c>
       <c r="AN76">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="AO76">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ76">
         <v>1.07</v>
@@ -17032,16 +17032,16 @@
         <v>2.05</v>
       </c>
       <c r="AN77">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AO77">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR77">
         <v>1.3</v>
@@ -17238,16 +17238,16 @@
         <v>1.37</v>
       </c>
       <c r="AN78">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AO78">
-        <v>1.23</v>
+        <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17444,16 +17444,16 @@
         <v>2.5</v>
       </c>
       <c r="AN79">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO79">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ79">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17650,16 +17650,16 @@
         <v>1.53</v>
       </c>
       <c r="AN80">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AO80">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17856,16 +17856,16 @@
         <v>1.15</v>
       </c>
       <c r="AN81">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ81">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18062,16 +18062,16 @@
         <v>1.47</v>
       </c>
       <c r="AN82">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AO82">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18268,16 +18268,16 @@
         <v>1.52</v>
       </c>
       <c r="AN83">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ83">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18474,16 +18474,16 @@
         <v>1.66</v>
       </c>
       <c r="AN84">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AO84">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AP84">
         <v>1.07</v>
       </c>
       <c r="AQ84">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18680,16 +18680,16 @@
         <v>1.04</v>
       </c>
       <c r="AN85">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AO85">
-        <v>2.57</v>
+        <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ85">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR85">
         <v>1</v>
@@ -18889,13 +18889,13 @@
         <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -19092,16 +19092,16 @@
         <v>4</v>
       </c>
       <c r="AN87">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO87">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AP87">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ87">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>2.04</v>
@@ -19298,13 +19298,13 @@
         <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ88">
         <v>1.07</v>
@@ -19504,16 +19504,16 @@
         <v>1.47</v>
       </c>
       <c r="AN89">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="AO89">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ89">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>0.99</v>
@@ -19713,13 +19713,13 @@
         <v>1</v>
       </c>
       <c r="AO90">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ90">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR90">
         <v>1.19</v>
@@ -19916,16 +19916,16 @@
         <v>4.5</v>
       </c>
       <c r="AN91">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AO91">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AP91">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
         <v>2.41</v>
@@ -20122,16 +20122,16 @@
         <v>1.12</v>
       </c>
       <c r="AN92">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO92">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ92">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -20328,16 +20328,16 @@
         <v>1.44</v>
       </c>
       <c r="AN93">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="AO93">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="AP93">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ93">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -20534,16 +20534,16 @@
         <v>1.66</v>
       </c>
       <c r="AN94">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO94">
-        <v>0.93</v>
+        <v>0.33</v>
       </c>
       <c r="AP94">
         <v>1.07</v>
       </c>
       <c r="AQ94">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.31</v>
@@ -20740,16 +20740,16 @@
         <v>4.8</v>
       </c>
       <c r="AN95">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AO95">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ95">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR95">
         <v>2.09</v>
@@ -20946,16 +20946,16 @@
         <v>1.68</v>
       </c>
       <c r="AN96">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AO96">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR96">
         <v>1.3</v>
@@ -21152,16 +21152,16 @@
         <v>1.37</v>
       </c>
       <c r="AN97">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AO97">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AP97">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ97">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.09</v>
@@ -21358,16 +21358,16 @@
         <v>1.1</v>
       </c>
       <c r="AN98">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO98">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AP98">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21564,16 +21564,16 @@
         <v>1.32</v>
       </c>
       <c r="AN99">
-        <v>0.9399999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="AO99">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR99">
         <v>1.04</v>
@@ -21770,13 +21770,13 @@
         <v>1.72</v>
       </c>
       <c r="AN100">
-        <v>1.47</v>
+        <v>2.13</v>
       </c>
       <c r="AO100">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ100">
         <v>1.07</v>
@@ -21976,16 +21976,16 @@
         <v>1.65</v>
       </c>
       <c r="AN101">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO101">
-        <v>1.2</v>
+        <v>0.86</v>
       </c>
       <c r="AP101">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ101">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR101">
         <v>1.25</v>
@@ -22182,16 +22182,16 @@
         <v>1.35</v>
       </c>
       <c r="AN102">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AO102">
-        <v>1.35</v>
+        <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ102">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR102">
         <v>1.12</v>
@@ -22388,16 +22388,16 @@
         <v>3.8</v>
       </c>
       <c r="AN103">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AO103">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AP103">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ103">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR103">
         <v>2.45</v>
@@ -22594,16 +22594,16 @@
         <v>5.8</v>
       </c>
       <c r="AN104">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="AO104">
-        <v>1.06</v>
+        <v>0.43</v>
       </c>
       <c r="AP104">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR104">
         <v>2.1</v>
@@ -22800,16 +22800,16 @@
         <v>2.2</v>
       </c>
       <c r="AN105">
+        <v>1.14</v>
+      </c>
+      <c r="AO105">
+        <v>0.63</v>
+      </c>
+      <c r="AP105">
         <v>1.07</v>
       </c>
-      <c r="AO105">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AP105">
-        <v>1</v>
-      </c>
       <c r="AQ105">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -23006,16 +23006,16 @@
         <v>1.78</v>
       </c>
       <c r="AN106">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AO106">
-        <v>1.44</v>
+        <v>0.89</v>
       </c>
       <c r="AP106">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23212,16 +23212,16 @@
         <v>6.5</v>
       </c>
       <c r="AN107">
-        <v>2.33</v>
+        <v>2.22</v>
       </c>
       <c r="AO107">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP107">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ107">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR107">
         <v>2.43</v>
@@ -23418,16 +23418,16 @@
         <v>2.1</v>
       </c>
       <c r="AN108">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AO108">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ108">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.55</v>
@@ -23624,16 +23624,16 @@
         <v>1.12</v>
       </c>
       <c r="AN109">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AP109">
         <v>1.07</v>
       </c>
       <c r="AQ109">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23830,16 +23830,16 @@
         <v>1.07</v>
       </c>
       <c r="AN110">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AO110">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ110">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24036,16 +24036,16 @@
         <v>1.51</v>
       </c>
       <c r="AN111">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="AO111">
-        <v>0.95</v>
+        <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ111">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24242,16 +24242,16 @@
         <v>1.46</v>
       </c>
       <c r="AN112">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>1.42</v>
+        <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR112">
         <v>1.31</v>
@@ -24448,16 +24448,16 @@
         <v>1.57</v>
       </c>
       <c r="AN113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO113">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR113">
         <v>1.47</v>
@@ -24654,16 +24654,16 @@
         <v>1.72</v>
       </c>
       <c r="AN114">
+        <v>2.3</v>
+      </c>
+      <c r="AO114">
+        <v>2.44</v>
+      </c>
+      <c r="AP114">
         <v>2.4</v>
       </c>
-      <c r="AO114">
-        <v>2.39</v>
-      </c>
-      <c r="AP114">
-        <v>2.37</v>
-      </c>
       <c r="AQ114">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR114">
         <v>2.44</v>
@@ -24860,16 +24860,16 @@
         <v>1.83</v>
       </c>
       <c r="AN115">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO115">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ115">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR115">
         <v>1.57</v>
@@ -25066,16 +25066,16 @@
         <v>1.95</v>
       </c>
       <c r="AN116">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="AO116">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP116">
         <v>1.07</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR116">
         <v>1.32</v>
@@ -25272,16 +25272,16 @@
         <v>1.72</v>
       </c>
       <c r="AN117">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AO117">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ117">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.29</v>
@@ -25478,16 +25478,16 @@
         <v>2.15</v>
       </c>
       <c r="AN118">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AO118">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP118">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ118">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR118">
         <v>1.54</v>
@@ -25684,16 +25684,16 @@
         <v>1.38</v>
       </c>
       <c r="AN119">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO119">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR119">
         <v>1.24</v>
@@ -25890,16 +25890,16 @@
         <v>1.3</v>
       </c>
       <c r="AN120">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AO120">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AP120">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ120">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR120">
         <v>1.1</v>
@@ -26096,13 +26096,13 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AO121">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AP121">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ121">
         <v>1.07</v>
@@ -26302,16 +26302,16 @@
         <v>3.6</v>
       </c>
       <c r="AN122">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="AO122">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ122">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR122">
         <v>2.17</v>
@@ -26508,16 +26508,16 @@
         <v>1.06</v>
       </c>
       <c r="AN123">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AO123">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ123">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR123">
         <v>1.33</v>
@@ -26714,16 +26714,16 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AO124">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ124">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26920,16 +26920,16 @@
         <v>1.27</v>
       </c>
       <c r="AN125">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="AO125">
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR125">
         <v>1.11</v>
@@ -27126,16 +27126,16 @@
         <v>1.09</v>
       </c>
       <c r="AN126">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AO126">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR126">
         <v>1.43</v>
@@ -27332,16 +27332,16 @@
         <v>1.09</v>
       </c>
       <c r="AN127">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="AO127">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AP127">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ127">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR127">
         <v>1.24</v>
@@ -27538,16 +27538,16 @@
         <v>1.68</v>
       </c>
       <c r="AN128">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="AO128">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27744,16 +27744,16 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="AO129">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="AP129">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ129">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR129">
         <v>1.12</v>
@@ -27950,13 +27950,13 @@
         <v>1.57</v>
       </c>
       <c r="AN130">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="AO130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130">
         <v>1.07</v>
@@ -28156,16 +28156,16 @@
         <v>1.65</v>
       </c>
       <c r="AN131">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AO131">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28362,16 +28362,16 @@
         <v>6.5</v>
       </c>
       <c r="AN132">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AO132">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="AP132">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ132">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR132">
         <v>2.36</v>
@@ -28568,16 +28568,16 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AO133">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ133">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR133">
         <v>1.31</v>
@@ -28774,16 +28774,16 @@
         <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="AO134">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AP134">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ134">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -28980,16 +28980,16 @@
         <v>1.09</v>
       </c>
       <c r="AN135">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AO135">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="AP135">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ135">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29186,16 +29186,16 @@
         <v>1.38</v>
       </c>
       <c r="AN136">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AO136">
-        <v>1.39</v>
+        <v>0.91</v>
       </c>
       <c r="AP136">
         <v>1.07</v>
       </c>
       <c r="AQ136">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR136">
         <v>1.3</v>
@@ -29392,16 +29392,16 @@
         <v>6.5</v>
       </c>
       <c r="AN137">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AO137">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ137">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR137">
         <v>2.16</v>
@@ -29598,16 +29598,16 @@
         <v>1.58</v>
       </c>
       <c r="AN138">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AO138">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AP138">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -29804,16 +29804,16 @@
         <v>1.39</v>
       </c>
       <c r="AN139">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AO139">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AP139">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ139">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -30013,13 +30013,13 @@
         <v>1.18</v>
       </c>
       <c r="AO140">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.38</v>
@@ -30216,16 +30216,16 @@
         <v>1.7</v>
       </c>
       <c r="AN141">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AO141">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AP141">
         <v>1.07</v>
       </c>
       <c r="AQ141">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR141">
         <v>1.31</v>
@@ -30422,16 +30422,16 @@
         <v>3.6</v>
       </c>
       <c r="AN142">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AO142">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR142">
         <v>2.22</v>
@@ -30628,16 +30628,16 @@
         <v>2.25</v>
       </c>
       <c r="AN143">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AO143">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="AP143">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ143">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR143">
         <v>1.49</v>
@@ -30834,16 +30834,16 @@
         <v>1.28</v>
       </c>
       <c r="AN144">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="AO144">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP144">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ144">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR144">
         <v>1.15</v>
@@ -31040,16 +31040,16 @@
         <v>1.07</v>
       </c>
       <c r="AN145">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AO145">
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31246,16 +31246,16 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO146">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31452,16 +31452,16 @@
         <v>1.6</v>
       </c>
       <c r="AN147">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AO147">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AP147">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ147">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31658,16 +31658,16 @@
         <v>4.8</v>
       </c>
       <c r="AN148">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AO148">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ148">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR148">
         <v>2.22</v>
@@ -31864,13 +31864,13 @@
         <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AO149">
-        <v>1.04</v>
+        <v>0.82</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ149">
         <v>1.07</v>
@@ -32070,13 +32070,13 @@
         <v>2.1</v>
       </c>
       <c r="AN150">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AO150">
-        <v>1.04</v>
+        <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ150">
         <v>1.07</v>
@@ -32276,16 +32276,16 @@
         <v>1.91</v>
       </c>
       <c r="AN151">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AO151">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="AP151">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ151">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32482,16 +32482,16 @@
         <v>4</v>
       </c>
       <c r="AN152">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="AO152">
-        <v>1.44</v>
+        <v>0.92</v>
       </c>
       <c r="AP152">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ152">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR152">
         <v>2.32</v>
@@ -32688,16 +32688,16 @@
         <v>1.3</v>
       </c>
       <c r="AN153">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="AO153">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AP153">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ153">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.19</v>
@@ -32894,16 +32894,16 @@
         <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO154">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AP154">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ154">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR154">
         <v>1.32</v>
@@ -33100,16 +33100,16 @@
         <v>1.05</v>
       </c>
       <c r="AN155">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="AO155">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="AP155">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ155">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR155">
         <v>1.13</v>
@@ -33306,16 +33306,16 @@
         <v>1.65</v>
       </c>
       <c r="AN156">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AO156">
-        <v>0.62</v>
+        <v>0.38</v>
       </c>
       <c r="AP156">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ156">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33512,16 +33512,16 @@
         <v>1.83</v>
       </c>
       <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
         <v>1.08</v>
       </c>
-      <c r="AO157">
-        <v>1.28</v>
-      </c>
       <c r="AP157">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -33718,16 +33718,16 @@
         <v>1.73</v>
       </c>
       <c r="AN158">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AO158">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -33924,16 +33924,16 @@
         <v>3.65</v>
       </c>
       <c r="AN159">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AO159">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="AP159">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ159">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR159">
         <v>2.4</v>
@@ -34130,16 +34130,16 @@
         <v>1.95</v>
       </c>
       <c r="AN160">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="AO160">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="AP160">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ160">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR160">
         <v>1.28</v>
@@ -34336,16 +34336,16 @@
         <v>1.06</v>
       </c>
       <c r="AN161">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AO161">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AP161">
         <v>1.07</v>
       </c>
       <c r="AQ161">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34542,16 +34542,16 @@
         <v>1.4</v>
       </c>
       <c r="AN162">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AO162">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="AP162">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ162">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34748,16 +34748,16 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AO163">
-        <v>0.89</v>
+        <v>0.54</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AQ163">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR163">
         <v>1.42</v>
@@ -34954,16 +34954,16 @@
         <v>4.2</v>
       </c>
       <c r="AN164">
-        <v>2.41</v>
+        <v>2.31</v>
       </c>
       <c r="AO164">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AP164">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ164">
-        <v>1.24</v>
+        <v>0.93</v>
       </c>
       <c r="AR164">
         <v>2.27</v>
@@ -35160,16 +35160,16 @@
         <v>1.85</v>
       </c>
       <c r="AN165">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AO165">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AP165">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ165">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35366,16 +35366,16 @@
         <v>1.1</v>
       </c>
       <c r="AN166">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO166">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ166">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35572,13 +35572,13 @@
         <v>1.42</v>
       </c>
       <c r="AN167">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="AO167">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="AP167">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="AQ167">
         <v>1.07</v>
@@ -35778,13 +35778,13 @@
         <v>5</v>
       </c>
       <c r="AN168">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AO168">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="AP168">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="AQ168">
         <v>1.07</v>
@@ -35984,16 +35984,16 @@
         <v>1.57</v>
       </c>
       <c r="AN169">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="AO169">
-        <v>0.57</v>
+        <v>0.36</v>
       </c>
       <c r="AP169">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR169">
         <v>1.08</v>
@@ -36190,16 +36190,16 @@
         <v>1.52</v>
       </c>
       <c r="AN170">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="AO170">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP170">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36396,16 +36396,16 @@
         <v>2.25</v>
       </c>
       <c r="AN171">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AO171">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="AP171">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ171">
-        <v>0.9</v>
+        <v>0.53</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36602,16 +36602,16 @@
         <v>1.55</v>
       </c>
       <c r="AN172">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO172">
-        <v>1.43</v>
+        <v>0.92</v>
       </c>
       <c r="AP172">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ172">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AR172">
         <v>1.34</v>
@@ -36808,16 +36808,16 @@
         <v>1.14</v>
       </c>
       <c r="AN173">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AO173">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AQ173">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="AR173">
         <v>1.61</v>
@@ -37014,16 +37014,16 @@
         <v>1.46</v>
       </c>
       <c r="AN174">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="AO174">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="AP174">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AQ174">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR174">
         <v>1.35</v>
@@ -37220,16 +37220,16 @@
         <v>1.44</v>
       </c>
       <c r="AN175">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="AO175">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AP175">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ175">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37426,16 +37426,16 @@
         <v>5.5</v>
       </c>
       <c r="AN176">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AO176">
-        <v>0.97</v>
+        <v>0.71</v>
       </c>
       <c r="AP176">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AQ176">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AR176">
         <v>2.28</v>
@@ -37632,16 +37632,16 @@
         <v>2.6</v>
       </c>
       <c r="AN177">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AO177">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
       <c r="AP177">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -37838,16 +37838,16 @@
         <v>1.72</v>
       </c>
       <c r="AN178">
-        <v>1.41</v>
+        <v>1.87</v>
       </c>
       <c r="AO178">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ178">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR178">
         <v>1.53</v>
@@ -38044,16 +38044,16 @@
         <v>1.63</v>
       </c>
       <c r="AN179">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AO179">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="AP179">
         <v>1.07</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
         <v>1.33</v>
@@ -38250,16 +38250,16 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AO180">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AP180">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AQ180">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR180">
         <v>1.21</v>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,18 @@
     <t>['42', '49']</t>
   </si>
   <si>
+    <t>['26', '45+7', '85']</t>
+  </si>
+  <si>
+    <t>['5', '78']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -890,6 +902,15 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['6', '80']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1510,7 +1531,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1591,7 +1612,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ2">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1716,7 +1737,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2128,7 +2149,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2206,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
         <v>1.8</v>
@@ -2540,7 +2561,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2827,7 +2848,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ8">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3236,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ10">
         <v>0.38</v>
@@ -3364,7 +3385,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3442,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3648,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ12">
         <v>0.93</v>
@@ -3776,7 +3797,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3854,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
+        <v>1.06</v>
+      </c>
+      <c r="AQ13">
         <v>1.07</v>
-      </c>
-      <c r="AQ13">
-        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3982,7 +4003,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4394,7 +4415,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4600,7 +4621,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4678,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ17">
         <v>0.93</v>
@@ -5012,7 +5033,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5218,7 +5239,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>3.4</v>
@@ -5424,7 +5445,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5505,7 +5526,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ21">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5630,7 +5651,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5708,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR22">
         <v>1.04</v>
@@ -5914,7 +5935,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -6042,7 +6063,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>2.88</v>
@@ -6120,10 +6141,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
+        <v>1.2</v>
+      </c>
+      <c r="AQ24">
         <v>1.07</v>
-      </c>
-      <c r="AQ24">
-        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6248,7 +6269,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>2.6</v>
@@ -6326,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ25">
         <v>1.07</v>
@@ -6454,7 +6475,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6532,7 +6553,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>2.43</v>
@@ -6741,7 +6762,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR27">
         <v>2.27</v>
@@ -6944,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ28">
         <v>0.9399999999999999</v>
@@ -7072,7 +7093,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7153,7 +7174,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR29">
         <v>1.31</v>
@@ -7278,7 +7299,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7356,7 +7377,7 @@
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7484,7 +7505,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7690,7 +7711,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -8308,7 +8329,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8592,10 +8613,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8798,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -8926,7 +8947,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9004,7 +9025,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ38">
         <v>2.33</v>
@@ -9213,7 +9234,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ39">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR39">
         <v>1.77</v>
@@ -9544,7 +9565,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>1.67</v>
@@ -9622,7 +9643,7 @@
         <v>0.67</v>
       </c>
       <c r="AP41">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ41">
         <v>0.9399999999999999</v>
@@ -9750,7 +9771,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10034,7 +10055,7 @@
         <v>1.33</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>0.38</v>
@@ -10162,7 +10183,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10574,7 +10595,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10652,10 +10673,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10780,7 +10801,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11064,7 +11085,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11192,7 +11213,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11476,10 +11497,10 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR50">
         <v>1.91</v>
@@ -11604,7 +11625,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11682,7 +11703,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ51">
         <v>2.33</v>
@@ -11891,7 +11912,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ52">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
@@ -12222,7 +12243,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>2.6</v>
@@ -12300,10 +12321,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ54">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12428,7 +12449,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12509,7 +12530,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ55">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -13046,7 +13067,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13124,7 +13145,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ58">
         <v>1.8</v>
@@ -13252,7 +13273,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13333,7 +13354,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13458,7 +13479,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13536,7 +13557,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -13664,7 +13685,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13742,7 +13763,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ61">
         <v>0.93</v>
@@ -14154,7 +14175,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ63">
         <v>0.38</v>
@@ -14282,7 +14303,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14488,7 +14509,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -15106,7 +15127,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15184,7 +15205,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ68">
         <v>1.07</v>
@@ -15312,7 +15333,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15393,7 +15414,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15930,7 +15951,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16008,7 +16029,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ72">
         <v>1.8</v>
@@ -16214,10 +16235,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>0.99</v>
@@ -16342,7 +16363,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16754,7 +16775,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -17450,7 +17471,7 @@
         <v>0.4</v>
       </c>
       <c r="AP79">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ79">
         <v>0.67</v>
@@ -17578,7 +17599,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17659,7 +17680,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ80">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17784,7 +17805,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>5.5</v>
@@ -17862,7 +17883,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ81">
         <v>2.43</v>
@@ -18196,7 +18217,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18402,7 +18423,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18480,10 +18501,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ84">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18608,7 +18629,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -18686,7 +18707,7 @@
         <v>2.71</v>
       </c>
       <c r="AP85">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ85">
         <v>2.33</v>
@@ -19098,7 +19119,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19510,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19716,7 +19737,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>0.93</v>
@@ -19844,7 +19865,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>1.62</v>
@@ -19925,7 +19946,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR91">
         <v>2.41</v>
@@ -20050,7 +20071,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20128,7 +20149,7 @@
         <v>2.29</v>
       </c>
       <c r="AP92">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ92">
         <v>2.43</v>
@@ -20256,7 +20277,7 @@
         <v>129</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20334,7 +20355,7 @@
         <v>1.71</v>
       </c>
       <c r="AP93">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ93">
         <v>1.8</v>
@@ -20462,7 +20483,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20540,7 +20561,7 @@
         <v>0.33</v>
       </c>
       <c r="AP94">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20668,7 +20689,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>1.57</v>
@@ -20746,10 +20767,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ95">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR95">
         <v>2.09</v>
@@ -20955,7 +20976,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ96">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
         <v>1.3</v>
@@ -21080,7 +21101,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>3.6</v>
@@ -21161,7 +21182,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR97">
         <v>1.09</v>
@@ -21286,7 +21307,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21570,10 +21591,10 @@
         <v>1.33</v>
       </c>
       <c r="AP99">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR99">
         <v>1.04</v>
@@ -21904,7 +21925,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -21985,7 +22006,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ101">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR101">
         <v>1.25</v>
@@ -22316,7 +22337,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22600,7 +22621,7 @@
         <v>0.43</v>
       </c>
       <c r="AP104">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ104">
         <v>0.67</v>
@@ -22728,7 +22749,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -22806,7 +22827,7 @@
         <v>0.63</v>
       </c>
       <c r="AP105">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105">
         <v>0.38</v>
@@ -23012,7 +23033,7 @@
         <v>0.89</v>
       </c>
       <c r="AP106">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23552,7 +23573,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23630,7 +23651,7 @@
         <v>2.38</v>
       </c>
       <c r="AP109">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ109">
         <v>2.43</v>
@@ -23758,7 +23779,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -24376,7 +24397,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24788,7 +24809,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24869,7 +24890,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ115">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR115">
         <v>1.57</v>
@@ -24994,7 +25015,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25072,7 +25093,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ116">
         <v>0.38</v>
@@ -25200,7 +25221,7 @@
         <v>84</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25278,7 +25299,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25406,7 +25427,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25484,10 +25505,10 @@
         <v>0.75</v>
       </c>
       <c r="AP118">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ118">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR118">
         <v>1.54</v>
@@ -25612,7 +25633,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25818,7 +25839,7 @@
         <v>125</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26024,7 +26045,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26308,7 +26329,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ122">
         <v>0.93</v>
@@ -26436,7 +26457,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26642,7 +26663,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26720,10 +26741,10 @@
         <v>1.11</v>
       </c>
       <c r="AP124">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ124">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26848,7 +26869,7 @@
         <v>131</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -26926,7 +26947,7 @@
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ125">
         <v>0.9399999999999999</v>
@@ -27054,7 +27075,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27260,7 +27281,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27466,7 +27487,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27547,7 +27568,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ128">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27672,7 +27693,7 @@
         <v>131</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27753,7 +27774,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ129">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR129">
         <v>1.12</v>
@@ -27878,7 +27899,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q130">
         <v>3.2</v>
@@ -27956,7 +27977,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>1.07</v>
@@ -28162,7 +28183,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ131">
         <v>0.9399999999999999</v>
@@ -28371,7 +28392,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ132">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR132">
         <v>2.36</v>
@@ -28496,7 +28517,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28574,10 +28595,10 @@
         <v>1.18</v>
       </c>
       <c r="AP133">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ133">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR133">
         <v>1.31</v>
@@ -28783,7 +28804,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ134">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -28986,7 +29007,7 @@
         <v>2.55</v>
       </c>
       <c r="AP135">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ135">
         <v>2.33</v>
@@ -29114,7 +29135,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29192,7 +29213,7 @@
         <v>0.91</v>
       </c>
       <c r="AP136">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ136">
         <v>0.93</v>
@@ -29398,7 +29419,7 @@
         <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ137">
         <v>0.38</v>
@@ -29526,7 +29547,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>3.1</v>
@@ -29732,7 +29753,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29938,7 +29959,7 @@
         <v>84</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30222,10 +30243,10 @@
         <v>0.73</v>
       </c>
       <c r="AP141">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ141">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR141">
         <v>1.31</v>
@@ -30350,7 +30371,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30428,7 +30449,7 @@
         <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -30762,7 +30783,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>4.25</v>
@@ -30840,7 +30861,7 @@
         <v>2</v>
       </c>
       <c r="AP144">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ144">
         <v>1.8</v>
@@ -30968,7 +30989,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31255,7 +31276,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31380,7 +31401,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31586,7 +31607,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31664,10 +31685,10 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ148">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>2.22</v>
@@ -31792,7 +31813,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -31870,7 +31891,7 @@
         <v>0.82</v>
       </c>
       <c r="AP149">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ149">
         <v>1.07</v>
@@ -32076,7 +32097,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ150">
         <v>1.07</v>
@@ -32285,7 +32306,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ151">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32822,7 +32843,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -32900,10 +32921,10 @@
         <v>1.18</v>
       </c>
       <c r="AP154">
+        <v>1.2</v>
+      </c>
+      <c r="AQ154">
         <v>1.07</v>
-      </c>
-      <c r="AQ154">
-        <v>1.14</v>
       </c>
       <c r="AR154">
         <v>1.32</v>
@@ -33028,7 +33049,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33106,7 +33127,7 @@
         <v>2.33</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ155">
         <v>2.43</v>
@@ -33234,7 +33255,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33521,7 +33542,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -33930,7 +33951,7 @@
         <v>2.08</v>
       </c>
       <c r="AP159">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ159">
         <v>1.8</v>
@@ -34264,7 +34285,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34342,7 +34363,7 @@
         <v>2.46</v>
       </c>
       <c r="AP161">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ161">
         <v>2.33</v>
@@ -34676,7 +34697,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -34754,7 +34775,7 @@
         <v>0.54</v>
       </c>
       <c r="AP163">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ163">
         <v>0.67</v>
@@ -34963,7 +34984,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ164">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR164">
         <v>2.27</v>
@@ -35088,7 +35109,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35166,10 +35187,10 @@
         <v>1.17</v>
       </c>
       <c r="AP165">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ165">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35294,7 +35315,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35500,7 +35521,7 @@
         <v>163</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35706,7 +35727,7 @@
         <v>175</v>
       </c>
       <c r="P168" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>1.57</v>
@@ -35784,7 +35805,7 @@
         <v>0.93</v>
       </c>
       <c r="AP168">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ168">
         <v>1.07</v>
@@ -35990,7 +36011,7 @@
         <v>0.36</v>
       </c>
       <c r="AP169">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ169">
         <v>0.38</v>
@@ -36405,7 +36426,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ171">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36530,7 +36551,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36814,7 +36835,7 @@
         <v>2.5</v>
       </c>
       <c r="AP173">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AQ173">
         <v>2.33</v>
@@ -37148,7 +37169,7 @@
         <v>199</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37229,7 +37250,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ175">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37354,7 +37375,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37766,7 +37787,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -38050,7 +38071,7 @@
         <v>0.8</v>
       </c>
       <c r="AP179">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AQ179">
         <v>0.9399999999999999</v>
@@ -38178,7 +38199,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38335,6 +38356,1036 @@
       </c>
       <c r="BP180">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>6671708</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F181">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
+        <v>78</v>
+      </c>
+      <c r="H181" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>3</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181" t="s">
+        <v>204</v>
+      </c>
+      <c r="P181" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q181">
+        <v>1.73</v>
+      </c>
+      <c r="R181">
+        <v>2.75</v>
+      </c>
+      <c r="S181">
+        <v>8</v>
+      </c>
+      <c r="T181">
+        <v>1.25</v>
+      </c>
+      <c r="U181">
+        <v>3.75</v>
+      </c>
+      <c r="V181">
+        <v>2.2</v>
+      </c>
+      <c r="W181">
+        <v>1.62</v>
+      </c>
+      <c r="X181">
+        <v>5</v>
+      </c>
+      <c r="Y181">
+        <v>1.17</v>
+      </c>
+      <c r="Z181">
+        <v>1.27</v>
+      </c>
+      <c r="AA181">
+        <v>5.6</v>
+      </c>
+      <c r="AB181">
+        <v>8.6</v>
+      </c>
+      <c r="AC181">
+        <v>1.02</v>
+      </c>
+      <c r="AD181">
+        <v>13</v>
+      </c>
+      <c r="AE181">
+        <v>1.15</v>
+      </c>
+      <c r="AF181">
+        <v>5.5</v>
+      </c>
+      <c r="AG181">
+        <v>1.47</v>
+      </c>
+      <c r="AH181">
+        <v>2.5</v>
+      </c>
+      <c r="AI181">
+        <v>1.95</v>
+      </c>
+      <c r="AJ181">
+        <v>1.8</v>
+      </c>
+      <c r="AK181">
+        <v>1.02</v>
+      </c>
+      <c r="AL181">
+        <v>1.1</v>
+      </c>
+      <c r="AM181">
+        <v>3.75</v>
+      </c>
+      <c r="AN181">
+        <v>2.4</v>
+      </c>
+      <c r="AO181">
+        <v>1.14</v>
+      </c>
+      <c r="AP181">
+        <v>2.44</v>
+      </c>
+      <c r="AQ181">
+        <v>1.07</v>
+      </c>
+      <c r="AR181">
+        <v>2.41</v>
+      </c>
+      <c r="AS181">
+        <v>1.15</v>
+      </c>
+      <c r="AT181">
+        <v>3.56</v>
+      </c>
+      <c r="AU181">
+        <v>-1</v>
+      </c>
+      <c r="AV181">
+        <v>-1</v>
+      </c>
+      <c r="AW181">
+        <v>-1</v>
+      </c>
+      <c r="AX181">
+        <v>-1</v>
+      </c>
+      <c r="AY181">
+        <v>-1</v>
+      </c>
+      <c r="AZ181">
+        <v>-1</v>
+      </c>
+      <c r="BA181">
+        <v>-1</v>
+      </c>
+      <c r="BB181">
+        <v>-1</v>
+      </c>
+      <c r="BC181">
+        <v>-1</v>
+      </c>
+      <c r="BD181">
+        <v>1.11</v>
+      </c>
+      <c r="BE181">
+        <v>13</v>
+      </c>
+      <c r="BF181">
+        <v>8.15</v>
+      </c>
+      <c r="BG181">
+        <v>1.12</v>
+      </c>
+      <c r="BH181">
+        <v>5.7</v>
+      </c>
+      <c r="BI181">
+        <v>1.24</v>
+      </c>
+      <c r="BJ181">
+        <v>3.8</v>
+      </c>
+      <c r="BK181">
+        <v>1.43</v>
+      </c>
+      <c r="BL181">
+        <v>2.7</v>
+      </c>
+      <c r="BM181">
+        <v>1.85</v>
+      </c>
+      <c r="BN181">
+        <v>1.95</v>
+      </c>
+      <c r="BO181">
+        <v>2.12</v>
+      </c>
+      <c r="BP181">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>6671709</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F182">
+        <v>31</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s">
+        <v>71</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>175</v>
+      </c>
+      <c r="P182" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q182">
+        <v>3.4</v>
+      </c>
+      <c r="R182">
+        <v>2.05</v>
+      </c>
+      <c r="S182">
+        <v>3.4</v>
+      </c>
+      <c r="T182">
+        <v>1.44</v>
+      </c>
+      <c r="U182">
+        <v>2.63</v>
+      </c>
+      <c r="V182">
+        <v>3.25</v>
+      </c>
+      <c r="W182">
+        <v>1.33</v>
+      </c>
+      <c r="X182">
+        <v>10</v>
+      </c>
+      <c r="Y182">
+        <v>1.06</v>
+      </c>
+      <c r="Z182">
+        <v>2.62</v>
+      </c>
+      <c r="AA182">
+        <v>3.3</v>
+      </c>
+      <c r="AB182">
+        <v>2.52</v>
+      </c>
+      <c r="AC182">
+        <v>1.07</v>
+      </c>
+      <c r="AD182">
+        <v>8.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.42</v>
+      </c>
+      <c r="AF182">
+        <v>2.85</v>
+      </c>
+      <c r="AG182">
+        <v>2.14</v>
+      </c>
+      <c r="AH182">
+        <v>1.66</v>
+      </c>
+      <c r="AI182">
+        <v>1.95</v>
+      </c>
+      <c r="AJ182">
+        <v>1.8</v>
+      </c>
+      <c r="AK182">
+        <v>1.5</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>1.47</v>
+      </c>
+      <c r="AN182">
+        <v>1.2</v>
+      </c>
+      <c r="AO182">
+        <v>0.93</v>
+      </c>
+      <c r="AP182">
+        <v>1.13</v>
+      </c>
+      <c r="AQ182">
+        <v>1.06</v>
+      </c>
+      <c r="AR182">
+        <v>1.09</v>
+      </c>
+      <c r="AS182">
+        <v>1.11</v>
+      </c>
+      <c r="AT182">
+        <v>2.2</v>
+      </c>
+      <c r="AU182">
+        <v>-1</v>
+      </c>
+      <c r="AV182">
+        <v>-1</v>
+      </c>
+      <c r="AW182">
+        <v>-1</v>
+      </c>
+      <c r="AX182">
+        <v>-1</v>
+      </c>
+      <c r="AY182">
+        <v>-1</v>
+      </c>
+      <c r="AZ182">
+        <v>-1</v>
+      </c>
+      <c r="BA182">
+        <v>-1</v>
+      </c>
+      <c r="BB182">
+        <v>-1</v>
+      </c>
+      <c r="BC182">
+        <v>-1</v>
+      </c>
+      <c r="BD182">
+        <v>2.02</v>
+      </c>
+      <c r="BE182">
+        <v>7.6</v>
+      </c>
+      <c r="BF182">
+        <v>2.14</v>
+      </c>
+      <c r="BG182">
+        <v>1.15</v>
+      </c>
+      <c r="BH182">
+        <v>4.5</v>
+      </c>
+      <c r="BI182">
+        <v>1.31</v>
+      </c>
+      <c r="BJ182">
+        <v>3.04</v>
+      </c>
+      <c r="BK182">
+        <v>1.56</v>
+      </c>
+      <c r="BL182">
+        <v>2.37</v>
+      </c>
+      <c r="BM182">
+        <v>1.91</v>
+      </c>
+      <c r="BN182">
+        <v>1.89</v>
+      </c>
+      <c r="BO182">
+        <v>2.39</v>
+      </c>
+      <c r="BP182">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>6671704</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F183">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>79</v>
+      </c>
+      <c r="H183" t="s">
+        <v>77</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>205</v>
+      </c>
+      <c r="P183" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q183">
+        <v>2.3</v>
+      </c>
+      <c r="R183">
+        <v>2.25</v>
+      </c>
+      <c r="S183">
+        <v>5</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2.75</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>7</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>1.75</v>
+      </c>
+      <c r="AA183">
+        <v>3.75</v>
+      </c>
+      <c r="AB183">
+        <v>4.15</v>
+      </c>
+      <c r="AC183">
+        <v>1.04</v>
+      </c>
+      <c r="AD183">
+        <v>12</v>
+      </c>
+      <c r="AE183">
+        <v>1.25</v>
+      </c>
+      <c r="AF183">
+        <v>3.75</v>
+      </c>
+      <c r="AG183">
+        <v>1.86</v>
+      </c>
+      <c r="AH183">
+        <v>2</v>
+      </c>
+      <c r="AI183">
+        <v>1.8</v>
+      </c>
+      <c r="AJ183">
+        <v>1.95</v>
+      </c>
+      <c r="AK183">
+        <v>1.18</v>
+      </c>
+      <c r="AL183">
+        <v>1.22</v>
+      </c>
+      <c r="AM183">
+        <v>2.1</v>
+      </c>
+      <c r="AN183">
+        <v>1.07</v>
+      </c>
+      <c r="AO183">
+        <v>0.53</v>
+      </c>
+      <c r="AP183">
+        <v>1.2</v>
+      </c>
+      <c r="AQ183">
+        <v>0.5</v>
+      </c>
+      <c r="AR183">
+        <v>1.44</v>
+      </c>
+      <c r="AS183">
+        <v>1.05</v>
+      </c>
+      <c r="AT183">
+        <v>2.49</v>
+      </c>
+      <c r="AU183">
+        <v>-1</v>
+      </c>
+      <c r="AV183">
+        <v>-1</v>
+      </c>
+      <c r="AW183">
+        <v>-1</v>
+      </c>
+      <c r="AX183">
+        <v>-1</v>
+      </c>
+      <c r="AY183">
+        <v>-1</v>
+      </c>
+      <c r="AZ183">
+        <v>-1</v>
+      </c>
+      <c r="BA183">
+        <v>-1</v>
+      </c>
+      <c r="BB183">
+        <v>-1</v>
+      </c>
+      <c r="BC183">
+        <v>-1</v>
+      </c>
+      <c r="BD183">
+        <v>1.51</v>
+      </c>
+      <c r="BE183">
+        <v>9</v>
+      </c>
+      <c r="BF183">
+        <v>3.06</v>
+      </c>
+      <c r="BG183">
+        <v>1.22</v>
+      </c>
+      <c r="BH183">
+        <v>3.8</v>
+      </c>
+      <c r="BI183">
+        <v>1.38</v>
+      </c>
+      <c r="BJ183">
+        <v>2.8</v>
+      </c>
+      <c r="BK183">
+        <v>1.62</v>
+      </c>
+      <c r="BL183">
+        <v>2.2</v>
+      </c>
+      <c r="BM183">
+        <v>1.9</v>
+      </c>
+      <c r="BN183">
+        <v>1.9</v>
+      </c>
+      <c r="BO183">
+        <v>2.18</v>
+      </c>
+      <c r="BP183">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>6671705</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F184">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>80</v>
+      </c>
+      <c r="H184" t="s">
+        <v>74</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>206</v>
+      </c>
+      <c r="P184" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q184">
+        <v>2.63</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>1.4</v>
+      </c>
+      <c r="U184">
+        <v>2.75</v>
+      </c>
+      <c r="V184">
+        <v>3</v>
+      </c>
+      <c r="W184">
+        <v>1.36</v>
+      </c>
+      <c r="X184">
+        <v>8</v>
+      </c>
+      <c r="Y184">
+        <v>1.08</v>
+      </c>
+      <c r="Z184">
+        <v>2.01</v>
+      </c>
+      <c r="AA184">
+        <v>3.5</v>
+      </c>
+      <c r="AB184">
+        <v>3.35</v>
+      </c>
+      <c r="AC184">
+        <v>1.05</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.3</v>
+      </c>
+      <c r="AF184">
+        <v>3.4</v>
+      </c>
+      <c r="AG184">
+        <v>1.95</v>
+      </c>
+      <c r="AH184">
+        <v>1.91</v>
+      </c>
+      <c r="AI184">
+        <v>1.8</v>
+      </c>
+      <c r="AJ184">
+        <v>1.95</v>
+      </c>
+      <c r="AK184">
+        <v>1.28</v>
+      </c>
+      <c r="AL184">
+        <v>1.25</v>
+      </c>
+      <c r="AM184">
+        <v>1.83</v>
+      </c>
+      <c r="AN184">
+        <v>1.87</v>
+      </c>
+      <c r="AO184">
+        <v>0.93</v>
+      </c>
+      <c r="AP184">
+        <v>1.81</v>
+      </c>
+      <c r="AQ184">
+        <v>0.93</v>
+      </c>
+      <c r="AR184">
+        <v>1.6</v>
+      </c>
+      <c r="AS184">
+        <v>1.27</v>
+      </c>
+      <c r="AT184">
+        <v>2.87</v>
+      </c>
+      <c r="AU184">
+        <v>-1</v>
+      </c>
+      <c r="AV184">
+        <v>-1</v>
+      </c>
+      <c r="AW184">
+        <v>-1</v>
+      </c>
+      <c r="AX184">
+        <v>-1</v>
+      </c>
+      <c r="AY184">
+        <v>-1</v>
+      </c>
+      <c r="AZ184">
+        <v>-1</v>
+      </c>
+      <c r="BA184">
+        <v>-1</v>
+      </c>
+      <c r="BB184">
+        <v>-1</v>
+      </c>
+      <c r="BC184">
+        <v>-1</v>
+      </c>
+      <c r="BD184">
+        <v>1.69</v>
+      </c>
+      <c r="BE184">
+        <v>8.5</v>
+      </c>
+      <c r="BF184">
+        <v>2.62</v>
+      </c>
+      <c r="BG184">
+        <v>1.15</v>
+      </c>
+      <c r="BH184">
+        <v>4.75</v>
+      </c>
+      <c r="BI184">
+        <v>1.29</v>
+      </c>
+      <c r="BJ184">
+        <v>3.3</v>
+      </c>
+      <c r="BK184">
+        <v>1.48</v>
+      </c>
+      <c r="BL184">
+        <v>2.5</v>
+      </c>
+      <c r="BM184">
+        <v>1.8</v>
+      </c>
+      <c r="BN184">
+        <v>2</v>
+      </c>
+      <c r="BO184">
+        <v>2.16</v>
+      </c>
+      <c r="BP184">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>6671707</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F185">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" t="s">
+        <v>76</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>207</v>
+      </c>
+      <c r="P185" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q185">
+        <v>3.2</v>
+      </c>
+      <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
+        <v>3.6</v>
+      </c>
+      <c r="T185">
+        <v>1.5</v>
+      </c>
+      <c r="U185">
+        <v>2.5</v>
+      </c>
+      <c r="V185">
+        <v>3.4</v>
+      </c>
+      <c r="W185">
+        <v>1.3</v>
+      </c>
+      <c r="X185">
+        <v>10</v>
+      </c>
+      <c r="Y185">
+        <v>1.06</v>
+      </c>
+      <c r="Z185">
+        <v>2.38</v>
+      </c>
+      <c r="AA185">
+        <v>3.3</v>
+      </c>
+      <c r="AB185">
+        <v>2.81</v>
+      </c>
+      <c r="AC185">
+        <v>1.06</v>
+      </c>
+      <c r="AD185">
+        <v>9.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.4</v>
+      </c>
+      <c r="AF185">
+        <v>2.95</v>
+      </c>
+      <c r="AG185">
+        <v>2.14</v>
+      </c>
+      <c r="AH185">
+        <v>1.66</v>
+      </c>
+      <c r="AI185">
+        <v>1.95</v>
+      </c>
+      <c r="AJ185">
+        <v>1.8</v>
+      </c>
+      <c r="AK185">
+        <v>1.42</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.57</v>
+      </c>
+      <c r="AN185">
+        <v>1.07</v>
+      </c>
+      <c r="AO185">
+        <v>1</v>
+      </c>
+      <c r="AP185">
+        <v>1.06</v>
+      </c>
+      <c r="AQ185">
+        <v>1</v>
+      </c>
+      <c r="AR185">
+        <v>1.34</v>
+      </c>
+      <c r="AS185">
+        <v>1.1</v>
+      </c>
+      <c r="AT185">
+        <v>2.44</v>
+      </c>
+      <c r="AU185">
+        <v>-1</v>
+      </c>
+      <c r="AV185">
+        <v>-1</v>
+      </c>
+      <c r="AW185">
+        <v>-1</v>
+      </c>
+      <c r="AX185">
+        <v>-1</v>
+      </c>
+      <c r="AY185">
+        <v>-1</v>
+      </c>
+      <c r="AZ185">
+        <v>-1</v>
+      </c>
+      <c r="BA185">
+        <v>-1</v>
+      </c>
+      <c r="BB185">
+        <v>-1</v>
+      </c>
+      <c r="BC185">
+        <v>-1</v>
+      </c>
+      <c r="BD185">
+        <v>1.95</v>
+      </c>
+      <c r="BE185">
+        <v>8</v>
+      </c>
+      <c r="BF185">
+        <v>2.1</v>
+      </c>
+      <c r="BG185">
+        <v>1.16</v>
+      </c>
+      <c r="BH185">
+        <v>4.4</v>
+      </c>
+      <c r="BI185">
+        <v>1.32</v>
+      </c>
+      <c r="BJ185">
+        <v>2.98</v>
+      </c>
+      <c r="BK185">
+        <v>1.63</v>
+      </c>
+      <c r="BL185">
+        <v>2.21</v>
+      </c>
+      <c r="BM185">
+        <v>2.01</v>
+      </c>
+      <c r="BN185">
+        <v>1.76</v>
+      </c>
+      <c r="BO185">
+        <v>2.62</v>
+      </c>
+      <c r="BP185">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -912,6 +912,9 @@
   <si>
     <t>['67']</t>
   </si>
+  <si>
+    <t>['49', '72', '82']</t>
+  </si>
 </sst>
 </file>
 
@@ -1272,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2021,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -3466,7 +3469,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5317,7 +5320,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5938,7 +5941,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR23">
         <v>2.12</v>
@@ -7789,10 +7792,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ32">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR32">
         <v>1.24</v>
@@ -9028,7 +9031,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ38">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR38">
         <v>1.57</v>
@@ -10467,7 +10470,7 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ45">
         <v>1.07</v>
@@ -11706,7 +11709,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ51">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12527,7 +12530,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -12736,7 +12739,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR56">
         <v>2</v>
@@ -14590,7 +14593,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ65">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR65">
         <v>1.37</v>
@@ -16441,7 +16444,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ74">
         <v>2.43</v>
@@ -18710,7 +18713,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR85">
         <v>1</v>
@@ -21179,7 +21182,7 @@
         <v>1.13</v>
       </c>
       <c r="AP97">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ97">
         <v>1.07</v>
@@ -21388,7 +21391,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ98">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -22209,7 +22212,7 @@
         <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ102">
         <v>0.93</v>
@@ -23860,7 +23863,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ110">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24063,7 +24066,7 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ111">
         <v>0.67</v>
@@ -25917,7 +25920,7 @@
         <v>1.8</v>
       </c>
       <c r="AP120">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ120">
         <v>1.8</v>
@@ -26538,7 +26541,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ123">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR123">
         <v>1.33</v>
@@ -27771,7 +27774,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ129">
         <v>1.06</v>
@@ -28801,7 +28804,7 @@
         <v>0.7</v>
       </c>
       <c r="AP134">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ134">
         <v>0.5</v>
@@ -29010,7 +29013,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ135">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -31070,7 +31073,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -32715,7 +32718,7 @@
         <v>1.17</v>
       </c>
       <c r="AP153">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -34366,7 +34369,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -35599,7 +35602,7 @@
         <v>0.77</v>
       </c>
       <c r="AP167">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ167">
         <v>1.07</v>
@@ -36838,7 +36841,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ173">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR173">
         <v>1.61</v>
@@ -38498,31 +38501,31 @@
         <v>3.56</v>
       </c>
       <c r="AU181">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV181">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW181">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX181">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY181">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ181">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA181">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB181">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC181">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD181">
         <v>1.11</v>
@@ -38704,31 +38707,31 @@
         <v>2.2</v>
       </c>
       <c r="AU182">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV182">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW182">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX182">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY182">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ182">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA182">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB182">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC182">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD182">
         <v>2.02</v>
@@ -38910,31 +38913,31 @@
         <v>2.49</v>
       </c>
       <c r="AU183">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV183">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW183">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX183">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY183">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ183">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB183">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC183">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD183">
         <v>1.51</v>
@@ -39116,31 +39119,31 @@
         <v>2.87</v>
       </c>
       <c r="AU184">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX184">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY184">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ184">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA184">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB184">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC184">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD184">
         <v>1.69</v>
@@ -39322,31 +39325,31 @@
         <v>2.44</v>
       </c>
       <c r="AU185">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV185">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW185">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX185">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AY185">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ185">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA185">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB185">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC185">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD185">
         <v>1.95</v>
@@ -39386,6 +39389,212 @@
       </c>
       <c r="BP185">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>6671706</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45382.33333333334</v>
+      </c>
+      <c r="F186">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>72</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>3</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>84</v>
+      </c>
+      <c r="P186" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q186">
+        <v>10</v>
+      </c>
+      <c r="R186">
+        <v>2.88</v>
+      </c>
+      <c r="S186">
+        <v>1.62</v>
+      </c>
+      <c r="T186">
+        <v>1.25</v>
+      </c>
+      <c r="U186">
+        <v>3.75</v>
+      </c>
+      <c r="V186">
+        <v>2.1</v>
+      </c>
+      <c r="W186">
+        <v>1.67</v>
+      </c>
+      <c r="X186">
+        <v>4.5</v>
+      </c>
+      <c r="Y186">
+        <v>1.18</v>
+      </c>
+      <c r="Z186">
+        <v>13</v>
+      </c>
+      <c r="AA186">
+        <v>6.5</v>
+      </c>
+      <c r="AB186">
+        <v>1.2</v>
+      </c>
+      <c r="AC186">
+        <v>1.02</v>
+      </c>
+      <c r="AD186">
+        <v>26</v>
+      </c>
+      <c r="AE186">
+        <v>1.15</v>
+      </c>
+      <c r="AF186">
+        <v>5.5</v>
+      </c>
+      <c r="AG186">
+        <v>1.45</v>
+      </c>
+      <c r="AH186">
+        <v>2.55</v>
+      </c>
+      <c r="AI186">
+        <v>2</v>
+      </c>
+      <c r="AJ186">
+        <v>1.75</v>
+      </c>
+      <c r="AK186">
+        <v>4.5</v>
+      </c>
+      <c r="AL186">
+        <v>1.08</v>
+      </c>
+      <c r="AM186">
+        <v>1.02</v>
+      </c>
+      <c r="AN186">
+        <v>0.79</v>
+      </c>
+      <c r="AO186">
+        <v>2.33</v>
+      </c>
+      <c r="AP186">
+        <v>0.73</v>
+      </c>
+      <c r="AQ186">
+        <v>2.38</v>
+      </c>
+      <c r="AR186">
+        <v>1.18</v>
+      </c>
+      <c r="AS186">
+        <v>2.05</v>
+      </c>
+      <c r="AT186">
+        <v>3.23</v>
+      </c>
+      <c r="AU186">
+        <v>2</v>
+      </c>
+      <c r="AV186">
+        <v>11</v>
+      </c>
+      <c r="AW186">
+        <v>3</v>
+      </c>
+      <c r="AX186">
+        <v>7</v>
+      </c>
+      <c r="AY186">
+        <v>5</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>8</v>
+      </c>
+      <c r="BC186">
+        <v>8</v>
+      </c>
+      <c r="BD186">
+        <v>7.65</v>
+      </c>
+      <c r="BE186">
+        <v>13</v>
+      </c>
+      <c r="BF186">
+        <v>1.11</v>
+      </c>
+      <c r="BG186">
+        <v>1.11</v>
+      </c>
+      <c r="BH186">
+        <v>5.8</v>
+      </c>
+      <c r="BI186">
+        <v>1.21</v>
+      </c>
+      <c r="BJ186">
+        <v>3.74</v>
+      </c>
+      <c r="BK186">
+        <v>1.39</v>
+      </c>
+      <c r="BL186">
+        <v>2.67</v>
+      </c>
+      <c r="BM186">
+        <v>2</v>
+      </c>
+      <c r="BN186">
+        <v>1.8</v>
+      </c>
+      <c r="BO186">
+        <v>2.08</v>
+      </c>
+      <c r="BP186">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,12 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['36', '70']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -914,6 +920,15 @@
   </si>
   <si>
     <t>['49', '72', '82']</t>
+  </si>
+  <si>
+    <t>['79', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['49', '81']</t>
+  </si>
+  <si>
+    <t>['33', '62']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1549,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1615,7 +1630,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1740,7 +1755,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1818,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ3">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2024,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
         <v>0.9399999999999999</v>
@@ -2152,7 +2167,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2233,7 +2248,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2436,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>2.43</v>
@@ -2564,7 +2579,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2642,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2848,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ8">
         <v>1.06</v>
@@ -3057,7 +3072,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3388,7 +3403,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3800,7 +3815,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4006,7 +4021,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4293,7 +4308,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR15">
         <v>2.29</v>
@@ -4418,7 +4433,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4496,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>0.38</v>
@@ -4624,7 +4639,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4908,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.05</v>
@@ -5036,7 +5051,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5114,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ19">
         <v>0.9399999999999999</v>
@@ -5242,7 +5257,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>3.4</v>
@@ -5320,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5448,7 +5463,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5526,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5654,7 +5669,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -6066,7 +6081,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>2.88</v>
@@ -6272,7 +6287,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>2.6</v>
@@ -6353,7 +6368,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ25">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6478,7 +6493,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -7096,7 +7111,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7174,7 +7189,7 @@
         <v>1.5</v>
       </c>
       <c r="AP29">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>1.07</v>
@@ -7302,7 +7317,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7508,7 +7523,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7714,7 +7729,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7792,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>2.38</v>
@@ -7998,10 +8013,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ33">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR33">
         <v>1.4</v>
@@ -8204,10 +8219,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8332,7 +8347,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8410,7 +8425,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ35">
         <v>0.93</v>
@@ -8619,7 +8634,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8825,7 +8840,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ37">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR37">
         <v>1.9</v>
@@ -8950,7 +8965,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9234,7 +9249,7 @@
         <v>0.33</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
         <v>1.06</v>
@@ -9440,7 +9455,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9568,7 +9583,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>1.67</v>
@@ -9774,7 +9789,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9855,7 +9870,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR42">
         <v>1.53</v>
@@ -10186,7 +10201,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10470,10 +10485,10 @@
         <v>1.33</v>
       </c>
       <c r="AP45">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10598,7 +10613,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10804,7 +10819,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -10882,7 +10897,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ47">
         <v>2.43</v>
@@ -11091,7 +11106,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11216,7 +11231,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11294,7 +11309,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0.38</v>
@@ -11628,7 +11643,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11912,10 +11927,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
@@ -12118,10 +12133,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12246,7 +12261,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>2.6</v>
@@ -12327,7 +12342,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12452,7 +12467,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12530,7 +12545,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55">
         <v>1.06</v>
@@ -12736,7 +12751,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
         <v>2.38</v>
@@ -12942,7 +12957,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13070,7 +13085,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13151,7 +13166,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ58">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13276,7 +13291,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13354,10 +13369,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13482,7 +13497,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13688,7 +13703,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -14306,7 +14321,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14384,7 +14399,7 @@
         <v>2.25</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ64">
         <v>2.43</v>
@@ -14512,7 +14527,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14796,10 +14811,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15002,7 +15017,7 @@
         <v>0.83</v>
       </c>
       <c r="AP67">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ67">
         <v>0.38</v>
@@ -15130,7 +15145,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15211,7 +15226,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ68">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15336,7 +15351,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15414,7 +15429,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ69">
         <v>1.07</v>
@@ -15620,7 +15635,7 @@
         <v>1.6</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15826,7 +15841,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>0.93</v>
@@ -15954,7 +15969,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16035,7 +16050,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ72">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16241,7 +16256,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR73">
         <v>0.99</v>
@@ -16366,7 +16381,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16444,7 +16459,7 @@
         <v>2.4</v>
       </c>
       <c r="AP74">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ74">
         <v>2.43</v>
@@ -16778,7 +16793,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -16859,7 +16874,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ76">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR76">
         <v>2.44</v>
@@ -17062,7 +17077,7 @@
         <v>0.71</v>
       </c>
       <c r="AP77">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ77">
         <v>0.38</v>
@@ -17477,7 +17492,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ79">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17602,7 +17617,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17680,7 +17695,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ80">
         <v>1.07</v>
@@ -17808,7 +17823,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>5.5</v>
@@ -18220,7 +18235,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18298,10 +18313,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR83">
         <v>1.55</v>
@@ -18426,7 +18441,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18632,7 +18647,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -18916,7 +18931,7 @@
         <v>1.14</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
         <v>0.9399999999999999</v>
@@ -19331,7 +19346,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ88">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR88">
         <v>1.21</v>
@@ -19868,7 +19883,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>1.62</v>
@@ -20074,7 +20089,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20280,7 +20295,7 @@
         <v>129</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20361,7 +20376,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ93">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR93">
         <v>1.2</v>
@@ -20486,7 +20501,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20567,7 +20582,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR94">
         <v>1.31</v>
@@ -20692,7 +20707,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>1.57</v>
@@ -20976,10 +20991,10 @@
         <v>0.86</v>
       </c>
       <c r="AP96">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR96">
         <v>1.3</v>
@@ -21104,7 +21119,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>3.6</v>
@@ -21182,7 +21197,7 @@
         <v>1.13</v>
       </c>
       <c r="AP97">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ97">
         <v>1.07</v>
@@ -21310,7 +21325,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21388,7 +21403,7 @@
         <v>2.75</v>
       </c>
       <c r="AP98">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>2.38</v>
@@ -21800,10 +21815,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ100">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR100">
         <v>1.33</v>
@@ -21928,7 +21943,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22212,7 +22227,7 @@
         <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ102">
         <v>0.93</v>
@@ -22340,7 +22355,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22421,7 +22436,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ103">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR103">
         <v>2.45</v>
@@ -22627,7 +22642,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
         <v>2.1</v>
@@ -22752,7 +22767,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -23448,10 +23463,10 @@
         <v>0.38</v>
       </c>
       <c r="AP108">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR108">
         <v>1.55</v>
@@ -23576,7 +23591,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23782,7 +23797,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -23860,7 +23875,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ110">
         <v>2.38</v>
@@ -24066,10 +24081,10 @@
         <v>0.33</v>
       </c>
       <c r="AP111">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24272,7 +24287,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112">
         <v>0.93</v>
@@ -24400,7 +24415,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24478,10 +24493,10 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR113">
         <v>1.47</v>
@@ -24812,7 +24827,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24890,7 +24905,7 @@
         <v>1.13</v>
       </c>
       <c r="AP115">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -25018,7 +25033,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25224,7 +25239,7 @@
         <v>84</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25430,7 +25445,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25511,7 +25526,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ118">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR118">
         <v>1.54</v>
@@ -25636,7 +25651,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25842,7 +25857,7 @@
         <v>125</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25920,10 +25935,10 @@
         <v>1.8</v>
       </c>
       <c r="AP120">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ120">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR120">
         <v>1.1</v>
@@ -26048,7 +26063,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26126,10 +26141,10 @@
         <v>0.78</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR121">
         <v>1.45</v>
@@ -26460,7 +26475,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26538,7 +26553,7 @@
         <v>2.5</v>
       </c>
       <c r="AP123">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ123">
         <v>2.38</v>
@@ -26666,7 +26681,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26872,7 +26887,7 @@
         <v>131</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27078,7 +27093,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27156,7 +27171,7 @@
         <v>2.2</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ126">
         <v>2.43</v>
@@ -27284,7 +27299,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27362,7 +27377,7 @@
         <v>2.27</v>
       </c>
       <c r="AP127">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ127">
         <v>2.43</v>
@@ -27490,7 +27505,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27568,7 +27583,7 @@
         <v>1.2</v>
       </c>
       <c r="AP128">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
         <v>1.07</v>
@@ -27696,7 +27711,7 @@
         <v>131</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27774,7 +27789,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ129">
         <v>1.06</v>
@@ -27902,7 +27917,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q130">
         <v>3.2</v>
@@ -27983,7 +27998,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR130">
         <v>1.16</v>
@@ -28395,7 +28410,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ132">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR132">
         <v>2.36</v>
@@ -28520,7 +28535,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28804,10 +28819,10 @@
         <v>0.7</v>
       </c>
       <c r="AP134">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ134">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -29138,7 +29153,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29550,7 +29565,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>3.1</v>
@@ -29631,7 +29646,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -29756,7 +29771,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29834,10 +29849,10 @@
         <v>1.91</v>
       </c>
       <c r="AP139">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ139">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -29962,7 +29977,7 @@
         <v>84</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30040,7 +30055,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30249,7 +30264,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ141">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR141">
         <v>1.31</v>
@@ -30374,7 +30389,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30658,7 +30673,7 @@
         <v>0.42</v>
       </c>
       <c r="AP143">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>0.38</v>
@@ -30786,7 +30801,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>4.25</v>
@@ -30867,7 +30882,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ144">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR144">
         <v>1.15</v>
@@ -30992,7 +31007,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31070,7 +31085,7 @@
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ145">
         <v>2.38</v>
@@ -31276,7 +31291,7 @@
         <v>1.17</v>
       </c>
       <c r="AP146">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ146">
         <v>1.06</v>
@@ -31404,7 +31419,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31482,10 +31497,10 @@
         <v>0.64</v>
       </c>
       <c r="AP147">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ147">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31610,7 +31625,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31691,7 +31706,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR148">
         <v>2.22</v>
@@ -31816,7 +31831,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -31897,7 +31912,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ149">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR149">
         <v>1.27</v>
@@ -32103,7 +32118,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ150">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32306,10 +32321,10 @@
         <v>0.62</v>
       </c>
       <c r="AP151">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ151">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32718,7 +32733,7 @@
         <v>1.17</v>
       </c>
       <c r="AP153">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -32846,7 +32861,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33052,7 +33067,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33258,7 +33273,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33542,7 +33557,7 @@
         <v>1.08</v>
       </c>
       <c r="AP157">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ157">
         <v>1.06</v>
@@ -33748,7 +33763,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -33957,7 +33972,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ159">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR159">
         <v>2.4</v>
@@ -34160,10 +34175,10 @@
         <v>0.58</v>
       </c>
       <c r="AP160">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ160">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR160">
         <v>1.28</v>
@@ -34288,7 +34303,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34700,7 +34715,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -34781,7 +34796,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ163">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR163">
         <v>1.42</v>
@@ -35112,7 +35127,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35318,7 +35333,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35396,7 +35411,7 @@
         <v>2.38</v>
       </c>
       <c r="AP166">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>2.43</v>
@@ -35524,7 +35539,7 @@
         <v>163</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35602,10 +35617,10 @@
         <v>0.77</v>
       </c>
       <c r="AP167">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ167">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -35730,7 +35745,7 @@
         <v>175</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q168">
         <v>1.57</v>
@@ -35811,7 +35826,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ168">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR168">
         <v>2.39</v>
@@ -36220,7 +36235,7 @@
         <v>0.92</v>
       </c>
       <c r="AP170">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36426,10 +36441,10 @@
         <v>0.57</v>
       </c>
       <c r="AP171">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36554,7 +36569,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36632,7 +36647,7 @@
         <v>0.92</v>
       </c>
       <c r="AP172">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ172">
         <v>0.93</v>
@@ -37044,7 +37059,7 @@
         <v>0.86</v>
       </c>
       <c r="AP174">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ174">
         <v>0.9399999999999999</v>
@@ -37172,7 +37187,7 @@
         <v>199</v>
       </c>
       <c r="P175" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37378,7 +37393,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37459,7 +37474,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ176">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR176">
         <v>2.28</v>
@@ -37662,7 +37677,7 @@
         <v>0.4</v>
       </c>
       <c r="AP177">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ177">
         <v>0.38</v>
@@ -37790,7 +37805,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -37868,7 +37883,7 @@
         <v>1.07</v>
       </c>
       <c r="AP178">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38202,7 +38217,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38283,7 +38298,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ180">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AR180">
         <v>1.21</v>
@@ -38614,7 +38629,7 @@
         <v>175</v>
       </c>
       <c r="P182" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38820,7 +38835,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -38901,7 +38916,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ183">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AR183">
         <v>1.44</v>
@@ -39026,7 +39041,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39232,7 +39247,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39438,7 +39453,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39516,7 +39531,7 @@
         <v>2.33</v>
       </c>
       <c r="AP186">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ186">
         <v>2.38</v>
@@ -39595,6 +39610,1036 @@
       </c>
       <c r="BP186">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>6671710</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F187">
+        <v>32</v>
+      </c>
+      <c r="G187" t="s">
+        <v>71</v>
+      </c>
+      <c r="H187" t="s">
+        <v>81</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>3</v>
+      </c>
+      <c r="N187">
+        <v>5</v>
+      </c>
+      <c r="O187" t="s">
+        <v>208</v>
+      </c>
+      <c r="P187" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q187">
+        <v>3</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>3.4</v>
+      </c>
+      <c r="T187">
+        <v>1.36</v>
+      </c>
+      <c r="U187">
+        <v>3</v>
+      </c>
+      <c r="V187">
+        <v>2.75</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>7</v>
+      </c>
+      <c r="Y187">
+        <v>1.1</v>
+      </c>
+      <c r="Z187">
+        <v>2.29</v>
+      </c>
+      <c r="AA187">
+        <v>3.55</v>
+      </c>
+      <c r="AB187">
+        <v>2.78</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>13</v>
+      </c>
+      <c r="AE187">
+        <v>1.28</v>
+      </c>
+      <c r="AF187">
+        <v>3.75</v>
+      </c>
+      <c r="AG187">
+        <v>1.96</v>
+      </c>
+      <c r="AH187">
+        <v>1.92</v>
+      </c>
+      <c r="AI187">
+        <v>1.67</v>
+      </c>
+      <c r="AJ187">
+        <v>2.1</v>
+      </c>
+      <c r="AK187">
+        <v>1.4</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.63</v>
+      </c>
+      <c r="AN187">
+        <v>1.57</v>
+      </c>
+      <c r="AO187">
+        <v>1.07</v>
+      </c>
+      <c r="AP187">
+        <v>1.47</v>
+      </c>
+      <c r="AQ187">
+        <v>1.19</v>
+      </c>
+      <c r="AR187">
+        <v>1.37</v>
+      </c>
+      <c r="AS187">
+        <v>1.2</v>
+      </c>
+      <c r="AT187">
+        <v>2.57</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>6</v>
+      </c>
+      <c r="AW187">
+        <v>5</v>
+      </c>
+      <c r="AX187">
+        <v>17</v>
+      </c>
+      <c r="AY187">
+        <v>10</v>
+      </c>
+      <c r="AZ187">
+        <v>23</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>11</v>
+      </c>
+      <c r="BC187">
+        <v>14</v>
+      </c>
+      <c r="BD187">
+        <v>1.84</v>
+      </c>
+      <c r="BE187">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF187">
+        <v>2.3</v>
+      </c>
+      <c r="BG187">
+        <v>1.13</v>
+      </c>
+      <c r="BH187">
+        <v>4.75</v>
+      </c>
+      <c r="BI187">
+        <v>1.28</v>
+      </c>
+      <c r="BJ187">
+        <v>3.2</v>
+      </c>
+      <c r="BK187">
+        <v>1.52</v>
+      </c>
+      <c r="BL187">
+        <v>2.36</v>
+      </c>
+      <c r="BM187">
+        <v>1.92</v>
+      </c>
+      <c r="BN187">
+        <v>1.88</v>
+      </c>
+      <c r="BO187">
+        <v>2.41</v>
+      </c>
+      <c r="BP187">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>6671711</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F188">
+        <v>32</v>
+      </c>
+      <c r="G188" t="s">
+        <v>75</v>
+      </c>
+      <c r="H188" t="s">
+        <v>73</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>209</v>
+      </c>
+      <c r="P188" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q188">
+        <v>2.1</v>
+      </c>
+      <c r="R188">
+        <v>2.25</v>
+      </c>
+      <c r="S188">
+        <v>6</v>
+      </c>
+      <c r="T188">
+        <v>1.36</v>
+      </c>
+      <c r="U188">
+        <v>3</v>
+      </c>
+      <c r="V188">
+        <v>2.75</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>8</v>
+      </c>
+      <c r="Y188">
+        <v>1.08</v>
+      </c>
+      <c r="Z188">
+        <v>1.51</v>
+      </c>
+      <c r="AA188">
+        <v>4.15</v>
+      </c>
+      <c r="AB188">
+        <v>5.7</v>
+      </c>
+      <c r="AC188">
+        <v>1.04</v>
+      </c>
+      <c r="AD188">
+        <v>12</v>
+      </c>
+      <c r="AE188">
+        <v>1.28</v>
+      </c>
+      <c r="AF188">
+        <v>3.6</v>
+      </c>
+      <c r="AG188">
+        <v>1.93</v>
+      </c>
+      <c r="AH188">
+        <v>1.95</v>
+      </c>
+      <c r="AI188">
+        <v>2</v>
+      </c>
+      <c r="AJ188">
+        <v>1.75</v>
+      </c>
+      <c r="AK188">
+        <v>1.12</v>
+      </c>
+      <c r="AL188">
+        <v>1.18</v>
+      </c>
+      <c r="AM188">
+        <v>2.55</v>
+      </c>
+      <c r="AN188">
+        <v>1.38</v>
+      </c>
+      <c r="AO188">
+        <v>0.67</v>
+      </c>
+      <c r="AP188">
+        <v>1.29</v>
+      </c>
+      <c r="AQ188">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR188">
+        <v>1.37</v>
+      </c>
+      <c r="AS188">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT188">
+        <v>2.31</v>
+      </c>
+      <c r="AU188">
+        <v>8</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>11</v>
+      </c>
+      <c r="AX188">
+        <v>4</v>
+      </c>
+      <c r="AY188">
+        <v>19</v>
+      </c>
+      <c r="AZ188">
+        <v>7</v>
+      </c>
+      <c r="BA188">
+        <v>13</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>16</v>
+      </c>
+      <c r="BD188">
+        <v>1.28</v>
+      </c>
+      <c r="BE188">
+        <v>11</v>
+      </c>
+      <c r="BF188">
+        <v>4.69</v>
+      </c>
+      <c r="BG188">
+        <v>1.21</v>
+      </c>
+      <c r="BH188">
+        <v>3.74</v>
+      </c>
+      <c r="BI188">
+        <v>1.42</v>
+      </c>
+      <c r="BJ188">
+        <v>2.65</v>
+      </c>
+      <c r="BK188">
+        <v>1.75</v>
+      </c>
+      <c r="BL188">
+        <v>2.01</v>
+      </c>
+      <c r="BM188">
+        <v>2.19</v>
+      </c>
+      <c r="BN188">
+        <v>1.6</v>
+      </c>
+      <c r="BO188">
+        <v>2.88</v>
+      </c>
+      <c r="BP188">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>6671712</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F189">
+        <v>32</v>
+      </c>
+      <c r="G189" t="s">
+        <v>74</v>
+      </c>
+      <c r="H189" t="s">
+        <v>77</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>116</v>
+      </c>
+      <c r="P189" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q189">
+        <v>2.05</v>
+      </c>
+      <c r="R189">
+        <v>2.3</v>
+      </c>
+      <c r="S189">
+        <v>6.5</v>
+      </c>
+      <c r="T189">
+        <v>1.36</v>
+      </c>
+      <c r="U189">
+        <v>3</v>
+      </c>
+      <c r="V189">
+        <v>2.63</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>7</v>
+      </c>
+      <c r="Y189">
+        <v>1.1</v>
+      </c>
+      <c r="Z189">
+        <v>1.49</v>
+      </c>
+      <c r="AA189">
+        <v>4.2</v>
+      </c>
+      <c r="AB189">
+        <v>5.8</v>
+      </c>
+      <c r="AC189">
+        <v>1.04</v>
+      </c>
+      <c r="AD189">
+        <v>12</v>
+      </c>
+      <c r="AE189">
+        <v>1.25</v>
+      </c>
+      <c r="AF189">
+        <v>3.75</v>
+      </c>
+      <c r="AG189">
+        <v>1.92</v>
+      </c>
+      <c r="AH189">
+        <v>1.96</v>
+      </c>
+      <c r="AI189">
+        <v>1.95</v>
+      </c>
+      <c r="AJ189">
+        <v>1.8</v>
+      </c>
+      <c r="AK189">
+        <v>1.1</v>
+      </c>
+      <c r="AL189">
+        <v>1.17</v>
+      </c>
+      <c r="AM189">
+        <v>2.65</v>
+      </c>
+      <c r="AN189">
+        <v>1.94</v>
+      </c>
+      <c r="AO189">
+        <v>0.5</v>
+      </c>
+      <c r="AP189">
+        <v>2</v>
+      </c>
+      <c r="AQ189">
+        <v>0.47</v>
+      </c>
+      <c r="AR189">
+        <v>1.54</v>
+      </c>
+      <c r="AS189">
+        <v>1.06</v>
+      </c>
+      <c r="AT189">
+        <v>2.6</v>
+      </c>
+      <c r="AU189">
+        <v>6</v>
+      </c>
+      <c r="AV189">
+        <v>5</v>
+      </c>
+      <c r="AW189">
+        <v>8</v>
+      </c>
+      <c r="AX189">
+        <v>8</v>
+      </c>
+      <c r="AY189">
+        <v>14</v>
+      </c>
+      <c r="AZ189">
+        <v>13</v>
+      </c>
+      <c r="BA189">
+        <v>4</v>
+      </c>
+      <c r="BB189">
+        <v>3</v>
+      </c>
+      <c r="BC189">
+        <v>7</v>
+      </c>
+      <c r="BD189">
+        <v>1.18</v>
+      </c>
+      <c r="BE189">
+        <v>13.2</v>
+      </c>
+      <c r="BF189">
+        <v>6.12</v>
+      </c>
+      <c r="BG189">
+        <v>1.14</v>
+      </c>
+      <c r="BH189">
+        <v>4.6</v>
+      </c>
+      <c r="BI189">
+        <v>1.3</v>
+      </c>
+      <c r="BJ189">
+        <v>3.08</v>
+      </c>
+      <c r="BK189">
+        <v>1.54</v>
+      </c>
+      <c r="BL189">
+        <v>2.32</v>
+      </c>
+      <c r="BM189">
+        <v>1.95</v>
+      </c>
+      <c r="BN189">
+        <v>1.85</v>
+      </c>
+      <c r="BO189">
+        <v>2.44</v>
+      </c>
+      <c r="BP189">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>6671713</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F190">
+        <v>32</v>
+      </c>
+      <c r="G190" t="s">
+        <v>72</v>
+      </c>
+      <c r="H190" t="s">
+        <v>79</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190" t="s">
+        <v>84</v>
+      </c>
+      <c r="P190" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q190">
+        <v>4</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>2.75</v>
+      </c>
+      <c r="T190">
+        <v>1.44</v>
+      </c>
+      <c r="U190">
+        <v>2.63</v>
+      </c>
+      <c r="V190">
+        <v>3.25</v>
+      </c>
+      <c r="W190">
+        <v>1.33</v>
+      </c>
+      <c r="X190">
+        <v>9</v>
+      </c>
+      <c r="Y190">
+        <v>1.07</v>
+      </c>
+      <c r="Z190">
+        <v>3.3</v>
+      </c>
+      <c r="AA190">
+        <v>3.3</v>
+      </c>
+      <c r="AB190">
+        <v>2.11</v>
+      </c>
+      <c r="AC190">
+        <v>1.06</v>
+      </c>
+      <c r="AD190">
+        <v>10</v>
+      </c>
+      <c r="AE190">
+        <v>1.36</v>
+      </c>
+      <c r="AF190">
+        <v>3.2</v>
+      </c>
+      <c r="AG190">
+        <v>2.1</v>
+      </c>
+      <c r="AH190">
+        <v>1.65</v>
+      </c>
+      <c r="AI190">
+        <v>1.91</v>
+      </c>
+      <c r="AJ190">
+        <v>1.91</v>
+      </c>
+      <c r="AK190">
+        <v>1.75</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.3</v>
+      </c>
+      <c r="AN190">
+        <v>0.73</v>
+      </c>
+      <c r="AO190">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP190">
+        <v>0.75</v>
+      </c>
+      <c r="AQ190">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR190">
+        <v>1.14</v>
+      </c>
+      <c r="AS190">
+        <v>1.13</v>
+      </c>
+      <c r="AT190">
+        <v>2.27</v>
+      </c>
+      <c r="AU190">
+        <v>-1</v>
+      </c>
+      <c r="AV190">
+        <v>-1</v>
+      </c>
+      <c r="AW190">
+        <v>-1</v>
+      </c>
+      <c r="AX190">
+        <v>-1</v>
+      </c>
+      <c r="AY190">
+        <v>-1</v>
+      </c>
+      <c r="AZ190">
+        <v>-1</v>
+      </c>
+      <c r="BA190">
+        <v>-1</v>
+      </c>
+      <c r="BB190">
+        <v>-1</v>
+      </c>
+      <c r="BC190">
+        <v>-1</v>
+      </c>
+      <c r="BD190">
+        <v>2.46</v>
+      </c>
+      <c r="BE190">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF190">
+        <v>1.77</v>
+      </c>
+      <c r="BG190">
+        <v>1.29</v>
+      </c>
+      <c r="BH190">
+        <v>3.14</v>
+      </c>
+      <c r="BI190">
+        <v>1.56</v>
+      </c>
+      <c r="BJ190">
+        <v>2.27</v>
+      </c>
+      <c r="BK190">
+        <v>2</v>
+      </c>
+      <c r="BL190">
+        <v>1.8</v>
+      </c>
+      <c r="BM190">
+        <v>2.57</v>
+      </c>
+      <c r="BN190">
+        <v>1.44</v>
+      </c>
+      <c r="BO190">
+        <v>3.48</v>
+      </c>
+      <c r="BP190">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>6671715</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F191">
+        <v>32</v>
+      </c>
+      <c r="G191" t="s">
+        <v>76</v>
+      </c>
+      <c r="H191" t="s">
+        <v>80</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>83</v>
+      </c>
+      <c r="P191" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q191">
+        <v>3.4</v>
+      </c>
+      <c r="R191">
+        <v>2.1</v>
+      </c>
+      <c r="S191">
+        <v>3.25</v>
+      </c>
+      <c r="T191">
+        <v>1.44</v>
+      </c>
+      <c r="U191">
+        <v>2.63</v>
+      </c>
+      <c r="V191">
+        <v>3.25</v>
+      </c>
+      <c r="W191">
+        <v>1.33</v>
+      </c>
+      <c r="X191">
+        <v>9</v>
+      </c>
+      <c r="Y191">
+        <v>1.07</v>
+      </c>
+      <c r="Z191">
+        <v>2.63</v>
+      </c>
+      <c r="AA191">
+        <v>3.25</v>
+      </c>
+      <c r="AB191">
+        <v>2.56</v>
+      </c>
+      <c r="AC191">
+        <v>1.04</v>
+      </c>
+      <c r="AD191">
+        <v>7.8</v>
+      </c>
+      <c r="AE191">
+        <v>1.33</v>
+      </c>
+      <c r="AF191">
+        <v>2.93</v>
+      </c>
+      <c r="AG191">
+        <v>2.1</v>
+      </c>
+      <c r="AH191">
+        <v>1.67</v>
+      </c>
+      <c r="AI191">
+        <v>1.8</v>
+      </c>
+      <c r="AJ191">
+        <v>1.95</v>
+      </c>
+      <c r="AK191">
+        <v>1.5</v>
+      </c>
+      <c r="AL191">
+        <v>1.35</v>
+      </c>
+      <c r="AM191">
+        <v>1.44</v>
+      </c>
+      <c r="AN191">
+        <v>1.8</v>
+      </c>
+      <c r="AO191">
+        <v>1.8</v>
+      </c>
+      <c r="AP191">
+        <v>1.69</v>
+      </c>
+      <c r="AQ191">
+        <v>1.88</v>
+      </c>
+      <c r="AR191">
+        <v>1.32</v>
+      </c>
+      <c r="AS191">
+        <v>1.33</v>
+      </c>
+      <c r="AT191">
+        <v>2.65</v>
+      </c>
+      <c r="AU191">
+        <v>2</v>
+      </c>
+      <c r="AV191">
+        <v>3</v>
+      </c>
+      <c r="AW191">
+        <v>5</v>
+      </c>
+      <c r="AX191">
+        <v>8</v>
+      </c>
+      <c r="AY191">
+        <v>7</v>
+      </c>
+      <c r="AZ191">
+        <v>11</v>
+      </c>
+      <c r="BA191">
+        <v>8</v>
+      </c>
+      <c r="BB191">
+        <v>7</v>
+      </c>
+      <c r="BC191">
+        <v>15</v>
+      </c>
+      <c r="BD191">
+        <v>2.03</v>
+      </c>
+      <c r="BE191">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF191">
+        <v>2.03</v>
+      </c>
+      <c r="BG191">
+        <v>1.12</v>
+      </c>
+      <c r="BH191">
+        <v>5.05</v>
+      </c>
+      <c r="BI191">
+        <v>1.26</v>
+      </c>
+      <c r="BJ191">
+        <v>3.34</v>
+      </c>
+      <c r="BK191">
+        <v>1.48</v>
+      </c>
+      <c r="BL191">
+        <v>2.47</v>
+      </c>
+      <c r="BM191">
+        <v>1.85</v>
+      </c>
+      <c r="BN191">
+        <v>1.95</v>
+      </c>
+      <c r="BO191">
+        <v>2.29</v>
+      </c>
+      <c r="BP191">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,9 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['55', '86', '90+3']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -929,6 +932,9 @@
   </si>
   <si>
     <t>['33', '62']</t>
+  </si>
+  <si>
+    <t>['1', '34', '87']</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1555,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1755,7 +1761,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -2167,7 +2173,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2579,7 +2585,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -3275,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ10">
         <v>0.38</v>
@@ -3403,7 +3409,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3484,7 +3490,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3815,7 +3821,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4021,7 +4027,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4433,7 +4439,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4639,7 +4645,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -5051,7 +5057,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5257,7 +5263,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>3.4</v>
@@ -5463,7 +5469,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5669,7 +5675,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5953,10 +5959,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ23">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR23">
         <v>2.12</v>
@@ -6081,7 +6087,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q24">
         <v>2.88</v>
@@ -6287,7 +6293,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q25">
         <v>2.6</v>
@@ -6493,7 +6499,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -7111,7 +7117,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7317,7 +7323,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7523,7 +7529,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7729,7 +7735,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7810,7 +7816,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR32">
         <v>1.24</v>
@@ -8347,7 +8353,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8837,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ37">
         <v>1.19</v>
@@ -8965,7 +8971,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9046,7 +9052,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ38">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR38">
         <v>1.57</v>
@@ -9583,7 +9589,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>1.67</v>
@@ -9661,7 +9667,7 @@
         <v>0.67</v>
       </c>
       <c r="AP41">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ41">
         <v>0.9399999999999999</v>
@@ -9789,7 +9795,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -10201,7 +10207,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10613,7 +10619,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10819,7 +10825,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -11231,7 +11237,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11515,7 +11521,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ50">
         <v>1.07</v>
@@ -11643,7 +11649,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11724,7 +11730,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ51">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12261,7 +12267,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>2.6</v>
@@ -12467,7 +12473,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12754,7 +12760,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR56">
         <v>2</v>
@@ -13085,7 +13091,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13163,7 +13169,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ58">
         <v>1.88</v>
@@ -13291,7 +13297,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13497,7 +13503,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13703,7 +13709,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -14321,7 +14327,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14527,7 +14533,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14608,7 +14614,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ65">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR65">
         <v>1.37</v>
@@ -15145,7 +15151,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15351,7 +15357,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15969,7 +15975,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16381,7 +16387,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16793,7 +16799,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -17617,7 +17623,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17823,7 +17829,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>5.5</v>
@@ -18235,7 +18241,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18441,7 +18447,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18647,7 +18653,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -18728,7 +18734,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ85">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR85">
         <v>1</v>
@@ -19137,7 +19143,7 @@
         <v>1.14</v>
       </c>
       <c r="AP87">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19883,7 +19889,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>1.62</v>
@@ -20089,7 +20095,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20295,7 +20301,7 @@
         <v>129</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20501,7 +20507,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20707,7 +20713,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>1.57</v>
@@ -20785,7 +20791,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ95">
         <v>1.06</v>
@@ -21119,7 +21125,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>3.6</v>
@@ -21325,7 +21331,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21406,7 +21412,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21943,7 +21949,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22355,7 +22361,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22639,7 +22645,7 @@
         <v>0.43</v>
       </c>
       <c r="AP104">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ104">
         <v>0.8100000000000001</v>
@@ -22767,7 +22773,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -23591,7 +23597,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23797,7 +23803,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -23878,7 +23884,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ110">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24415,7 +24421,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24827,7 +24833,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -25033,7 +25039,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25239,7 +25245,7 @@
         <v>84</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25445,7 +25451,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25651,7 +25657,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25857,7 +25863,7 @@
         <v>125</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26063,7 +26069,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26347,7 +26353,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ122">
         <v>0.93</v>
@@ -26475,7 +26481,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26556,7 +26562,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ123">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR123">
         <v>1.33</v>
@@ -26681,7 +26687,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26887,7 +26893,7 @@
         <v>131</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -27093,7 +27099,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27299,7 +27305,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27505,7 +27511,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27711,7 +27717,7 @@
         <v>131</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27917,7 +27923,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q130">
         <v>3.2</v>
@@ -28535,7 +28541,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -29028,7 +29034,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ135">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29153,7 +29159,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29437,7 +29443,7 @@
         <v>0.45</v>
       </c>
       <c r="AP137">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ137">
         <v>0.38</v>
@@ -29565,7 +29571,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>3.1</v>
@@ -29771,7 +29777,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29977,7 +29983,7 @@
         <v>84</v>
       </c>
       <c r="P140" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30389,7 +30395,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30467,7 +30473,7 @@
         <v>1.09</v>
       </c>
       <c r="AP142">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -30801,7 +30807,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>4.25</v>
@@ -31007,7 +31013,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31088,7 +31094,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ145">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31419,7 +31425,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31625,7 +31631,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31703,7 +31709,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ148">
         <v>0.47</v>
@@ -31831,7 +31837,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -32861,7 +32867,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33067,7 +33073,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33273,7 +33279,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33969,7 +33975,7 @@
         <v>2.08</v>
       </c>
       <c r="AP159">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ159">
         <v>1.88</v>
@@ -34303,7 +34309,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34384,7 +34390,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34715,7 +34721,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -35127,7 +35133,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35333,7 +35339,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35539,7 +35545,7 @@
         <v>163</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35745,7 +35751,7 @@
         <v>175</v>
       </c>
       <c r="P168" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q168">
         <v>1.57</v>
@@ -35823,7 +35829,7 @@
         <v>0.93</v>
       </c>
       <c r="AP168">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ168">
         <v>1.19</v>
@@ -36569,7 +36575,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36856,7 +36862,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ173">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR173">
         <v>1.61</v>
@@ -37187,7 +37193,7 @@
         <v>199</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37393,7 +37399,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37805,7 +37811,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -38217,7 +38223,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38501,7 +38507,7 @@
         <v>1.14</v>
       </c>
       <c r="AP181">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AQ181">
         <v>1.07</v>
@@ -38629,7 +38635,7 @@
         <v>175</v>
       </c>
       <c r="P182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38835,7 +38841,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q183">
         <v>2.3</v>
@@ -39041,7 +39047,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39247,7 +39253,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q185">
         <v>3.2</v>
@@ -39453,7 +39459,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39534,7 +39540,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ186">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AR186">
         <v>1.18</v>
@@ -39659,7 +39665,7 @@
         <v>208</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q187">
         <v>3</v>
@@ -39752,22 +39758,22 @@
         <v>2.57</v>
       </c>
       <c r="AU187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV187">
         <v>6</v>
       </c>
       <c r="AW187">
+        <v>2</v>
+      </c>
+      <c r="AX187">
+        <v>9</v>
+      </c>
+      <c r="AY187">
         <v>5</v>
       </c>
-      <c r="AX187">
-        <v>17</v>
-      </c>
-      <c r="AY187">
-        <v>10</v>
-      </c>
       <c r="AZ187">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BA187">
         <v>3</v>
@@ -39865,7 +39871,7 @@
         <v>209</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q188">
         <v>2.1</v>
@@ -39958,22 +39964,22 @@
         <v>2.31</v>
       </c>
       <c r="AU188">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV188">
         <v>3</v>
       </c>
       <c r="AW188">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY188">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ188">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA188">
         <v>13</v>
@@ -40170,16 +40176,16 @@
         <v>5</v>
       </c>
       <c r="AW189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY189">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ189">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA189">
         <v>4</v>
@@ -40370,31 +40376,31 @@
         <v>2.27</v>
       </c>
       <c r="AU190">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV190">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW190">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX190">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY190">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ190">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BA190">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB190">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC190">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD190">
         <v>2.46</v>
@@ -40483,7 +40489,7 @@
         <v>83</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40582,16 +40588,16 @@
         <v>3</v>
       </c>
       <c r="AW191">
+        <v>4</v>
+      </c>
+      <c r="AX191">
         <v>5</v>
       </c>
-      <c r="AX191">
+      <c r="AY191">
+        <v>6</v>
+      </c>
+      <c r="AZ191">
         <v>8</v>
-      </c>
-      <c r="AY191">
-        <v>7</v>
-      </c>
-      <c r="AZ191">
-        <v>11</v>
       </c>
       <c r="BA191">
         <v>8</v>
@@ -40640,6 +40646,212 @@
       </c>
       <c r="BP191">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>6671714</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45389.33333333334</v>
+      </c>
+      <c r="F192">
+        <v>32</v>
+      </c>
+      <c r="G192" t="s">
+        <v>78</v>
+      </c>
+      <c r="H192" t="s">
+        <v>70</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192">
+        <v>6</v>
+      </c>
+      <c r="O192" t="s">
+        <v>210</v>
+      </c>
+      <c r="P192" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q192">
+        <v>2.88</v>
+      </c>
+      <c r="R192">
+        <v>2.3</v>
+      </c>
+      <c r="S192">
+        <v>3.4</v>
+      </c>
+      <c r="T192">
+        <v>1.3</v>
+      </c>
+      <c r="U192">
+        <v>3.4</v>
+      </c>
+      <c r="V192">
+        <v>2.5</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>6</v>
+      </c>
+      <c r="Y192">
+        <v>1.13</v>
+      </c>
+      <c r="Z192">
+        <v>2.25</v>
+      </c>
+      <c r="AA192">
+        <v>3.4</v>
+      </c>
+      <c r="AB192">
+        <v>3</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>10</v>
+      </c>
+      <c r="AE192">
+        <v>1.16</v>
+      </c>
+      <c r="AF192">
+        <v>4.25</v>
+      </c>
+      <c r="AG192">
+        <v>1.7</v>
+      </c>
+      <c r="AH192">
+        <v>2.05</v>
+      </c>
+      <c r="AI192">
+        <v>1.57</v>
+      </c>
+      <c r="AJ192">
+        <v>2.25</v>
+      </c>
+      <c r="AK192">
+        <v>1.38</v>
+      </c>
+      <c r="AL192">
+        <v>1.22</v>
+      </c>
+      <c r="AM192">
+        <v>1.62</v>
+      </c>
+      <c r="AN192">
+        <v>2.44</v>
+      </c>
+      <c r="AO192">
+        <v>2.38</v>
+      </c>
+      <c r="AP192">
+        <v>2.35</v>
+      </c>
+      <c r="AQ192">
+        <v>2.29</v>
+      </c>
+      <c r="AR192">
+        <v>2.39</v>
+      </c>
+      <c r="AS192">
+        <v>2.08</v>
+      </c>
+      <c r="AT192">
+        <v>4.47</v>
+      </c>
+      <c r="AU192">
+        <v>6</v>
+      </c>
+      <c r="AV192">
+        <v>8</v>
+      </c>
+      <c r="AW192">
+        <v>4</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>10</v>
+      </c>
+      <c r="AZ192">
+        <v>13</v>
+      </c>
+      <c r="BA192">
+        <v>3</v>
+      </c>
+      <c r="BB192">
+        <v>2</v>
+      </c>
+      <c r="BC192">
+        <v>5</v>
+      </c>
+      <c r="BD192">
+        <v>1.89</v>
+      </c>
+      <c r="BE192">
+        <v>9.9</v>
+      </c>
+      <c r="BF192">
+        <v>2.16</v>
+      </c>
+      <c r="BG192">
+        <v>1.15</v>
+      </c>
+      <c r="BH192">
+        <v>4.75</v>
+      </c>
+      <c r="BI192">
+        <v>1.17</v>
+      </c>
+      <c r="BJ192">
+        <v>4.15</v>
+      </c>
+      <c r="BK192">
+        <v>1.34</v>
+      </c>
+      <c r="BL192">
+        <v>2.88</v>
+      </c>
+      <c r="BM192">
+        <v>1.6</v>
+      </c>
+      <c r="BN192">
+        <v>2.19</v>
+      </c>
+      <c r="BO192">
+        <v>2.02</v>
+      </c>
+      <c r="BP192">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -631,13 +631,13 @@
     <t>['26', '45+7', '85']</t>
   </si>
   <si>
-    <t>['5', '78']</t>
+    <t>['74']</t>
   </si>
   <si>
     <t>['10']</t>
   </si>
   <si>
-    <t>['74']</t>
+    <t>['5', '78']</t>
   </si>
   <si>
     <t>['36', '70']</t>
@@ -916,22 +916,22 @@
     <t>['6', '80']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
-    <t>['67']</t>
+    <t>['49', '72', '82']</t>
   </si>
   <si>
-    <t>['49', '72', '82']</t>
+    <t>['33', '62']</t>
   </si>
   <si>
     <t>['79', '81', '90+3']</t>
   </si>
   <si>
     <t>['49', '81']</t>
-  </si>
-  <si>
-    <t>['33', '62']</t>
   </si>
   <si>
     <t>['1', '34', '87']</t>
@@ -38799,7 +38799,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>6671704</v>
+        <v>6671707</v>
       </c>
       <c r="C183" t="s">
         <v>68</v>
@@ -38814,190 +38814,190 @@
         <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H183" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
         <v>1</v>
       </c>
       <c r="K183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M183">
         <v>1</v>
       </c>
       <c r="N183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O183" t="s">
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="Q183">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="R183">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="T183">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U183">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V183">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W183">
+        <v>1.3</v>
+      </c>
+      <c r="X183">
+        <v>10</v>
+      </c>
+      <c r="Y183">
+        <v>1.06</v>
+      </c>
+      <c r="Z183">
+        <v>2.38</v>
+      </c>
+      <c r="AA183">
+        <v>3.3</v>
+      </c>
+      <c r="AB183">
+        <v>2.81</v>
+      </c>
+      <c r="AC183">
+        <v>1.06</v>
+      </c>
+      <c r="AD183">
+        <v>9.5</v>
+      </c>
+      <c r="AE183">
         <v>1.4</v>
       </c>
-      <c r="X183">
-        <v>7</v>
-      </c>
-      <c r="Y183">
-        <v>1.1</v>
-      </c>
-      <c r="Z183">
-        <v>1.75</v>
-      </c>
-      <c r="AA183">
-        <v>3.75</v>
-      </c>
-      <c r="AB183">
-        <v>4.15</v>
-      </c>
-      <c r="AC183">
-        <v>1.04</v>
-      </c>
-      <c r="AD183">
-        <v>12</v>
-      </c>
-      <c r="AE183">
+      <c r="AF183">
+        <v>2.95</v>
+      </c>
+      <c r="AG183">
+        <v>2.14</v>
+      </c>
+      <c r="AH183">
+        <v>1.66</v>
+      </c>
+      <c r="AI183">
+        <v>1.95</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.42</v>
+      </c>
+      <c r="AL183">
         <v>1.25</v>
       </c>
-      <c r="AF183">
-        <v>3.75</v>
-      </c>
-      <c r="AG183">
-        <v>1.86</v>
-      </c>
-      <c r="AH183">
-        <v>2</v>
-      </c>
-      <c r="AI183">
-        <v>1.8</v>
-      </c>
-      <c r="AJ183">
-        <v>1.95</v>
-      </c>
-      <c r="AK183">
-        <v>1.18</v>
-      </c>
-      <c r="AL183">
-        <v>1.22</v>
-      </c>
       <c r="AM183">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="AN183">
         <v>1.07</v>
       </c>
       <c r="AO183">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="AP183">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ183">
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="AR183">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AS183">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AT183">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
       <c r="AU183">
         <v>5</v>
       </c>
       <c r="AV183">
+        <v>5</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>9</v>
+      </c>
+      <c r="AY183">
+        <v>10</v>
+      </c>
+      <c r="AZ183">
+        <v>14</v>
+      </c>
+      <c r="BA183">
         <v>4</v>
       </c>
-      <c r="AW183">
-        <v>3</v>
-      </c>
-      <c r="AX183">
-        <v>5</v>
-      </c>
-      <c r="AY183">
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
         <v>8</v>
       </c>
-      <c r="AZ183">
-        <v>9</v>
-      </c>
-      <c r="BA183">
-        <v>2</v>
-      </c>
-      <c r="BB183">
+      <c r="BD183">
+        <v>1.95</v>
+      </c>
+      <c r="BE183">
         <v>8</v>
       </c>
-      <c r="BC183">
-        <v>10</v>
-      </c>
-      <c r="BD183">
-        <v>1.51</v>
-      </c>
-      <c r="BE183">
-        <v>9</v>
-      </c>
       <c r="BF183">
-        <v>3.06</v>
+        <v>2.1</v>
       </c>
       <c r="BG183">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="BH183">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="BI183">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="BJ183">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="BK183">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="BL183">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="BM183">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="BN183">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="BO183">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="BP183">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="184" spans="1:68">
@@ -39047,7 +39047,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39211,7 +39211,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>6671707</v>
+        <v>6671704</v>
       </c>
       <c r="C185" t="s">
         <v>68</v>
@@ -39226,190 +39226,190 @@
         <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H185" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185">
         <v>1</v>
       </c>
       <c r="K185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185">
         <v>1</v>
       </c>
       <c r="N185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O185" t="s">
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="Q185">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S185">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T185">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U185">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V185">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W185">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X185">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y185">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z185">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="AA185">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AB185">
-        <v>2.81</v>
+        <v>4.15</v>
       </c>
       <c r="AC185">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD185">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AE185">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AF185">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="AG185">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="AH185">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="AI185">
+        <v>1.8</v>
+      </c>
+      <c r="AJ185">
         <v>1.95</v>
       </c>
-      <c r="AJ185">
-        <v>1.8</v>
-      </c>
       <c r="AK185">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AL185">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM185">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AN185">
         <v>1.07</v>
       </c>
       <c r="AO185">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AP185">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="AR185">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS185">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT185">
-        <v>2.44</v>
+        <v>2.49</v>
       </c>
       <c r="AU185">
         <v>5</v>
       </c>
       <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>3</v>
+      </c>
+      <c r="AX185">
         <v>5</v>
       </c>
-      <c r="AW185">
-        <v>5</v>
-      </c>
-      <c r="AX185">
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
         <v>9</v>
       </c>
-      <c r="AY185">
+      <c r="BA185">
+        <v>2</v>
+      </c>
+      <c r="BB185">
+        <v>8</v>
+      </c>
+      <c r="BC185">
         <v>10</v>
       </c>
-      <c r="AZ185">
-        <v>14</v>
-      </c>
-      <c r="BA185">
-        <v>4</v>
-      </c>
-      <c r="BB185">
-        <v>4</v>
-      </c>
-      <c r="BC185">
-        <v>8</v>
-      </c>
       <c r="BD185">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="BE185">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF185">
-        <v>2.1</v>
+        <v>3.06</v>
       </c>
       <c r="BG185">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="BH185">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="BI185">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="BJ185">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="BK185">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="BL185">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="BM185">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="BN185">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="BO185">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="BP185">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="186" spans="1:68">
@@ -39623,7 +39623,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>6671710</v>
+        <v>6671715</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39638,190 +39638,190 @@
         <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187">
         <v>1</v>
       </c>
       <c r="L187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
         <v>3</v>
       </c>
-      <c r="N187">
-        <v>5</v>
-      </c>
       <c r="O187" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="P187" t="s">
         <v>303</v>
       </c>
       <c r="Q187">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R187">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S187">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T187">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U187">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V187">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W187">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X187">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y187">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z187">
-        <v>2.29</v>
+        <v>2.63</v>
       </c>
       <c r="AA187">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AB187">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="AC187">
         <v>1.04</v>
       </c>
       <c r="AD187">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AE187">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF187">
-        <v>3.75</v>
+        <v>2.93</v>
       </c>
       <c r="AG187">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="AH187">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AI187">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ187">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK187">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AL187">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AM187">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AN187">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AO187">
-        <v>1.07</v>
+        <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AQ187">
-        <v>1.19</v>
+        <v>1.88</v>
       </c>
       <c r="AR187">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AS187">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AU187">
+        <v>2</v>
+      </c>
+      <c r="AV187">
         <v>3</v>
       </c>
-      <c r="AV187">
+      <c r="AW187">
+        <v>4</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
         <v>6</v>
       </c>
-      <c r="AW187">
-        <v>2</v>
-      </c>
-      <c r="AX187">
-        <v>9</v>
-      </c>
-      <c r="AY187">
-        <v>5</v>
-      </c>
       <c r="AZ187">
+        <v>8</v>
+      </c>
+      <c r="BA187">
+        <v>8</v>
+      </c>
+      <c r="BB187">
+        <v>7</v>
+      </c>
+      <c r="BC187">
         <v>15</v>
       </c>
-      <c r="BA187">
-        <v>3</v>
-      </c>
-      <c r="BB187">
-        <v>11</v>
-      </c>
-      <c r="BC187">
-        <v>14</v>
-      </c>
       <c r="BD187">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="BE187">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF187">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="BG187">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="BH187">
-        <v>4.75</v>
+        <v>5.05</v>
       </c>
       <c r="BI187">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ187">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="BK187">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BL187">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="BM187">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="BN187">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BO187">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="BP187">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39829,7 +39829,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>6671711</v>
+        <v>6671710</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39844,43 +39844,43 @@
         <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H188" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O188" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P188" t="s">
         <v>304</v>
       </c>
       <c r="Q188">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="R188">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S188">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="T188">
         <v>1.36</v>
@@ -39895,139 +39895,139 @@
         <v>1.4</v>
       </c>
       <c r="X188">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y188">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z188">
-        <v>1.51</v>
+        <v>2.29</v>
       </c>
       <c r="AA188">
-        <v>4.15</v>
+        <v>3.55</v>
       </c>
       <c r="AB188">
-        <v>5.7</v>
+        <v>2.78</v>
       </c>
       <c r="AC188">
         <v>1.04</v>
       </c>
       <c r="AD188">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE188">
         <v>1.28</v>
       </c>
       <c r="AF188">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AG188">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AH188">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AI188">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AJ188">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AK188">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="AL188">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM188">
-        <v>2.55</v>
+        <v>1.63</v>
       </c>
       <c r="AN188">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AO188">
-        <v>0.67</v>
+        <v>1.07</v>
       </c>
       <c r="AP188">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AQ188">
-        <v>0.8100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="AR188">
         <v>1.37</v>
       </c>
       <c r="AS188">
-        <v>0.9399999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="AT188">
-        <v>2.31</v>
+        <v>2.57</v>
       </c>
       <c r="AU188">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>2</v>
+      </c>
+      <c r="AX188">
+        <v>9</v>
+      </c>
+      <c r="AY188">
+        <v>5</v>
+      </c>
+      <c r="AZ188">
+        <v>15</v>
+      </c>
+      <c r="BA188">
         <v>3</v>
       </c>
-      <c r="AW188">
-        <v>5</v>
-      </c>
-      <c r="AX188">
-        <v>2</v>
-      </c>
-      <c r="AY188">
-        <v>12</v>
-      </c>
-      <c r="AZ188">
-        <v>5</v>
-      </c>
-      <c r="BA188">
-        <v>13</v>
-      </c>
       <c r="BB188">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BC188">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD188">
+        <v>1.84</v>
+      </c>
+      <c r="BE188">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF188">
+        <v>2.3</v>
+      </c>
+      <c r="BG188">
+        <v>1.13</v>
+      </c>
+      <c r="BH188">
+        <v>4.75</v>
+      </c>
+      <c r="BI188">
         <v>1.28</v>
       </c>
-      <c r="BE188">
-        <v>11</v>
-      </c>
-      <c r="BF188">
-        <v>4.69</v>
-      </c>
-      <c r="BG188">
-        <v>1.21</v>
-      </c>
-      <c r="BH188">
-        <v>3.74</v>
-      </c>
-      <c r="BI188">
-        <v>1.42</v>
-      </c>
       <c r="BJ188">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BK188">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="BL188">
-        <v>2.01</v>
+        <v>2.36</v>
       </c>
       <c r="BM188">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="BN188">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="BO188">
-        <v>2.88</v>
+        <v>2.41</v>
       </c>
       <c r="BP188">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40035,7 +40035,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>6671712</v>
+        <v>6671711</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40050,10 +40050,10 @@
         <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H189" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -40068,25 +40068,25 @@
         <v>1</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O189" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="Q189">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R189">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S189">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T189">
         <v>1.36</v>
@@ -40095,25 +40095,25 @@
         <v>3</v>
       </c>
       <c r="V189">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W189">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X189">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y189">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z189">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AA189">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AB189">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC189">
         <v>1.04</v>
@@ -40122,118 +40122,118 @@
         <v>12</v>
       </c>
       <c r="AE189">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF189">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AG189">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="AH189">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AI189">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ189">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK189">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AL189">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AM189">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AN189">
-        <v>1.94</v>
+        <v>1.38</v>
       </c>
       <c r="AO189">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>0.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR189">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AS189">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT189">
-        <v>2.6</v>
+        <v>2.31</v>
       </c>
       <c r="AU189">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
         <v>5</v>
       </c>
-      <c r="AW189">
-        <v>4</v>
-      </c>
       <c r="AX189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY189">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ189">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA189">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BB189">
         <v>3</v>
       </c>
       <c r="BC189">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD189">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="BE189">
-        <v>13.2</v>
+        <v>11</v>
       </c>
       <c r="BF189">
-        <v>6.12</v>
+        <v>4.69</v>
       </c>
       <c r="BG189">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="BH189">
-        <v>4.6</v>
+        <v>3.74</v>
       </c>
       <c r="BI189">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="BJ189">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="BK189">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="BL189">
-        <v>2.32</v>
+        <v>2.01</v>
       </c>
       <c r="BM189">
-        <v>1.95</v>
+        <v>2.19</v>
       </c>
       <c r="BN189">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="BO189">
-        <v>2.44</v>
+        <v>2.88</v>
       </c>
       <c r="BP189">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40241,7 +40241,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>6671713</v>
+        <v>6671712</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40256,10 +40256,10 @@
         <v>32</v>
       </c>
       <c r="G190" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H190" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -40271,175 +40271,175 @@
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190">
         <v>0</v>
       </c>
       <c r="N190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="P190" t="s">
         <v>84</v>
       </c>
       <c r="Q190">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="R190">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S190">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="T190">
+        <v>1.36</v>
+      </c>
+      <c r="U190">
+        <v>3</v>
+      </c>
+      <c r="V190">
+        <v>2.63</v>
+      </c>
+      <c r="W190">
         <v>1.44</v>
       </c>
-      <c r="U190">
-        <v>2.63</v>
-      </c>
-      <c r="V190">
-        <v>3.25</v>
-      </c>
-      <c r="W190">
-        <v>1.33</v>
-      </c>
       <c r="X190">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y190">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z190">
-        <v>3.3</v>
+        <v>1.49</v>
       </c>
       <c r="AA190">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AB190">
-        <v>2.11</v>
+        <v>5.8</v>
       </c>
       <c r="AC190">
+        <v>1.04</v>
+      </c>
+      <c r="AD190">
+        <v>12</v>
+      </c>
+      <c r="AE190">
+        <v>1.25</v>
+      </c>
+      <c r="AF190">
+        <v>3.75</v>
+      </c>
+      <c r="AG190">
+        <v>1.92</v>
+      </c>
+      <c r="AH190">
+        <v>1.96</v>
+      </c>
+      <c r="AI190">
+        <v>1.95</v>
+      </c>
+      <c r="AJ190">
+        <v>1.8</v>
+      </c>
+      <c r="AK190">
+        <v>1.1</v>
+      </c>
+      <c r="AL190">
+        <v>1.17</v>
+      </c>
+      <c r="AM190">
+        <v>2.65</v>
+      </c>
+      <c r="AN190">
+        <v>1.94</v>
+      </c>
+      <c r="AO190">
+        <v>0.5</v>
+      </c>
+      <c r="AP190">
+        <v>2</v>
+      </c>
+      <c r="AQ190">
+        <v>0.47</v>
+      </c>
+      <c r="AR190">
+        <v>1.54</v>
+      </c>
+      <c r="AS190">
         <v>1.06</v>
       </c>
-      <c r="AD190">
-        <v>10</v>
-      </c>
-      <c r="AE190">
-        <v>1.36</v>
-      </c>
-      <c r="AF190">
-        <v>3.2</v>
-      </c>
-      <c r="AG190">
-        <v>2.1</v>
-      </c>
-      <c r="AH190">
-        <v>1.65</v>
-      </c>
-      <c r="AI190">
-        <v>1.91</v>
-      </c>
-      <c r="AJ190">
-        <v>1.91</v>
-      </c>
-      <c r="AK190">
-        <v>1.75</v>
-      </c>
-      <c r="AL190">
-        <v>1.25</v>
-      </c>
-      <c r="AM190">
-        <v>1.3</v>
-      </c>
-      <c r="AN190">
-        <v>0.73</v>
-      </c>
-      <c r="AO190">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP190">
-        <v>0.75</v>
-      </c>
-      <c r="AQ190">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR190">
-        <v>1.14</v>
-      </c>
-      <c r="AS190">
-        <v>1.13</v>
-      </c>
       <c r="AT190">
-        <v>2.27</v>
+        <v>2.6</v>
       </c>
       <c r="AU190">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW190">
         <v>4</v>
       </c>
       <c r="AX190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY190">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ190">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC190">
         <v>7</v>
       </c>
       <c r="BD190">
-        <v>2.46</v>
+        <v>1.18</v>
       </c>
       <c r="BE190">
-        <v>8.800000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="BF190">
-        <v>1.77</v>
+        <v>6.12</v>
       </c>
       <c r="BG190">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="BH190">
-        <v>3.14</v>
+        <v>4.6</v>
       </c>
       <c r="BI190">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
       <c r="BJ190">
-        <v>2.27</v>
+        <v>3.08</v>
       </c>
       <c r="BK190">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="BL190">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="BM190">
-        <v>2.57</v>
+        <v>1.95</v>
       </c>
       <c r="BN190">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="BO190">
-        <v>3.48</v>
+        <v>2.44</v>
       </c>
       <c r="BP190">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40447,7 +40447,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>6671715</v>
+        <v>6671713</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40462,43 +40462,43 @@
         <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O191" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="Q191">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R191">
         <v>2.1</v>
       </c>
       <c r="S191">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T191">
         <v>1.44</v>
@@ -40519,133 +40519,133 @@
         <v>1.07</v>
       </c>
       <c r="Z191">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="AA191">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB191">
-        <v>2.56</v>
+        <v>2.11</v>
       </c>
       <c r="AC191">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD191">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AE191">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF191">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="AG191">
         <v>2.1</v>
       </c>
       <c r="AH191">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AI191">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ191">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK191">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AL191">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AM191">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>1.8</v>
+        <v>0.73</v>
       </c>
       <c r="AO191">
-        <v>1.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP191">
-        <v>1.69</v>
+        <v>0.75</v>
       </c>
       <c r="AQ191">
-        <v>1.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR191">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT191">
-        <v>2.65</v>
+        <v>2.27</v>
       </c>
       <c r="AU191">
         <v>2</v>
       </c>
       <c r="AV191">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW191">
         <v>4</v>
       </c>
       <c r="AX191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY191">
         <v>6</v>
       </c>
       <c r="AZ191">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA191">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BB191">
+        <v>5</v>
+      </c>
+      <c r="BC191">
         <v>7</v>
       </c>
-      <c r="BC191">
-        <v>15</v>
-      </c>
       <c r="BD191">
-        <v>2.03</v>
+        <v>2.46</v>
       </c>
       <c r="BE191">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF191">
-        <v>2.03</v>
+        <v>1.77</v>
       </c>
       <c r="BG191">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="BH191">
-        <v>5.05</v>
+        <v>3.14</v>
       </c>
       <c r="BI191">
-        <v>1.26</v>
+        <v>1.56</v>
       </c>
       <c r="BJ191">
-        <v>3.34</v>
+        <v>2.27</v>
       </c>
       <c r="BK191">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="BL191">
-        <v>2.47</v>
+        <v>1.8</v>
       </c>
       <c r="BM191">
-        <v>1.85</v>
+        <v>2.57</v>
       </c>
       <c r="BN191">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="BO191">
-        <v>2.29</v>
+        <v>3.48</v>
       </c>
       <c r="BP191">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="192" spans="1:68">

--- a/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Scotland Premiership_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,18 @@
     <t>['55', '86', '90+3']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['29', '32', '40', '45+6']</t>
+  </si>
+  <si>
+    <t>['52', '60', '86']</t>
+  </si>
+  <si>
+    <t>['47', '50', '69']</t>
+  </si>
+  <si>
     <t>['60', '90+5']</t>
   </si>
   <si>
@@ -662,9 +674,6 @@
   </si>
   <si>
     <t>['11', '29', '84']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['22', '26']</t>
@@ -935,6 +944,15 @@
   </si>
   <si>
     <t>['1', '34', '87']</t>
+  </si>
+  <si>
+    <t>['10', '22']</t>
+  </si>
+  <si>
+    <t>['23', '81']</t>
+  </si>
+  <si>
+    <t>['15', '89']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1573,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>1.44</v>
@@ -1633,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ2">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1761,7 +1779,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q3">
         <v>3.25</v>
@@ -1839,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2045,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2173,7 +2191,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2251,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
         <v>1.88</v>
@@ -2457,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ6">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2585,7 +2603,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2663,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2863,16 +2881,16 @@
         <v>1.8</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ8">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3075,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ9">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3278,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ10">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3409,7 +3427,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3481,16 +3499,16 @@
         <v>1.09</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ11">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3687,16 +3705,16 @@
         <v>2.05</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3821,7 +3839,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3893,16 +3911,16 @@
         <v>1.5</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ13">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4027,7 +4045,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4099,16 +4117,16 @@
         <v>1.06</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP14">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ14">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR14">
         <v>1.92</v>
@@ -4311,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ15">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR15">
         <v>2.29</v>
@@ -4439,7 +4457,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>2.3</v>
@@ -4514,13 +4532,13 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR16">
         <v>1.85</v>
@@ -4645,7 +4663,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4717,16 +4735,16 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ17">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4923,13 +4941,13 @@
         <v>1.35</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ18">
         <v>1.88</v>
@@ -5057,7 +5075,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5132,13 +5150,13 @@
         <v>3</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR19">
         <v>1.24</v>
@@ -5263,7 +5281,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>3.4</v>
@@ -5335,16 +5353,16 @@
         <v>1.44</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5469,7 +5487,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5541,16 +5559,16 @@
         <v>1.75</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ21">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR21">
         <v>1.21</v>
@@ -5675,7 +5693,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>3.25</v>
@@ -5747,16 +5765,16 @@
         <v>1.52</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ22">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.04</v>
@@ -5953,16 +5971,16 @@
         <v>1.6</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP23">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ23">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR23">
         <v>2.12</v>
@@ -6087,7 +6105,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>2.88</v>
@@ -6159,16 +6177,16 @@
         <v>1.57</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -6293,7 +6311,7 @@
         <v>84</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q25">
         <v>2.6</v>
@@ -6365,16 +6383,16 @@
         <v>1.77</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6499,7 +6517,7 @@
         <v>84</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6577,10 +6595,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ26">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR26">
         <v>1.11</v>
@@ -6777,16 +6795,16 @@
         <v>5</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP27">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ27">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>2.27</v>
@@ -6983,16 +7001,16 @@
         <v>1.78</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
       <c r="AP28">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR28">
         <v>1.11</v>
@@ -7117,7 +7135,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>3.2</v>
@@ -7189,16 +7207,16 @@
         <v>1.53</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ29">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR29">
         <v>1.31</v>
@@ -7323,7 +7341,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7395,16 +7413,16 @@
         <v>1.65</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO30">
         <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR30">
         <v>1.42</v>
@@ -7529,7 +7547,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7604,13 +7622,13 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ31">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7735,7 +7753,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>8</v>
@@ -7807,16 +7825,16 @@
         <v>1.04</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO32">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ32">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR32">
         <v>1.24</v>
@@ -8013,13 +8031,13 @@
         <v>1.51</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP33">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33">
         <v>1.88</v>
@@ -8219,16 +8237,16 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
         <v>1.61</v>
@@ -8353,7 +8371,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8425,16 +8443,16 @@
         <v>1.5</v>
       </c>
       <c r="AN35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR35">
         <v>1.14</v>
@@ -8631,16 +8649,16 @@
         <v>1.9</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ36">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR36">
         <v>1.19</v>
@@ -8837,16 +8855,16 @@
         <v>3.9</v>
       </c>
       <c r="AN37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ37">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR37">
         <v>1.9</v>
@@ -8971,7 +8989,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>7.5</v>
@@ -9043,16 +9061,16 @@
         <v>1.07</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO38">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AP38">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ38">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR38">
         <v>1.57</v>
@@ -9249,16 +9267,16 @@
         <v>2.1</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO39">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ39">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.77</v>
@@ -9455,16 +9473,16 @@
         <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO40">
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR40">
         <v>1.44</v>
@@ -9589,7 +9607,7 @@
         <v>109</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>1.67</v>
@@ -9664,13 +9682,13 @@
         <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP41">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ41">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR41">
         <v>1.85</v>
@@ -9795,7 +9813,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3.4</v>
@@ -9867,13 +9885,13 @@
         <v>1.42</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP42">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ42">
         <v>1.88</v>
@@ -10076,13 +10094,13 @@
         <v>0.33</v>
       </c>
       <c r="AO43">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ43">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10207,7 +10225,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>1.53</v>
@@ -10279,16 +10297,16 @@
         <v>5.5</v>
       </c>
       <c r="AN44">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AO44">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ44">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR44">
         <v>2.25</v>
@@ -10485,16 +10503,16 @@
         <v>1.41</v>
       </c>
       <c r="AN45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ45">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10619,7 +10637,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10691,16 +10709,16 @@
         <v>1.66</v>
       </c>
       <c r="AN46">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -10825,7 +10843,7 @@
         <v>84</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>6.5</v>
@@ -10897,16 +10915,16 @@
         <v>1.09</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP47">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ47">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -11103,16 +11121,16 @@
         <v>2.35</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ48">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11237,7 +11255,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>2.63</v>
@@ -11309,16 +11327,16 @@
         <v>1.82</v>
       </c>
       <c r="AN49">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AO49">
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ49">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -11515,16 +11533,16 @@
         <v>2.87</v>
       </c>
       <c r="AN50">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO50">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP50">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ50">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR50">
         <v>1.91</v>
@@ -11649,7 +11667,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11721,16 +11739,16 @@
         <v>1.13</v>
       </c>
       <c r="AN51">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AP51">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ51">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -11927,16 +11945,16 @@
         <v>1.57</v>
       </c>
       <c r="AN52">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO52">
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR52">
         <v>1.05</v>
@@ -12133,16 +12151,16 @@
         <v>2.25</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AO53">
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR53">
         <v>1.16</v>
@@ -12267,7 +12285,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>2.6</v>
@@ -12339,16 +12357,16 @@
         <v>1.9</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO54">
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ54">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12473,7 +12491,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12545,16 +12563,16 @@
         <v>1.53</v>
       </c>
       <c r="AN55">
+        <v>1.11</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>0.55</v>
+      </c>
+      <c r="AQ55">
         <v>1.25</v>
-      </c>
-      <c r="AO55">
-        <v>0.5</v>
-      </c>
-      <c r="AP55">
-        <v>0.75</v>
-      </c>
-      <c r="AQ55">
-        <v>1.06</v>
       </c>
       <c r="AR55">
         <v>1.3</v>
@@ -12754,13 +12772,13 @@
         <v>1</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ56">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR56">
         <v>2</v>
@@ -12957,16 +12975,16 @@
         <v>1.53</v>
       </c>
       <c r="AN57">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ57">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13091,7 +13109,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>1.73</v>
@@ -13163,13 +13181,13 @@
         <v>3.4</v>
       </c>
       <c r="AN58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP58">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ58">
         <v>1.88</v>
@@ -13297,7 +13315,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q59">
         <v>2.2</v>
@@ -13375,10 +13393,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ59">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR59">
         <v>1.74</v>
@@ -13503,7 +13521,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13575,16 +13593,16 @@
         <v>1.47</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AO60">
         <v>1</v>
       </c>
       <c r="AP60">
+        <v>1.12</v>
+      </c>
+      <c r="AQ60">
         <v>1.06</v>
-      </c>
-      <c r="AQ60">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.46</v>
@@ -13709,7 +13727,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q61">
         <v>3.4</v>
@@ -13781,16 +13799,16 @@
         <v>1.44</v>
       </c>
       <c r="AN61">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP61">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ61">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR61">
         <v>0.96</v>
@@ -13987,16 +14005,16 @@
         <v>4.6</v>
       </c>
       <c r="AN62">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AO62">
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR62">
         <v>2.33</v>
@@ -14193,16 +14211,16 @@
         <v>2.05</v>
       </c>
       <c r="AN63">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AO63">
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR63">
         <v>1.32</v>
@@ -14327,7 +14345,7 @@
         <v>84</v>
       </c>
       <c r="P64" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>7.5</v>
@@ -14399,16 +14417,16 @@
         <v>1.07</v>
       </c>
       <c r="AN64">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AO64">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AP64">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR64">
         <v>1.26</v>
@@ -14533,7 +14551,7 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q65">
         <v>11</v>
@@ -14608,13 +14626,13 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AP65">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ65">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR65">
         <v>1.37</v>
@@ -14811,16 +14829,16 @@
         <v>1.55</v>
       </c>
       <c r="AN66">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ66">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR66">
         <v>1.48</v>
@@ -15017,16 +15035,16 @@
         <v>1.64</v>
       </c>
       <c r="AN67">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AO67">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AP67">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR67">
         <v>1.23</v>
@@ -15151,7 +15169,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15223,16 +15241,16 @@
         <v>1.42</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ68">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15357,7 +15375,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>3.3</v>
@@ -15429,16 +15447,16 @@
         <v>1.52</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO69">
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ69">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15635,16 +15653,16 @@
         <v>1.57</v>
       </c>
       <c r="AN70">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AO70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AP70">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15844,13 +15862,13 @@
         <v>1</v>
       </c>
       <c r="AO71">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR71">
         <v>1.61</v>
@@ -15975,7 +15993,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>3.25</v>
@@ -16047,13 +16065,13 @@
         <v>1.47</v>
       </c>
       <c r="AN72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO72">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AP72">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ72">
         <v>1.88</v>
@@ -16253,16 +16271,16 @@
         <v>1.45</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ73">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR73">
         <v>0.99</v>
@@ -16387,7 +16405,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -16459,16 +16477,16 @@
         <v>1.01</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO74">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AP74">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ74">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR74">
         <v>1.17</v>
@@ -16665,16 +16683,16 @@
         <v>4.33</v>
       </c>
       <c r="AN75">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AO75">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR75">
         <v>2.39</v>
@@ -16799,7 +16817,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>1.5</v>
@@ -16871,16 +16889,16 @@
         <v>5.5</v>
       </c>
       <c r="AN76">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ76">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR76">
         <v>2.44</v>
@@ -17077,16 +17095,16 @@
         <v>2.05</v>
       </c>
       <c r="AN77">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AO77">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AP77">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ77">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR77">
         <v>1.3</v>
@@ -17283,16 +17301,16 @@
         <v>1.37</v>
       </c>
       <c r="AN78">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AO78">
-        <v>0.33</v>
+        <v>1.23</v>
       </c>
       <c r="AP78">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ78">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR78">
         <v>1.2</v>
@@ -17489,16 +17507,16 @@
         <v>2.5</v>
       </c>
       <c r="AN79">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO79">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="AP79">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ79">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR79">
         <v>1.56</v>
@@ -17623,7 +17641,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17695,16 +17713,16 @@
         <v>1.53</v>
       </c>
       <c r="AN80">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AP80">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR80">
         <v>1.23</v>
@@ -17829,7 +17847,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>5.5</v>
@@ -17901,16 +17919,16 @@
         <v>1.15</v>
       </c>
       <c r="AN81">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AO81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ81">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR81">
         <v>1.24</v>
@@ -18107,16 +18125,16 @@
         <v>1.47</v>
       </c>
       <c r="AN82">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AP82">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -18241,7 +18259,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>3.2</v>
@@ -18313,13 +18331,13 @@
         <v>1.52</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="AO83">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ83">
         <v>1.88</v>
@@ -18447,7 +18465,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>2.88</v>
@@ -18519,16 +18537,16 @@
         <v>1.66</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP84">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ84">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
         <v>1.34</v>
@@ -18653,7 +18671,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -18725,16 +18743,16 @@
         <v>1.04</v>
       </c>
       <c r="AN85">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AO85">
-        <v>2.71</v>
+        <v>2.57</v>
       </c>
       <c r="AP85">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR85">
         <v>1</v>
@@ -18934,13 +18952,13 @@
         <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AP86">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ86">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR86">
         <v>1.54</v>
@@ -19137,16 +19155,16 @@
         <v>4</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AO87">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AP87">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR87">
         <v>2.04</v>
@@ -19343,16 +19361,16 @@
         <v>1.55</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP88">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ88">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR88">
         <v>1.21</v>
@@ -19549,16 +19567,16 @@
         <v>1.47</v>
       </c>
       <c r="AN89">
-        <v>1.13</v>
+        <v>0.79</v>
       </c>
       <c r="AO89">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AP89">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR89">
         <v>0.99</v>
@@ -19758,13 +19776,13 @@
         <v>1</v>
       </c>
       <c r="AO90">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AP90">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ90">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR90">
         <v>1.19</v>
@@ -19889,7 +19907,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>1.62</v>
@@ -19961,16 +19979,16 @@
         <v>4.5</v>
       </c>
       <c r="AN91">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
       <c r="AO91">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ91">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR91">
         <v>2.41</v>
@@ -20095,7 +20113,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -20167,16 +20185,16 @@
         <v>1.12</v>
       </c>
       <c r="AN92">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO92">
-        <v>2.29</v>
+        <v>2.21</v>
       </c>
       <c r="AP92">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR92">
         <v>1.57</v>
@@ -20301,7 +20319,7 @@
         <v>129</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20373,13 +20391,13 @@
         <v>1.44</v>
       </c>
       <c r="AN93">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="AO93">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ93">
         <v>1.88</v>
@@ -20507,7 +20525,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20579,16 +20597,16 @@
         <v>1.66</v>
       </c>
       <c r="AN94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO94">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="AP94">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ94">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR94">
         <v>1.31</v>
@@ -20713,7 +20731,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>1.57</v>
@@ -20785,16 +20803,16 @@
         <v>4.8</v>
       </c>
       <c r="AN95">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP95">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ95">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR95">
         <v>2.09</v>
@@ -20991,16 +21009,16 @@
         <v>1.68</v>
       </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO96">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AP96">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR96">
         <v>1.3</v>
@@ -21125,7 +21143,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>3.6</v>
@@ -21197,16 +21215,16 @@
         <v>1.37</v>
       </c>
       <c r="AN97">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AO97">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AP97">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ97">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
         <v>1.09</v>
@@ -21331,7 +21349,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>6.5</v>
@@ -21403,16 +21421,16 @@
         <v>1.1</v>
       </c>
       <c r="AN98">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ98">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR98">
         <v>1.55</v>
@@ -21609,16 +21627,16 @@
         <v>1.32</v>
       </c>
       <c r="AN99">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO99">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ99">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR99">
         <v>1.04</v>
@@ -21815,16 +21833,16 @@
         <v>1.72</v>
       </c>
       <c r="AN100">
-        <v>2.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO100">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP100">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ100">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR100">
         <v>1.33</v>
@@ -21949,7 +21967,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>2.88</v>
@@ -22021,16 +22039,16 @@
         <v>1.65</v>
       </c>
       <c r="AN101">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO101">
-        <v>0.86</v>
+        <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ101">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.25</v>
@@ -22227,16 +22245,16 @@
         <v>1.35</v>
       </c>
       <c r="AN102">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AO102">
-        <v>0.75</v>
+        <v>1.35</v>
       </c>
       <c r="AP102">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ102">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR102">
         <v>1.12</v>
@@ -22361,7 +22379,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q103">
         <v>1.67</v>
@@ -22433,13 +22451,13 @@
         <v>3.8</v>
       </c>
       <c r="AN103">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AO103">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AP103">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ103">
         <v>1.88</v>
@@ -22639,16 +22657,16 @@
         <v>5.8</v>
       </c>
       <c r="AN104">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AO104">
-        <v>0.43</v>
+        <v>1.06</v>
       </c>
       <c r="AP104">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ104">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR104">
         <v>2.1</v>
@@ -22773,7 +22791,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>2.25</v>
@@ -22845,16 +22863,16 @@
         <v>2.2</v>
       </c>
       <c r="AN105">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AO105">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP105">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ105">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -23051,16 +23069,16 @@
         <v>1.78</v>
       </c>
       <c r="AN106">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AO106">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="AP106">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23257,16 +23275,16 @@
         <v>6.5</v>
       </c>
       <c r="AN107">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="AO107">
-        <v>0.5600000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AP107">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ107">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR107">
         <v>2.43</v>
@@ -23463,16 +23481,16 @@
         <v>2.1</v>
       </c>
       <c r="AN108">
-        <v>1.89</v>
+        <v>1.33</v>
       </c>
       <c r="AO108">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ108">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR108">
         <v>1.55</v>
@@ -23597,7 +23615,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q109">
         <v>7.5</v>
@@ -23669,16 +23687,16 @@
         <v>1.12</v>
       </c>
       <c r="AN109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO109">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="AP109">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ109">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR109">
         <v>1.38</v>
@@ -23803,7 +23821,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -23875,16 +23893,16 @@
         <v>1.07</v>
       </c>
       <c r="AN110">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AO110">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="AP110">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR110">
         <v>1.29</v>
@@ -24081,16 +24099,16 @@
         <v>1.51</v>
       </c>
       <c r="AN111">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="AO111">
-        <v>0.33</v>
+        <v>0.95</v>
       </c>
       <c r="AP111">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ111">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>1.06</v>
@@ -24287,16 +24305,16 @@
         <v>1.46</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="AO112">
-        <v>0.78</v>
+        <v>1.42</v>
       </c>
       <c r="AP112">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ112">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR112">
         <v>1.31</v>
@@ -24421,7 +24439,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24493,13 +24511,13 @@
         <v>1.57</v>
       </c>
       <c r="AN113">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO113">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113">
         <v>1.88</v>
@@ -24699,16 +24717,16 @@
         <v>1.72</v>
       </c>
       <c r="AN114">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AO114">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="AP114">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ114">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR114">
         <v>2.44</v>
@@ -24833,7 +24851,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24905,16 +24923,16 @@
         <v>1.83</v>
       </c>
       <c r="AN115">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO115">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR115">
         <v>1.57</v>
@@ -25039,7 +25057,7 @@
         <v>157</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>2.55</v>
@@ -25111,16 +25129,16 @@
         <v>1.95</v>
       </c>
       <c r="AN116">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="AO116">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP116">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ116">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR116">
         <v>1.32</v>
@@ -25245,7 +25263,7 @@
         <v>84</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25317,16 +25335,16 @@
         <v>1.72</v>
       </c>
       <c r="AN117">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AO117">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AP117">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR117">
         <v>1.29</v>
@@ -25451,7 +25469,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>2.3</v>
@@ -25523,16 +25541,16 @@
         <v>2.15</v>
       </c>
       <c r="AN118">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AO118">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR118">
         <v>1.54</v>
@@ -25657,7 +25675,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25729,16 +25747,16 @@
         <v>1.38</v>
       </c>
       <c r="AN119">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AP119">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ119">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR119">
         <v>1.24</v>
@@ -25863,7 +25881,7 @@
         <v>125</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -25935,13 +25953,13 @@
         <v>1.3</v>
       </c>
       <c r="AN120">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AO120">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AP120">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ120">
         <v>1.88</v>
@@ -26069,7 +26087,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>2.6</v>
@@ -26141,16 +26159,16 @@
         <v>1.9</v>
       </c>
       <c r="AN121">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AO121">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ121">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR121">
         <v>1.45</v>
@@ -26347,16 +26365,16 @@
         <v>3.6</v>
       </c>
       <c r="AN122">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AO122">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP122">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ122">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR122">
         <v>2.17</v>
@@ -26481,7 +26499,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -26553,16 +26571,16 @@
         <v>1.06</v>
       </c>
       <c r="AN123">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AO123">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP123">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ123">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR123">
         <v>1.33</v>
@@ -26687,7 +26705,7 @@
         <v>161</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>2.38</v>
@@ -26759,16 +26777,16 @@
         <v>2.05</v>
       </c>
       <c r="AN124">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AO124">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AP124">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26893,7 +26911,7 @@
         <v>131</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -26965,16 +26983,16 @@
         <v>1.27</v>
       </c>
       <c r="AN125">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="AO125">
         <v>1.22</v>
       </c>
       <c r="AP125">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ125">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR125">
         <v>1.11</v>
@@ -27099,7 +27117,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -27171,16 +27189,16 @@
         <v>1.09</v>
       </c>
       <c r="AN126">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AO126">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AP126">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ126">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR126">
         <v>1.43</v>
@@ -27305,7 +27323,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q127">
         <v>7.5</v>
@@ -27377,16 +27395,16 @@
         <v>1.09</v>
       </c>
       <c r="AN127">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="AO127">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AP127">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ127">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR127">
         <v>1.24</v>
@@ -27511,7 +27529,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27583,16 +27601,16 @@
         <v>1.68</v>
       </c>
       <c r="AN128">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="AO128">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ128">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -27717,7 +27735,7 @@
         <v>131</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27789,16 +27807,16 @@
         <v>1.42</v>
       </c>
       <c r="AN129">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>1.16</v>
       </c>
       <c r="AP129">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ129">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR129">
         <v>1.12</v>
@@ -27923,7 +27941,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q130">
         <v>3.2</v>
@@ -27995,16 +28013,16 @@
         <v>1.57</v>
       </c>
       <c r="AN130">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="AO130">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ130">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR130">
         <v>1.16</v>
@@ -28201,16 +28219,16 @@
         <v>1.65</v>
       </c>
       <c r="AN131">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AO131">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AP131">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ131">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR131">
         <v>1.6</v>
@@ -28407,16 +28425,16 @@
         <v>6.5</v>
       </c>
       <c r="AN132">
+        <v>2.45</v>
+      </c>
+      <c r="AO132">
+        <v>0.95</v>
+      </c>
+      <c r="AP132">
         <v>2.36</v>
       </c>
-      <c r="AO132">
-        <v>0.78</v>
-      </c>
-      <c r="AP132">
-        <v>2.4</v>
-      </c>
       <c r="AQ132">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR132">
         <v>2.36</v>
@@ -28541,7 +28559,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q133">
         <v>2.3</v>
@@ -28613,16 +28631,16 @@
         <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AO133">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ133">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR133">
         <v>1.31</v>
@@ -28819,16 +28837,16 @@
         <v>1.62</v>
       </c>
       <c r="AN134">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="AO134">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AP134">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR134">
         <v>1.16</v>
@@ -29025,16 +29043,16 @@
         <v>1.09</v>
       </c>
       <c r="AN135">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AO135">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AP135">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ135">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29159,7 +29177,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29231,16 +29249,16 @@
         <v>1.38</v>
       </c>
       <c r="AN136">
-        <v>1.09</v>
+        <v>0.95</v>
       </c>
       <c r="AO136">
-        <v>0.91</v>
+        <v>1.39</v>
       </c>
       <c r="AP136">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ136">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR136">
         <v>1.3</v>
@@ -29437,16 +29455,16 @@
         <v>6.5</v>
       </c>
       <c r="AN137">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AO137">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="AP137">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ137">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR137">
         <v>2.16</v>
@@ -29571,7 +29589,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>3.1</v>
@@ -29643,16 +29661,16 @@
         <v>1.58</v>
       </c>
       <c r="AN138">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AO138">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ138">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
         <v>1.22</v>
@@ -29777,7 +29795,7 @@
         <v>171</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29849,13 +29867,13 @@
         <v>1.39</v>
       </c>
       <c r="AN139">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AO139">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AP139">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ139">
         <v>1.88</v>
@@ -29983,7 +30001,7 @@
         <v>84</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q140">
         <v>2.75</v>
@@ -30058,13 +30076,13 @@
         <v>1.18</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="AP140">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR140">
         <v>1.38</v>
@@ -30261,16 +30279,16 @@
         <v>1.7</v>
       </c>
       <c r="AN141">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AO141">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="AP141">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ141">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR141">
         <v>1.31</v>
@@ -30395,7 +30413,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q142">
         <v>1.73</v>
@@ -30467,16 +30485,16 @@
         <v>3.6</v>
       </c>
       <c r="AN142">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="AO142">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AP142">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ142">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR142">
         <v>2.22</v>
@@ -30673,16 +30691,16 @@
         <v>2.25</v>
       </c>
       <c r="AN143">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AO143">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ143">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR143">
         <v>1.49</v>
@@ -30807,7 +30825,7 @@
         <v>84</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>4.25</v>
@@ -30879,13 +30897,13 @@
         <v>1.28</v>
       </c>
       <c r="AN144">
-        <v>1.42</v>
+        <v>1.04</v>
       </c>
       <c r="AO144">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP144">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ144">
         <v>1.88</v>
@@ -31013,7 +31031,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>7.01</v>
@@ -31085,16 +31103,16 @@
         <v>1.07</v>
       </c>
       <c r="AN145">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AO145">
         <v>2.42</v>
       </c>
       <c r="AP145">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ145">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR145">
         <v>1.34</v>
@@ -31291,16 +31309,16 @@
         <v>1.63</v>
       </c>
       <c r="AN146">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO146">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AP146">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ146">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
         <v>1.22</v>
@@ -31425,7 +31443,7 @@
         <v>177</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>2.88</v>
@@ -31497,16 +31515,16 @@
         <v>1.6</v>
       </c>
       <c r="AN147">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AO147">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR147">
         <v>1.26</v>
@@ -31631,7 +31649,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q148">
         <v>1.57</v>
@@ -31703,16 +31721,16 @@
         <v>4.8</v>
       </c>
       <c r="AN148">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AO148">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP148">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ148">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR148">
         <v>2.22</v>
@@ -31837,7 +31855,7 @@
         <v>179</v>
       </c>
       <c r="P149" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q149">
         <v>2.3</v>
@@ -31909,16 +31927,16 @@
         <v>2</v>
       </c>
       <c r="AN149">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AO149">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="AP149">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ149">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR149">
         <v>1.27</v>
@@ -32115,16 +32133,16 @@
         <v>2.1</v>
       </c>
       <c r="AN150">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AO150">
-        <v>0.83</v>
+        <v>1.04</v>
       </c>
       <c r="AP150">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ150">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR150">
         <v>1.6</v>
@@ -32321,16 +32339,16 @@
         <v>1.91</v>
       </c>
       <c r="AN151">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AO151">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AP151">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32527,16 +32545,16 @@
         <v>4</v>
       </c>
       <c r="AN152">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="AO152">
-        <v>0.92</v>
+        <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ152">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR152">
         <v>2.32</v>
@@ -32733,16 +32751,16 @@
         <v>1.3</v>
       </c>
       <c r="AN153">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="AO153">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AP153">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR153">
         <v>1.19</v>
@@ -32867,7 +32885,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -32939,16 +32957,16 @@
         <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO154">
+        <v>1.08</v>
+      </c>
+      <c r="AP154">
+        <v>1.06</v>
+      </c>
+      <c r="AQ154">
         <v>1.18</v>
-      </c>
-      <c r="AP154">
-        <v>1.2</v>
-      </c>
-      <c r="AQ154">
-        <v>1.07</v>
       </c>
       <c r="AR154">
         <v>1.32</v>
@@ -33073,7 +33091,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -33145,16 +33163,16 @@
         <v>1.05</v>
       </c>
       <c r="AN155">
-        <v>1.31</v>
+        <v>0.96</v>
       </c>
       <c r="AO155">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="AP155">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ155">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR155">
         <v>1.13</v>
@@ -33279,7 +33297,7 @@
         <v>185</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -33351,16 +33369,16 @@
         <v>1.65</v>
       </c>
       <c r="AN156">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO156">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AP156">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ156">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR156">
         <v>1.24</v>
@@ -33557,16 +33575,16 @@
         <v>1.83</v>
       </c>
       <c r="AN157">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AO157">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AP157">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ157">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR157">
         <v>1.33</v>
@@ -33763,16 +33781,16 @@
         <v>1.73</v>
       </c>
       <c r="AN158">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO158">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR158">
         <v>1.5</v>
@@ -33969,13 +33987,13 @@
         <v>3.65</v>
       </c>
       <c r="AN159">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="AO159">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="AP159">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ159">
         <v>1.88</v>
@@ -34175,16 +34193,16 @@
         <v>1.95</v>
       </c>
       <c r="AN160">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="AO160">
-        <v>0.58</v>
+        <v>0.92</v>
       </c>
       <c r="AP160">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ160">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR160">
         <v>1.28</v>
@@ -34309,7 +34327,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q161">
         <v>7</v>
@@ -34381,16 +34399,16 @@
         <v>1.06</v>
       </c>
       <c r="AN161">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="AP161">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ161">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34587,16 +34605,16 @@
         <v>1.4</v>
       </c>
       <c r="AN162">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AO162">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="AP162">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ162">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34721,7 +34739,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q163">
         <v>2.3</v>
@@ -34793,16 +34811,16 @@
         <v>2.25</v>
       </c>
       <c r="AN163">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AO163">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ163">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR163">
         <v>1.42</v>
@@ -34999,16 +35017,16 @@
         <v>4.2</v>
       </c>
       <c r="AN164">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AP164">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AQ164">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR164">
         <v>2.27</v>
@@ -35133,7 +35151,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q165">
         <v>2.45</v>
@@ -35205,16 +35223,16 @@
         <v>1.85</v>
       </c>
       <c r="AN165">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AO165">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AP165">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ165">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35339,7 +35357,7 @@
         <v>138</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -35411,16 +35429,16 @@
         <v>1.1</v>
       </c>
       <c r="AN166">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AO166">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ166">
-        <v>2.43</v>
+        <v>2.31</v>
       </c>
       <c r="AR166">
         <v>1.55</v>
@@ -35545,7 +35563,7 @@
         <v>163</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>3.6</v>
@@ -35617,16 +35635,16 @@
         <v>1.42</v>
       </c>
       <c r="AN167">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="AO167">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="AP167">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ167">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR167">
         <v>1.17</v>
@@ -35751,7 +35769,7 @@
         <v>175</v>
       </c>
       <c r="P168" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>1.57</v>
@@ -35823,16 +35841,16 @@
         <v>5</v>
       </c>
       <c r="AN168">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="AO168">
-        <v>0.93</v>
+        <v>1.04</v>
       </c>
       <c r="AP168">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ168">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR168">
         <v>2.39</v>
@@ -36029,16 +36047,16 @@
         <v>1.57</v>
       </c>
       <c r="AN169">
-        <v>1.21</v>
+        <v>0.96</v>
       </c>
       <c r="AO169">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="AP169">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ169">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR169">
         <v>1.08</v>
@@ -36235,16 +36253,16 @@
         <v>1.52</v>
       </c>
       <c r="AN170">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="AO170">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP170">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ170">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36441,16 +36459,16 @@
         <v>2.25</v>
       </c>
       <c r="AN171">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AO171">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="AP171">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ171">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR171">
         <v>1.38</v>
@@ -36575,7 +36593,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36647,16 +36665,16 @@
         <v>1.55</v>
       </c>
       <c r="AN172">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO172">
-        <v>0.92</v>
+        <v>1.43</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR172">
         <v>1.34</v>
@@ -36853,16 +36871,16 @@
         <v>1.14</v>
       </c>
       <c r="AN173">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AO173">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AP173">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ173">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR173">
         <v>1.61</v>
@@ -37059,16 +37077,16 @@
         <v>1.46</v>
       </c>
       <c r="AN174">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="AO174">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="AP174">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ174">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR174">
         <v>1.35</v>
@@ -37193,7 +37211,7 @@
         <v>199</v>
       </c>
       <c r="P175" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37265,16 +37283,16 @@
         <v>1.44</v>
       </c>
       <c r="AN175">
-        <v>1.15</v>
+        <v>0.82</v>
       </c>
       <c r="AO175">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AP175">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ175">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR175">
         <v>1.23</v>
@@ -37399,7 +37417,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q176">
         <v>1.4</v>
@@ -37471,16 +37489,16 @@
         <v>5.5</v>
       </c>
       <c r="AN176">
+        <v>2.34</v>
+      </c>
+      <c r="AO176">
+        <v>0.97</v>
+      </c>
+      <c r="AP176">
         <v>2.36</v>
       </c>
-      <c r="AO176">
-        <v>0.71</v>
-      </c>
-      <c r="AP176">
-        <v>2.4</v>
-      </c>
       <c r="AQ176">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR176">
         <v>2.28</v>
@@ -37677,16 +37695,16 @@
         <v>2.6</v>
       </c>
       <c r="AN177">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AO177">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="AP177">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="AR177">
         <v>1.39</v>
@@ -37811,7 +37829,7 @@
         <v>202</v>
       </c>
       <c r="P178" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q178">
         <v>2.88</v>
@@ -37883,16 +37901,16 @@
         <v>1.72</v>
       </c>
       <c r="AN178">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="AO178">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="AP178">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR178">
         <v>1.53</v>
@@ -38089,16 +38107,16 @@
         <v>1.63</v>
       </c>
       <c r="AN179">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AO179">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AP179">
+        <v>1.12</v>
+      </c>
+      <c r="AQ179">
         <v>1.06</v>
-      </c>
-      <c r="AQ179">
-        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
         <v>1.33</v>
@@ -38223,7 +38241,7 @@
         <v>203</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>4.5</v>
@@ -38295,13 +38313,13 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AO180">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AP180">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
       <c r="AQ180">
         <v>1.88</v>
@@ -38501,16 +38519,16 @@
         <v>3.75</v>
       </c>
       <c r="AN181">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="AO181">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ181">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="AR181">
         <v>2.41</v>
@@ -38635,7 +38653,7 @@
         <v>175</v>
       </c>
       <c r="P182" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q182">
         <v>3.4</v>
@@ -38707,16 +38725,16 @@
         <v>1.47</v>
       </c>
       <c r="AN182">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AO182">
-        <v>0.93</v>
+        <v>1.24</v>
       </c>
       <c r="AP182">
-        <v>1.13</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ182">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AR182">
         <v>1.09</v>
@@ -38841,7 +38859,7 @@
         <v>205</v>
       </c>
       <c r="P183" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q183">
         <v>3.2</v>
@@ -38916,13 +38934,13 @@
         <v>1.07</v>
       </c>
       <c r="AO183">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP183">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AR183">
         <v>1.34</v>
@@ -39047,7 +39065,7 @@
         <v>206</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q184">
         <v>2.63</v>
@@ -39119,16 +39137,16 @@
         <v>1.83</v>
       </c>
       <c r="AN184">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AO184">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AP184">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ184">
-        <v>0.93</v>
+        <v>1.55</v>
       </c>
       <c r="AR184">
         <v>1.6</v>
@@ -39253,7 +39271,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q185">
         <v>2.3</v>
@@ -39325,16 +39343,16 @@
         <v>2.1</v>
       </c>
       <c r="AN185">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO185">
-        <v>0.53</v>
+        <v>0.9</v>
       </c>
       <c r="AP185">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ185">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR185">
         <v>1.44</v>
@@ -39459,7 +39477,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q186">
         <v>10</v>
@@ -39531,16 +39549,16 @@
         <v>1.02</v>
       </c>
       <c r="AN186">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
       <c r="AO186">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="AP186">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ186">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR186">
         <v>1.18</v>
@@ -39665,7 +39683,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -39737,13 +39755,13 @@
         <v>1.44</v>
       </c>
       <c r="AN187">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="AO187">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AP187">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="AQ187">
         <v>1.88</v>
@@ -39871,7 +39889,7 @@
         <v>208</v>
       </c>
       <c r="P188" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>3</v>
@@ -39943,16 +39961,16 @@
         <v>1.63</v>
       </c>
       <c r="AN188">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO188">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AP188">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AQ188">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AR188">
         <v>1.37</v>
@@ -40077,7 +40095,7 @@
         <v>209</v>
       </c>
       <c r="P189" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q189">
         <v>2.1</v>
@@ -40149,16 +40167,16 @@
         <v>2.55</v>
       </c>
       <c r="AN189">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AO189">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR189">
         <v>1.37</v>
@@ -40355,16 +40373,16 @@
         <v>2.65</v>
       </c>
       <c r="AN190">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="AO190">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AQ190">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
       <c r="AR190">
         <v>1.54</v>
@@ -40561,16 +40579,16 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="AO191">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AP191">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AQ191">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AR191">
         <v>1.14</v>
@@ -40695,7 +40713,7 @@
         <v>210</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q192">
         <v>2.88</v>
@@ -40767,16 +40785,16 @@
         <v>1.62</v>
       </c>
       <c r="AN192">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="AO192">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AP192">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AQ192">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="AR192">
         <v>2.39</v>
@@ -40852,6 +40870,1242 @@
       </c>
       <c r="BP192">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>6671719</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F193">
+        <v>33</v>
+      </c>
+      <c r="G193" t="s">
+        <v>81</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>211</v>
+      </c>
+      <c r="P193" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q193">
+        <v>3.4</v>
+      </c>
+      <c r="R193">
+        <v>2.2</v>
+      </c>
+      <c r="S193">
+        <v>3</v>
+      </c>
+      <c r="T193">
+        <v>1.36</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.63</v>
+      </c>
+      <c r="W193">
+        <v>1.44</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>2.8</v>
+      </c>
+      <c r="AA193">
+        <v>3.2</v>
+      </c>
+      <c r="AB193">
+        <v>2.33</v>
+      </c>
+      <c r="AC193">
+        <v>1.04</v>
+      </c>
+      <c r="AD193">
+        <v>12</v>
+      </c>
+      <c r="AE193">
+        <v>1.28</v>
+      </c>
+      <c r="AF193">
+        <v>3.6</v>
+      </c>
+      <c r="AG193">
+        <v>1.78</v>
+      </c>
+      <c r="AH193">
+        <v>1.97</v>
+      </c>
+      <c r="AI193">
+        <v>1.62</v>
+      </c>
+      <c r="AJ193">
+        <v>2.2</v>
+      </c>
+      <c r="AK193">
+        <v>1.55</v>
+      </c>
+      <c r="AL193">
+        <v>1.25</v>
+      </c>
+      <c r="AM193">
+        <v>1.44</v>
+      </c>
+      <c r="AN193">
+        <v>1.13</v>
+      </c>
+      <c r="AO193">
+        <v>1.19</v>
+      </c>
+      <c r="AP193">
+        <v>1.12</v>
+      </c>
+      <c r="AQ193">
+        <v>1.18</v>
+      </c>
+      <c r="AR193">
+        <v>1.33</v>
+      </c>
+      <c r="AS193">
+        <v>1.12</v>
+      </c>
+      <c r="AT193">
+        <v>2.45</v>
+      </c>
+      <c r="AU193">
+        <v>2</v>
+      </c>
+      <c r="AV193">
+        <v>5</v>
+      </c>
+      <c r="AW193">
+        <v>5</v>
+      </c>
+      <c r="AX193">
+        <v>4</v>
+      </c>
+      <c r="AY193">
+        <v>7</v>
+      </c>
+      <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>4</v>
+      </c>
+      <c r="BB193">
+        <v>6</v>
+      </c>
+      <c r="BC193">
+        <v>10</v>
+      </c>
+      <c r="BD193">
+        <v>1.9</v>
+      </c>
+      <c r="BE193">
+        <v>6.5</v>
+      </c>
+      <c r="BF193">
+        <v>2.35</v>
+      </c>
+      <c r="BG193">
+        <v>1.18</v>
+      </c>
+      <c r="BH193">
+        <v>4.33</v>
+      </c>
+      <c r="BI193">
+        <v>1.33</v>
+      </c>
+      <c r="BJ193">
+        <v>3</v>
+      </c>
+      <c r="BK193">
+        <v>1.54</v>
+      </c>
+      <c r="BL193">
+        <v>2.41</v>
+      </c>
+      <c r="BM193">
+        <v>1.88</v>
+      </c>
+      <c r="BN193">
+        <v>1.92</v>
+      </c>
+      <c r="BO193">
+        <v>2.35</v>
+      </c>
+      <c r="BP193">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>6671718</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F194">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>80</v>
+      </c>
+      <c r="H194" t="s">
+        <v>72</v>
+      </c>
+      <c r="I194">
+        <v>4</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="K194">
+        <v>6</v>
+      </c>
+      <c r="L194">
+        <v>4</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>6</v>
+      </c>
+      <c r="O194" t="s">
+        <v>212</v>
+      </c>
+      <c r="P194" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q194">
+        <v>1.91</v>
+      </c>
+      <c r="R194">
+        <v>2.4</v>
+      </c>
+      <c r="S194">
+        <v>7.5</v>
+      </c>
+      <c r="T194">
+        <v>1.33</v>
+      </c>
+      <c r="U194">
+        <v>3.25</v>
+      </c>
+      <c r="V194">
+        <v>2.5</v>
+      </c>
+      <c r="W194">
+        <v>1.5</v>
+      </c>
+      <c r="X194">
+        <v>6.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.11</v>
+      </c>
+      <c r="Z194">
+        <v>1.33</v>
+      </c>
+      <c r="AA194">
+        <v>4.7</v>
+      </c>
+      <c r="AB194">
+        <v>7</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>15</v>
+      </c>
+      <c r="AE194">
+        <v>1.22</v>
+      </c>
+      <c r="AF194">
+        <v>4.2</v>
+      </c>
+      <c r="AG194">
+        <v>1.76</v>
+      </c>
+      <c r="AH194">
+        <v>2</v>
+      </c>
+      <c r="AI194">
+        <v>2.05</v>
+      </c>
+      <c r="AJ194">
+        <v>1.7</v>
+      </c>
+      <c r="AK194">
+        <v>1.04</v>
+      </c>
+      <c r="AL194">
+        <v>1.16</v>
+      </c>
+      <c r="AM194">
+        <v>2.9</v>
+      </c>
+      <c r="AN194">
+        <v>1.84</v>
+      </c>
+      <c r="AO194">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP194">
+        <v>1.88</v>
+      </c>
+      <c r="AQ194">
+        <v>0.55</v>
+      </c>
+      <c r="AR194">
+        <v>1.61</v>
+      </c>
+      <c r="AS194">
+        <v>0.96</v>
+      </c>
+      <c r="AT194">
+        <v>2.57</v>
+      </c>
+      <c r="AU194">
+        <v>6</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>2</v>
+      </c>
+      <c r="AX194">
+        <v>4</v>
+      </c>
+      <c r="AY194">
+        <v>8</v>
+      </c>
+      <c r="AZ194">
+        <v>8</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>5</v>
+      </c>
+      <c r="BC194">
+        <v>10</v>
+      </c>
+      <c r="BD194">
+        <v>1.16</v>
+      </c>
+      <c r="BE194">
+        <v>12.75</v>
+      </c>
+      <c r="BF194">
+        <v>6.7</v>
+      </c>
+      <c r="BG194">
+        <v>1.2</v>
+      </c>
+      <c r="BH194">
+        <v>4</v>
+      </c>
+      <c r="BI194">
+        <v>1.33</v>
+      </c>
+      <c r="BJ194">
+        <v>3</v>
+      </c>
+      <c r="BK194">
+        <v>1.53</v>
+      </c>
+      <c r="BL194">
+        <v>2.4</v>
+      </c>
+      <c r="BM194">
+        <v>1.93</v>
+      </c>
+      <c r="BN194">
+        <v>1.86</v>
+      </c>
+      <c r="BO194">
+        <v>2.4</v>
+      </c>
+      <c r="BP194">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>6671721</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F195">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
+        <v>73</v>
+      </c>
+      <c r="H195" t="s">
+        <v>74</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>84</v>
+      </c>
+      <c r="P195" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q195">
+        <v>4.33</v>
+      </c>
+      <c r="R195">
+        <v>2.1</v>
+      </c>
+      <c r="S195">
+        <v>2.75</v>
+      </c>
+      <c r="T195">
+        <v>1.44</v>
+      </c>
+      <c r="U195">
+        <v>2.63</v>
+      </c>
+      <c r="V195">
+        <v>3.25</v>
+      </c>
+      <c r="W195">
+        <v>1.33</v>
+      </c>
+      <c r="X195">
+        <v>9</v>
+      </c>
+      <c r="Y195">
+        <v>1.07</v>
+      </c>
+      <c r="Z195">
+        <v>3.5</v>
+      </c>
+      <c r="AA195">
+        <v>3.2</v>
+      </c>
+      <c r="AB195">
+        <v>2</v>
+      </c>
+      <c r="AC195">
+        <v>1.03</v>
+      </c>
+      <c r="AD195">
+        <v>8.1</v>
+      </c>
+      <c r="AE195">
+        <v>1.33</v>
+      </c>
+      <c r="AF195">
+        <v>2.93</v>
+      </c>
+      <c r="AG195">
+        <v>2.08</v>
+      </c>
+      <c r="AH195">
+        <v>1.7</v>
+      </c>
+      <c r="AI195">
+        <v>1.95</v>
+      </c>
+      <c r="AJ195">
+        <v>1.8</v>
+      </c>
+      <c r="AK195">
+        <v>1.79</v>
+      </c>
+      <c r="AL195">
+        <v>1.31</v>
+      </c>
+      <c r="AM195">
+        <v>1.28</v>
+      </c>
+      <c r="AN195">
+        <v>0.97</v>
+      </c>
+      <c r="AO195">
+        <v>1.5</v>
+      </c>
+      <c r="AP195">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ195">
+        <v>1.55</v>
+      </c>
+      <c r="AR195">
+        <v>1.13</v>
+      </c>
+      <c r="AS195">
+        <v>1.28</v>
+      </c>
+      <c r="AT195">
+        <v>2.41</v>
+      </c>
+      <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
+        <v>6</v>
+      </c>
+      <c r="AW195">
+        <v>5</v>
+      </c>
+      <c r="AX195">
+        <v>8</v>
+      </c>
+      <c r="AY195">
+        <v>10</v>
+      </c>
+      <c r="AZ195">
+        <v>14</v>
+      </c>
+      <c r="BA195">
+        <v>2</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>8</v>
+      </c>
+      <c r="BD195">
+        <v>2.75</v>
+      </c>
+      <c r="BE195">
+        <v>8.9</v>
+      </c>
+      <c r="BF195">
+        <v>1.62</v>
+      </c>
+      <c r="BG195">
+        <v>1.22</v>
+      </c>
+      <c r="BH195">
+        <v>3.8</v>
+      </c>
+      <c r="BI195">
+        <v>1.38</v>
+      </c>
+      <c r="BJ195">
+        <v>2.8</v>
+      </c>
+      <c r="BK195">
+        <v>1.8</v>
+      </c>
+      <c r="BL195">
+        <v>2</v>
+      </c>
+      <c r="BM195">
+        <v>1.94</v>
+      </c>
+      <c r="BN195">
+        <v>1.85</v>
+      </c>
+      <c r="BO195">
+        <v>2.42</v>
+      </c>
+      <c r="BP195">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>6671716</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F196">
+        <v>33</v>
+      </c>
+      <c r="G196" t="s">
+        <v>79</v>
+      </c>
+      <c r="H196" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196" t="s">
+        <v>84</v>
+      </c>
+      <c r="P196" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q196">
+        <v>2.75</v>
+      </c>
+      <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
+        <v>4</v>
+      </c>
+      <c r="T196">
+        <v>1.4</v>
+      </c>
+      <c r="U196">
+        <v>2.75</v>
+      </c>
+      <c r="V196">
+        <v>3</v>
+      </c>
+      <c r="W196">
+        <v>1.36</v>
+      </c>
+      <c r="X196">
+        <v>8</v>
+      </c>
+      <c r="Y196">
+        <v>1.08</v>
+      </c>
+      <c r="Z196">
+        <v>2.05</v>
+      </c>
+      <c r="AA196">
+        <v>3.4</v>
+      </c>
+      <c r="AB196">
+        <v>3.15</v>
+      </c>
+      <c r="AC196">
+        <v>1.05</v>
+      </c>
+      <c r="AD196">
+        <v>11</v>
+      </c>
+      <c r="AE196">
+        <v>1.33</v>
+      </c>
+      <c r="AF196">
+        <v>3.25</v>
+      </c>
+      <c r="AG196">
+        <v>1.97</v>
+      </c>
+      <c r="AH196">
+        <v>1.78</v>
+      </c>
+      <c r="AI196">
+        <v>1.8</v>
+      </c>
+      <c r="AJ196">
+        <v>1.95</v>
+      </c>
+      <c r="AK196">
+        <v>1.33</v>
+      </c>
+      <c r="AL196">
+        <v>1.25</v>
+      </c>
+      <c r="AM196">
+        <v>1.75</v>
+      </c>
+      <c r="AN196">
+        <v>1.06</v>
+      </c>
+      <c r="AO196">
+        <v>1.26</v>
+      </c>
+      <c r="AP196">
+        <v>1.06</v>
+      </c>
+      <c r="AQ196">
+        <v>1.25</v>
+      </c>
+      <c r="AR196">
+        <v>1.43</v>
+      </c>
+      <c r="AS196">
+        <v>1.11</v>
+      </c>
+      <c r="AT196">
+        <v>2.54</v>
+      </c>
+      <c r="AU196">
+        <v>6</v>
+      </c>
+      <c r="AV196">
+        <v>4</v>
+      </c>
+      <c r="AW196">
+        <v>4</v>
+      </c>
+      <c r="AX196">
+        <v>9</v>
+      </c>
+      <c r="AY196">
+        <v>10</v>
+      </c>
+      <c r="AZ196">
+        <v>13</v>
+      </c>
+      <c r="BA196">
+        <v>3</v>
+      </c>
+      <c r="BB196">
+        <v>5</v>
+      </c>
+      <c r="BC196">
+        <v>8</v>
+      </c>
+      <c r="BD196">
+        <v>1.8</v>
+      </c>
+      <c r="BE196">
+        <v>7</v>
+      </c>
+      <c r="BF196">
+        <v>2.45</v>
+      </c>
+      <c r="BG196">
+        <v>1.15</v>
+      </c>
+      <c r="BH196">
+        <v>4.75</v>
+      </c>
+      <c r="BI196">
+        <v>1.29</v>
+      </c>
+      <c r="BJ196">
+        <v>3.4</v>
+      </c>
+      <c r="BK196">
+        <v>1.48</v>
+      </c>
+      <c r="BL196">
+        <v>2.5</v>
+      </c>
+      <c r="BM196">
+        <v>1.75</v>
+      </c>
+      <c r="BN196">
+        <v>2.04</v>
+      </c>
+      <c r="BO196">
+        <v>2.17</v>
+      </c>
+      <c r="BP196">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>6671717</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F197">
+        <v>33</v>
+      </c>
+      <c r="G197" t="s">
+        <v>70</v>
+      </c>
+      <c r="H197" t="s">
+        <v>76</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>213</v>
+      </c>
+      <c r="P197" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q197">
+        <v>1.57</v>
+      </c>
+      <c r="R197">
+        <v>3</v>
+      </c>
+      <c r="S197">
+        <v>9.5</v>
+      </c>
+      <c r="T197">
+        <v>1.22</v>
+      </c>
+      <c r="U197">
+        <v>4</v>
+      </c>
+      <c r="V197">
+        <v>2</v>
+      </c>
+      <c r="W197">
+        <v>1.73</v>
+      </c>
+      <c r="X197">
+        <v>4.33</v>
+      </c>
+      <c r="Y197">
+        <v>1.2</v>
+      </c>
+      <c r="Z197">
+        <v>1.2</v>
+      </c>
+      <c r="AA197">
+        <v>6.1</v>
+      </c>
+      <c r="AB197">
+        <v>10</v>
+      </c>
+      <c r="AC197">
+        <v>1.01</v>
+      </c>
+      <c r="AD197">
+        <v>28</v>
+      </c>
+      <c r="AE197">
+        <v>1.12</v>
+      </c>
